--- a/song_lyrics_data_it_with_scores.xlsx
+++ b/song_lyrics_data_it_with_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,57 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>scores_vader</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>positive_vader</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>sentiment</t>
+          <t>neutral_vader</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>negative_vader</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>compound_vader</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_vader</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>scores_textblob</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>polarity_textblob</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>subjectivity_textblob</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_textblob</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>sentimen_textblob</t>
         </is>
       </c>
     </row>
@@ -574,23 +614,49 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['punte', 'piedi', 'mhm', 'mhm', 'volevo', 'dirti', 'mhm', 'ico', 'due', 'favole', 'due', 'smetti', 'piangere', 'smettila', 'due', 'salutami', 'sai', 'guardassi', 'occhi', 'andresti', 'mai', 'bisogno', 'correre', 'mhm', 'sentirsi', 'vivo', 'accontenta', 'minimo', 'biglietto', 'frigo', 'mhm', 'ora', 'senti', 'minuscola', 'letto', 'sembra', 'grandissimo', 'sai', 'sai', 'might', 'also', 'like', 'due', 'vogliono', 'bene', 'amano', 'strano', 'cresciuti', 'assieme', 'due', 'vince', 'perde', 'mente', 'ammette', 'fare', 'finta', 'niente', 'niente', 'niente', 'niente', 'fare', 'finta', 'niente', 'vuoi', 'giuro', 'vuoi', 'urlo', 'sotto', 'diluvio', 'nessuno', 'stato', 'bello', 'rivederti', 'dopo', 'po', 'aspettavi', 'gente', 'fila', 'pi', 'adulto', 'prima', 'soliti', 'problemi', 'autostima', 'lavoro', 'casa', 'passato', 'conosciamo', 'pi', 'vedo', 'voglia', 'chiedermi', 'scusa', 'ricominciamo', 'conosci', 'sai', 'ritorna', 'pi', 'indietro', 'piuttosto', 'va', 'avanti', 'cocci', 'vetro', 'giro', 'vedo', 'giro', 'vedo', 'penso', 'sorrido', 'penso', 'sorrido', 'perch', 'capito', 'cosa', 'capito', 'serve', 'pi', 'averti', 'vicino', 'sai', 'sai', 'due', 'vogliono', 'bene', 'amano', 'strano', 'cresciuti', 'assieme', 'due', 'vince', 'perde', 'mente', 'ammette', 'fare', 'finta', 'niente', 'niente', 'niente', 'niente', 'fare', 'finta', 'niente', 'vuoi', 'giuro', 'oh', 'vuoi', 'urlo', 'oh', 'sotto', 'diluvio', 'nessuno', 'nessuno', 'giuro', 'giuro', 'nessuno']</t>
+          <t>['punte', 'piedi', 'mhm', 'mhm', 'volevo', 'dirti', 'mhm', 'ico', 'due', 'favole', 'due', 'smetti', 'piangere', 'smettila', 'due', 'salutami', 'sai', 'guardassi', 'occhi', 'andresti', 'bisogno', 'correre', 'mhm', 'sentirsi', 'vivo', 'accontenta', 'minimo', 'biglietto', 'frigo', 'mhm', 'ora', 'senti', 'minuscola', 'letto', 'sembra', 'grandissimo', 'sai', 'sai', 'might', 'also', 'like', 'due', 'vogliono', 'bene', 'amano', 'strano', 'cresciuti', 'assieme', 'due', 'vince', 'perde', 'mente', 'ammette', 'finta', 'niente', 'niente', 'niente', 'niente', 'finta', 'niente', 'vuoi', 'giuro', 'vuoi', 'urlo', 'diluvio', 'stato', 'bello', 'rivederti', 'po', 'aspettavi', 'gente', 'fila', 'pi', 'adulto', 'prima', 'soliti', 'problemi', 'autostima', 'lavoro', 'casa', 'passato', 'conosciamo', 'pi', 'vedo', 'voglia', 'chiedermi', 'scusa', 'ricominciamo', 'conosci', 'sai', 'ritorna', 'pi', 'indietro', 'va', 'avanti', 'cocci', 'vetro', 'giro', 'vedo', 'giro', 'vedo', 'penso', 'sorrido', 'penso', 'sorrido', 'perch', 'capito', 'cosa', 'capito', 'serve', 'pi', 'averti', 'vicino', 'sai', 'sai', 'due', 'vogliono', 'bene', 'amano', 'strano', 'cresciuti', 'assieme', 'due', 'vince', 'perde', 'mente', 'ammette', 'finta', 'niente', 'niente', 'niente', 'niente', 'finta', 'niente', 'vuoi', 'giuro', 'vuoi', 'urlo', 'diluvio', 'giuro', 'giuro']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>punte piedi mhm mhm volevo dirti mhm ico due favole due smetti piangere smettila due salutami sai guardassi occhi andresti mai bisogno correre mhm sentirsi vivo accontenta minimo biglietto frigo mhm ora senti minuscola letto sembra grandissimo sai sai might also like due vogliono bene amano strano cresciuti assieme due vince perde mente ammette fare finta niente niente niente niente fare finta niente vuoi giuro vuoi urlo sotto diluvio nessuno stato bello rivederti dopo po aspettavi gente fila pi adulto prima soliti problemi autostima lavoro casa passato conosciamo pi vedo voglia chiedermi scusa ricominciamo conosci sai ritorna pi indietro piuttosto va avanti cocci vetro giro vedo giro vedo penso sorrido penso sorrido perch capito cosa capito serve pi averti vicino sai sai due vogliono bene amano strano cresciuti assieme due vince perde mente ammette fare finta niente niente niente niente fare finta niente vuoi giuro oh vuoi urlo oh sotto diluvio nessuno nessuno giuro giuro nessuno</t>
+          <t>punte piedi mhm mhm volevo dirti mhm ico due favole due smetti piangere smettila due salutami sai guardassi occhi andresti bisogno correre mhm sentirsi vivo accontenta minimo biglietto frigo mhm ora senti minuscola letto sembra grandissimo sai sai might also like due vogliono bene amano strano cresciuti assieme due vince perde mente ammette finta niente niente niente niente finta niente vuoi giuro vuoi urlo diluvio stato bello rivederti po aspettavi gente fila pi adulto prima soliti problemi autostima lavoro casa passato conosciamo pi vedo voglia chiedermi scusa ricominciamo conosci sai ritorna pi indietro va avanti cocci vetro giro vedo giro vedo penso sorrido penso sorrido perch capito cosa capito serve pi averti vicino sai sai due vogliono bene amano strano cresciuti assieme due vince perde mente ammette finta niente niente niente niente finta niente vuoi giuro vuoi urlo diluvio giuro giuro</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'neg': 0.022, 'neu': 0.962, 'pos': 0.016, 'compound': -0.2732}</t>
+          <t>{'neg': 0.025, 'neu': 0.958, 'pos': 0.017, 'compound': -0.2732}</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K2" t="n">
         <v>-0.2732</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.125, subjectivity=0.375)</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -678,27 +744,53 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['dimmi', 'perch', 'quando', 'piove', 'forte', 'calmo', 'ricorda', 'genova', 'quell', 'anno', 'fatto', 'angeli', 'fango', 'fango', 'sanno', 'altri', 'guardano', 'guardano', 'guardo', 'mancano', 'mancano', 'manco', 'altri', 'sappiamo', 'entrambi', 'filo', 'rosso', 'unisce', 'vede', 'capisce', 'amore', 'fa', 'dormire', 'male', 'cinque', 'ore', 'pensarci', 'tutte', 'altre', 'diciannove', 'giuro', 'posso', 'pi', 'fare', 'meno', 'passare', 'far', 'rifare', 'guardaci', 'adesso', 'cosa', 'div', 'ntati', 'sconosciuti', 'innamorati', 'poi', 'innamorati', 'sconosciuti', 'tipo', 'passo', 'manco', 'saluti', 'might', 'also', 'like', 'cerco', 'stare', 'po', 'meglio', 'tieni', 'sveglio', 'molto', 'pi', 'nba', 'ora', 'solo', 'vodafone', 'scrivermi', 'ritornare', 'assieme', 'visto', 'fidanzato', 'quel', 'calciatore', 'mancato', 'dice', 'serie', 'mai', 'rotto', 'crociato', 'pensa', 'sfigato', 'altre', 'guardano', 'guardano', 'guardi', 'mancano', 'mancano', 'manchi', 'altre', 'discorso', 'parte', 'sentire', 'cuore', 'testa', 'gi', 'amore', 'fa', 'dormire', 'male', 'cinque', 'ore', 'pensarci', 'tutte', 'altre', 'diciannove', 'giuro', 'posso', 'pi', 'fare', 'meno', 'passare', 'fare', 'rifare', 'guardaci', 'adesso', 'cosa', 'diventati', 'sconosciuti', 'innamorati', 'poi', 'innamorati', 'sconosciuti', 'tipo', 'passo', 'manco', 'saluti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti']</t>
+          <t>['dimmi', 'perch', 'piove', 'forte', 'calmo', 'ricorda', 'genova', 'quell', 'anno', 'angeli', 'fango', 'fango', 'sanno', 'altri', 'guardano', 'guardano', 'guardo', 'mancano', 'mancano', 'manco', 'altri', 'sappiamo', 'entrambi', 'filo', 'rosso', 'unisce', 'vede', 'capisce', 'amore', 'fa', 'dormire', 'male', 'cinque', 'ore', 'pensarci', 'tutte', 'altre', 'diciannove', 'giuro', 'posso', 'pi', 'meno', 'passare', 'far', 'rifare', 'guardaci', 'adesso', 'cosa', 'div', 'ntati', 'sconosciuti', 'innamorati', 'poi', 'innamorati', 'sconosciuti', 'tipo', 'passo', 'manco', 'saluti', 'might', 'also', 'like', 'cerco', 'stare', 'po', 'meglio', 'tieni', 'sveglio', 'molto', 'pi', 'nba', 'ora', 'solo', 'vodafone', 'scrivermi', 'ritornare', 'assieme', 'visto', 'fidanzato', 'quel', 'calciatore', 'mancato', 'dice', 'serie', 'rotto', 'crociato', 'pensa', 'sfigato', 'altre', 'guardano', 'guardano', 'guardi', 'mancano', 'mancano', 'manchi', 'altre', 'discorso', 'parte', 'sentire', 'cuore', 'testa', 'gi', 'amore', 'fa', 'dormire', 'male', 'cinque', 'ore', 'pensarci', 'tutte', 'altre', 'diciannove', 'giuro', 'posso', 'pi', 'meno', 'passare', 'rifare', 'guardaci', 'adesso', 'cosa', 'diventati', 'sconosciuti', 'innamorati', 'poi', 'innamorati', 'sconosciuti', 'tipo', 'passo', 'manco', 'saluti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti', 'sconosciuti', 'innamorati', 'innamorati', 'sconosciuti']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>dimmi perch quando piove forte calmo ricorda genova quell anno fatto angeli fango fango sanno altri guardano guardano guardo mancano mancano manco altri sappiamo entrambi filo rosso unisce vede capisce amore fa dormire male cinque ore pensarci tutte altre diciannove giuro posso pi fare meno passare far rifare guardaci adesso cosa div ntati sconosciuti innamorati poi innamorati sconosciuti tipo passo manco saluti might also like cerco stare po meglio tieni sveglio molto pi nba ora solo vodafone scrivermi ritornare assieme visto fidanzato quel calciatore mancato dice serie mai rotto crociato pensa sfigato altre guardano guardano guardi mancano mancano manchi altre discorso parte sentire cuore testa gi amore fa dormire male cinque ore pensarci tutte altre diciannove giuro posso pi fare meno passare fare rifare guardaci adesso cosa diventati sconosciuti innamorati poi innamorati sconosciuti tipo passo manco saluti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti</t>
+          <t>dimmi perch piove forte calmo ricorda genova quell anno angeli fango fango sanno altri guardano guardano guardo mancano mancano manco altri sappiamo entrambi filo rosso unisce vede capisce amore fa dormire male cinque ore pensarci tutte altre diciannove giuro posso pi meno passare far rifare guardaci adesso cosa div ntati sconosciuti innamorati poi innamorati sconosciuti tipo passo manco saluti might also like cerco stare po meglio tieni sveglio molto pi nba ora solo vodafone scrivermi ritornare assieme visto fidanzato quel calciatore mancato dice serie rotto crociato pensa sfigato altre guardano guardano guardi mancano mancano manchi altre discorso parte sentire cuore testa gi amore fa dormire male cinque ore pensarci tutte altre diciannove giuro posso pi meno passare rifare guardaci adesso cosa diventati sconosciuti innamorati poi innamorati sconosciuti tipo passo manco saluti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti sconosciuti innamorati innamorati sconosciuti</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'neg': 0.021, 'neu': 0.965, 'pos': 0.014, 'compound': -0.2732}</t>
+          <t>{'neg': 0.022, 'neu': 0.963, 'pos': 0.015, 'compound': -0.2732}</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K3" t="n">
         <v>-0.2732</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.03333333333333333, subjectivity=0.4000000000000001)</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -767,23 +859,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['raccoglievo', 'lattine', 'paese', 'rivendevo', 'tizio', 'solo', 'pochi', 'centesimi', 'barbone', 'davvero', 'niente', 'niente', 'nonna', 'denti', 'pensi', 'stato', 'divertente', 'soldi', 'felicit', 'dice', 'contrario', 'mente', 'bugiardo', 'credere', 'bugiardo', 'tieni', 'mente', 'nulla', 'rimarr', 'sempre', 'devo', 'uscire', 'tunn', 'bene', 'tenebre', 'bus', 'scuola', 'passo', 'camionetta', 'penitenziaria', 'fa', 'foto', 'manette', 'fa', 'foto', 'ciapponano', 'ogni', 'giorno', 'gi', 'ta', 'taglio', 'plaquette', 'taglio', 'panetta', 'panetta', 'provato', 'pure', 'fare', 'palestra', 'piacciono', 'armi', 'piace', 'beretta', 'ah', 'ah', 'piace', 'quando', 'vado', 'bosco', 'testo', 'vado', 'matto', 'armi', 'uoh', 'mandan', 'fuori', 'testa', 'fuori', 'testa', 'piercing', 'capezzoli', 'giorno', 'prego', 'sparami', 'testa', 'tradisco', 'amico', 'piuttosto', 'taglio', 'cazzo', 'mangio', 'cazzo', 'pensi', 'dividevamo', 'ogni', 'giorno', 'piatto', 'captando', 'fumato', 'guida', 'sportiva', 'ferrari', 'sento', 'schumacher', 'vroom', 'vroom', 'qua', 'asciugando', 'smette', 'parlare', 'puttana', 'vuole', 'relazione', 'solo', 'svuotar', 'palle', 'uoh', 'uoh', 'might', 'also', 'like', 'bus', 'scuola', 'passo', 'camionetta', 'penitenziaria', 'fa', 'foto', 'manette', 'fa', 'foto', 'ciapponano', 'ogni', 'giorno', 'gi', 'uoh', 'ta', 'taglio', 'plaquette', 'taglio', 'panetta', 'uoh', 'uoh', 'uoh', 'provato', 'pure', 'fare', 'palestra', 'piacciono', 'armi', 'piace', 'beretta', 'canzoni', 'gangsta', 'piace', 'quando', 'vado', 'bosco', 'testo', 'vado', 'matto', 'armi', 'mandan', 'fuori', 'testa', 'fuori', 'testa', 'tagliavo', 'fumo', 'lametta', 'cazzo', 'puttana', 'maestra', 'pensava', 'diventassi', 'barbone', 'invece', 'nique', 'ta', 'invece', 'nique', 'ta', 'ferrari', 'rouge', 'uso', 'palette', 'sentire', 'v', 'schiaccio', 'vitesse', 'fino', 'fondo', 'sa', 'schianto', 'rs', 'fumo', 'tette', 'ferro', 'dentro', 'borsetta', 'sick', 'luke', 'sick', 'luke', 'f']</t>
+          <t>['raccoglievo', 'lattine', 'paese', 'rivendevo', 'tizio', 'solo', 'pochi', 'centesimi', 'barbone', 'davvero', 'niente', 'niente', 'nonna', 'denti', 'pensi', 'stato', 'divertente', 'soldi', 'felicit', 'dice', 'contrario', 'mente', 'bugiardo', 'credere', 'bugiardo', 'tieni', 'mente', 'nulla', 'rimarr', 'sempre', 'devo', 'uscire', 'tunn', 'bene', 'tenebre', 'bus', 'scuola', 'passo', 'camionetta', 'penitenziaria', 'fa', 'foto', 'manette', 'fa', 'foto', 'ciapponano', 'giorno', 'gi', 'ta', 'taglio', 'plaquette', 'taglio', 'panetta', 'panetta', 'provato', 'pure', 'palestra', 'piacciono', 'armi', 'piace', 'beretta', 'piace', 'vado', 'bosco', 'testo', 'vado', 'matto', 'armi', 'uoh', 'mandan', 'fuori', 'testa', 'fuori', 'testa', 'piercing', 'capezzoli', 'giorno', 'prego', 'sparami', 'testa', 'tradisco', 'amico', 'taglio', 'cazzo', 'mangio', 'cazzo', 'pensi', 'dividevamo', 'giorno', 'piatto', 'captando', 'fumato', 'guida', 'sportiva', 'ferrari', 'sento', 'schumacher', 'vroom', 'vroom', 'qua', 'asciugando', 'smette', 'parlare', 'puttana', 'vuole', 'relazione', 'solo', 'svuotar', 'palle', 'uoh', 'uoh', 'might', 'also', 'like', 'bus', 'scuola', 'passo', 'camionetta', 'penitenziaria', 'fa', 'foto', 'manette', 'fa', 'foto', 'ciapponano', 'giorno', 'gi', 'uoh', 'ta', 'taglio', 'plaquette', 'taglio', 'panetta', 'uoh', 'uoh', 'uoh', 'provato', 'pure', 'palestra', 'piacciono', 'armi', 'piace', 'beretta', 'canzoni', 'gangsta', 'piace', 'vado', 'bosco', 'testo', 'vado', 'matto', 'armi', 'mandan', 'fuori', 'testa', 'fuori', 'testa', 'tagliavo', 'fumo', 'lametta', 'cazzo', 'puttana', 'maestra', 'pensava', 'diventassi', 'barbone', 'invece', 'nique', 'ta', 'invece', 'nique', 'ta', 'ferrari', 'rouge', 'uso', 'palette', 'sentire', 'v', 'schiaccio', 'vitesse', 'fino', 'fondo', 'sa', 'schianto', 'rs', 'fumo', 'tette', 'ferro', 'dentro', 'borsetta', 'sick', 'luke', 'sick', 'luke', 'f']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>raccoglievo lattine paese rivendevo tizio solo pochi centesimi barbone davvero niente niente nonna denti pensi stato divertente soldi felicit dice contrario mente bugiardo credere bugiardo tieni mente nulla rimarr sempre devo uscire tunn bene tenebre bus scuola passo camionetta penitenziaria fa foto manette fa foto ciapponano ogni giorno gi ta taglio plaquette taglio panetta panetta provato pure fare palestra piacciono armi piace beretta ah ah piace quando vado bosco testo vado matto armi uoh mandan fuori testa fuori testa piercing capezzoli giorno prego sparami testa tradisco amico piuttosto taglio cazzo mangio cazzo pensi dividevamo ogni giorno piatto captando fumato guida sportiva ferrari sento schumacher vroom vroom qua asciugando smette parlare puttana vuole relazione solo svuotar palle uoh uoh might also like bus scuola passo camionetta penitenziaria fa foto manette fa foto ciapponano ogni giorno gi uoh ta taglio plaquette taglio panetta uoh uoh uoh provato pure fare palestra piacciono armi piace beretta canzoni gangsta piace quando vado bosco testo vado matto armi mandan fuori testa fuori testa tagliavo fumo lametta cazzo puttana maestra pensava diventassi barbone invece nique ta invece nique ta ferrari rouge uso palette sentire v schiaccio vitesse fino fondo sa schianto rs fumo tette ferro dentro borsetta sick luke sick luke f</t>
+          <t>raccoglievo lattine paese rivendevo tizio solo pochi centesimi barbone davvero niente niente nonna denti pensi stato divertente soldi felicit dice contrario mente bugiardo credere bugiardo tieni mente nulla rimarr sempre devo uscire tunn bene tenebre bus scuola passo camionetta penitenziaria fa foto manette fa foto ciapponano giorno gi ta taglio plaquette taglio panetta panetta provato pure palestra piacciono armi piace beretta piace vado bosco testo vado matto armi uoh mandan fuori testa fuori testa piercing capezzoli giorno prego sparami testa tradisco amico taglio cazzo mangio cazzo pensi dividevamo giorno piatto captando fumato guida sportiva ferrari sento schumacher vroom vroom qua asciugando smette parlare puttana vuole relazione solo svuotar palle uoh uoh might also like bus scuola passo camionetta penitenziaria fa foto manette fa foto ciapponano giorno gi uoh ta taglio plaquette taglio panetta uoh uoh uoh provato pure palestra piacciono armi piace beretta canzoni gangsta piace vado bosco testo vado matto armi mandan fuori testa fuori testa tagliavo fumo lametta cazzo puttana maestra pensava diventassi barbone invece nique ta invece nique ta ferrari rouge uso palette sentire v schiaccio vitesse fino fondo sa schianto rs fumo tette ferro dentro borsetta sick luke sick luke f</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'neg': 0.032, 'neu': 0.956, 'pos': 0.012, 'compound': -0.6249}</t>
+          <t>{'neg': 0.033, 'neu': 0.954, 'pos': 0.013, 'compound': -0.6249}</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="K4" t="n">
         <v>-0.6249</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.25, subjectivity=0.6785714285714286)</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -878,23 +996,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['g', 'g', 'girl', 'puoi', 'dirmi', 'cosa', 'guardi', 'capisco', 'odi', 'oppure', 'vuoi', 'baciarmi', 'muah', 'unica', 'dentro', 'party', 'guardando', 'guardano', 'maschi', 'addosso', 'tutina', 'tutta', 'glitterata', 'viene', 'serata', 'solamente', 'pi', 'figa', 'prima', 'sfigata', 'adesso', 'fa', 'sfilata', 'adesso', 'vera', 'bad', 'tutte', 'girls', 'amano', 'muah', 'tutte', 'girls', 'chiamano', 'drin', 'provato', 'avere', 'amiche', 'tutte', 'girls', 'infamano', 'ah', 'ah', 'davvero', 'pi', 'diavolo', 'know', 'parlo', 'cadere', 'domino', 'know', 'grido', 'v', 'monos', 'let', 'go', 'bevo', 'solito', 'let', 'go', 'panico', 'let', 'go', 'porto', 'pure', 'tutte', 'girls', 'ah', 'ah', 'uah', 'uah', 'voglion', 'stare', 'uoh', 'uoh', 'boy', 'ah', 'ah', 'bad', 'muah', 'sar', 'sex', 'appeal', 'ah', 'ah', 'fa', 'andare', 'mad', 'mhm', 'mhm', 'oppure', 'fake', 'bitch', 'ah', 'ah', 'bisogno', 'cash', 'mhm', 'mhm', 'uah', 'uah', 'uah', 'oh', 'uah', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'tiki', 'taka', 'ikta', 'tic', 'tac', 'corro', 'metto', 'zigzag', 'alzo', 'motocross', 'skrrt', 'girano', 'tutte', 'girls', 'skrrt', 'skrrt', 'giudicami', 'pare', 'piace', 'piace', 'troppe', 'bitch', 'manco', 'piscio', 'pace', 'pace', 'mollami', 'madre', 'madre', 'crocifisso', 'matchato', 'mutande', 'versace', 'sai', 'mille', 'tipe', 'dm', 'troppo', 'bono', 'ah', 'cosa', 'devo', 'dire', 'madre', 'fatto', 'playboy', 'playboy', 'vieni', 'annoi', 'ahah', 'muah', 'serve', 'solo', 'okay', 'poi', 'dici', 'vuoi', 'cavalco', 'cow', 'boy', 'boy', 'brr', 'amica', 'dice', 'puoi', 'gelosa', 'sai', 'vorrebbe', 'fare', 'ste', 'cose', 'far', 'mai', 'tutte', 'girls', 'ah', 'ah', 'uah', 'uah', 'voglion', 'stare', 'uoh', 'uoh', 'boy', 'ah', 'ah', 'bad', 'muah', 'sar', 'sex', 'appeal', 'ah', 'ah', 'fa', 'andare', 'mad', 'mhm', 'mhm', 'oppure', 'fake', 'bitch', 'ah', 'ah', 'bisogno', 'cash', 'mhm', 'mhm', 'lobi', 'giga', 'perle', 'cos', 'finiamo', 'sotto', 'coperte', 'baddie', 'passa', 'prendere', 'ancora', 'fatto', 'patente', 'tocco', 'co', 'pi', 'coco', 'cambio', 'face', 'emoticon', 'iconico', 'cori', 'mo', 'logico', 'voglion', 'tutte', 'girls', 'ah', 'ah', 'uah', 'uah', 'voglion', 'stare', 'uoh', 'uoh', 'boy', 'ah', 'ah', 'bad', 'muah', 'sar', 'sex', 'appeal', 'ah', 'ah', 'fa', 'andare', 'mad', 'mhm', 'mhm', 'oppure', 'fake', 'bitch', 'ah', 'ah', 'bisogno', 'cash', 'mhm', 'mhm', 'muah']</t>
+          <t>['g', 'g', 'girl', 'puoi', 'dirmi', 'cosa', 'guardi', 'capisco', 'odi', 'oppure', 'vuoi', 'baciarmi', 'muah', 'unica', 'dentro', 'party', 'guardando', 'guardano', 'maschi', 'addosso', 'tutina', 'tutta', 'glitterata', 'viene', 'serata', 'solamente', 'pi', 'figa', 'prima', 'sfigata', 'adesso', 'fa', 'sfilata', 'adesso', 'vera', 'bad', 'tutte', 'girls', 'amano', 'muah', 'tutte', 'girls', 'chiamano', 'drin', 'provato', 'avere', 'amiche', 'tutte', 'girls', 'infamano', 'davvero', 'pi', 'diavolo', 'know', 'parlo', 'cadere', 'domino', 'know', 'grido', 'v', 'monos', 'let', 'go', 'bevo', 'solito', 'let', 'go', 'panico', 'let', 'go', 'porto', 'pure', 'tutte', 'girls', 'uah', 'uah', 'voglion', 'stare', 'uoh', 'uoh', 'boy', 'bad', 'muah', 'sar', 'sex', 'appeal', 'fa', 'andare', 'mad', 'mhm', 'mhm', 'oppure', 'fake', 'bitch', 'bisogno', 'cash', 'mhm', 'mhm', 'uah', 'uah', 'uah', 'uah', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'tiki', 'taka', 'ikta', 'tic', 'tac', 'corro', 'metto', 'zigzag', 'alzo', 'motocross', 'skrrt', 'girano', 'tutte', 'girls', 'skrrt', 'skrrt', 'giudicami', 'pare', 'piace', 'piace', 'troppe', 'bitch', 'manco', 'piscio', 'pace', 'pace', 'mollami', 'madre', 'madre', 'crocifisso', 'matchato', 'mutande', 'versace', 'sai', 'mille', 'tipe', 'dm', 'bono', 'cosa', 'devo', 'dire', 'madre', 'playboy', 'playboy', 'vieni', 'annoi', 'ahah', 'muah', 'serve', 'solo', 'okay', 'poi', 'dici', 'vuoi', 'cavalco', 'cow', 'boy', 'boy', 'brr', 'amica', 'dice', 'puoi', 'gelosa', 'sai', 'vorrebbe', 'ste', 'cose', 'far', 'tutte', 'girls', 'uah', 'uah', 'voglion', 'stare', 'uoh', 'uoh', 'boy', 'bad', 'muah', 'sar', 'sex', 'appeal', 'fa', 'andare', 'mad', 'mhm', 'mhm', 'oppure', 'fake', 'bitch', 'bisogno', 'cash', 'mhm', 'mhm', 'lobi', 'giga', 'perle', 'cos', 'finiamo', 'coperte', 'baddie', 'passa', 'prendere', 'patente', 'tocco', 'co', 'pi', 'coco', 'cambio', 'face', 'emoticon', 'iconico', 'cori', 'mo', 'logico', 'voglion', 'tutte', 'girls', 'uah', 'uah', 'voglion', 'stare', 'uoh', 'uoh', 'boy', 'bad', 'muah', 'sar', 'sex', 'appeal', 'fa', 'andare', 'mad', 'mhm', 'mhm', 'oppure', 'fake', 'bitch', 'bisogno', 'cash', 'mhm', 'mhm', 'muah']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>g g girl puoi dirmi cosa guardi capisco odi oppure vuoi baciarmi muah unica dentro party guardando guardano maschi addosso tutina tutta glitterata viene serata solamente pi figa prima sfigata adesso fa sfilata adesso vera bad tutte girls amano muah tutte girls chiamano drin provato avere amiche tutte girls infamano ah ah davvero pi diavolo know parlo cadere domino know grido v monos let go bevo solito let go panico let go porto pure tutte girls ah ah uah uah voglion stare uoh uoh boy ah ah bad muah sar sex appeal ah ah fa andare mad mhm mhm oppure fake bitch ah ah bisogno cash mhm mhm uah uah uah oh uah see anna liveget tickets low might also like tiki taka ikta tic tac corro metto zigzag alzo motocross skrrt girano tutte girls skrrt skrrt giudicami pare piace piace troppe bitch manco piscio pace pace mollami madre madre crocifisso matchato mutande versace sai mille tipe dm troppo bono ah cosa devo dire madre fatto playboy playboy vieni annoi ahah muah serve solo okay poi dici vuoi cavalco cow boy boy brr amica dice puoi gelosa sai vorrebbe fare ste cose far mai tutte girls ah ah uah uah voglion stare uoh uoh boy ah ah bad muah sar sex appeal ah ah fa andare mad mhm mhm oppure fake bitch ah ah bisogno cash mhm mhm lobi giga perle cos finiamo sotto coperte baddie passa prendere ancora fatto patente tocco co pi coco cambio face emoticon iconico cori mo logico voglion tutte girls ah ah uah uah voglion stare uoh uoh boy ah ah bad muah sar sex appeal ah ah fa andare mad mhm mhm oppure fake bitch ah ah bisogno cash mhm mhm muah</t>
+          <t>g g girl puoi dirmi cosa guardi capisco odi oppure vuoi baciarmi muah unica dentro party guardando guardano maschi addosso tutina tutta glitterata viene serata solamente pi figa prima sfigata adesso fa sfilata adesso vera bad tutte girls amano muah tutte girls chiamano drin provato avere amiche tutte girls infamano davvero pi diavolo know parlo cadere domino know grido v monos let go bevo solito let go panico let go porto pure tutte girls uah uah voglion stare uoh uoh boy bad muah sar sex appeal fa andare mad mhm mhm oppure fake bitch bisogno cash mhm mhm uah uah uah uah see anna liveget tickets low might also like tiki taka ikta tic tac corro metto zigzag alzo motocross skrrt girano tutte girls skrrt skrrt giudicami pare piace piace troppe bitch manco piscio pace pace mollami madre madre crocifisso matchato mutande versace sai mille tipe dm bono cosa devo dire madre playboy playboy vieni annoi ahah muah serve solo okay poi dici vuoi cavalco cow boy boy brr amica dice puoi gelosa sai vorrebbe ste cose far tutte girls uah uah voglion stare uoh uoh boy bad muah sar sex appeal fa andare mad mhm mhm oppure fake bitch bisogno cash mhm mhm lobi giga perle cos finiamo coperte baddie passa prendere patente tocco co pi coco cambio face emoticon iconico cori mo logico voglion tutte girls uah uah voglion stare uoh uoh boy bad muah sar sex appeal fa andare mad mhm mhm oppure fake bitch bisogno cash mhm mhm muah</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'neg': 0.155, 'neu': 0.756, 'pos': 0.088, 'compound': -0.975}</t>
+          <t>{'neg': 0.173, 'neu': 0.729, 'pos': 0.098, 'compound': -0.975}</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="K5" t="n">
         <v>-0.975</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.36626984126984125, subjectivity=0.7422222222222222)</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.3662698412698412</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7422222222222222</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -994,23 +1138,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['mhm', 'mhm', 'mhm', 'yeah', 'ah', 'cellulare', 'movimenti', 'contabili', 'ah', 'ah', 'stan', 'rosicando', 'mentre', 'spalti', 'ah', 'ah', 'proprio', 'bella', 'casa', 'chiedo', 'quando', 'parti', 'ah', 'ah', 'entriamo', 'dieci', 'incappucciati', 'sembra', 'party', 'ah', 'ah', 'apre', 'gambe', 'simbolo', 'jordan', 'uoh', 'metto', 'poca', 'poca', 'schiaccio', 'bene', 'guarda', 'monta', 'uoh', 'punti', 'sempre', 'dito', 'sembra', 'conta', 'uoh', 'vogliono', 'sapere', 'prossima', 'mossa', 'volte', 'penso', 'capirti', 'senso', 'mischiate', 'quattro', 'senso', 'uoh', 'volte', 'penso', 'dire', 'p', 'nso', 'volte', 'perch', 'adesso', 'strano', 'vogliono', 'star', 'appresso', 'veri', 'goat', 'novanta', 'metto', 'novanta', 'infame', 'amici', 'sembra', 'amici', 'perch', 'ballare', 'parlo', 'smorfia', 'buste', 'dentro', 'posta', 'uoh', 'oggi', 'prende', 'bene', 'lascio', 'cento', 'euro', 'tossico', 'ah', 'cerchi', 'posto', 'sbagliato', 'perch', 'qua', 'bitch', 'tempi', 'scuola', 'troppi', 'pensieri', 'riempio', 'cup', 'fratello', 'promessa', 'parola', 'might', 'also', 'like', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'yeah', 'tiro', 'caco', 'addosso', 'ferro', 'mutande', 'sembra', 'cazzo', 'grosso', 'vengo', 'mosso', 'video', 'slow', 'motion', 'prendo', 'acido', 'parte', 'datamoshing', 'cresciuto', 'delinquenti', 'tossici', 'molti', 'entrambi', 'delinquenti', 'tossici', 'mangiamo', 'pesce', 'crudo', 'costa', 'doppio', 'budget', 'fatto', 'ketch', 'preso', 'tentata', 'strage', 'nessuno', 'fa', 'grow', 'box', 'minimo', 'ettaro', 'soldi', 'contano', 'pesano', 'quando', 'taranto', 'posso', 'fare', 'ricco', 'perch', 'puglia', 'ricchi', 'certa', 'sequestrano', 'entro', 'posto', 'puzza', 'sponzata', 'mille', 'barre', 'mai', 'stronzata', 'ferri', 'luce', 'troia', 'ora', 'abbronzata', 'players', 'club', 'giro', 'vedo', 'altro', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'addosso', 'venti', 'collane', 'entro', 'nevicare', 'suolo', 'lievitando', 'impasto', 'lievito', 'madre', 'vodka', 'acqua', 'baby', 'mo', 'fatico', 'respirare', 'trap', 'house', 'ora', 'gi', 'terza', 'casa', 'baby', 'sveglia', 'devi', 'fare', 'presto', 'nuovo', 'concerto', 'milionario', 'capo', 'stesso', 'parlami', 'pesos', 'vengo', 'venuta', 'secondo', 'addormentata', 'letto', 'vita', 'partita', 'accettiamo', 'pareggio', 'giro', 'solo', 'dawgs', 'diavolo', 'tre', 'teste', 'solo', 'goat', 'seguiamo', 'gregge', 'fratello', 'ancora', 'boss', 'vedi', 'senti', 'svelare', 'mai', 'mosse', 'oppure', 'pi', 'svelti', 'carico', 'risolve', 'flaco', 'qui', 'quindi', 'continuano', 'farlo', 'mai', 'sceso', 'patti', 'due', 'lire', 'spettacolo', 'aspetto', 'turno', 'invidio', 'qualcun', 'altro']</t>
+          <t>['mhm', 'mhm', 'mhm', 'cellulare', 'movimenti', 'contabili', 'stan', 'rosicando', 'mentre', 'spalti', 'bella', 'casa', 'chiedo', 'parti', 'entriamo', 'dieci', 'incappucciati', 'sembra', 'party', 'apre', 'gambe', 'simbolo', 'jordan', 'uoh', 'metto', 'poca', 'poca', 'schiaccio', 'bene', 'guarda', 'monta', 'uoh', 'punti', 'sempre', 'dito', 'sembra', 'conta', 'uoh', 'vogliono', 'sapere', 'prossima', 'mossa', 'volte', 'penso', 'capirti', 'senso', 'mischiate', 'quattro', 'senso', 'uoh', 'volte', 'penso', 'dire', 'p', 'nso', 'volte', 'perch', 'adesso', 'strano', 'vogliono', 'star', 'appresso', 'veri', 'goat', 'novanta', 'metto', 'novanta', 'infame', 'amici', 'sembra', 'amici', 'perch', 'ballare', 'parlo', 'smorfia', 'buste', 'dentro', 'posta', 'uoh', 'oggi', 'prende', 'bene', 'lascio', 'cento', 'euro', 'tossico', 'cerchi', 'posto', 'sbagliato', 'perch', 'qua', 'bitch', 'tempi', 'scuola', 'troppi', 'pensieri', 'riempio', 'cup', 'fratello', 'promessa', 'parola', 'might', 'also', 'like', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'tiro', 'caco', 'addosso', 'ferro', 'mutande', 'sembra', 'cazzo', 'grosso', 'vengo', 'mosso', 'video', 'slow', 'motion', 'prendo', 'acido', 'parte', 'datamoshing', 'cresciuto', 'delinquenti', 'tossici', 'entrambi', 'delinquenti', 'tossici', 'mangiamo', 'pesce', 'crudo', 'costa', 'doppio', 'budget', 'ketch', 'preso', 'tentata', 'strage', 'fa', 'grow', 'box', 'minimo', 'ettaro', 'soldi', 'contano', 'pesano', 'taranto', 'posso', 'ricco', 'perch', 'puglia', 'ricchi', 'certa', 'sequestrano', 'entro', 'posto', 'puzza', 'sponzata', 'mille', 'barre', 'stronzata', 'ferri', 'luce', 'troia', 'ora', 'abbronzata', 'players', 'club', 'giro', 'vedo', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'entro', 'posto', 'nevicare', 'players', 'club', 'puoi', 'entrare', 'tiriamo', 'acqua', 'addosso', 'bih', 'gi', 'bagnate', 'vuoi', 'beat', 'skinny', 'sai', 'usare', 'addosso', 'venti', 'collane', 'entro', 'nevicare', 'suolo', 'lievitando', 'impasto', 'lievito', 'madre', 'vodka', 'acqua', 'baby', 'mo', 'fatico', 'respirare', 'trap', 'house', 'ora', 'gi', 'terza', 'casa', 'baby', 'sveglia', 'devi', 'presto', 'nuovo', 'concerto', 'milionario', 'capo', 'stesso', 'parlami', 'pesos', 'vengo', 'venuta', 'secondo', 'addormentata', 'letto', 'vita', 'partita', 'accettiamo', 'pareggio', 'giro', 'solo', 'dawgs', 'diavolo', 'tre', 'teste', 'solo', 'goat', 'seguiamo', 'gregge', 'fratello', 'boss', 'vedi', 'senti', 'svelare', 'mosse', 'oppure', 'pi', 'svelti', 'carico', 'risolve', 'flaco', 'qui', 'quindi', 'continuano', 'farlo', 'sceso', 'patti', 'due', 'lire', 'spettacolo', 'aspetto', 'turno', 'invidio', 'qualcun']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>mhm mhm mhm yeah ah cellulare movimenti contabili ah ah stan rosicando mentre spalti ah ah proprio bella casa chiedo quando parti ah ah entriamo dieci incappucciati sembra party ah ah apre gambe simbolo jordan uoh metto poca poca schiaccio bene guarda monta uoh punti sempre dito sembra conta uoh vogliono sapere prossima mossa volte penso capirti senso mischiate quattro senso uoh volte penso dire p nso volte perch adesso strano vogliono star appresso veri goat novanta metto novanta infame amici sembra amici perch ballare parlo smorfia buste dentro posta uoh oggi prende bene lascio cento euro tossico ah cerchi posto sbagliato perch qua bitch tempi scuola troppi pensieri riempio cup fratello promessa parola might also like entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare yeah tiro caco addosso ferro mutande sembra cazzo grosso vengo mosso video slow motion prendo acido parte datamoshing cresciuto delinquenti tossici molti entrambi delinquenti tossici mangiamo pesce crudo costa doppio budget fatto ketch preso tentata strage nessuno fa grow box minimo ettaro soldi contano pesano quando taranto posso fare ricco perch puglia ricchi certa sequestrano entro posto puzza sponzata mille barre mai stronzata ferri luce troia ora abbronzata players club giro vedo altro entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare addosso venti collane entro nevicare suolo lievitando impasto lievito madre vodka acqua baby mo fatico respirare trap house ora gi terza casa baby sveglia devi fare presto nuovo concerto milionario capo stesso parlami pesos vengo venuta secondo addormentata letto vita partita accettiamo pareggio giro solo dawgs diavolo tre teste solo goat seguiamo gregge fratello ancora boss vedi senti svelare mai mosse oppure pi svelti carico risolve flaco qui quindi continuano farlo mai sceso patti due lire spettacolo aspetto turno invidio qualcun altro</t>
+          <t>mhm mhm mhm cellulare movimenti contabili stan rosicando mentre spalti bella casa chiedo parti entriamo dieci incappucciati sembra party apre gambe simbolo jordan uoh metto poca poca schiaccio bene guarda monta uoh punti sempre dito sembra conta uoh vogliono sapere prossima mossa volte penso capirti senso mischiate quattro senso uoh volte penso dire p nso volte perch adesso strano vogliono star appresso veri goat novanta metto novanta infame amici sembra amici perch ballare parlo smorfia buste dentro posta uoh oggi prende bene lascio cento euro tossico cerchi posto sbagliato perch qua bitch tempi scuola troppi pensieri riempio cup fratello promessa parola might also like entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare tiro caco addosso ferro mutande sembra cazzo grosso vengo mosso video slow motion prendo acido parte datamoshing cresciuto delinquenti tossici entrambi delinquenti tossici mangiamo pesce crudo costa doppio budget ketch preso tentata strage fa grow box minimo ettaro soldi contano pesano taranto posso ricco perch puglia ricchi certa sequestrano entro posto puzza sponzata mille barre stronzata ferri luce troia ora abbronzata players club giro vedo entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare entro posto nevicare players club puoi entrare tiriamo acqua addosso bih gi bagnate vuoi beat skinny sai usare addosso venti collane entro nevicare suolo lievitando impasto lievito madre vodka acqua baby mo fatico respirare trap house ora gi terza casa baby sveglia devi presto nuovo concerto milionario capo stesso parlami pesos vengo venuta secondo addormentata letto vita partita accettiamo pareggio giro solo dawgs diavolo tre teste solo goat seguiamo gregge fratello boss vedi senti svelare mosse oppure pi svelti carico risolve flaco qui quindi continuano farlo sceso patti due lire spettacolo aspetto turno invidio qualcun</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'neg': 0.026, 'neu': 0.947, 'pos': 0.027, 'compound': -0.128}</t>
+          <t>{'neg': 0.028, 'neu': 0.956, 'pos': 0.016, 'compound': -0.5994}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.128</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.016</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.5994</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.21250000000000002, subjectivity=0.38749999999999996)</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.2125</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -1111,27 +1281,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['voglio', 'mani', 'mani', 'serviranno', 'armi', 'yeah', 'sadturs', 'ahahah', 'serviranno', 'yeah', 'yeah', 'ah', 'kiid', 'ready', 'voglio', 'mani', 'mani', 'serviranno', 'armi', 'armi', 'colpire', 'cuore', 'eh', 'averti', 'oh', 'mami', 'mami', 'voglio', 'mani', 'mani', 'serviranno', 'armi', 'armi', 'colpire', 'cuore', 'eh', 'averti', 'oh', 'mami', 'mami', 'fuori', 'testa', 'eh', 'mandi', 'fuori', 'controllo', 'ah', 'dammi', 'solo', 'secondo', 'ah', 'chiedo', 'solo', 'secondo', 'might', 'also', 'like', 'fingi', 'pure', 'ami', 'davvero', 'notte', 'posso', 'fermare', 'tempo', 'fing', 'ndo', 'amo', 'davvero', 'volevo', 'solo', 'mom', 'nto', 'manda', 'foto', 'ramadan', 'bloccata', 'mamacita', 'vuole', 'ballar', 'bachata', 'mollato', 'ex', 'vuole', 'ragazzo', 'strada', 'detto', 'passare', 'quartiere', 'piazza', 'fra', 'star', 'calle', 'conto', 'cash', 'dormire', 'notte', 'amo', 'donna', 'solo', 'madre', 'sopra', 'porsche', 'cayenne', 'sfido', 'sorte', 'eh', 'pensieri', 'brutti', 'prender', 'sonno', 'miseria', 'vorrei', 'ricordo', 'ricordo', 'ricordo', 'fingi', 'pure', 'ami', 'davvero', 'notte', 'posso', 'fermare', 'tempo', 'fingendo', 'amo', 'davvero', 'volevo', 'solo', 'momento', 'pensava', 'innamorata', 'chance', 'va', 'data', 'nah', 'nah', 'sempre', 'solita', 'storia', 'yeah', 'pi', 'voglia', 'yeah', 'quando', 'annoia', 'oh', 'dice', 'solo', 'sex', 'ah', 'ah', 'texto', 'ah', 'ah', 'penso', 'ah', 'ah', 'flexo', 'ah', 'ah', 'bad', 'day', 'letto', 'penso', 'quando', 'passo', 'ghetto', 'mhm', 'yeah', 'volte', 'senza', 'cuore', 'nah', 'senza', 'parole', 'yeah', 'aspetto', 'capisca', 'oh', 'passato', 'mille', 'prove', 'ah', 'voglio', 'pi', 'rose', 'ah', 'fingi', 'pure', 'ami', 'davvero', 'notte', 'posso', 'fermare', 'tempo', 'fingendo', 'amo', 'davvero', 'volevo', 'solo', 'momento', 'sadturs', 'ahahah', 'kiid', 'ready']</t>
+          <t>['voglio', 'mani', 'mani', 'serviranno', 'armi', 'sadturs', 'ahahah', 'serviranno', 'kiid', 'ready', 'voglio', 'mani', 'mani', 'serviranno', 'armi', 'armi', 'colpire', 'cuore', 'eh', 'averti', 'mami', 'mami', 'voglio', 'mani', 'mani', 'serviranno', 'armi', 'armi', 'colpire', 'cuore', 'eh', 'averti', 'mami', 'mami', 'fuori', 'testa', 'eh', 'mandi', 'fuori', 'controllo', 'dammi', 'solo', 'secondo', 'chiedo', 'solo', 'secondo', 'might', 'also', 'like', 'fingi', 'pure', 'ami', 'davvero', 'notte', 'posso', 'fermare', 'tempo', 'fing', 'ndo', 'amo', 'davvero', 'volevo', 'solo', 'mom', 'nto', 'manda', 'foto', 'ramadan', 'bloccata', 'mamacita', 'vuole', 'ballar', 'bachata', 'mollato', 'ex', 'vuole', 'ragazzo', 'strada', 'detto', 'passare', 'quartiere', 'piazza', 'fra', 'star', 'calle', 'conto', 'cash', 'dormire', 'notte', 'amo', 'donna', 'solo', 'madre', 'sopra', 'porsche', 'cayenne', 'sfido', 'sorte', 'eh', 'pensieri', 'brutti', 'prender', 'sonno', 'miseria', 'vorrei', 'ricordo', 'ricordo', 'ricordo', 'fingi', 'pure', 'ami', 'davvero', 'notte', 'posso', 'fermare', 'tempo', 'fingendo', 'amo', 'davvero', 'volevo', 'solo', 'momento', 'pensava', 'innamorata', 'chance', 'va', 'data', 'sempre', 'solita', 'storia', 'pi', 'voglia', 'annoia', 'dice', 'solo', 'sex', 'texto', 'penso', 'flexo', 'bad', 'day', 'letto', 'penso', 'passo', 'ghetto', 'mhm', 'volte', 'senza', 'cuore', 'senza', 'parole', 'aspetto', 'capisca', 'passato', 'mille', 'prove', 'voglio', 'pi', 'rose', 'fingi', 'pure', 'ami', 'davvero', 'notte', 'posso', 'fermare', 'tempo', 'fingendo', 'amo', 'davvero', 'volevo', 'solo', 'momento', 'sadturs', 'ahahah', 'kiid', 'ready']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>voglio mani mani serviranno armi yeah sadturs ahahah serviranno yeah yeah ah kiid ready voglio mani mani serviranno armi armi colpire cuore eh averti oh mami mami voglio mani mani serviranno armi armi colpire cuore eh averti oh mami mami fuori testa eh mandi fuori controllo ah dammi solo secondo ah chiedo solo secondo might also like fingi pure ami davvero notte posso fermare tempo fing ndo amo davvero volevo solo mom nto manda foto ramadan bloccata mamacita vuole ballar bachata mollato ex vuole ragazzo strada detto passare quartiere piazza fra star calle conto cash dormire notte amo donna solo madre sopra porsche cayenne sfido sorte eh pensieri brutti prender sonno miseria vorrei ricordo ricordo ricordo fingi pure ami davvero notte posso fermare tempo fingendo amo davvero volevo solo momento pensava innamorata chance va data nah nah sempre solita storia yeah pi voglia yeah quando annoia oh dice solo sex ah ah texto ah ah penso ah ah flexo ah ah bad day letto penso quando passo ghetto mhm yeah volte senza cuore nah senza parole yeah aspetto capisca oh passato mille prove ah voglio pi rose ah fingi pure ami davvero notte posso fermare tempo fingendo amo davvero volevo solo momento sadturs ahahah kiid ready</t>
+          <t>voglio mani mani serviranno armi sadturs ahahah serviranno kiid ready voglio mani mani serviranno armi armi colpire cuore eh averti mami mami voglio mani mani serviranno armi armi colpire cuore eh averti mami mami fuori testa eh mandi fuori controllo dammi solo secondo chiedo solo secondo might also like fingi pure ami davvero notte posso fermare tempo fing ndo amo davvero volevo solo mom nto manda foto ramadan bloccata mamacita vuole ballar bachata mollato ex vuole ragazzo strada detto passare quartiere piazza fra star calle conto cash dormire notte amo donna solo madre sopra porsche cayenne sfido sorte eh pensieri brutti prender sonno miseria vorrei ricordo ricordo ricordo fingi pure ami davvero notte posso fermare tempo fingendo amo davvero volevo solo momento pensava innamorata chance va data sempre solita storia pi voglia annoia dice solo sex texto penso flexo bad day letto penso passo ghetto mhm volte senza cuore senza parole aspetto capisca passato mille prove voglio pi rose fingi pure ami davvero notte posso fermare tempo fingendo amo davvero volevo solo momento sadturs ahahah kiid ready</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'neg': 0.034, 'neu': 0.854, 'pos': 0.111, 'compound': 0.9349}</t>
+          <t>{'neg': 0.019, 'neu': 0.93, 'pos': 0.051, 'compound': 0.6124}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9349</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.051</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6124000000000001</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.13469387755102044, subjectivity=0.588095238095238)</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1346938775510204</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.588095238095238</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1218,27 +1414,53 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['qu', 'estamo', 'rulay', 'empez', 'verano', 'fuego', 'qu', 'sido', 'conocido', 'seguramente', 'bailando', 'conmigo', 'amigos', 'sino', 'cosa', 'usted', 'cerca', 'pone', 'peligrosa', 'besito', 'hago', 'cualquier', 'cosa', 'novia', 'pone', 'celosa', 'aunque', 'hermosa', 'ey', 'va', 'tratar', 'va', 'besar', 'est', 'tan', 'rica', 'mida', 'ganas', 'atrevo', 'comerme', 'hoy', 'est', 'jangueando', 'mmm', 'despu', 'tal', 'vez', 'might', 'also', 'like', 'qu', 'sido', 'conocido', 'seguramente', 'bailando', 'conmigo', 'amigos', 'ey', 'qu', 'sido', 'ay', 'conocido', 'seguramente', 'bailando', 'conmigo', 'amigos', 'ey', 'veo', 'mo', 'actuar', 'beb', 'pa', 'conquistarte', 'pasen', 'manual', 'espero', 'voy', 'quitar', 'fe', 'ojito', 'van', 'mirar', 'caso', 'contigo', 'nombre', 'suena', 'bien', 'apellido', 'toy', 'esperando', 'primer', 'descuido', 'pa', 'presentarte', 'marido', 'caso', 'contigo', 'nombre', 'suena', 'bien', 'apellido', 'toy', 'esperando', 'primer', 'descuido', 'pa', 'presentarte', 'marido', 'entendido', 'va', 'tratar', 'va', 'besar', 'est', 'tan', 'rica', 'mida', 'ganas', 'atrevo', 'comerme', 'hoy', 'est', 'jangueando', 'mmm', 'despu', 'tal', 'vez', 'qu', 'sido', 'conocido', 'ey', 'mo', 'seguramente', 'bailando', 'conmigo', 'amigos', 'ey', 'ey', 'ey', 'ey', 'qu', 'sido', 'conocido', 'chiqui', 'ch', 'chiqui', 'ch', 'chiqui', 'ch', 'chiqui', 'ch', 'jaja', 'ah', 'uh', 'uh', 'uh', 'uh', 'qu', 'sido', 'conocido']</t>
+          <t>['qu', 'estamo', 'rulay', 'empez', 'verano', 'fuego', 'qu', 'sido', 'conocido', 'seguramente', 'bailando', 'amigos', 'sino', 'cosa', 'cerca', 'pone', 'peligrosa', 'besito', 'hago', 'cualquier', 'cosa', 'novia', 'pone', 'celosa', 'aunque', 'hermosa', 'ey', 'va', 'tratar', 'va', 'besar', 'est', 'tan', 'rica', 'mida', 'ganas', 'atrevo', 'comerme', 'hoy', 'est', 'jangueando', 'despu', 'vez', 'might', 'also', 'like', 'qu', 'sido', 'conocido', 'seguramente', 'bailando', 'amigos', 'ey', 'qu', 'sido', 'conocido', 'seguramente', 'bailando', 'amigos', 'ey', 'veo', 'mo', 'actuar', 'beb', 'pa', 'conquistarte', 'pasen', 'manual', 'espero', 'voy', 'quitar', 'fe', 'ojito', 'van', 'mirar', 'caso', 'nombre', 'suena', 'bien', 'apellido', 'toy', 'esperando', 'primer', 'descuido', 'pa', 'presentarte', 'marido', 'caso', 'nombre', 'suena', 'bien', 'apellido', 'toy', 'esperando', 'primer', 'descuido', 'pa', 'presentarte', 'marido', 'entendido', 'va', 'tratar', 'va', 'besar', 'est', 'tan', 'rica', 'mida', 'ganas', 'atrevo', 'comerme', 'hoy', 'est', 'jangueando', 'despu', 'vez', 'qu', 'sido', 'conocido', 'ey', 'mo', 'seguramente', 'bailando', 'amigos', 'ey', 'ey', 'ey', 'ey', 'qu', 'sido', 'conocido', 'chiqui', 'ch', 'chiqui', 'ch', 'chiqui', 'ch', 'chiqui', 'ch', 'jaja', 'qu', 'sido', 'conocido']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>qu estamo rulay empez verano fuego qu sido conocido seguramente bailando conmigo amigos sino cosa usted cerca pone peligrosa besito hago cualquier cosa novia pone celosa aunque hermosa ey va tratar va besar est tan rica mida ganas atrevo comerme hoy est jangueando mmm despu tal vez might also like qu sido conocido seguramente bailando conmigo amigos ey qu sido ay conocido seguramente bailando conmigo amigos ey veo mo actuar beb pa conquistarte pasen manual espero voy quitar fe ojito van mirar caso contigo nombre suena bien apellido toy esperando primer descuido pa presentarte marido caso contigo nombre suena bien apellido toy esperando primer descuido pa presentarte marido entendido va tratar va besar est tan rica mida ganas atrevo comerme hoy est jangueando mmm despu tal vez qu sido conocido ey mo seguramente bailando conmigo amigos ey ey ey ey qu sido conocido chiqui ch chiqui ch chiqui ch chiqui ch jaja ah uh uh uh uh qu sido conocido</t>
+          <t>qu estamo rulay empez verano fuego qu sido conocido seguramente bailando amigos sino cosa cerca pone peligrosa besito hago cualquier cosa novia pone celosa aunque hermosa ey va tratar va besar est tan rica mida ganas atrevo comerme hoy est jangueando despu vez might also like qu sido conocido seguramente bailando amigos ey qu sido conocido seguramente bailando amigos ey veo mo actuar beb pa conquistarte pasen manual espero voy quitar fe ojito van mirar caso nombre suena bien apellido toy esperando primer descuido pa presentarte marido caso nombre suena bien apellido toy esperando primer descuido pa presentarte marido entendido va tratar va besar est tan rica mida ganas atrevo comerme hoy est jangueando despu vez qu sido conocido ey mo seguramente bailando amigos ey ey ey ey qu sido conocido chiqui ch chiqui ch chiqui ch chiqui ch jaja qu sido conocido</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.971, 'pos': 0.029, 'compound': 0.5719}</t>
+          <t>{'neg': 0.0, 'neu': 0.968, 'pos': 0.032, 'compound': 0.5719}</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.5719</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.0, subjectivity=0.0)</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1317,27 +1539,53 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['okay', 'zzala', 'fatto', 'buco', 'addosso', 'ultima', 'frase', 'cuore', 'punto', 'rosso', 'luce', 'laser', 'cielo', 'diventa', 'voragine', 'sentir', 'mezzo', 'rapide', 'improvvisamente', 'scoppiassero', 'occhi', 'gonfi', 'lacrime', 'giorni', 'passassero', 'sicuro', 'capirei', 'perch', 'passato', 'tutta', 'vita', 'odiarci', 'pensare', 'tutte', 'notti', 'davanti', 'farmi', 'sapere', 'stasera', 'perch', 'perdonerei', 'spezzerei', 'catene', 'pure', 'atmosfera', 'poi', 'vergognerei', 'ehi', 'tutta', 'vita', 'odiarci', 'sento', 'tunnel', 'buio', 'davanti', 'guardi', 'oblio', 'sai', 'parli', 'altri', 'might', 'also', 'like', 'giro', 'notte', 'fari', 'spenti', 'stereo', 'pezzo', 'wu', 'tang', 'clan', 'litigo', 'umore', 'fa', 'sali', 'scendi', 'sopra', 'giostra', 'luna', 'park', 'tipo', 'conta', 'qualche', 'milione', 'poi', 'finisce', 'muore', 'sopra', 'porsche', 'porto', 'risto', 'scegli', 'migliore', 'cos', 'lasci', 'cuore', 'sotto', 'cloche', 'comincio', 'pensare', 'troppo', 'tardi', 'oramai', 'rimpiangermi', 'pi', 'penso', 'pi', 'vorrei', 'scappare', 'via', 'posto', 'sprecano', 'angeli', 'sembra', 'quasi', 'turni', 'essere', 'sbagliati', 'riesci', 'occhi', 'puoi', 'spogliarmi', 'farmi', 'sapere', 'stasera', 'perch', 'perdonerei', 'spezzerei', 'catene', 'pure', 'atmosfera', 'poi', 'vergognerei', 'ehi', 'tutta', 'vita', 'odiarci', 'sento', 'tunnel', 'buio', 'davanti', 'guardi', 'oblio', 'sai', 'parli', 'altri', 'chiamo', 'appena', 'posso', 'ora', 'lasciami', 'stare', 'urlare', 'addosso', 'esplodo', 'geyser', 'ancora', 'scrivere', 'pagine', 'farlo', 'sembrare', 'facile', 'farmi', 'sapere', 'stasera', 'perch', 'perdonerei', 'spezzerei', 'catene', 'pure', 'atmosfera', 'poi', 'vergognerei', 'ehi', 'tutta', 'vita', 'odiarci', 'sento', 'tunnel', 'buio', 'davanti', 'guardi', 'oblio', 'sai', 'parli', 'altri']</t>
+          <t>['okay', 'zzala', 'buco', 'addosso', 'ultima', 'frase', 'cuore', 'punto', 'rosso', 'luce', 'laser', 'cielo', 'diventa', 'voragine', 'sentir', 'mezzo', 'rapide', 'improvvisamente', 'scoppiassero', 'occhi', 'gonfi', 'lacrime', 'giorni', 'passassero', 'sicuro', 'capirei', 'perch', 'passato', 'tutta', 'vita', 'odiarci', 'pensare', 'tutte', 'notti', 'davanti', 'farmi', 'sapere', 'stasera', 'perch', 'perdonerei', 'spezzerei', 'catene', 'pure', 'atmosfera', 'poi', 'vergognerei', 'ehi', 'tutta', 'vita', 'odiarci', 'sento', 'tunnel', 'buio', 'davanti', 'guardi', 'oblio', 'sai', 'parli', 'altri', 'might', 'also', 'like', 'giro', 'notte', 'fari', 'spenti', 'stereo', 'pezzo', 'wu', 'tang', 'clan', 'litigo', 'umore', 'fa', 'sali', 'scendi', 'sopra', 'giostra', 'luna', 'park', 'tipo', 'conta', 'qualche', 'milione', 'poi', 'finisce', 'muore', 'sopra', 'porsche', 'porto', 'risto', 'scegli', 'migliore', 'cos', 'lasci', 'cuore', 'cloche', 'comincio', 'pensare', 'tardi', 'oramai', 'rimpiangermi', 'pi', 'penso', 'pi', 'vorrei', 'scappare', 'via', 'posto', 'sprecano', 'angeli', 'sembra', 'quasi', 'turni', 'sbagliati', 'riesci', 'occhi', 'puoi', 'spogliarmi', 'farmi', 'sapere', 'stasera', 'perch', 'perdonerei', 'spezzerei', 'catene', 'pure', 'atmosfera', 'poi', 'vergognerei', 'ehi', 'tutta', 'vita', 'odiarci', 'sento', 'tunnel', 'buio', 'davanti', 'guardi', 'oblio', 'sai', 'parli', 'altri', 'chiamo', 'appena', 'posso', 'ora', 'lasciami', 'stare', 'urlare', 'addosso', 'esplodo', 'geyser', 'scrivere', 'pagine', 'farlo', 'sembrare', 'facile', 'farmi', 'sapere', 'stasera', 'perch', 'perdonerei', 'spezzerei', 'catene', 'pure', 'atmosfera', 'poi', 'vergognerei', 'ehi', 'tutta', 'vita', 'odiarci', 'sento', 'tunnel', 'buio', 'davanti', 'guardi', 'oblio', 'sai', 'parli', 'altri']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>okay zzala fatto buco addosso ultima frase cuore punto rosso luce laser cielo diventa voragine sentir mezzo rapide improvvisamente scoppiassero occhi gonfi lacrime giorni passassero sicuro capirei perch passato tutta vita odiarci pensare tutte notti davanti farmi sapere stasera perch perdonerei spezzerei catene pure atmosfera poi vergognerei ehi tutta vita odiarci sento tunnel buio davanti guardi oblio sai parli altri might also like giro notte fari spenti stereo pezzo wu tang clan litigo umore fa sali scendi sopra giostra luna park tipo conta qualche milione poi finisce muore sopra porsche porto risto scegli migliore cos lasci cuore sotto cloche comincio pensare troppo tardi oramai rimpiangermi pi penso pi vorrei scappare via posto sprecano angeli sembra quasi turni essere sbagliati riesci occhi puoi spogliarmi farmi sapere stasera perch perdonerei spezzerei catene pure atmosfera poi vergognerei ehi tutta vita odiarci sento tunnel buio davanti guardi oblio sai parli altri chiamo appena posso ora lasciami stare urlare addosso esplodo geyser ancora scrivere pagine farlo sembrare facile farmi sapere stasera perch perdonerei spezzerei catene pure atmosfera poi vergognerei ehi tutta vita odiarci sento tunnel buio davanti guardi oblio sai parli altri</t>
+          <t>okay zzala buco addosso ultima frase cuore punto rosso luce laser cielo diventa voragine sentir mezzo rapide improvvisamente scoppiassero occhi gonfi lacrime giorni passassero sicuro capirei perch passato tutta vita odiarci pensare tutte notti davanti farmi sapere stasera perch perdonerei spezzerei catene pure atmosfera poi vergognerei ehi tutta vita odiarci sento tunnel buio davanti guardi oblio sai parli altri might also like giro notte fari spenti stereo pezzo wu tang clan litigo umore fa sali scendi sopra giostra luna park tipo conta qualche milione poi finisce muore sopra porsche porto risto scegli migliore cos lasci cuore cloche comincio pensare tardi oramai rimpiangermi pi penso pi vorrei scappare via posto sprecano angeli sembra quasi turni sbagliati riesci occhi puoi spogliarmi farmi sapere stasera perch perdonerei spezzerei catene pure atmosfera poi vergognerei ehi tutta vita odiarci sento tunnel buio davanti guardi oblio sai parli altri chiamo appena posso ora lasciami stare urlare addosso esplodo geyser scrivere pagine farlo sembrare facile farmi sapere stasera perch perdonerei spezzerei catene pure atmosfera poi vergognerei ehi tutta vita odiarci sento tunnel buio davanti guardi oblio sai parli altri</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.977, 'pos': 0.023, 'compound': 0.5267}</t>
+          <t>{'neg': 0.0, 'neu': 0.976, 'pos': 0.024, 'compound': 0.5267}</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.5266999999999999</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.2857142857142857, subjectivity=0.5)</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1443,27 +1691,53 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['ora', 'ora', 'ora', 'ora', 'pi', 'sai', 'riposo', 'mai', 'mai', 'baby', 'vedi', 'guarda', 'guarda', 'guarda', 'amici', 'cosa', 'dici', 'cicatrici', 'baby', 'credi', 'duecento', 'ora', 'duecento', 'ora', 'pazzo', 'autostrada', 'cerca', 'ancora', 'cerca', 'ancora', 'vuole', 'chiama', 'anima', 'sola', 'sola', 'sa', 'pi', 'va', 'spegni', 'luci', 'citt', 'yeah', 'cos', 'cielo', 'illumina', 'yeah', 'balliamo', 'ultima', 'volta', 'yeah', 'gi', 'finita', 'musica', 'yeah', 'spegni', 'luci', 'citt', 'yeah', 'cos', 'cielo', 'illumina', 'yeah', 'balliamo', 'ultima', 'volta', 'yeah', 'gi', 'finita', 'musica', 'yeah', 'see', 'cesare', 'cremonini', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'ora', 'ora', 'ora', 'ora', 'pi', 'sai', 'sai', 'riposo', 'mai', 'mai', 'baby', 'vedi', 'ah', 'frequento', 'solo', 'posti', 'visto', 'mai', 'perch', 'paura', 'incontrarti', 'ciao', 'baby', 'credi', 'duecento', 'ora', 'duecento', 'ora', 'pazzo', 'autostrada', 'cerca', 'ancora', 'cerca', 'ancora', 'vuole', 'chiama', 'anima', 'sola', 'sola', 'sa', 'pi', 'va', 'spegni', 'luci', 'citt', 'yeah', 'cos', 'cielo', 'illumina', 'yeah', 'balliamo', 'ultima', 'volta', 'yeah', 'gi', 'finita', 'musica', 'yeah', 'vedi', 'tempo', 'va', 'yeah', 'veloce', 'nuvola', 'yeah', 'sorridi', 'ancora', 'volta', 'yeah', 'ora', 'foto', 'pi', 'nitida', 'yeah', 'accorgo', 'adesso', 'vai', 'mani', 'piccola', 'piccola', 'muovi', 'ali', 'libera', 'yeah', 'baby', 'vedi', 'yeah', 'baby', 'vedi', 'ora', 'ora', 'pi', 'sai', 'riposo', 'mai', 'mai', 'yeah', 'yeah', 'yeah', 'yeah', 'baby', 'spegni', 'luci', 'citt', 'yeah', 'cos', 'cielo', 'illumina', 'yeah', 'balliamo', 'ultima', 'volta', 'yeah', 'gi', 'finita', 'musica', 'yeah', 'spegni', 'luci', 'citt', 'yeah', 'cos', 'cielo', 'illumina', 'yeah', 'balliamo', 'ultima', 'volta', 'yeah', 'gi', 'finita', 'musica', 'yeah', 'spegni', 'luci', 'citt', 'yeah', 'pazzo', 'autostrada', 'uh', 'uh', 'uh', 'duecento', 'ora', 'uh', 'uh', 'duecento', 'ora', 'pazzo', 'autostrada', 'yeah', 'baby', 'yeah', 'uh', 'uh', 'duecento', 'ora', 'yeah', 'pazzo', 'autostrada', 'uh', 'uh', 'duecento', 'ora', 'yeah', 'uh', 'duecento', 'ora', 'yeah', 'pazzo', 'autostrada', 'yeah', 'baby', 'yeah']</t>
+          <t>['ora', 'ora', 'ora', 'ora', 'pi', 'sai', 'riposo', 'baby', 'vedi', 'guarda', 'guarda', 'guarda', 'amici', 'cosa', 'dici', 'cicatrici', 'baby', 'credi', 'duecento', 'ora', 'duecento', 'ora', 'pazzo', 'autostrada', 'cerca', 'cerca', 'vuole', 'chiama', 'anima', 'sola', 'sola', 'sa', 'pi', 'va', 'spegni', 'luci', 'citt', 'cos', 'cielo', 'illumina', 'balliamo', 'ultima', 'volta', 'gi', 'finita', 'musica', 'spegni', 'luci', 'citt', 'cos', 'cielo', 'illumina', 'balliamo', 'ultima', 'volta', 'gi', 'finita', 'musica', 'see', 'cesare', 'cremonini', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'ora', 'ora', 'ora', 'ora', 'pi', 'sai', 'sai', 'riposo', 'baby', 'vedi', 'frequento', 'solo', 'posti', 'visto', 'perch', 'paura', 'incontrarti', 'ciao', 'baby', 'credi', 'duecento', 'ora', 'duecento', 'ora', 'pazzo', 'autostrada', 'cerca', 'cerca', 'vuole', 'chiama', 'anima', 'sola', 'sola', 'sa', 'pi', 'va', 'spegni', 'luci', 'citt', 'cos', 'cielo', 'illumina', 'balliamo', 'ultima', 'volta', 'gi', 'finita', 'musica', 'vedi', 'tempo', 'va', 'veloce', 'nuvola', 'sorridi', 'volta', 'ora', 'foto', 'pi', 'nitida', 'accorgo', 'adesso', 'vai', 'mani', 'piccola', 'piccola', 'muovi', 'ali', 'libera', 'baby', 'vedi', 'baby', 'vedi', 'ora', 'ora', 'pi', 'sai', 'riposo', 'baby', 'spegni', 'luci', 'citt', 'cos', 'cielo', 'illumina', 'balliamo', 'ultima', 'volta', 'gi', 'finita', 'musica', 'spegni', 'luci', 'citt', 'cos', 'cielo', 'illumina', 'balliamo', 'ultima', 'volta', 'gi', 'finita', 'musica', 'spegni', 'luci', 'citt', 'pazzo', 'autostrada', 'duecento', 'ora', 'duecento', 'ora', 'pazzo', 'autostrada', 'baby', 'duecento', 'ora', 'pazzo', 'autostrada', 'duecento', 'ora', 'duecento', 'ora', 'pazzo', 'autostrada', 'baby']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ora ora ora ora pi sai riposo mai mai baby vedi guarda guarda guarda amici cosa dici cicatrici baby credi duecento ora duecento ora pazzo autostrada cerca ancora cerca ancora vuole chiama anima sola sola sa pi va spegni luci citt yeah cos cielo illumina yeah balliamo ultima volta yeah gi finita musica yeah spegni luci citt yeah cos cielo illumina yeah balliamo ultima volta yeah gi finita musica yeah see cesare cremonini liveget tickets low might also like ora ora ora ora pi sai sai riposo mai mai baby vedi ah frequento solo posti visto mai perch paura incontrarti ciao baby credi duecento ora duecento ora pazzo autostrada cerca ancora cerca ancora vuole chiama anima sola sola sa pi va spegni luci citt yeah cos cielo illumina yeah balliamo ultima volta yeah gi finita musica yeah vedi tempo va yeah veloce nuvola yeah sorridi ancora volta yeah ora foto pi nitida yeah accorgo adesso vai mani piccola piccola muovi ali libera yeah baby vedi yeah baby vedi ora ora pi sai riposo mai mai yeah yeah yeah yeah baby spegni luci citt yeah cos cielo illumina yeah balliamo ultima volta yeah gi finita musica yeah spegni luci citt yeah cos cielo illumina yeah balliamo ultima volta yeah gi finita musica yeah spegni luci citt yeah pazzo autostrada uh uh uh duecento ora uh uh duecento ora pazzo autostrada yeah baby yeah uh uh duecento ora yeah pazzo autostrada uh uh duecento ora yeah uh duecento ora yeah pazzo autostrada yeah baby yeah</t>
+          <t>ora ora ora ora pi sai riposo baby vedi guarda guarda guarda amici cosa dici cicatrici baby credi duecento ora duecento ora pazzo autostrada cerca cerca vuole chiama anima sola sola sa pi va spegni luci citt cos cielo illumina balliamo ultima volta gi finita musica spegni luci citt cos cielo illumina balliamo ultima volta gi finita musica see cesare cremonini liveget tickets low might also like ora ora ora ora pi sai sai riposo baby vedi frequento solo posti visto perch paura incontrarti ciao baby credi duecento ora duecento ora pazzo autostrada cerca cerca vuole chiama anima sola sola sa pi va spegni luci citt cos cielo illumina balliamo ultima volta gi finita musica vedi tempo va veloce nuvola sorridi volta ora foto pi nitida accorgo adesso vai mani piccola piccola muovi ali libera baby vedi baby vedi ora ora pi sai riposo baby spegni luci citt cos cielo illumina balliamo ultima volta gi finita musica spegni luci citt cos cielo illumina balliamo ultima volta gi finita musica spegni luci citt pazzo autostrada duecento ora duecento ora pazzo autostrada baby duecento ora pazzo autostrada duecento ora duecento ora pazzo autostrada baby</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'neg': 0.007, 'neu': 0.707, 'pos': 0.286, 'compound': 0.9965}</t>
+          <t>{'neg': 0.011, 'neu': 0.976, 'pos': 0.013, 'compound': 0.1027}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9965000000000001</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.013</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.0, subjectivity=0.3)</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1543,12 +1817,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['sadturs', 'ahahah', 'vr', 'vr', 'vr', 'vr', 'vroom', 'f', 'scarico', 'fa', 'rumore', 'vado', 'trenta', 'sembrano', 'cento', 'vuole', 'mano', 'collo', 'piaccion', 'mani', 'euro', 'attacco', 'pezzo', 'carta', 'soldi', 'darmi', 'valore', 'pagami', 'adesso', 'mica', 'scritto', 'scemo', 'fronte', 'scemo', 'paga', 'piaccion', 'auto', 'armi', 'gangster', 'detto', 'passare', 'quartiere', 'passa', 'passa', 'padre', 'ricco', 'vuole', 'far', 'ribelle', 'ah', 'voce', 'verbo', 'spendere', 'spendere', 'spend', 'spender', 'spendere', 'mercedes', 'staccavo', 'stemma', 'sgamo', 'infami', 'antenna', 'cavallini', 'sembrano', 'renne', 'portano', 'pacchi', 'tutta', 'gente', 'gls', 'mercedes', 'uoh', 'salta', 'lakers', 'salta', 'lakers', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'might', 'also', 'like', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendili', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'tesoro', 'smeagol', 'fatti', 'pi', 'spesa', 'lidl', 'droghe', 'pesanti', 'circo', 'rivo', 'esagero', 'antidepressivo', 'ah', 'ah', 'vedo', 'triplo', 'sempre', 'riflessi', 'attivi', 'lasciami', 'trip', 'kho', 'bravo', 'vuoi', 'vivere', 'incubo', 'eh', 'vuoi', 'vedere', 'sequestrato', 'figlio', 'giro', 'ferri', 'finti', 'piuttosto', 'uccidere', 'capiscimi', 'seh', 'tiro', 'fuori', 'poi', 'finisc', 'pow', 'pow', 'piaccion', 'auto', 'armi', 'gangster', 'detto', 'passare', 'quartiere', 'padre', 'ricco', 'vuole', 'far', 'ribelle', 'voce', 'verbo', 'spendere', 'spend', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendili', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'sadturs', 'ahahah', 'f']</t>
+          <t>['sadturs', 'ahahah', 'vr', 'vr', 'vr', 'vr', 'vroom', 'f', 'scarico', 'fa', 'rumore', 'vado', 'trenta', 'sembrano', 'cento', 'vuole', 'mano', 'collo', 'piaccion', 'mani', 'euro', 'attacco', 'pezzo', 'carta', 'soldi', 'darmi', 'valore', 'pagami', 'adesso', 'mica', 'scritto', 'scemo', 'fronte', 'scemo', 'paga', 'piaccion', 'auto', 'armi', 'gangster', 'detto', 'passare', 'quartiere', 'passa', 'passa', 'padre', 'ricco', 'vuole', 'far', 'ribelle', 'voce', 'verbo', 'spendere', 'spendere', 'spend', 'spender', 'spendere', 'mercedes', 'staccavo', 'stemma', 'sgamo', 'infami', 'antenna', 'cavallini', 'sembrano', 'renne', 'portano', 'pacchi', 'tutta', 'gente', 'gls', 'mercedes', 'uoh', 'salta', 'lakers', 'salta', 'lakers', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'might', 'also', 'like', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendili', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'tesoro', 'smeagol', 'fatti', 'pi', 'spesa', 'lidl', 'droghe', 'pesanti', 'circo', 'rivo', 'esagero', 'antidepressivo', 'vedo', 'triplo', 'sempre', 'riflessi', 'attivi', 'lasciami', 'trip', 'kho', 'bravo', 'vuoi', 'vivere', 'incubo', 'eh', 'vuoi', 'vedere', 'sequestrato', 'figlio', 'giro', 'ferri', 'finti', 'uccidere', 'capiscimi', 'seh', 'tiro', 'fuori', 'poi', 'finisc', 'pow', 'pow', 'piaccion', 'auto', 'armi', 'gangster', 'detto', 'passare', 'quartiere', 'padre', 'ricco', 'vuole', 'far', 'ribelle', 'voce', 'verbo', 'spendere', 'spend', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendili', 'voce', 'verbo', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'spendere', 'sadturs', 'ahahah', 'f']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>sadturs ahahah vr vr vr vr vroom f scarico fa rumore vado trenta sembrano cento vuole mano collo piaccion mani euro attacco pezzo carta soldi darmi valore pagami adesso mica scritto scemo fronte scemo paga piaccion auto armi gangster detto passare quartiere passa passa padre ricco vuole far ribelle ah voce verbo spendere spendere spend spender spendere mercedes staccavo stemma sgamo infami antenna cavallini sembrano renne portano pacchi tutta gente gls mercedes uoh salta lakers salta lakers uoh uoh uoh uoh uoh might also like voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendili voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere tesoro smeagol fatti pi spesa lidl droghe pesanti circo rivo esagero antidepressivo ah ah vedo triplo sempre riflessi attivi lasciami trip kho bravo vuoi vivere incubo eh vuoi vedere sequestrato figlio giro ferri finti piuttosto uccidere capiscimi seh tiro fuori poi finisc pow pow piaccion auto armi gangster detto passare quartiere padre ricco vuole far ribelle voce verbo spendere spend voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendili voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere sadturs ahahah f</t>
+          <t>sadturs ahahah vr vr vr vr vroom f scarico fa rumore vado trenta sembrano cento vuole mano collo piaccion mani euro attacco pezzo carta soldi darmi valore pagami adesso mica scritto scemo fronte scemo paga piaccion auto armi gangster detto passare quartiere passa passa padre ricco vuole far ribelle voce verbo spendere spendere spend spender spendere mercedes staccavo stemma sgamo infami antenna cavallini sembrano renne portano pacchi tutta gente gls mercedes uoh salta lakers salta lakers uoh uoh uoh uoh uoh might also like voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendili voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere tesoro smeagol fatti pi spesa lidl droghe pesanti circo rivo esagero antidepressivo vedo triplo sempre riflessi attivi lasciami trip kho bravo vuoi vivere incubo eh vuoi vedere sequestrato figlio giro ferri finti uccidere capiscimi seh tiro fuori poi finisc pow pow piaccion auto armi gangster detto passare quartiere padre ricco vuole far ribelle voce verbo spendere spend voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendili voce verbo spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere spendere sadturs ahahah f</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1557,13 +1831,39 @@
         </is>
       </c>
       <c r="H11" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.3612</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.1, subjectivity=1.0)</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1646,25 +1946,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['giuro', 'ultima', 'volta', 'svegliato', 'mentre', 'andavi', 'sbattendo', 'porta', 'risultato', 'aver', 'peggiorato', 'sera', 'gi', 'storta', 'lasciato', 'messaggio', 'tavolo', 'accorta', 'importa', 'dimmi', 'pensi', 'mentivo', 'whatsapp', 'stesso', 'messaggio', 'mesi', 'scrivo', 'sembra', 'cuore', 'cervello', 'frigo', 'perder', 'sensi', 'primo', 'nebbia', 'posto', 'vivo', 'umore', 'grigio', 'resident', 'evil', 'ora', 'pieno', 'conto', 'banca', 'fingi', 'dispr', 'zzi', 'menti', 'sai', 'gi', 'p', 'zzo', 'novanta', 'tasca', 'due', 'pezzi', 'venti', 'parlo', 'frega', 'pi', 'gente', 'supera', 'sempre', 'mettere', 'accordo', 'piuttosto', 'fine', 'recupera', 'niente', 'senza', 'senno', 'poi', 'scriver', 'canzone', 'odio', 'quando', 'sar', 'sobrio', 'esiste', 'pi', 'detto', 'mille', 'finisce', 'manicomio', 'pi', 'spero', 'n', 'ora', 'n', 'mai', 'prima', 'mandi', 'apnea', 'poi', 'chiedi', 'sai', 'bene', 'idea', 'adesso', 'vuoi', 'mai', 'rivedr', 'piuttosto', 'muoio', 'perdono', 'might', 'also', 'like', 'like', 'fuck', 'shit', 'past', 'tryna', 'get', 'past', 'open', 'wounds', 'like', 'scar', 'keeping', 'guard', 'done', 'stabbed', 'back', 'fun', 'done', 'let', 'still', 'back', 'really', 'gave', 'heart', 'trust', 'hate', 'feel', 'like', 'want', 'salty', 'ever', 'go', 'sour', 'call', 'shit', 'coffin', 'messy', 'lil', 'bitch', 'tryna', 'argue', 'get', 'response', 'let', 'want', 'better', 'get', 'way', 'yeah', 'star', 'coming', 'took', 'joke', 'funny', 'led', 'way', 'lights', 'making', 'videos', 'listening', 'songs', 'deleted', 'pictures', 'phone', 'feelin', 'better', 'since', 'know', 'thinking', 'coming', 'back', 'gone', 'sit', 'play', 'grown', 'hit', 'one', 'love', 'tell', 'home', 'sorry', 'senza', 'senno', 'poi', 'scriver', 'canzone', 'odio', 'quando', 'sar', 'sobrio', 'esiste', 'pi', 'detto', 'mille', 'finisce', 'manicomio', 'pi', 'spero', 'n', 'ora', 'n', 'mai', 'prima', 'mandi', 'apnea', 'poi', 'chiedi', 'sai', 'bene', 'idea', 'adesso', 'vuoi', 'mai', 'rivedr', 'piuttosto', 'muoio', 'perdono']</t>
+          <t>['giuro', 'ultima', 'volta', 'svegliato', 'mentre', 'andavi', 'sbattendo', 'porta', 'risultato', 'aver', 'peggiorato', 'sera', 'gi', 'storta', 'lasciato', 'messaggio', 'tavolo', 'accorta', 'importa', 'dimmi', 'pensi', 'mentivo', 'whatsapp', 'stesso', 'messaggio', 'mesi', 'scrivo', 'sembra', 'cuore', 'cervello', 'frigo', 'perder', 'sensi', 'primo', 'nebbia', 'posto', 'vivo', 'umore', 'grigio', 'resident', 'evil', 'ora', 'pieno', 'conto', 'banca', 'fingi', 'dispr', 'zzi', 'menti', 'sai', 'gi', 'p', 'zzo', 'novanta', 'tasca', 'due', 'pezzi', 'venti', 'parlo', 'frega', 'pi', 'gente', 'supera', 'sempre', 'mettere', 'accordo', 'fine', 'recupera', 'niente', 'senza', 'senno', 'poi', 'scriver', 'canzone', 'odio', 'sar', 'sobrio', 'esiste', 'pi', 'detto', 'mille', 'finisce', 'manicomio', 'pi', 'spero', 'n', 'ora', 'n', 'prima', 'mandi', 'apnea', 'poi', 'chiedi', 'sai', 'bene', 'idea', 'adesso', 'vuoi', 'rivedr', 'muoio', 'perdono', 'might', 'also', 'like', 'like', 'fuck', 'shit', 'past', 'tryna', 'get', 'past', 'open', 'wounds', 'like', 'scar', 'keeping', 'guard', 'done', 'stabbed', 'back', 'fun', 'done', 'let', 'still', 'back', 'really', 'gave', 'heart', 'trust', 'hate', 'feel', 'like', 'want', 'salty', 'ever', 'go', 'sour', 'call', 'shit', 'coffin', 'messy', 'lil', 'bitch', 'tryna', 'argue', 'get', 'response', 'let', 'want', 'better', 'get', 'way', 'star', 'coming', 'took', 'joke', 'funny', 'led', 'way', 'lights', 'making', 'videos', 'listening', 'songs', 'deleted', 'pictures', 'phone', 'feelin', 'better', 'since', 'know', 'thinking', 'coming', 'back', 'gone', 'sit', 'play', 'grown', 'hit', 'one', 'love', 'tell', 'home', 'sorry', 'senza', 'senno', 'poi', 'scriver', 'canzone', 'odio', 'sar', 'sobrio', 'esiste', 'pi', 'detto', 'mille', 'finisce', 'manicomio', 'pi', 'spero', 'n', 'ora', 'n', 'prima', 'mandi', 'apnea', 'poi', 'chiedi', 'sai', 'bene', 'idea', 'adesso', 'vuoi', 'rivedr', 'muoio', 'perdono']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>giuro ultima volta svegliato mentre andavi sbattendo porta risultato aver peggiorato sera gi storta lasciato messaggio tavolo accorta importa dimmi pensi mentivo whatsapp stesso messaggio mesi scrivo sembra cuore cervello frigo perder sensi primo nebbia posto vivo umore grigio resident evil ora pieno conto banca fingi dispr zzi menti sai gi p zzo novanta tasca due pezzi venti parlo frega pi gente supera sempre mettere accordo piuttosto fine recupera niente senza senno poi scriver canzone odio quando sar sobrio esiste pi detto mille finisce manicomio pi spero n ora n mai prima mandi apnea poi chiedi sai bene idea adesso vuoi mai rivedr piuttosto muoio perdono might also like like fuck shit past tryna get past open wounds like scar keeping guard done stabbed back fun done let still back really gave heart trust hate feel like want salty ever go sour call shit coffin messy lil bitch tryna argue get response let want better get way yeah star coming took joke funny led way lights making videos listening songs deleted pictures phone feelin better since know thinking coming back gone sit play grown hit one love tell home sorry senza senno poi scriver canzone odio quando sar sobrio esiste pi detto mille finisce manicomio pi spero n ora n mai prima mandi apnea poi chiedi sai bene idea adesso vuoi mai rivedr piuttosto muoio perdono</t>
+          <t>giuro ultima volta svegliato mentre andavi sbattendo porta risultato aver peggiorato sera gi storta lasciato messaggio tavolo accorta importa dimmi pensi mentivo whatsapp stesso messaggio mesi scrivo sembra cuore cervello frigo perder sensi primo nebbia posto vivo umore grigio resident evil ora pieno conto banca fingi dispr zzi menti sai gi p zzo novanta tasca due pezzi venti parlo frega pi gente supera sempre mettere accordo fine recupera niente senza senno poi scriver canzone odio sar sobrio esiste pi detto mille finisce manicomio pi spero n ora n prima mandi apnea poi chiedi sai bene idea adesso vuoi rivedr muoio perdono might also like like fuck shit past tryna get past open wounds like scar keeping guard done stabbed back fun done let still back really gave heart trust hate feel like want salty ever go sour call shit coffin messy lil bitch tryna argue get response let want better get way star coming took joke funny led way lights making videos listening songs deleted pictures phone feelin better since know thinking coming back gone sit play grown hit one love tell home sorry senza senno poi scriver canzone odio sar sobrio esiste pi detto mille finisce manicomio pi spero n ora n prima mandi apnea poi chiedi sai bene idea adesso vuoi rivedr muoio perdono</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'neg': 0.118, 'neu': 0.729, 'pos': 0.153, 'compound': 0.6444}</t>
+          <t>{'neg': 0.124, 'neu': 0.725, 'pos': 0.151, 'compound': 0.4703}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.6444</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>0.151</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4703</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.06401515151515152, subjectivity=0.47613636363636364)</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06401515151515152</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4761363636363636</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1745,23 +2071,49 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'devi', 'dire', 'malinconia', 'settembre', 'due', 'sinonimi', 'fregano', 'sempre', 'po', 'gi', 'guardi', 'orizzonte', 'sembra', 'quasi', 'muoversi', 'resta', 'fermo', 'sparire', 'brilliamo', 'notte', 'giorno', 'muoviamo', 'ombre', 'barare', 'ama', 'ama', 'fiore', 'tatuato', 'dar', 'sempre', 'stesso', 'risultato', 'cascato', 'mille', 'volte', 'altre', 'mille', 'ricascher', 'dovrei', 'promettere', 'futuro', 'ch', 'voglio', 'restare', 'qui', 'giocare', 'v', 'nto', 'cerchi', 'stelle', 'tetto', 'dentro', 'sacco', 'pelo', 'due', 'lasciato', 'fuori', 'fuori', 'fuori', 'fuori', 'fuori', 'solo', 'fiori', 'fiori', 'fiori', 'fiori', 'fiori', 'svegliamo', 'abbracciati', 'mille', 'crepacuori', 'dici', 'romantico', 'romantico', 'romantico', 'muori', 'see', 'pinguini', 'tattici', 'nucleari', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'malinconia', 'settembre', 'due', 'sinonimi', 'fregano', 'sempre', 'keith', 'moon', 'rimaniamo', 'soliti', 'stupidi', 'ipocriti', 'litigano', 'solo', 'amarsi', 'po', 'pi', 'gi', 'notte', 'due', 'vite', 'comunque', 'troppo', 'corte', 'stare', 'equilibrio', 'arriva', 'punto', 'critico', 'scoppia', 'litio', 'volevi', 'cane', 'figlio', 'dire', 'eh', 'cascato', 'mille', 'volte', 'altre', 'mille', 'ricascher', 'dovrei', 'promettere', 'futuro', 'voglio', 'restare', 'qui', 'giocare', 'vento', 'cerchi', 'stelle', 'tetto', 'dentro', 'sacco', 'pelo', 'due', 'lasciato', 'fuori', 'fuori', 'fuori', 'fuori', 'fuori', 'solo', 'fiori', 'fiori', 'fiori', 'fiori', 'fiori', 'svegliamo', 'abbracciati', 'mille', 'crepacuori', 'dici', 'romantico', 'romantico', 'romantico', 'romantico', 'muori', 'cascato', 'mille', 'volte', 'altre', 'mille', 'ricascher', 'romantico', 'romantico', 'romantico', 'voglio', 'restare', 'qui', 'giocare', 'vento', 'cerchi', 'stelle', 'tetto', 'dentro', 'sacco', 'pelo', 'due', 'lasciato', 'fuori', 'fuori', 'fuori', 'fuori', 'fuori', 'solo', 'fiori', 'fiori', 'fiori', 'fiori', 'fiori', 'svegliamo', 'abbracciati', 'mille', 'crepacuori', 'dici', 'romantico', 'romantico', 'romantico', 'muori']</t>
+          <t>['devi', 'dire', 'malinconia', 'settembre', 'due', 'sinonimi', 'fregano', 'sempre', 'po', 'gi', 'guardi', 'orizzonte', 'sembra', 'quasi', 'muoversi', 'resta', 'fermo', 'sparire', 'brilliamo', 'notte', 'giorno', 'muoviamo', 'ombre', 'barare', 'ama', 'ama', 'fiore', 'tatuato', 'dar', 'sempre', 'stesso', 'risultato', 'cascato', 'mille', 'volte', 'altre', 'mille', 'ricascher', 'dovrei', 'promettere', 'futuro', 'ch', 'voglio', 'restare', 'qui', 'giocare', 'v', 'nto', 'cerchi', 'stelle', 'tetto', 'dentro', 'sacco', 'due', 'lasciato', 'fuori', 'fuori', 'fuori', 'fuori', 'fuori', 'solo', 'fiori', 'fiori', 'fiori', 'fiori', 'fiori', 'svegliamo', 'abbracciati', 'mille', 'crepacuori', 'dici', 'romantico', 'romantico', 'romantico', 'muori', 'see', 'pinguini', 'tattici', 'nucleari', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'malinconia', 'settembre', 'due', 'sinonimi', 'fregano', 'sempre', 'keith', 'moon', 'rimaniamo', 'soliti', 'stupidi', 'ipocriti', 'litigano', 'solo', 'amarsi', 'po', 'pi', 'gi', 'notte', 'due', 'vite', 'comunque', 'corte', 'stare', 'equilibrio', 'arriva', 'punto', 'critico', 'scoppia', 'litio', 'volevi', 'cane', 'figlio', 'dire', 'eh', 'cascato', 'mille', 'volte', 'altre', 'mille', 'ricascher', 'dovrei', 'promettere', 'futuro', 'voglio', 'restare', 'qui', 'giocare', 'vento', 'cerchi', 'stelle', 'tetto', 'dentro', 'sacco', 'due', 'lasciato', 'fuori', 'fuori', 'fuori', 'fuori', 'fuori', 'solo', 'fiori', 'fiori', 'fiori', 'fiori', 'fiori', 'svegliamo', 'abbracciati', 'mille', 'crepacuori', 'dici', 'romantico', 'romantico', 'romantico', 'romantico', 'muori', 'cascato', 'mille', 'volte', 'altre', 'mille', 'ricascher', 'romantico', 'romantico', 'romantico', 'voglio', 'restare', 'qui', 'giocare', 'vento', 'cerchi', 'stelle', 'tetto', 'dentro', 'sacco', 'due', 'lasciato', 'fuori', 'fuori', 'fuori', 'fuori', 'fuori', 'solo', 'fiori', 'fiori', 'fiori', 'fiori', 'fiori', 'svegliamo', 'abbracciati', 'mille', 'crepacuori', 'dici', 'romantico', 'romantico', 'romantico', 'muori']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>oh oh oh oh oh oh devi dire malinconia settembre due sinonimi fregano sempre po gi guardi orizzonte sembra quasi muoversi resta fermo sparire brilliamo notte giorno muoviamo ombre barare ama ama fiore tatuato dar sempre stesso risultato cascato mille volte altre mille ricascher dovrei promettere futuro ch voglio restare qui giocare v nto cerchi stelle tetto dentro sacco pelo due lasciato fuori fuori fuori fuori fuori solo fiori fiori fiori fiori fiori svegliamo abbracciati mille crepacuori dici romantico romantico romantico muori see pinguini tattici nucleari liveget tickets low might also like malinconia settembre due sinonimi fregano sempre keith moon rimaniamo soliti stupidi ipocriti litigano solo amarsi po pi gi notte due vite comunque troppo corte stare equilibrio arriva punto critico scoppia litio volevi cane figlio dire eh cascato mille volte altre mille ricascher dovrei promettere futuro voglio restare qui giocare vento cerchi stelle tetto dentro sacco pelo due lasciato fuori fuori fuori fuori fuori solo fiori fiori fiori fiori fiori svegliamo abbracciati mille crepacuori dici romantico romantico romantico romantico muori cascato mille volte altre mille ricascher romantico romantico romantico voglio restare qui giocare vento cerchi stelle tetto dentro sacco pelo due lasciato fuori fuori fuori fuori fuori solo fiori fiori fiori fiori fiori svegliamo abbracciati mille crepacuori dici romantico romantico romantico muori</t>
+          <t>devi dire malinconia settembre due sinonimi fregano sempre po gi guardi orizzonte sembra quasi muoversi resta fermo sparire brilliamo notte giorno muoviamo ombre barare ama ama fiore tatuato dar sempre stesso risultato cascato mille volte altre mille ricascher dovrei promettere futuro ch voglio restare qui giocare v nto cerchi stelle tetto dentro sacco due lasciato fuori fuori fuori fuori fuori solo fiori fiori fiori fiori fiori svegliamo abbracciati mille crepacuori dici romantico romantico romantico muori see pinguini tattici nucleari liveget tickets low might also like malinconia settembre due sinonimi fregano sempre keith moon rimaniamo soliti stupidi ipocriti litigano solo amarsi po pi gi notte due vite comunque corte stare equilibrio arriva punto critico scoppia litio volevi cane figlio dire eh cascato mille volte altre mille ricascher dovrei promettere futuro voglio restare qui giocare vento cerchi stelle tetto dentro sacco due lasciato fuori fuori fuori fuori fuori solo fiori fiori fiori fiori fiori svegliamo abbracciati mille crepacuori dici romantico romantico romantico romantico muori cascato mille volte altre mille ricascher romantico romantico romantico voglio restare qui giocare vento cerchi stelle tetto dentro sacco due lasciato fuori fuori fuori fuori fuori solo fiori fiori fiori fiori fiori svegliamo abbracciati mille crepacuori dici romantico romantico romantico muori</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'neg': 0.068, 'neu': 0.92, 'pos': 0.011, 'compound': -0.9153}</t>
+          <t>{'neg': 0.072, 'neu': 0.917, 'pos': 0.012, 'compound': -0.9153}</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="K13" t="n">
         <v>-0.9153</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.10714285714285714, subjectivity=0.36428571428571427)</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.1071428571428571</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3642857142857143</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -1869,27 +2221,53 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['bu', 'bu', 'bu', 'let', 'go', 'andiamo', 'buio', 'milano', 'sembra', 'gotham', 'milano', 'occhi', 'sempre', 'aperti', 'segue', 'neanche', 'ombra', 'milano', 'abiti', 'tribunale', 'vesto', 'opera', 'bu', 'bu', 'bu', 'sedili', 'pelle', 'opps', 'rolls', 'royce', 'ghost', 'bu', 'bu', 'bu', 'vuole', 'vero', 'bad', 'boy', 'suv', 'nero', 'batman', 'skrrt', 'skrrt', 'nascondiamo', 'toys', 'fantasmi', 'pac', 'pssh', 'pssh', 'fratelli', 'veri', 'vera', 'arma', 'santana', 'sar', 'salvezza', 'condanna', 'west', 'side', 'ventimila', 'dito', 'anulare', 'fede', 'nuziale', 'erede', 'senza', 'padr', 'esatto', 'undici', 'arsenal', 'mani', 'arsenal', 'esatto', 'modo', 'fermarmi', 'solo', 'farmi', 'arrestare', 'ssh', 'ssh', 'milano', 'fotto', 'bitch', 'tutte', 'rotazione', 'bu', 'bu', 'bu', 'rich', 'rich', 'perch', 'opzione', 'bu', 'bu', 'bu', 'milano', 'angels', 'render', 'fazione', 'ricchissima', 'west', 'side', 'metto', 'duomo', 'collo', 'shiva', 'meta', 'turistica', 'quindi', 'let', 'go', 'oh', 'oh', 'pronti', 'chiuder', 'affare', 'andiamo', 'andiamo', 'pussy', 'pensan', 'gioco', 'let', 'go', 'go', 'go', 'pi', 'colpisci', 'meno', 'fa', 'male', 'toccare', 'fuoco', 'pah', 'guarda', 'diablo', 'persona', 'west', 'side', 'fa', 'buio', 'torcia', 'vederti', 'notte', 'batman', 'gotham', 'sciamene', 'might', 'also', 'like', 'autobombe', 'br', 'salta', 'pm', 'dieci', 'air', 'force', 'venti', 'j', 'dieci', 'tn', 'vendetta', 'arriva', 'ultimo', 'p', 'sesso', 'discoteca', 'pr', 'chiedo', 'assistente', 'portafogli', 'xl', 'avirex', 'pelle', 'oppure', 'pelle', 'pelle', 'pelle', 'muoio', 'drogato', 'pazzo', 'chiuso', 'heath', 'ledger', 'sembro', 'scammer', 'guadagno', 'dm', 'generation', 'four', 'immatricolate', 'pulite', 'immacolate', 'inutile', 'ostacolate', 'pianeta', 'merda', 'musica', 'immorale', 'preso', 'tre', 'ergastoli', 'immortale', 'vuoi', 'steppare', 'brother', 'serve', 'stamina', 'mentre', 'compili', 'cid', 'gi', 'sparita', 'macchina', 'parliamo', 'dialetto', 'stretto', 'parliamo', 'afrikaans', 'gente', 'sciabola', 'cappotto', 'morto', 'alpaca', 'oh', 'oh', 'pronti', 'chiuder', 'affare', 'andiamo', 'andiamo', 'pussy', 'pensan', 'gioco', 'let', 'go', 'go', 'go', 'pi', 'colpisci', 'meno', 'fa', 'male', 'toccare', 'fuoco', 'pah', 'guarda', 'diablo', 'persona', 'west', 'side', 'fa', 'buio', 'torcia', 'vederti', 'notte', 'batman', 'gotham', 'milano', 'pah', 'pah', 'pah', 'pah', 'bu', 'bu', 'bu', 'bu', 'bu', 'bu', 'pah', 'pah', 'pah', 'pah', 'ehi', 'ehi', 'ehi', 'let', 'go', 'let', 'go', 'let', 'go', 'let', 'go', 'andiamo', 'ehi', 'sciamene', 'suv', 'blindato', 'carrarmato', 'armi', 'fuoco', 'taglio', 'nuovo', 'terrorismo', 'shiva', 'yugi', 'califfato', 'bu', 'bu', 'bu', 'bu', 'vesto', 'elegante', 'processo', 'quasi', 'camuffando', 'reati', 'commessi', 'altro', 'esatto', 'corner', 'fottuto', 'semaforo', 'esatto', 'ognuno', 'palo', 'mai', 'mosso', 'angolo', 'giuro', 'dio', 'fumiamo', 'rocce', 'mica', 'dentro', 'excalibur', 'corsico', 'ogni', 'arma', 'impronte', 'sopra', 'manico', 'yeah', 'tocchi', 'fratello', 'viene', 'voglia', 'dormire', 'letto', 'castello', 'araba', 'cammello', 'scendi', 'puglia', 'controllare', 'davvero', 'coperto', 'taglia', 'massimo', 'mela', 'bro', 'porti', 'coltello', 'vieni', 'sud', 'estate', 'rapinano', 'casello', 'ucciso', 'cattivi', 'mette', 'mai', 'mantello', 'fidanzata', 'darai', 'anello', 'minacciano', 'giudice', 'assolve', 'appello', 'let', 'go', 'let', 'go', 'pieno', 'verde', 'piton', 'severus', 'pah', 'pah', 'digos', 'studia', 'rebus', 'milano', 'sapevo', 'prima', 'poi', 'milano', 'paranoia', 'pure', 'marrageddon', 'uh', 'uh', 'taranto', 'milano', 'farmelo', 'succhiare', 'hollywood', 'prime', 'infatti', 'sento', 'optimus', 'tagliano', 'campagna', 'nessuno', 'emo', 'tracce', 'troppo', 'spinte', 'devono', 'rimaner', 'demo']</t>
+          <t>['bu', 'bu', 'bu', 'let', 'go', 'andiamo', 'buio', 'milano', 'sembra', 'gotham', 'milano', 'occhi', 'sempre', 'aperti', 'segue', 'neanche', 'ombra', 'milano', 'abiti', 'tribunale', 'vesto', 'opera', 'bu', 'bu', 'bu', 'sedili', 'pelle', 'opps', 'rolls', 'royce', 'ghost', 'bu', 'bu', 'bu', 'vuole', 'vero', 'bad', 'boy', 'suv', 'nero', 'batman', 'skrrt', 'skrrt', 'nascondiamo', 'toys', 'fantasmi', 'pac', 'pssh', 'pssh', 'fratelli', 'veri', 'vera', 'arma', 'santana', 'sar', 'salvezza', 'condanna', 'west', 'side', 'ventimila', 'dito', 'anulare', 'fede', 'nuziale', 'erede', 'senza', 'padr', 'esatto', 'undici', 'arsenal', 'mani', 'arsenal', 'esatto', 'modo', 'fermarmi', 'solo', 'farmi', 'arrestare', 'ssh', 'ssh', 'milano', 'fotto', 'bitch', 'tutte', 'rotazione', 'bu', 'bu', 'bu', 'rich', 'rich', 'perch', 'opzione', 'bu', 'bu', 'bu', 'milano', 'angels', 'render', 'fazione', 'ricchissima', 'west', 'side', 'metto', 'duomo', 'collo', 'shiva', 'meta', 'turistica', 'quindi', 'let', 'go', 'pronti', 'chiuder', 'affare', 'andiamo', 'andiamo', 'pussy', 'pensan', 'gioco', 'let', 'go', 'go', 'go', 'pi', 'colpisci', 'meno', 'fa', 'male', 'toccare', 'fuoco', 'pah', 'guarda', 'diablo', 'persona', 'west', 'side', 'fa', 'buio', 'torcia', 'vederti', 'notte', 'batman', 'gotham', 'sciamene', 'might', 'also', 'like', 'autobombe', 'br', 'salta', 'pm', 'dieci', 'air', 'force', 'venti', 'j', 'dieci', 'tn', 'vendetta', 'arriva', 'ultimo', 'p', 'sesso', 'discoteca', 'pr', 'chiedo', 'assistente', 'portafogli', 'xl', 'avirex', 'pelle', 'oppure', 'pelle', 'pelle', 'pelle', 'muoio', 'drogato', 'pazzo', 'chiuso', 'heath', 'ledger', 'sembro', 'scammer', 'guadagno', 'dm', 'generation', 'four', 'immatricolate', 'pulite', 'immacolate', 'inutile', 'ostacolate', 'pianeta', 'merda', 'musica', 'immorale', 'preso', 'tre', 'ergastoli', 'immortale', 'vuoi', 'steppare', 'brother', 'serve', 'stamina', 'mentre', 'compili', 'cid', 'gi', 'sparita', 'macchina', 'parliamo', 'dialetto', 'stretto', 'parliamo', 'afrikaans', 'gente', 'sciabola', 'cappotto', 'morto', 'alpaca', 'pronti', 'chiuder', 'affare', 'andiamo', 'andiamo', 'pussy', 'pensan', 'gioco', 'let', 'go', 'go', 'go', 'pi', 'colpisci', 'meno', 'fa', 'male', 'toccare', 'fuoco', 'pah', 'guarda', 'diablo', 'persona', 'west', 'side', 'fa', 'buio', 'torcia', 'vederti', 'notte', 'batman', 'gotham', 'milano', 'pah', 'pah', 'pah', 'pah', 'bu', 'bu', 'bu', 'bu', 'bu', 'bu', 'pah', 'pah', 'pah', 'pah', 'ehi', 'ehi', 'ehi', 'let', 'go', 'let', 'go', 'let', 'go', 'let', 'go', 'andiamo', 'ehi', 'sciamene', 'suv', 'blindato', 'carrarmato', 'armi', 'fuoco', 'taglio', 'nuovo', 'terrorismo', 'shiva', 'yugi', 'califfato', 'bu', 'bu', 'bu', 'bu', 'vesto', 'elegante', 'processo', 'quasi', 'camuffando', 'reati', 'commessi', 'esatto', 'corner', 'fottuto', 'semaforo', 'esatto', 'ognuno', 'palo', 'mosso', 'angolo', 'giuro', 'dio', 'fumiamo', 'rocce', 'mica', 'dentro', 'excalibur', 'corsico', 'arma', 'impronte', 'sopra', 'manico', 'tocchi', 'fratello', 'viene', 'voglia', 'dormire', 'letto', 'castello', 'araba', 'cammello', 'scendi', 'puglia', 'controllare', 'davvero', 'coperto', 'taglia', 'massimo', 'mela', 'bro', 'porti', 'coltello', 'vieni', 'sud', 'estate', 'rapinano', 'casello', 'ucciso', 'cattivi', 'mette', 'mantello', 'fidanzata', 'darai', 'anello', 'minacciano', 'giudice', 'assolve', 'appello', 'let', 'go', 'let', 'go', 'pieno', 'verde', 'piton', 'severus', 'pah', 'pah', 'digos', 'studia', 'rebus', 'milano', 'sapevo', 'prima', 'poi', 'milano', 'paranoia', 'pure', 'marrageddon', 'taranto', 'milano', 'farmelo', 'succhiare', 'hollywood', 'prime', 'infatti', 'sento', 'optimus', 'tagliano', 'campagna', 'emo', 'tracce', 'spinte', 'devono', 'rimaner', 'demo']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>bu bu bu let go andiamo buio milano sembra gotham milano occhi sempre aperti segue neanche ombra milano abiti tribunale vesto opera bu bu bu sedili pelle opps rolls royce ghost bu bu bu vuole vero bad boy suv nero batman skrrt skrrt nascondiamo toys fantasmi pac pssh pssh fratelli veri vera arma santana sar salvezza condanna west side ventimila dito anulare fede nuziale erede senza padr esatto undici arsenal mani arsenal esatto modo fermarmi solo farmi arrestare ssh ssh milano fotto bitch tutte rotazione bu bu bu rich rich perch opzione bu bu bu milano angels render fazione ricchissima west side metto duomo collo shiva meta turistica quindi let go oh oh pronti chiuder affare andiamo andiamo pussy pensan gioco let go go go pi colpisci meno fa male toccare fuoco pah guarda diablo persona west side fa buio torcia vederti notte batman gotham sciamene might also like autobombe br salta pm dieci air force venti j dieci tn vendetta arriva ultimo p sesso discoteca pr chiedo assistente portafogli xl avirex pelle oppure pelle pelle pelle muoio drogato pazzo chiuso heath ledger sembro scammer guadagno dm generation four immatricolate pulite immacolate inutile ostacolate pianeta merda musica immorale preso tre ergastoli immortale vuoi steppare brother serve stamina mentre compili cid gi sparita macchina parliamo dialetto stretto parliamo afrikaans gente sciabola cappotto morto alpaca oh oh pronti chiuder affare andiamo andiamo pussy pensan gioco let go go go pi colpisci meno fa male toccare fuoco pah guarda diablo persona west side fa buio torcia vederti notte batman gotham milano pah pah pah pah bu bu bu bu bu bu pah pah pah pah ehi ehi ehi let go let go let go let go andiamo ehi sciamene suv blindato carrarmato armi fuoco taglio nuovo terrorismo shiva yugi califfato bu bu bu bu vesto elegante processo quasi camuffando reati commessi altro esatto corner fottuto semaforo esatto ognuno palo mai mosso angolo giuro dio fumiamo rocce mica dentro excalibur corsico ogni arma impronte sopra manico yeah tocchi fratello viene voglia dormire letto castello araba cammello scendi puglia controllare davvero coperto taglia massimo mela bro porti coltello vieni sud estate rapinano casello ucciso cattivi mette mai mantello fidanzata darai anello minacciano giudice assolve appello let go let go pieno verde piton severus pah pah digos studia rebus milano sapevo prima poi milano paranoia pure marrageddon uh uh taranto milano farmelo succhiare hollywood prime infatti sento optimus tagliano campagna nessuno emo tracce troppo spinte devono rimaner demo</t>
+          <t>bu bu bu let go andiamo buio milano sembra gotham milano occhi sempre aperti segue neanche ombra milano abiti tribunale vesto opera bu bu bu sedili pelle opps rolls royce ghost bu bu bu vuole vero bad boy suv nero batman skrrt skrrt nascondiamo toys fantasmi pac pssh pssh fratelli veri vera arma santana sar salvezza condanna west side ventimila dito anulare fede nuziale erede senza padr esatto undici arsenal mani arsenal esatto modo fermarmi solo farmi arrestare ssh ssh milano fotto bitch tutte rotazione bu bu bu rich rich perch opzione bu bu bu milano angels render fazione ricchissima west side metto duomo collo shiva meta turistica quindi let go pronti chiuder affare andiamo andiamo pussy pensan gioco let go go go pi colpisci meno fa male toccare fuoco pah guarda diablo persona west side fa buio torcia vederti notte batman gotham sciamene might also like autobombe br salta pm dieci air force venti j dieci tn vendetta arriva ultimo p sesso discoteca pr chiedo assistente portafogli xl avirex pelle oppure pelle pelle pelle muoio drogato pazzo chiuso heath ledger sembro scammer guadagno dm generation four immatricolate pulite immacolate inutile ostacolate pianeta merda musica immorale preso tre ergastoli immortale vuoi steppare brother serve stamina mentre compili cid gi sparita macchina parliamo dialetto stretto parliamo afrikaans gente sciabola cappotto morto alpaca pronti chiuder affare andiamo andiamo pussy pensan gioco let go go go pi colpisci meno fa male toccare fuoco pah guarda diablo persona west side fa buio torcia vederti notte batman gotham milano pah pah pah pah bu bu bu bu bu bu pah pah pah pah ehi ehi ehi let go let go let go let go andiamo ehi sciamene suv blindato carrarmato armi fuoco taglio nuovo terrorismo shiva yugi califfato bu bu bu bu vesto elegante processo quasi camuffando reati commessi esatto corner fottuto semaforo esatto ognuno palo mosso angolo giuro dio fumiamo rocce mica dentro excalibur corsico arma impronte sopra manico tocchi fratello viene voglia dormire letto castello araba cammello scendi puglia controllare davvero coperto taglia massimo mela bro porti coltello vieni sud estate rapinano casello ucciso cattivi mette mantello fidanzata darai anello minacciano giudice assolve appello let go let go pieno verde piton severus pah pah digos studia rebus milano sapevo prima poi milano paranoia pure marrageddon taranto milano farmelo succhiare hollywood prime infatti sento optimus tagliano campagna emo tracce spinte devono rimaner demo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'neg': 0.027, 'neu': 0.94, 'pos': 0.033, 'compound': 0.3612}</t>
+          <t>{'neg': 0.028, 'neu': 0.943, 'pos': 0.029, 'compound': 0.0772}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.3612</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>0.029</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.04404761904761908, subjectivity=0.4777777777777778)</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04404761904761908</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1980,25 +2358,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['apache', 'tevez', 'gioco', 'buenos', 'aires', 'fumi', 'roba', 'poi', 'tremano', 'gambe', 'slimes', 'samurai', 'mano', 'quattro', 'sciabole', 'neri', 'stanza', 'qua', 'nevica', 'grandine', 'tetto', 'esce', 'muffa', 'piatto', 'quindi', 'grandina', 'fratello', 'tocca', 'fuma', 'poi', 'traffica', 'dieci', 'k', 'dieci', 'dentro', 'cardigan', 'volo', 'dritto', 'marsa', 'alam', 'sento', 'pi', 'problema', 'tranquillo', 'cinta', 'coccodrillo', 'seduto', 'sopra', 'timbro', 'alza', 'dominio', 'let', 'go', 'let', 'go', 'cose', 'pensare', 'capelli', 'tingo', 'pelle', 'sempre', 'scura', 'sembro', 'santo', 'domingo', 'abbasso', 'finestrino', 'esce', 'fumo', 'entra', 'aria', 'tasca', 'quattro', 'p', 'zzi', 'tessera', 'sanitaria', 'bocca', 'parole', 'comprarmi', 'altra', 'casa', 'perso', 'dieci', 'chili', 'messo', 'dieta', 'pesa', 'dopo', 'imbusta', 'busta', 'puttana', 'riempiamo', 'tutta', 'soldi', 'borsa', 'borsa', 'pesa', 'palo', 'due', 'fighe', 'torta', 'compleanno', 'due', 'botte', 'diventi', 'simpatica', 'sempre', 'conto', 'soldi', 'matematica', 'fratello', 'parla', 'quando', 'parla', 'poi', 'sbiascica', 'mafia', 'slime', 'merda', 'plastica', 'might', 'also', 'like', 'speravo', 'riunendoci', 'qui', 'potesse', 'ragionare', 'sempre', 'pronto', 'fare', 'necessario', 'trovare', 'soluzione', 'pacifica', 'problemi', 'flow', 'sai', 'bene', 'vuole', 'poi', 'carrya', 'ah', 'grammetto', 'appostato', 'tessera', 'sanitaria', 'neri', 'gamberetto', 'bicchiere', 'vedi', 'doppio', 'cubana', 'oh', 'cohiba', 'giacca', 'ivan', 'jaguar', 'mafia', 'slime', 'viaggia', 'rimowa', 'tipa', 'sola', 'figa', 'ricotta', 'voglia', 'fame', 'giuro', 'rimossa', 'neri', 'perdiamo', 'zero', 'tre', 'toccher', 'rimonta', 'nerissima', 'troia', 'chiama', 'via', 'let', 'go', 'let', 'go', 'ragazzo', 'scrackava', 'nato', 'figlio', 'sette', 'dita', 'roba', 'abc', 'airbnb', 'fa', 'cattiva', 'oh', 'oh', 'comprare', 'nuovo', 'rolex', 'vado', 'fiat', 'punto', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta', 'rolex', 'daytona', 'polso', 'segna', 'ora', 'rolex', 'niente', 'sfiora', 'rifatto', 'sembra', 'nuova', 'nuova', 'bravo', 'studia', 'scuola', 'diceva', 'sempre', 'mamma', 'ah', 'appena', 'fatto', 'dodic', 'anni', 'venduto', 'prima', 'canna', 'soldi', 'conto', 'soldi', 'spendo', 'soldi', 'giorno', 'film', 'porno', 'fatto', 'video', 'porno', 'fermo', 'tempo', 'quando', 'parlo', 'lavandino', 'oro', 'giallo', 'ostriche', 'champagne', 'alzo', 'cresta', 'gallo', 'oh', 'oh', 'pago', 'cash', 'brutta', 'figura', 'fanculo', 'tasse', 'merda', 'spazzatura', 'fanculo', 'tutta', 'dura', 'mangia', 'poverina', 'mal', 'pancia', 'ah', 'persona', 'vuota', 'crisi', 'astinenza', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta']</t>
+          <t>['apache', 'tevez', 'gioco', 'buenos', 'aires', 'fumi', 'roba', 'poi', 'tremano', 'gambe', 'slimes', 'samurai', 'mano', 'quattro', 'sciabole', 'neri', 'stanza', 'qua', 'nevica', 'grandine', 'tetto', 'esce', 'muffa', 'piatto', 'quindi', 'grandina', 'fratello', 'tocca', 'fuma', 'poi', 'traffica', 'dieci', 'k', 'dieci', 'dentro', 'cardigan', 'volo', 'dritto', 'marsa', 'alam', 'sento', 'pi', 'problema', 'tranquillo', 'cinta', 'coccodrillo', 'seduto', 'sopra', 'timbro', 'alza', 'dominio', 'let', 'go', 'let', 'go', 'cose', 'pensare', 'capelli', 'tingo', 'pelle', 'sempre', 'scura', 'sembro', 'santo', 'domingo', 'abbasso', 'finestrino', 'esce', 'fumo', 'entra', 'aria', 'tasca', 'quattro', 'p', 'zzi', 'tessera', 'sanitaria', 'bocca', 'parole', 'comprarmi', 'altra', 'casa', 'perso', 'dieci', 'chili', 'messo', 'dieta', 'pesa', 'imbusta', 'busta', 'puttana', 'riempiamo', 'tutta', 'soldi', 'borsa', 'borsa', 'pesa', 'palo', 'due', 'fighe', 'torta', 'compleanno', 'due', 'botte', 'diventi', 'simpatica', 'sempre', 'conto', 'soldi', 'matematica', 'fratello', 'parla', 'parla', 'poi', 'sbiascica', 'mafia', 'slime', 'merda', 'plastica', 'might', 'also', 'like', 'speravo', 'riunendoci', 'qui', 'potesse', 'ragionare', 'sempre', 'pronto', 'necessario', 'trovare', 'soluzione', 'pacifica', 'problemi', 'flow', 'sai', 'bene', 'vuole', 'poi', 'carrya', 'grammetto', 'appostato', 'tessera', 'sanitaria', 'neri', 'gamberetto', 'bicchiere', 'vedi', 'doppio', 'cubana', 'cohiba', 'giacca', 'ivan', 'jaguar', 'mafia', 'slime', 'viaggia', 'rimowa', 'tipa', 'sola', 'figa', 'ricotta', 'voglia', 'fame', 'giuro', 'rimossa', 'neri', 'perdiamo', 'zero', 'tre', 'toccher', 'rimonta', 'nerissima', 'troia', 'chiama', 'via', 'let', 'go', 'let', 'go', 'ragazzo', 'scrackava', 'nato', 'figlio', 'sette', 'dita', 'roba', 'abc', 'airbnb', 'fa', 'cattiva', 'comprare', 'nuovo', 'rolex', 'vado', 'fiat', 'punto', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta', 'rolex', 'daytona', 'polso', 'segna', 'ora', 'rolex', 'niente', 'sfiora', 'rifatto', 'sembra', 'nuova', 'nuova', 'bravo', 'studia', 'scuola', 'diceva', 'sempre', 'mamma', 'appena', 'dodic', 'anni', 'venduto', 'prima', 'canna', 'soldi', 'conto', 'soldi', 'spendo', 'soldi', 'giorno', 'film', 'porno', 'video', 'porno', 'fermo', 'tempo', 'parlo', 'lavandino', 'oro', 'giallo', 'ostriche', 'champagne', 'alzo', 'cresta', 'gallo', 'pago', 'cash', 'brutta', 'figura', 'fanculo', 'tasse', 'merda', 'spazzatura', 'fanculo', 'tutta', 'dura', 'mangia', 'poverina', 'mal', 'pancia', 'persona', 'vuota', 'crisi', 'astinenza', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta', 'fumando', 'ultimamente', 'tessera', 'sanitaria', 'tasca', 'evito', 'piatto', 'caldo', 'gente', 'tocco', 'lampadario', 'cocco', 'basta']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>apache tevez gioco buenos aires fumi roba poi tremano gambe slimes samurai mano quattro sciabole neri stanza qua nevica grandine tetto esce muffa piatto quindi grandina fratello tocca fuma poi traffica dieci k dieci dentro cardigan volo dritto marsa alam sento pi problema tranquillo cinta coccodrillo seduto sopra timbro alza dominio let go let go cose pensare capelli tingo pelle sempre scura sembro santo domingo abbasso finestrino esce fumo entra aria tasca quattro p zzi tessera sanitaria bocca parole comprarmi altra casa perso dieci chili messo dieta pesa dopo imbusta busta puttana riempiamo tutta soldi borsa borsa pesa palo due fighe torta compleanno due botte diventi simpatica sempre conto soldi matematica fratello parla quando parla poi sbiascica mafia slime merda plastica might also like speravo riunendoci qui potesse ragionare sempre pronto fare necessario trovare soluzione pacifica problemi flow sai bene vuole poi carrya ah grammetto appostato tessera sanitaria neri gamberetto bicchiere vedi doppio cubana oh cohiba giacca ivan jaguar mafia slime viaggia rimowa tipa sola figa ricotta voglia fame giuro rimossa neri perdiamo zero tre toccher rimonta nerissima troia chiama via let go let go ragazzo scrackava nato figlio sette dita roba abc airbnb fa cattiva oh oh comprare nuovo rolex vado fiat punto fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta rolex daytona polso segna ora rolex niente sfiora rifatto sembra nuova nuova bravo studia scuola diceva sempre mamma ah appena fatto dodic anni venduto prima canna soldi conto soldi spendo soldi giorno film porno fatto video porno fermo tempo quando parlo lavandino oro giallo ostriche champagne alzo cresta gallo oh oh pago cash brutta figura fanculo tasse merda spazzatura fanculo tutta dura mangia poverina mal pancia ah persona vuota crisi astinenza fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta</t>
+          <t>apache tevez gioco buenos aires fumi roba poi tremano gambe slimes samurai mano quattro sciabole neri stanza qua nevica grandine tetto esce muffa piatto quindi grandina fratello tocca fuma poi traffica dieci k dieci dentro cardigan volo dritto marsa alam sento pi problema tranquillo cinta coccodrillo seduto sopra timbro alza dominio let go let go cose pensare capelli tingo pelle sempre scura sembro santo domingo abbasso finestrino esce fumo entra aria tasca quattro p zzi tessera sanitaria bocca parole comprarmi altra casa perso dieci chili messo dieta pesa imbusta busta puttana riempiamo tutta soldi borsa borsa pesa palo due fighe torta compleanno due botte diventi simpatica sempre conto soldi matematica fratello parla parla poi sbiascica mafia slime merda plastica might also like speravo riunendoci qui potesse ragionare sempre pronto necessario trovare soluzione pacifica problemi flow sai bene vuole poi carrya grammetto appostato tessera sanitaria neri gamberetto bicchiere vedi doppio cubana cohiba giacca ivan jaguar mafia slime viaggia rimowa tipa sola figa ricotta voglia fame giuro rimossa neri perdiamo zero tre toccher rimonta nerissima troia chiama via let go let go ragazzo scrackava nato figlio sette dita roba abc airbnb fa cattiva comprare nuovo rolex vado fiat punto fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta rolex daytona polso segna ora rolex niente sfiora rifatto sembra nuova nuova bravo studia scuola diceva sempre mamma appena dodic anni venduto prima canna soldi conto soldi spendo soldi giorno film porno video porno fermo tempo parlo lavandino oro giallo ostriche champagne alzo cresta gallo pago cash brutta figura fanculo tasse merda spazzatura fanculo tutta dura mangia poverina mal pancia persona vuota crisi astinenza fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta fumando ultimamente tessera sanitaria tasca evito piatto caldo gente tocco lampadario cocco basta</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.977, 'pos': 0.023, 'compound': 0.765}</t>
+          <t>{'neg': 0.0, 'neu': 0.976, 'pos': 0.024, 'compound': 0.765}</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.765</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.125, subjectivity=0.375)</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2078,27 +2482,53 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['na', 'jurnata', 'inverno', 'po', 'diventata', 'na', 'jurnata', 'inferno', 'doppo', 'ca', 'h', 'ditto', 'amo', 'nun', 'vulenno', 'staje', 'jenno', 'rimanenno', 'nun', 'capenno', 'mo', 'lasciame', 'guardate', 'attuorno', 'suonno', 'sveglio', 'pure', 'nun', 'dormo', 'songo', 'na', 'pistola', 'allora', 'grilletto', 'nonostante', 'chesto', 'aggio', 'tenuta', 'stretta', 'mme', 'chiedo', 'scusa', 'aggio', 'dato', 'nn', 'aggio', 'maje', 'tenuto', 'chello', 'pozzo', 'comme', 'fusse', 'mare', 'tuorne', 'areto', 'h', 'dato', 'n', 'episodio', 'ammore', 'senza', 'mo', 'chistu', 'core', 'fa', 'cchi', 'ch', 'ammore', 'p', 'mm', 'ossessione', 'fa', 'male', 'comme', 'verit', 'senso', 'cercanno', 'pe', 'tutt', 'citt', 'annascunne', 'quando', 'trovo', 'pecch', 'truove', 'po', 'arrubbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'ancora', 'ancora', 'ammore', 'might', 'also', 'like', 'yeah', 'yeah', 'pigliame', 'pe', 'mmano', 'comme', 'isse', 'arrestato', 'comme', 'nn', 'ce', 'stato', 'nisciun', 'ato', 'comme', 'nn', 'succieso', 'niente', 'purtato', 'chesto', 'impegno', 'f', 'p', 'sole', 'dda', 'riturn', 'tempesta', 'frattempo', 'abbracciame', 'areto', 'po', 'accultiellame', 'ffaje', 'nn', 'sento', 'niente', 'sentimente', 'nullatenente', 'difiendeme', 'saccio', 'ch', 'difficile', 'ff', 'stessa', 'pecch', 'artefice', 'h', 'dato', 'n', 'episodio', 'ammore', 'senza', 'mo', 'chistu', 'core', 'fa', 'cchi', 'ch', 'ammore', 'pe', 'mm', 'ossessione', 'fa', 'male', 'comme', 'verit', 'senso', 'cercanno', 'pe', 'tutt', 'citt', 'annascunne', 'quando', 'trovo', 'pecch', 'truove', 'po', 'arrubbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'ancora', 'ancora', 'ammore', 'ancora', 'strigneme', 'mano', 'fin', 'quando', 'nn', 'sento', 'cchi', 'nn', 'cchi', 'stacca', 'braccio', 'nun', 'ammore', 'ire', 'ca', 'tenive', 'ostaggio', 'vulevo', 'fuj', 'nn', 'aggio', 'tenuto', 'curaggio', 'volessi', 'tutt', 'cielo', 'cadesse', 'ggiuro', 'mantenesse', 'pecch', 'aggio', 'voluto', 'bbene', 'cchi', 'assaje', 'senso', 'cercanno', 'pe', 'tutt', 'citt', 'annascunne', 'quando', 'trovo', 'pecch', 'truove', 'po', 'arrubbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'ancora', 'ancora', 'ancora', 'n', 'ata', 'vota', 'arruobbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'ancora', 'ancora']</t>
+          <t>['jurnata', 'inverno', 'po', 'diventata', 'jurnata', 'inferno', 'doppo', 'ca', 'h', 'ditto', 'amo', 'nun', 'vulenno', 'staje', 'jenno', 'rimanenno', 'nun', 'capenno', 'mo', 'lasciame', 'guardate', 'attuorno', 'suonno', 'sveglio', 'pure', 'nun', 'dormo', 'songo', 'pistola', 'allora', 'grilletto', 'chesto', 'aggio', 'tenuta', 'stretta', 'mme', 'chiedo', 'scusa', 'aggio', 'dato', 'nn', 'aggio', 'maje', 'tenuto', 'chello', 'pozzo', 'comme', 'fusse', 'mare', 'tuorne', 'areto', 'h', 'dato', 'n', 'episodio', 'ammore', 'senza', 'mo', 'chistu', 'core', 'fa', 'cchi', 'ch', 'ammore', 'p', 'mm', 'ossessione', 'fa', 'male', 'comme', 'verit', 'senso', 'cercanno', 'pe', 'tutt', 'citt', 'annascunne', 'trovo', 'pecch', 'truove', 'po', 'arrubbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'ammore', 'might', 'also', 'like', 'pigliame', 'pe', 'mmano', 'comme', 'isse', 'arrestato', 'comme', 'nn', 'ce', 'stato', 'nisciun', 'ato', 'comme', 'nn', 'succieso', 'niente', 'purtato', 'chesto', 'impegno', 'f', 'p', 'sole', 'dda', 'riturn', 'tempesta', 'frattempo', 'abbracciame', 'areto', 'po', 'accultiellame', 'ffaje', 'nn', 'sento', 'niente', 'sentimente', 'nullatenente', 'difiendeme', 'saccio', 'ch', 'difficile', 'ff', 'stessa', 'pecch', 'artefice', 'h', 'dato', 'n', 'episodio', 'ammore', 'senza', 'mo', 'chistu', 'core', 'fa', 'cchi', 'ch', 'ammore', 'pe', 'mm', 'ossessione', 'fa', 'male', 'comme', 'verit', 'senso', 'cercanno', 'pe', 'tutt', 'citt', 'annascunne', 'trovo', 'pecch', 'truove', 'po', 'arrubbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'ammore', 'strigneme', 'mano', 'fin', 'nn', 'sento', 'cchi', 'nn', 'cchi', 'stacca', 'braccio', 'nun', 'ammore', 'ire', 'ca', 'tenive', 'ostaggio', 'vulevo', 'fuj', 'nn', 'aggio', 'tenuto', 'curaggio', 'volessi', 'tutt', 'cielo', 'cadesse', 'ggiuro', 'mantenesse', 'pecch', 'aggio', 'voluto', 'bbene', 'cchi', 'assaje', 'senso', 'cercanno', 'pe', 'tutt', 'citt', 'annascunne', 'trovo', 'pecch', 'truove', 'po', 'arrubbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio', 'n', 'ata', 'vota', 'arruobbe', 'ammore', 'ammore', 'ammore', 'pure', 'faje', 'male', 'voglio']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>na jurnata inverno po diventata na jurnata inferno doppo ca h ditto amo nun vulenno staje jenno rimanenno nun capenno mo lasciame guardate attuorno suonno sveglio pure nun dormo songo na pistola allora grilletto nonostante chesto aggio tenuta stretta mme chiedo scusa aggio dato nn aggio maje tenuto chello pozzo comme fusse mare tuorne areto h dato n episodio ammore senza mo chistu core fa cchi ch ammore p mm ossessione fa male comme verit senso cercanno pe tutt citt annascunne quando trovo pecch truove po arrubbe ammore ammore ammore pure faje male voglio ancora ancora ammore might also like yeah yeah pigliame pe mmano comme isse arrestato comme nn ce stato nisciun ato comme nn succieso niente purtato chesto impegno f p sole dda riturn tempesta frattempo abbracciame areto po accultiellame ffaje nn sento niente sentimente nullatenente difiendeme saccio ch difficile ff stessa pecch artefice h dato n episodio ammore senza mo chistu core fa cchi ch ammore pe mm ossessione fa male comme verit senso cercanno pe tutt citt annascunne quando trovo pecch truove po arrubbe ammore ammore ammore pure faje male voglio ancora ancora ammore ancora strigneme mano fin quando nn sento cchi nn cchi stacca braccio nun ammore ire ca tenive ostaggio vulevo fuj nn aggio tenuto curaggio volessi tutt cielo cadesse ggiuro mantenesse pecch aggio voluto bbene cchi assaje senso cercanno pe tutt citt annascunne quando trovo pecch truove po arrubbe ammore ammore ammore pure faje male voglio ancora ancora ancora n ata vota arruobbe ammore ammore ammore pure faje male voglio ancora ancora</t>
+          <t>jurnata inverno po diventata jurnata inferno doppo ca h ditto amo nun vulenno staje jenno rimanenno nun capenno mo lasciame guardate attuorno suonno sveglio pure nun dormo songo pistola allora grilletto chesto aggio tenuta stretta mme chiedo scusa aggio dato nn aggio maje tenuto chello pozzo comme fusse mare tuorne areto h dato n episodio ammore senza mo chistu core fa cchi ch ammore p mm ossessione fa male comme verit senso cercanno pe tutt citt annascunne trovo pecch truove po arrubbe ammore ammore ammore pure faje male voglio ammore might also like pigliame pe mmano comme isse arrestato comme nn ce stato nisciun ato comme nn succieso niente purtato chesto impegno f p sole dda riturn tempesta frattempo abbracciame areto po accultiellame ffaje nn sento niente sentimente nullatenente difiendeme saccio ch difficile ff stessa pecch artefice h dato n episodio ammore senza mo chistu core fa cchi ch ammore pe mm ossessione fa male comme verit senso cercanno pe tutt citt annascunne trovo pecch truove po arrubbe ammore ammore ammore pure faje male voglio ammore strigneme mano fin nn sento cchi nn cchi stacca braccio nun ammore ire ca tenive ostaggio vulevo fuj nn aggio tenuto curaggio volessi tutt cielo cadesse ggiuro mantenesse pecch aggio voluto bbene cchi assaje senso cercanno pe tutt citt annascunne trovo pecch truove po arrubbe ammore ammore ammore pure faje male voglio n ata vota arruobbe ammore ammore ammore pure faje male voglio</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'neg': 0.067, 'neu': 0.897, 'pos': 0.036, 'compound': -0.8834}</t>
+          <t>{'neg': 0.073, 'neu': 0.905, 'pos': 0.022, 'compound': -0.9287}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-0.8834</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>0.022</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.9287</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.08928571428571429, subjectivity=0.27916666666666673)</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2791666666666667</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2182,27 +2612,53 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['okay', 'ricordo', 'quando', 'mattino', 'alzavamo', 'fumare', 'fino', 'mattina', 'gi', 'marechiaro', 'ricordo', 'mai', 'veramente', 'iniziato', 'smette', 'mai', 'veramente', 'quando', 'iniziamo', 'libert', 'errore', 'adolescente', 'amare', 'senza', 'chiedere', 'odiarsi', 'senza', 'comprendere', 'cos', 'amore', 'solo', 'parole', 'amore', 'pi', 'merceria', 'piazza', 'sempione', 'adesso', 'vado', 'senza', 'senza', 'senza', 'amore', 'disp', 'rato', 'sai', 'meglio', 'meglio', 'grado', 'frase', 'stupida', 'chiedo', 'scusa', 'sai', 'volte', 'complicato', 'inutile', 'difenda', 'passiamo', 'altra', 'notte', 'far', 'amore', 'fare', 'botte', 'differenza', 'might', 'also', 'like', 'desideri', 'legge', 'attrazione', 'vita', 'foto', 'disturbo', 'attenzione', 'stata', 'sempre', 'amica', 'piccola', 'casa', 'quel', 'nido', 'via', 'tina', 'pica', 'poi', 'scatto', 'abbraccio', 'senza', 'colori', 'canzone', 'sempre', 'sempre', 'gregori', 'cosa', 'sanno', 'altri', 'vivere', 'davvero', 'sempre', 'sempre', 'ovunque', 'adesso', 'vado', 'senza', 'senza', 'senza', 'amore', 'disperato', 'sai', 'meglio', 'meglio', 'grado', 'frase', 'stupida', 'chiedo', 'scusa', 'sai', 'volte', 'complicato', 'inutile', 'difenda', 'passiamo', 'altra', 'notte', 'far', 'amore', 'fare', 'botte', 'differenza', 'forse', 'cura', 'forse', 'bisogna', 'perdere', 'forse', 'ritrover', 'mai', 'chiesto', 'niente', 'forse', 'giorno', 'forse', 'solo', 'giorno', 'ah', 'ah', 'fiore', 'prendere', 'quel', 'fiore', 'minuto', 'calpestarlo', 'anni', 'crescere', 'adesso', 'vado', 'senza', 'senza', 'senza', 'amore', 'disperato', 'sai', 'meglio', 'meglio', 'grado', 'frase', 'stupida', 'chiedo', 'scusa', 'sai', 'volte', 'complicato']</t>
+          <t>['okay', 'ricordo', 'mattino', 'alzavamo', 'fumare', 'fino', 'mattina', 'gi', 'marechiaro', 'ricordo', 'veramente', 'iniziato', 'smette', 'veramente', 'iniziamo', 'libert', 'errore', 'adolescente', 'amare', 'senza', 'chiedere', 'odiarsi', 'senza', 'comprendere', 'cos', 'amore', 'solo', 'parole', 'amore', 'pi', 'merceria', 'piazza', 'sempione', 'adesso', 'vado', 'senza', 'senza', 'senza', 'amore', 'disp', 'rato', 'sai', 'meglio', 'meglio', 'grado', 'frase', 'stupida', 'chiedo', 'scusa', 'sai', 'volte', 'complicato', 'inutile', 'difenda', 'passiamo', 'altra', 'notte', 'far', 'amore', 'botte', 'differenza', 'might', 'also', 'like', 'desideri', 'legge', 'attrazione', 'vita', 'foto', 'disturbo', 'attenzione', 'stata', 'sempre', 'amica', 'piccola', 'casa', 'quel', 'nido', 'via', 'tina', 'pica', 'poi', 'scatto', 'abbraccio', 'senza', 'colori', 'canzone', 'sempre', 'sempre', 'gregori', 'cosa', 'sanno', 'altri', 'vivere', 'davvero', 'sempre', 'sempre', 'ovunque', 'adesso', 'vado', 'senza', 'senza', 'senza', 'amore', 'disperato', 'sai', 'meglio', 'meglio', 'grado', 'frase', 'stupida', 'chiedo', 'scusa', 'sai', 'volte', 'complicato', 'inutile', 'difenda', 'passiamo', 'altra', 'notte', 'far', 'amore', 'botte', 'differenza', 'forse', 'cura', 'forse', 'perdere', 'forse', 'ritrover', 'chiesto', 'niente', 'forse', 'giorno', 'forse', 'solo', 'giorno', 'fiore', 'prendere', 'quel', 'fiore', 'minuto', 'calpestarlo', 'anni', 'crescere', 'adesso', 'vado', 'senza', 'senza', 'senza', 'amore', 'disperato', 'sai', 'meglio', 'meglio', 'grado', 'frase', 'stupida', 'chiedo', 'scusa', 'sai', 'volte', 'complicato']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>okay ricordo quando mattino alzavamo fumare fino mattina gi marechiaro ricordo mai veramente iniziato smette mai veramente quando iniziamo libert errore adolescente amare senza chiedere odiarsi senza comprendere cos amore solo parole amore pi merceria piazza sempione adesso vado senza senza senza amore disp rato sai meglio meglio grado frase stupida chiedo scusa sai volte complicato inutile difenda passiamo altra notte far amore fare botte differenza might also like desideri legge attrazione vita foto disturbo attenzione stata sempre amica piccola casa quel nido via tina pica poi scatto abbraccio senza colori canzone sempre sempre gregori cosa sanno altri vivere davvero sempre sempre ovunque adesso vado senza senza senza amore disperato sai meglio meglio grado frase stupida chiedo scusa sai volte complicato inutile difenda passiamo altra notte far amore fare botte differenza forse cura forse bisogna perdere forse ritrover mai chiesto niente forse giorno forse solo giorno ah ah fiore prendere quel fiore minuto calpestarlo anni crescere adesso vado senza senza senza amore disperato sai meglio meglio grado frase stupida chiedo scusa sai volte complicato</t>
+          <t>okay ricordo mattino alzavamo fumare fino mattina gi marechiaro ricordo veramente iniziato smette veramente iniziamo libert errore adolescente amare senza chiedere odiarsi senza comprendere cos amore solo parole amore pi merceria piazza sempione adesso vado senza senza senza amore disp rato sai meglio meglio grado frase stupida chiedo scusa sai volte complicato inutile difenda passiamo altra notte far amore botte differenza might also like desideri legge attrazione vita foto disturbo attenzione stata sempre amica piccola casa quel nido via tina pica poi scatto abbraccio senza colori canzone sempre sempre gregori cosa sanno altri vivere davvero sempre sempre ovunque adesso vado senza senza senza amore disperato sai meglio meglio grado frase stupida chiedo scusa sai volte complicato inutile difenda passiamo altra notte far amore botte differenza forse cura forse perdere forse ritrover chiesto niente forse giorno forse solo giorno fiore prendere quel fiore minuto calpestarlo anni crescere adesso vado senza senza senza amore disperato sai meglio meglio grado frase stupida chiedo scusa sai volte complicato</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.975, 'pos': 0.025, 'compound': 0.5267}</t>
+          <t>{'neg': 0.0, 'neu': 0.974, 'pos': 0.026, 'compound': 0.5267}</t>
         </is>
       </c>
       <c r="H17" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.5266999999999999</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.2333333333333333, subjectivity=0.8333333333333334)</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2274,25 +2730,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['sembra', 'agosto', 'mattina', 'sanno', 'love', 'air', 'po', 'finto', 'borghese', 'comunque', 'capiamo', 'rarissimo', 'rarissimo', 'mancare', 'aria', 'quando', 'rispondi', 'saltare', 'aria', 'ecomostri', 'fondo', 'perch', 'potrebbe', 'farci', 'male', 'tot', 'vero', 'ta', 'ta', 'ta', 'ta', 'ta', 'tanti', 'cuore', 'plastica', 'altri', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'mare', 'troppe', 'cose', 'ballo', 'got', 'feeling', 'strano', 'voliamo', 'piano', 'piano', 'blu', 'levi', 'due', 'gatti', 'neri', 'tutt', 'storie', 'brevi', 'altr', 'might', 'also', 'like', 'va', 'bella', 'luna', 'hollywoodiana', 'quattro', 'mura', 'persiana', 'chiusa', 'ammazza', 'qualche', 'dipendenza', 'manca', 'assaggia', 'fondo', 'perch', 'potrebbe', 'farci', 'male', 'tot', 'vero', 'ta', 'ta', 'ta', 'ta', 'ta', 'tanti', 'cuore', 'plastica', 'altri', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'mare', 'troppe', 'cose', 'ballo', 'got', 'feeling', 'strano', 'voliamo', 'piano', 'piano', 'blu', 'levi', 'due', 'gatti', 'neri', 'tutte', 'storie', 'brevi', 'altre', 'sar', 'mare', 'agitava', 'missing', 'stesso', 'finiranno', 'tutte', 'storie', 'brevi', 'altre', 'got', 'feeling', 'strano', 'voliamo', 'piano', 'piano', 'blu', 'levi', 'due', 'gatti', 'neri', 'tutte', 'storie', 'brevi', 'altre']</t>
+          <t>['sembra', 'agosto', 'mattina', 'sanno', 'love', 'air', 'po', 'finto', 'borghese', 'comunque', 'capiamo', 'rarissimo', 'rarissimo', 'mancare', 'aria', 'rispondi', 'saltare', 'aria', 'ecomostri', 'fondo', 'perch', 'potrebbe', 'farci', 'male', 'tot', 'vero', 'ta', 'ta', 'ta', 'ta', 'ta', 'tanti', 'cuore', 'plastica', 'altri', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'mare', 'troppe', 'cose', 'ballo', 'got', 'feeling', 'strano', 'voliamo', 'piano', 'piano', 'blu', 'levi', 'due', 'gatti', 'neri', 'tutt', 'storie', 'brevi', 'altr', 'might', 'also', 'like', 'va', 'bella', 'luna', 'hollywoodiana', 'quattro', 'mura', 'persiana', 'chiusa', 'ammazza', 'qualche', 'dipendenza', 'manca', 'assaggia', 'fondo', 'perch', 'potrebbe', 'farci', 'male', 'tot', 'vero', 'ta', 'ta', 'ta', 'ta', 'ta', 'tanti', 'cuore', 'plastica', 'altri', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'tutte', 'storie', 'brevi', 'mare', 'troppe', 'cose', 'ballo', 'got', 'feeling', 'strano', 'voliamo', 'piano', 'piano', 'blu', 'levi', 'due', 'gatti', 'neri', 'tutte', 'storie', 'brevi', 'altre', 'sar', 'mare', 'agitava', 'missing', 'stesso', 'finiranno', 'tutte', 'storie', 'brevi', 'altre', 'got', 'feeling', 'strano', 'voliamo', 'piano', 'piano', 'blu', 'levi', 'due', 'gatti', 'neri', 'tutte', 'storie', 'brevi', 'altre']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>sembra agosto mattina sanno love air po finto borghese comunque capiamo rarissimo rarissimo mancare aria quando rispondi saltare aria ecomostri fondo perch potrebbe farci male tot vero ta ta ta ta ta tanti cuore plastica altri tutte storie brevi tutte storie brevi tutte storie brevi mare troppe cose ballo got feeling strano voliamo piano piano blu levi due gatti neri tutt storie brevi altr might also like va bella luna hollywoodiana quattro mura persiana chiusa ammazza qualche dipendenza manca assaggia fondo perch potrebbe farci male tot vero ta ta ta ta ta tanti cuore plastica altri tutte storie brevi tutte storie brevi tutte storie brevi mare troppe cose ballo got feeling strano voliamo piano piano blu levi due gatti neri tutte storie brevi altre sar mare agitava missing stesso finiranno tutte storie brevi altre got feeling strano voliamo piano piano blu levi due gatti neri tutte storie brevi altre</t>
+          <t>sembra agosto mattina sanno love air po finto borghese comunque capiamo rarissimo rarissimo mancare aria rispondi saltare aria ecomostri fondo perch potrebbe farci male tot vero ta ta ta ta ta tanti cuore plastica altri tutte storie brevi tutte storie brevi tutte storie brevi mare troppe cose ballo got feeling strano voliamo piano piano blu levi due gatti neri tutt storie brevi altr might also like va bella luna hollywoodiana quattro mura persiana chiusa ammazza qualche dipendenza manca assaggia fondo perch potrebbe farci male tot vero ta ta ta ta ta tanti cuore plastica altri tutte storie brevi tutte storie brevi tutte storie brevi mare troppe cose ballo got feeling strano voliamo piano piano blu levi due gatti neri tutte storie brevi altre sar mare agitava missing stesso finiranno tutte storie brevi altre got feeling strano voliamo piano piano blu levi due gatti neri tutte storie brevi altre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'neg': 0.036, 'neu': 0.893, 'pos': 0.07, 'compound': 0.5267}</t>
+          <t>{'neg': 0.037, 'neu': 0.892, 'pos': 0.071, 'compound': 0.5267}</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.5266999999999999</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.010714285714285716, subjectivity=0.28214285714285714)</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01071428571428572</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2821428571428571</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2376,27 +2858,53 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['po', 'mancher', 'sapere', 'fumare', 'chiacchere', 'vederti', 'dentro', 'film', 'rubare', 'autogrill', 'pisciare', 'macchine', 'spiare', 'finestre', 'accese', 'case', 'centro', 'soltanto', 'immaginare', 'abitarci', 'dentro', 'panico', 'attacchi', 'rumore', 'tacchi', 'umore', 'sbalzi', 'ricordati', 'bere', 'dentro', 'bar', 'insegna', 'luminosa', 'va', 'ricordati', 'combinare', 'guai', 'guai', 'cose', 'devo', 'ancora', 'dirti', 'volte', 'devo', 'ancora', 'dirti', 'spiace', 'capace', 'vivere', 'vita', 'senza', 'pi', 'canzoni', 'cantare', 'farfalle', 'mangiare', 'dubbio', 'dopo', 'altro', 'voglio', 'voglio', 'solo', 'soltanto', 'ah', 'dir', 'finir', 'chissene', 'frega', 'butta', 'via', 'importante', 'devastante', 'devastante', 'might', 'also', 'like', 'pensa', 'classico', 'cosa', 'due', 'bambini', 'cane', 'attico', 'uh', 'svegliarsi', 'tardi', 'andare', 'assemblea', 'condominiale', 'ah', 'uh', 'guarda', 'po', 'finalmente', 'sorridi', 'nuovo', 'nuovo', 'bastava', 'cambiare', 'lavoro', 'sai', 'sparisco', 'quando', 'voglia', 'quando', 'sonno', 'buonanotte', 'resto', 'ancora', 'po', 'sveglio', 'voglia', 'stare', 'spaccarmi', 'nocche', 'assieme', 'annoio', 'potrei', 'pure', 'fare', 'coda', 'poste', 'fare', 'parte', 'pi', 'forte', 'sentirai', 'ricordati', 'ubriachi', 'dentro', 'bar', 'fingere', 'qualcosa', 'va', 'ricordati', 'combinare', 'guai', 'cose', 'devo', 'ancora', 'dirti', 'volte', 'devo', 'ancora', 'dirti', 'spiace', 'capace', 'vivere', 'vita', 'senza', 'pi', 'canzoni', 'cantare', 'farfalle', 'mangiare', 'dubbio', 'dopo', 'altro', 'voglio', 'voglio', 'solo', 'soltanto', 'ah', 'dir', 'finir', 'chissene', 'frega', 'butta', 'via', 'importante', 'devastante', 'devastante']</t>
+          <t>['po', 'mancher', 'sapere', 'fumare', 'chiacchere', 'vederti', 'dentro', 'film', 'rubare', 'autogrill', 'pisciare', 'macchine', 'spiare', 'finestre', 'accese', 'case', 'centro', 'soltanto', 'immaginare', 'abitarci', 'dentro', 'panico', 'attacchi', 'rumore', 'tacchi', 'umore', 'sbalzi', 'ricordati', 'bere', 'dentro', 'bar', 'insegna', 'luminosa', 'va', 'ricordati', 'combinare', 'guai', 'guai', 'cose', 'devo', 'dirti', 'volte', 'devo', 'dirti', 'spiace', 'capace', 'vivere', 'vita', 'senza', 'pi', 'canzoni', 'cantare', 'farfalle', 'mangiare', 'dubbio', 'voglio', 'voglio', 'solo', 'soltanto', 'dir', 'finir', 'chissene', 'frega', 'butta', 'via', 'importante', 'devastante', 'devastante', 'might', 'also', 'like', 'pensa', 'classico', 'cosa', 'due', 'bambini', 'cane', 'attico', 'svegliarsi', 'tardi', 'andare', 'assemblea', 'condominiale', 'guarda', 'po', 'finalmente', 'sorridi', 'nuovo', 'nuovo', 'bastava', 'cambiare', 'lavoro', 'sai', 'sparisco', 'voglia', 'sonno', 'buonanotte', 'resto', 'po', 'sveglio', 'voglia', 'stare', 'spaccarmi', 'nocche', 'assieme', 'annoio', 'potrei', 'pure', 'coda', 'poste', 'parte', 'pi', 'forte', 'sentirai', 'ricordati', 'ubriachi', 'dentro', 'bar', 'fingere', 'qualcosa', 'va', 'ricordati', 'combinare', 'guai', 'cose', 'devo', 'dirti', 'volte', 'devo', 'dirti', 'spiace', 'capace', 'vivere', 'vita', 'senza', 'pi', 'canzoni', 'cantare', 'farfalle', 'mangiare', 'dubbio', 'voglio', 'voglio', 'solo', 'soltanto', 'dir', 'finir', 'chissene', 'frega', 'butta', 'via', 'importante', 'devastante', 'devastante']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>po mancher sapere fumare chiacchere vederti dentro film rubare autogrill pisciare macchine spiare finestre accese case centro soltanto immaginare abitarci dentro panico attacchi rumore tacchi umore sbalzi ricordati bere dentro bar insegna luminosa va ricordati combinare guai guai cose devo ancora dirti volte devo ancora dirti spiace capace vivere vita senza pi canzoni cantare farfalle mangiare dubbio dopo altro voglio voglio solo soltanto ah dir finir chissene frega butta via importante devastante devastante might also like pensa classico cosa due bambini cane attico uh svegliarsi tardi andare assemblea condominiale ah uh guarda po finalmente sorridi nuovo nuovo bastava cambiare lavoro sai sparisco quando voglia quando sonno buonanotte resto ancora po sveglio voglia stare spaccarmi nocche assieme annoio potrei pure fare coda poste fare parte pi forte sentirai ricordati ubriachi dentro bar fingere qualcosa va ricordati combinare guai cose devo ancora dirti volte devo ancora dirti spiace capace vivere vita senza pi canzoni cantare farfalle mangiare dubbio dopo altro voglio voglio solo soltanto ah dir finir chissene frega butta via importante devastante devastante</t>
+          <t>po mancher sapere fumare chiacchere vederti dentro film rubare autogrill pisciare macchine spiare finestre accese case centro soltanto immaginare abitarci dentro panico attacchi rumore tacchi umore sbalzi ricordati bere dentro bar insegna luminosa va ricordati combinare guai guai cose devo dirti volte devo dirti spiace capace vivere vita senza pi canzoni cantare farfalle mangiare dubbio voglio voglio solo soltanto dir finir chissene frega butta via importante devastante devastante might also like pensa classico cosa due bambini cane attico svegliarsi tardi andare assemblea condominiale guarda po finalmente sorridi nuovo nuovo bastava cambiare lavoro sai sparisco voglia sonno buonanotte resto po sveglio voglia stare spaccarmi nocche assieme annoio potrei pure coda poste parte pi forte sentirai ricordati ubriachi dentro bar fingere qualcosa va ricordati combinare guai cose devo dirti volte devo dirti spiace capace vivere vita senza pi canzoni cantare farfalle mangiare dubbio voglio voglio solo soltanto dir finir chissene frega butta via importante devastante devastante</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'neg': 0.06, 'neu': 0.927, 'pos': 0.014, 'compound': -0.8519}</t>
+          <t>{'neg': 0.066, 'neu': 0.919, 'pos': 0.015, 'compound': -0.8519}</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K19" t="n">
         <v>-0.8519</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.04464285714285714, subjectivity=0.4375)</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04464285714285714</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2488,27 +2996,53 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mhm', 'mhm', 'yeah', 'mhm', 'perdo', 'chiacchiere', 'ora', 'devo', 'andare', 'momento', 'vale', 'altro', 'orologio', 'brilla', 'braccio', 'sempre', 'diviso', 'piatto', 'fratelli', 'fianco', 'settimana', 'perdo', 'chiacchiere', 'comunichiamo', 'neanche', 'perch', 'basta', 'sguardo', 'oppure', 'giuste', 'sostanze', 'quell', 'energia', 'emani', 'giuste', 'distanze', 'andare', 'dritto', 'luce', 'abisso', 'com', 'fare', 'giusto', 'idoli', 'sbagliavano', 'com', 'dire', 'giusto', 'primo', 'sbaglia', 'quei', 'pensieri', 'brutti', 'momenti', 'va', 'bene', 'bene', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'might', 'also', 'like', 'dio', 'nn', 'salva', 'penza', 'senso', 'mantene', 'distanze', 'pecch', 'inferno', 'chiagne', 'interno', 'primma', 'po', 'affonda', 'vita', 'addu', 'recluta', 'giudice', 'nn', 'assolve', 'reputa', 'colpevole', 'ges', 'mo', 'astrigenno', 'mane', 'astrignenno', 'nganna', 'apocalisse', 'esiste', 'sulo', 'addu', 'nuje', 'venuta', 'ggi', 'sanghe', 'lava', 'marciapiede', 'sante', 'songo', 'statue', 'cera', 'bibbia', 'sulamente', 'carta', 'pure', 'sorde', 'ce', 'pienze', 'currenno', 'senza', 'tregua', 'aggio', 'passato', 'tre', 'traguarde', 'chello', 'voglio', 'nun', 'esiste', 'chello', 'nn', 'reale', 'dio', 'ssape', 'ch', 'aggio', 'fatto', 'ch', 'fatto', 'dio', 'ssape', 'ch', 'aggio', 'visto', 'dio', 'ssape', 'ca', 'stanco', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'ehi', 'disseta', 'lacrima', 'ehi', 'combatto', 'tribunale', 'peggiori', 'presagi', 'oh', 'indosser', 'croce', 'nasconder', 'tatuaggi', 'oh', 'oh', 'dio', 'fatto', 'bianco', 'latte', 'arrivan', 'raggi', 'oh', 'oh', 'tutte', 'preghiere', 'fatte', 'usate', 'funerali', 'solo', 'dio', 'sa', 'sento', 'cieco', 'mezzo', 'traffico', 'muto', 'sopra', 'palco', 'pubblico', 'sordo', 'ora', 'ascoltando', 'oh', 'pericolo', 'olfatto', 'oh', 'perch', 'strade', 'malvagie', 'senza', 'tatto', 'oh', 'perch', 'ancora', 'reato', 'lottare', 'amo', 'ah', 'allora', 'prepara', 'borse', 'forse', 'far', 'ergastolo', 'oh', 'dio', 'sa', 'padre', 'abbandonato', 'quando', 'arrestato', 'yeah', 'spero', 'parte', 'piano', 'ah', 'mai', 'pianto', 'venduto', 'libert', 'vender', 'fianco', 'ah', 'ah', 'giuro', 'fato', 'accoltella', 'spalle', 'passato', 'ah', 'ah', 'viso', 'dannato', 'sangue', 'spada', 'sopra', 'altro', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima']</t>
+          <t>['mhm', 'mhm', 'mhm', 'perdo', 'chiacchiere', 'ora', 'devo', 'andare', 'momento', 'vale', 'orologio', 'brilla', 'braccio', 'sempre', 'diviso', 'piatto', 'fratelli', 'fianco', 'settimana', 'perdo', 'chiacchiere', 'comunichiamo', 'neanche', 'perch', 'basta', 'sguardo', 'oppure', 'giuste', 'sostanze', 'quell', 'energia', 'emani', 'giuste', 'distanze', 'andare', 'dritto', 'luce', 'abisso', 'giusto', 'idoli', 'sbagliavano', 'dire', 'giusto', 'primo', 'sbaglia', 'quei', 'pensieri', 'brutti', 'momenti', 'va', 'bene', 'bene', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'might', 'also', 'like', 'dio', 'nn', 'salva', 'penza', 'senso', 'mantene', 'distanze', 'pecch', 'inferno', 'chiagne', 'interno', 'primma', 'po', 'affonda', 'vita', 'addu', 'recluta', 'giudice', 'nn', 'assolve', 'reputa', 'colpevole', 'ges', 'mo', 'astrigenno', 'mane', 'astrignenno', 'nganna', 'apocalisse', 'esiste', 'sulo', 'addu', 'nuje', 'venuta', 'ggi', 'sanghe', 'lava', 'marciapiede', 'sante', 'songo', 'statue', 'cera', 'bibbia', 'sulamente', 'carta', 'pure', 'sorde', 'ce', 'pienze', 'currenno', 'senza', 'tregua', 'aggio', 'passato', 'tre', 'traguarde', 'chello', 'voglio', 'nun', 'esiste', 'chello', 'nn', 'reale', 'dio', 'ssape', 'ch', 'aggio', 'ch', 'dio', 'ssape', 'ch', 'aggio', 'visto', 'dio', 'ssape', 'ca', 'stanco', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'ehi', 'disseta', 'lacrima', 'ehi', 'combatto', 'tribunale', 'peggiori', 'presagi', 'indosser', 'croce', 'nasconder', 'tatuaggi', 'dio', 'bianco', 'latte', 'arrivan', 'raggi', 'tutte', 'preghiere', 'fatte', 'usate', 'funerali', 'solo', 'dio', 'sa', 'sento', 'cieco', 'mezzo', 'traffico', 'muto', 'sopra', 'palco', 'pubblico', 'sordo', 'ora', 'ascoltando', 'pericolo', 'olfatto', 'perch', 'strade', 'malvagie', 'senza', 'tatto', 'perch', 'reato', 'lottare', 'amo', 'allora', 'prepara', 'borse', 'forse', 'far', 'ergastolo', 'dio', 'sa', 'padre', 'abbandonato', 'arrestato', 'spero', 'parte', 'piano', 'pianto', 'venduto', 'libert', 'vender', 'fianco', 'giuro', 'fato', 'accoltella', 'spalle', 'passato', 'viso', 'dannato', 'sangue', 'spada', 'sopra', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima', 'solo', 'dio', 'sa', 'cosa', 'cambiato', 'sguardo', 'solo', 'dio', 'sa', 'cosa', 'visto', 'fondo', 'solo', 'dio', 'sa', 'solo', 'dio', 'sa', 'degna', 'sputo', 'disseta', 'lacrima']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>mhm mhm yeah mhm perdo chiacchiere ora devo andare momento vale altro orologio brilla braccio sempre diviso piatto fratelli fianco settimana perdo chiacchiere comunichiamo neanche perch basta sguardo oppure giuste sostanze quell energia emani giuste distanze andare dritto luce abisso com fare giusto idoli sbagliavano com dire giusto primo sbaglia quei pensieri brutti momenti va bene bene solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima might also like dio nn salva penza senso mantene distanze pecch inferno chiagne interno primma po affonda vita addu recluta giudice nn assolve reputa colpevole ges mo astrigenno mane astrignenno nganna apocalisse esiste sulo addu nuje venuta ggi sanghe lava marciapiede sante songo statue cera bibbia sulamente carta pure sorde ce pienze currenno senza tregua aggio passato tre traguarde chello voglio nun esiste chello nn reale dio ssape ch aggio fatto ch fatto dio ssape ch aggio visto dio ssape ca stanco solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo ehi disseta lacrima ehi combatto tribunale peggiori presagi oh indosser croce nasconder tatuaggi oh oh dio fatto bianco latte arrivan raggi oh oh tutte preghiere fatte usate funerali solo dio sa sento cieco mezzo traffico muto sopra palco pubblico sordo ora ascoltando oh pericolo olfatto oh perch strade malvagie senza tatto oh perch ancora reato lottare amo ah allora prepara borse forse far ergastolo oh dio sa padre abbandonato quando arrestato yeah spero parte piano ah mai pianto venduto libert vender fianco ah ah giuro fato accoltella spalle passato ah ah viso dannato sangue spada sopra altro solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima</t>
+          <t>mhm mhm mhm perdo chiacchiere ora devo andare momento vale orologio brilla braccio sempre diviso piatto fratelli fianco settimana perdo chiacchiere comunichiamo neanche perch basta sguardo oppure giuste sostanze quell energia emani giuste distanze andare dritto luce abisso giusto idoli sbagliavano dire giusto primo sbaglia quei pensieri brutti momenti va bene bene solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima might also like dio nn salva penza senso mantene distanze pecch inferno chiagne interno primma po affonda vita addu recluta giudice nn assolve reputa colpevole ges mo astrigenno mane astrignenno nganna apocalisse esiste sulo addu nuje venuta ggi sanghe lava marciapiede sante songo statue cera bibbia sulamente carta pure sorde ce pienze currenno senza tregua aggio passato tre traguarde chello voglio nun esiste chello nn reale dio ssape ch aggio ch dio ssape ch aggio visto dio ssape ca stanco solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo ehi disseta lacrima ehi combatto tribunale peggiori presagi indosser croce nasconder tatuaggi dio bianco latte arrivan raggi tutte preghiere fatte usate funerali solo dio sa sento cieco mezzo traffico muto sopra palco pubblico sordo ora ascoltando pericolo olfatto perch strade malvagie senza tatto perch reato lottare amo allora prepara borse forse far ergastolo dio sa padre abbandonato arrestato spero parte piano pianto venduto libert vender fianco giuro fato accoltella spalle passato viso dannato sangue spada sopra solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima solo dio sa cosa cambiato sguardo solo dio sa cosa visto fondo solo dio sa solo dio sa degna sputo disseta lacrima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'neg': 0.018, 'neu': 0.964, 'pos': 0.018, 'compound': -0.1779}</t>
+          <t>{'neg': 0.019, 'neu': 0.974, 'pos': 0.007, 'compound': -0.6249}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-0.1779</v>
-      </c>
-      <c r="I20" t="inlineStr">
+        <v>0.007</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.6249</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.15714285714285714, subjectivity=0.75)</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1571428571428571</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2584,27 +3118,53 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['mai', 'decidere', 'cosa', 'meglio', 'baby', 'dispiace', 'ogni', 'caso', 'need', 'quando', 'mando', 'balla', 'tutta', 'label', 'summer', 'season', 'prendo', 'sole', 'naples', 'yeah', 'devi', 'mai', 'paragonarmi', 'bitch', 'sai', 'uguali', 'puta', 'madre', 'chiusa', 'fare', 'hit', 'fuori', 'trenta', 'gradi', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'fare', 'ah', 'abbronzatissima', 'simpaticissima', 'mano', 'margarita', 'gode', 'vita', 'ah', 'ah', 'sabbia', 'sopra', 'pelle', 'paparazzata', 'sembro', 'kylie', 'jenner', 'ah', 'ah', 'preso', 'sole', 'giorno', 'rossa', 'sembro', 'beauty', 'blend', 'r', 'ah', 'ah', 'ah', 'vengo', 'sembran', 'maldive', 'ah', 'ah', 'ah', 'ah', 'ce', 'solo', 'believer', 'ah', 'ah', 'ah', 'ah', 'self', 'made', 'bitch', 'leader', 'rockstar', 'bitch', 'like', 'bieber', 'sale', 'capelli', 'estate', 'pi', 'belli', 'oh', 'oh', 'estate', 'molto', 'pi', 'baddie', 'pure', 'sembra', 'avere', 'difetti', 'va', 'loco', 'coco', 'coco', 'stressa', 'troppo', 'baby', 'fare', 'foto', 'oh', 'god', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'devi', 'mai', 'paragonarmi', 'bitch', 'sai', 'uguali', 'puta', 'madre', 'chiusa', 'fare', 'hit', 'fuori', 'trenta', 'gradi', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'fare', 'ah', 'abbronzatissima', 'simpaticissima', 'mano', 'margarita', 'gode', 'vita', 'rollie', 'rosa', 'matcha', 'champagne', 'bling', 'baddies', 'dicono', 'chapeau', 'quest', 'estate', 'bar', 'bling', 'ogni', 'sera', 'vedo', 'nuovo', 'club', 'ah', 'fino', 'viene', 'police', 'porta', 'via', 'qua', 'dicono', 'mai', 'niente', 'miss', 'perch', 'bellissima', 'let', 'go', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'fare', 'ah', 'abbronzatissima', 'simpaticissima', 'h', 'mano', 'margarita', 'gode', 'vita', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'fare', 'ah', 'abbronzatissima', 'simpaticissima', 'mano', 'margarita', 'gode', 'vita', 'ah', 'ah']</t>
+          <t>['decidere', 'cosa', 'meglio', 'baby', 'dispiace', 'caso', 'need', 'mando', 'balla', 'tutta', 'label', 'summer', 'season', 'prendo', 'sole', 'naples', 'devi', 'paragonarmi', 'bitch', 'sai', 'uguali', 'puta', 'madre', 'chiusa', 'hit', 'fuori', 'trenta', 'gradi', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'abbronzatissima', 'simpaticissima', 'mano', 'margarita', 'gode', 'vita', 'sabbia', 'sopra', 'pelle', 'paparazzata', 'sembro', 'kylie', 'jenner', 'preso', 'sole', 'giorno', 'rossa', 'sembro', 'beauty', 'blend', 'r', 'vengo', 'sembran', 'maldive', 'ce', 'solo', 'believer', 'self', 'made', 'bitch', 'leader', 'rockstar', 'bitch', 'like', 'bieber', 'sale', 'capelli', 'estate', 'pi', 'belli', 'estate', 'molto', 'pi', 'baddie', 'pure', 'sembra', 'avere', 'difetti', 'va', 'loco', 'coco', 'coco', 'stressa', 'baby', 'foto', 'god', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'devi', 'paragonarmi', 'bitch', 'sai', 'uguali', 'puta', 'madre', 'chiusa', 'hit', 'fuori', 'trenta', 'gradi', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'abbronzatissima', 'simpaticissima', 'mano', 'margarita', 'gode', 'vita', 'rollie', 'rosa', 'matcha', 'champagne', 'bling', 'baddies', 'dicono', 'chapeau', 'quest', 'estate', 'bar', 'bling', 'sera', 'vedo', 'nuovo', 'club', 'fino', 'viene', 'police', 'porta', 'via', 'qua', 'dicono', 'niente', 'miss', 'perch', 'bellissima', 'let', 'go', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'abbronzatissima', 'simpaticissima', 'h', 'mano', 'margarita', 'gode', 'vita', 'abbronzatissima', 'bellissima', 'occhi', 'mare', 'corpo', 'fa', 'abbronzatissima', 'simpaticissima', 'mano', 'margarita', 'gode', 'vita']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>mai decidere cosa meglio baby dispiace ogni caso need quando mando balla tutta label summer season prendo sole naples yeah devi mai paragonarmi bitch sai uguali puta madre chiusa fare hit fuori trenta gradi abbronzatissima bellissima occhi mare corpo fa fare ah abbronzatissima simpaticissima mano margarita gode vita ah ah sabbia sopra pelle paparazzata sembro kylie jenner ah ah preso sole giorno rossa sembro beauty blend r ah ah ah vengo sembran maldive ah ah ah ah ce solo believer ah ah ah ah self made bitch leader rockstar bitch like bieber sale capelli estate pi belli oh oh estate molto pi baddie pure sembra avere difetti va loco coco coco stressa troppo baby fare foto oh god see anna liveget tickets low might also like devi mai paragonarmi bitch sai uguali puta madre chiusa fare hit fuori trenta gradi abbronzatissima bellissima occhi mare corpo fa fare ah abbronzatissima simpaticissima mano margarita gode vita rollie rosa matcha champagne bling baddies dicono chapeau quest estate bar bling ogni sera vedo nuovo club ah fino viene police porta via qua dicono mai niente miss perch bellissima let go abbronzatissima bellissima occhi mare corpo fa fare ah abbronzatissima simpaticissima h mano margarita gode vita abbronzatissima bellissima occhi mare corpo fa fare ah abbronzatissima simpaticissima mano margarita gode vita ah ah</t>
+          <t>decidere cosa meglio baby dispiace caso need mando balla tutta label summer season prendo sole naples devi paragonarmi bitch sai uguali puta madre chiusa hit fuori trenta gradi abbronzatissima bellissima occhi mare corpo fa abbronzatissima simpaticissima mano margarita gode vita sabbia sopra pelle paparazzata sembro kylie jenner preso sole giorno rossa sembro beauty blend r vengo sembran maldive ce solo believer self made bitch leader rockstar bitch like bieber sale capelli estate pi belli estate molto pi baddie pure sembra avere difetti va loco coco coco stressa baby foto god see anna liveget tickets low might also like devi paragonarmi bitch sai uguali puta madre chiusa hit fuori trenta gradi abbronzatissima bellissima occhi mare corpo fa abbronzatissima simpaticissima mano margarita gode vita rollie rosa matcha champagne bling baddies dicono chapeau quest estate bar bling sera vedo nuovo club fino viene police porta via qua dicono niente miss perch bellissima let go abbronzatissima bellissima occhi mare corpo fa abbronzatissima simpaticissima h mano margarita gode vita abbronzatissima bellissima occhi mare corpo fa abbronzatissima simpaticissima mano margarita gode vita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'neg': 0.08, 'neu': 0.856, 'pos': 0.065, 'compound': -0.6808}</t>
+          <t>{'neg': 0.097, 'neu': 0.836, 'pos': 0.067, 'compound': -0.7783}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-0.6808</v>
-      </c>
-      <c r="I21" t="inlineStr">
+        <v>0.067</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.7783</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.05357142857142857, subjectivity=0.325)</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2686,12 +3246,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['f', 'f', 'mhm', 'caldo', 'magma', 'wagwan', 'ah', 'caldo', 'magma', 'magma', 'wagwan', 'caldo', 'proiettile', 'sparato', 'canna', 'svoltato', 'vita', 'vita', 'copenaghen', 'osama', 'armato', 'bin', 'laden', 'osama', 'chiuso', 'mandem', 'jeans', 'pieni', 'macchie', 'oh', 'dsquared', 'sangue', 'ferragamo', 'g', 'star', 'g', 'star', 'stylist', 'notte', 'corso', 'buenos', 'aires', 'sento', 'dubai', 'wa', 'wa', 'wa', 'wagwan', 'chiuso', 'roadman', 'bomboclat', 'moncler', 'bombato', 'gonfio', 'prendevano', 'giro', 'ro', 'ro', 'co', 'co', 'dumbo', 'simba', 'leone', 'caccia', 'giungla', 'pensavi', 'diss', 'diss', 'incula', 'fatto', 'gi', 'pisciare', 'testa', 'industria', 'culo', 'manda', 'fissa', 'wagwan', 'ferro', 'tasca', 'destra', 'posto', 'instagram', 'might', 'also', 'like', 'wagwan', 'dimmi', 'fa', 'scappare', 'guai', 'guai', 'tmax', 'duecento', 'sgasa', 'skrrt', 'mentre', 'niente', 'salva', 'wagwan', 'cresciuti', 'strada', 'figli', 'puttana', 'wagwan', 'wagwan', 'wagwan', 'benvenuto', 'disagio', 'ognuno', 'gira', 'armato', 'ah', 'guerra', 'testa', 'guido', 'maserati', 'carrarmato', 'nome', 'mario', 'chiaro', 'nominarlo', 'invano', 'fra', 'sultano', 'trono', 'soprano', 'parlo', 'tono', 'bossoli', 'dentro', 'canna', 'wagwan', 'tossici', 'sopra', 'panca', 'papponi', 'prostitute', 'vent', 'anni', 'gi', 'mamma', 'strada', 'palude', 'versa', 'sangue', 'salamandra', 'scuse', 'quando', 'sconti', 'condanna', 'attento', 'back', 'solo', 'soldi', 'black', 'bimbi', 'bmx', 'ora', 'audi', 'rs', 'vroom', 'vroom', 'street', 'fare', 'g', 'perch', 'ehi', 'wagwan', 'dimmi', 'fa', 'scappare', 'guai', 'guai', 'tmax', 'duecento', 'sgasa', 'mentre', 'niente', 'salva', 'wagwan', 'cresciuti', 'strada', 'figli', 'puttana', 'wagwan', 'wagwan', 'wagwan', 'wagwan', 'dimmi', 'fa', 'scappare', 'guai', 'guai', 'tmax', 'duecento', 'sgasa', 'skrrt', 'mentre', 'niente', 'salva', 'wagwan', 'cresciuti', 'strada', 'figli', 'puttana', 'wagwan', 'wagwan', 'wagwan', 'eh', 'f', 'f']</t>
+          <t>['f', 'f', 'mhm', 'caldo', 'magma', 'wagwan', 'caldo', 'magma', 'magma', 'wagwan', 'caldo', 'proiettile', 'sparato', 'canna', 'svoltato', 'vita', 'vita', 'copenaghen', 'osama', 'armato', 'bin', 'laden', 'osama', 'chiuso', 'mandem', 'jeans', 'pieni', 'macchie', 'dsquared', 'sangue', 'ferragamo', 'g', 'star', 'g', 'star', 'stylist', 'notte', 'corso', 'buenos', 'aires', 'sento', 'dubai', 'wa', 'wa', 'wa', 'wagwan', 'chiuso', 'roadman', 'bomboclat', 'moncler', 'bombato', 'gonfio', 'prendevano', 'giro', 'ro', 'ro', 'co', 'co', 'dumbo', 'simba', 'leone', 'caccia', 'giungla', 'pensavi', 'diss', 'diss', 'incula', 'gi', 'pisciare', 'testa', 'industria', 'culo', 'manda', 'fissa', 'wagwan', 'ferro', 'tasca', 'destra', 'posto', 'instagram', 'might', 'also', 'like', 'wagwan', 'dimmi', 'fa', 'scappare', 'guai', 'guai', 'tmax', 'duecento', 'sgasa', 'skrrt', 'mentre', 'niente', 'salva', 'wagwan', 'cresciuti', 'strada', 'figli', 'puttana', 'wagwan', 'wagwan', 'wagwan', 'benvenuto', 'disagio', 'ognuno', 'gira', 'armato', 'guerra', 'testa', 'guido', 'maserati', 'carrarmato', 'nome', 'mario', 'chiaro', 'nominarlo', 'invano', 'fra', 'sultano', 'trono', 'soprano', 'parlo', 'tono', 'bossoli', 'dentro', 'canna', 'wagwan', 'tossici', 'sopra', 'panca', 'papponi', 'prostitute', 'vent', 'anni', 'gi', 'mamma', 'strada', 'palude', 'versa', 'sangue', 'salamandra', 'scuse', 'sconti', 'condanna', 'attento', 'back', 'solo', 'soldi', 'black', 'bimbi', 'bmx', 'ora', 'audi', 'rs', 'vroom', 'vroom', 'street', 'g', 'perch', 'ehi', 'wagwan', 'dimmi', 'fa', 'scappare', 'guai', 'guai', 'tmax', 'duecento', 'sgasa', 'mentre', 'niente', 'salva', 'wagwan', 'cresciuti', 'strada', 'figli', 'puttana', 'wagwan', 'wagwan', 'wagwan', 'wagwan', 'dimmi', 'fa', 'scappare', 'guai', 'guai', 'tmax', 'duecento', 'sgasa', 'skrrt', 'mentre', 'niente', 'salva', 'wagwan', 'cresciuti', 'strada', 'figli', 'puttana', 'wagwan', 'wagwan', 'wagwan', 'eh', 'f', 'f']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>f f mhm caldo magma wagwan ah caldo magma magma wagwan caldo proiettile sparato canna svoltato vita vita copenaghen osama armato bin laden osama chiuso mandem jeans pieni macchie oh dsquared sangue ferragamo g star g star stylist notte corso buenos aires sento dubai wa wa wa wagwan chiuso roadman bomboclat moncler bombato gonfio prendevano giro ro ro co co dumbo simba leone caccia giungla pensavi diss diss incula fatto gi pisciare testa industria culo manda fissa wagwan ferro tasca destra posto instagram might also like wagwan dimmi fa scappare guai guai tmax duecento sgasa skrrt mentre niente salva wagwan cresciuti strada figli puttana wagwan wagwan wagwan benvenuto disagio ognuno gira armato ah guerra testa guido maserati carrarmato nome mario chiaro nominarlo invano fra sultano trono soprano parlo tono bossoli dentro canna wagwan tossici sopra panca papponi prostitute vent anni gi mamma strada palude versa sangue salamandra scuse quando sconti condanna attento back solo soldi black bimbi bmx ora audi rs vroom vroom street fare g perch ehi wagwan dimmi fa scappare guai guai tmax duecento sgasa mentre niente salva wagwan cresciuti strada figli puttana wagwan wagwan wagwan wagwan dimmi fa scappare guai guai tmax duecento sgasa skrrt mentre niente salva wagwan cresciuti strada figli puttana wagwan wagwan wagwan eh f f</t>
+          <t>f f mhm caldo magma wagwan caldo magma magma wagwan caldo proiettile sparato canna svoltato vita vita copenaghen osama armato bin laden osama chiuso mandem jeans pieni macchie dsquared sangue ferragamo g star g star stylist notte corso buenos aires sento dubai wa wa wa wagwan chiuso roadman bomboclat moncler bombato gonfio prendevano giro ro ro co co dumbo simba leone caccia giungla pensavi diss diss incula gi pisciare testa industria culo manda fissa wagwan ferro tasca destra posto instagram might also like wagwan dimmi fa scappare guai guai tmax duecento sgasa skrrt mentre niente salva wagwan cresciuti strada figli puttana wagwan wagwan wagwan benvenuto disagio ognuno gira armato guerra testa guido maserati carrarmato nome mario chiaro nominarlo invano fra sultano trono soprano parlo tono bossoli dentro canna wagwan tossici sopra panca papponi prostitute vent anni gi mamma strada palude versa sangue salamandra scuse sconti condanna attento back solo soldi black bimbi bmx ora audi rs vroom vroom street g perch ehi wagwan dimmi fa scappare guai guai tmax duecento sgasa mentre niente salva wagwan cresciuti strada figli puttana wagwan wagwan wagwan wagwan dimmi fa scappare guai guai tmax duecento sgasa skrrt mentre niente salva wagwan cresciuti strada figli puttana wagwan wagwan wagwan eh f f</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2700,11 +3260,37 @@
         </is>
       </c>
       <c r="H22" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.3612</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.08333333333333333, subjectivity=0.21666666666666667)</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.08333333333333333</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2784,23 +3370,49 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['ancora', 'trap', 'trap', 'trap', 'trap', 'trap', 'trap', 'pulire', 'scarpe', 'dentro', 'trap', 'trap', 'trap', 'trap', 'trap', 'trap', 'tagliando', 'droghe', 'ancora', 'trap', 'trap', 'trap', 'trap', 'trap', 'trap', 'lucidare', 'collane', 'rrah', 'rrah', 'ancora', 'trap', 'trap', 'trap', 'trap', 'ive', 'ive', 'ive', 'trap', 'conosce', 'robin', 'hood', 'ive', 'ive', 'ive', 'guerra', 'scende', 'generale', 'mangiato', 'pane', 'acqua', 'mance', 'ristorante', 'mance', 'ristorante', 'servizio', 'impeccabile', 'fino', 'diciott', 'anni', 'sapevo', 'solo', 'peccare', 'rappare', 'entrambe', 'sempre', 'stato', 'fuoriclasse', 'rrah', 'imprevedibile', 'ruoto', 'fuori', 'asse', 'rilasso', 'vasca', 'metto', 'caldo', 'palle', 'ancora', 'trap', 'lucidare', 'collane', 'giungla', 'urbana', 'viali', 'alberati', 'pirati', 'quartieri', 'popolari', 'sfila', 'carovana', 'elefanti', 'ive', 'star', 'team', 'cinque', 'stelle', 'ricercati', 'ive', 'ive', 'ive', 'torno', 'casa', 'obama', 'macchina', 'blindata', 'mamma', 'partorito', 'hustler', 'saltare', 'impala', 'stella', 'cubana', 'sembro', 'nato', 'italia', 'pi', 'film', 'pi', 'drink', 'pi', 'marijuana', 'might', 'also', 'like', 'trap', 'trap', 'trap', 'trap', 'trap', 'yeah', 'yeah', 'sale', 'scende', 'meglio', 'fare', 'cresciuti', 'trap', 'rap', 'boom', 'bap', 'alziamo', 'kill', 'ste', 'barre', 'lame', 'vita', 'trap', 'yeah', 'yeah', 'vivo', 'vita', 'senza', 'stop', 'amico', 'tipa', 'ascoltan', 'trap', 'trap', 'boom', 'bap', 'yeah', 'yeah', 'roba', 'cultura', 'seguiamo', 'mode', 'droga', 'chiuso', 'trap', 'capo', 'clan', 'tifo', 'roma', 'fumo', 'crack', 'tarantelle', 'rap', 'prende', 'solo', 'bocca', 'mdma', 'quando', 'bamba', 'tasca', 'divento', 'super', 'saiyan', 'chilo', 'mezza', 'collana', 'quando', 'fotto', 'dondola', 'musica', 'cocaina', 'tombola', 'milioni', 'milioni', 'formula', 'fratello', 'conta', 'voglio', 'firma', 'berlusconi', 'tomba', 'sento', 'pressione', 'svuoto', 'caricatore', 'bello', 'brutto', 'tempo', 'porto', 'avanti', 'missione', 'crescere', 'milione', 'dato', 'mano', 'cuore', 'mando', 'troie', 'depressione', 'solo', 'cazzo', 'niente', 'storie', 'trap', 'trap', 'trap', 'trap', 'trap', 'yeah', 'yeah', 'sale', 'scende', 'meglio', 'fare', 'cresciuti', 'trap', 'rap', 'boom', 'bap', 'alziamo', 'kill', 'ste', 'barre', 'lame', 'vita', 'trap', 'yeah', 'yeah', 'vivo', 'vita', 'senza', 'stop', 'amico', 'tipa', 'ascoltan', 'trap', 'trap', 'boom', 'bap', 'yeah', 'yeah', 'roba', 'cultura', 'seguiamo', 'mode', 'droga']</t>
+          <t>['trap', 'trap', 'trap', 'trap', 'trap', 'trap', 'pulire', 'scarpe', 'dentro', 'trap', 'trap', 'trap', 'trap', 'trap', 'trap', 'tagliando', 'droghe', 'trap', 'trap', 'trap', 'trap', 'trap', 'trap', 'lucidare', 'collane', 'rrah', 'rrah', 'trap', 'trap', 'trap', 'trap', 'ive', 'ive', 'ive', 'trap', 'conosce', 'robin', 'hood', 'ive', 'ive', 'ive', 'guerra', 'scende', 'generale', 'mangiato', 'pane', 'acqua', 'mance', 'ristorante', 'mance', 'ristorante', 'servizio', 'impeccabile', 'fino', 'diciott', 'anni', 'sapevo', 'solo', 'peccare', 'rappare', 'entrambe', 'sempre', 'stato', 'fuoriclasse', 'rrah', 'imprevedibile', 'ruoto', 'fuori', 'asse', 'rilasso', 'vasca', 'metto', 'caldo', 'palle', 'trap', 'lucidare', 'collane', 'giungla', 'urbana', 'viali', 'alberati', 'pirati', 'quartieri', 'popolari', 'sfila', 'carovana', 'elefanti', 'ive', 'star', 'team', 'cinque', 'stelle', 'ricercati', 'ive', 'ive', 'ive', 'torno', 'casa', 'obama', 'macchina', 'blindata', 'mamma', 'partorito', 'hustler', 'saltare', 'impala', 'stella', 'cubana', 'sembro', 'nato', 'italia', 'pi', 'film', 'pi', 'drink', 'pi', 'marijuana', 'might', 'also', 'like', 'trap', 'trap', 'trap', 'trap', 'trap', 'sale', 'scende', 'meglio', 'cresciuti', 'trap', 'rap', 'boom', 'bap', 'alziamo', 'kill', 'ste', 'barre', 'lame', 'vita', 'trap', 'vivo', 'vita', 'senza', 'stop', 'amico', 'tipa', 'ascoltan', 'trap', 'trap', 'boom', 'bap', 'roba', 'cultura', 'seguiamo', 'mode', 'droga', 'chiuso', 'trap', 'capo', 'clan', 'tifo', 'roma', 'fumo', 'crack', 'tarantelle', 'rap', 'prende', 'solo', 'bocca', 'mdma', 'bamba', 'tasca', 'divento', 'super', 'saiyan', 'chilo', 'mezza', 'collana', 'fotto', 'dondola', 'musica', 'cocaina', 'tombola', 'milioni', 'milioni', 'formula', 'fratello', 'conta', 'voglio', 'firma', 'berlusconi', 'tomba', 'sento', 'pressione', 'svuoto', 'caricatore', 'bello', 'brutto', 'tempo', 'porto', 'avanti', 'missione', 'crescere', 'milione', 'dato', 'mano', 'cuore', 'mando', 'troie', 'depressione', 'solo', 'cazzo', 'niente', 'storie', 'trap', 'trap', 'trap', 'trap', 'trap', 'sale', 'scende', 'meglio', 'cresciuti', 'trap', 'rap', 'boom', 'bap', 'alziamo', 'kill', 'ste', 'barre', 'lame', 'vita', 'trap', 'vivo', 'vita', 'senza', 'stop', 'amico', 'tipa', 'ascoltan', 'trap', 'trap', 'boom', 'bap', 'roba', 'cultura', 'seguiamo', 'mode', 'droga']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ancora trap trap trap trap trap trap pulire scarpe dentro trap trap trap trap trap trap tagliando droghe ancora trap trap trap trap trap trap lucidare collane rrah rrah ancora trap trap trap trap ive ive ive trap conosce robin hood ive ive ive guerra scende generale mangiato pane acqua mance ristorante mance ristorante servizio impeccabile fino diciott anni sapevo solo peccare rappare entrambe sempre stato fuoriclasse rrah imprevedibile ruoto fuori asse rilasso vasca metto caldo palle ancora trap lucidare collane giungla urbana viali alberati pirati quartieri popolari sfila carovana elefanti ive star team cinque stelle ricercati ive ive ive torno casa obama macchina blindata mamma partorito hustler saltare impala stella cubana sembro nato italia pi film pi drink pi marijuana might also like trap trap trap trap trap yeah yeah sale scende meglio fare cresciuti trap rap boom bap alziamo kill ste barre lame vita trap yeah yeah vivo vita senza stop amico tipa ascoltan trap trap boom bap yeah yeah roba cultura seguiamo mode droga chiuso trap capo clan tifo roma fumo crack tarantelle rap prende solo bocca mdma quando bamba tasca divento super saiyan chilo mezza collana quando fotto dondola musica cocaina tombola milioni milioni formula fratello conta voglio firma berlusconi tomba sento pressione svuoto caricatore bello brutto tempo porto avanti missione crescere milione dato mano cuore mando troie depressione solo cazzo niente storie trap trap trap trap trap yeah yeah sale scende meglio fare cresciuti trap rap boom bap alziamo kill ste barre lame vita trap yeah yeah vivo vita senza stop amico tipa ascoltan trap trap boom bap yeah yeah roba cultura seguiamo mode droga</t>
+          <t>trap trap trap trap trap trap pulire scarpe dentro trap trap trap trap trap trap tagliando droghe trap trap trap trap trap trap lucidare collane rrah rrah trap trap trap trap ive ive ive trap conosce robin hood ive ive ive guerra scende generale mangiato pane acqua mance ristorante mance ristorante servizio impeccabile fino diciott anni sapevo solo peccare rappare entrambe sempre stato fuoriclasse rrah imprevedibile ruoto fuori asse rilasso vasca metto caldo palle trap lucidare collane giungla urbana viali alberati pirati quartieri popolari sfila carovana elefanti ive star team cinque stelle ricercati ive ive ive torno casa obama macchina blindata mamma partorito hustler saltare impala stella cubana sembro nato italia pi film pi drink pi marijuana might also like trap trap trap trap trap sale scende meglio cresciuti trap rap boom bap alziamo kill ste barre lame vita trap vivo vita senza stop amico tipa ascoltan trap trap boom bap roba cultura seguiamo mode droga chiuso trap capo clan tifo roma fumo crack tarantelle rap prende solo bocca mdma bamba tasca divento super saiyan chilo mezza collana fotto dondola musica cocaina tombola milioni milioni formula fratello conta voglio firma berlusconi tomba sento pressione svuoto caricatore bello brutto tempo porto avanti missione crescere milione dato mano cuore mando troie depressione solo cazzo niente storie trap trap trap trap trap sale scende meglio cresciuti trap rap boom bap alziamo kill ste barre lame vita trap vivo vita senza stop amico tipa ascoltan trap trap boom bap roba cultura seguiamo mode droga</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'neg': 0.33, 'neu': 0.578, 'pos': 0.092, 'compound': -0.9971}</t>
+          <t>{'neg': 0.365, 'neu': 0.615, 'pos': 0.02, 'compound': -0.9982}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-0.9971</v>
-      </c>
-      <c r="I23" t="inlineStr">
+        <v>0.02</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.9982</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.22222222222222224, subjectivity=0.7222222222222222)</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.2222222222222222</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -2891,25 +3503,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['mischio', 'vodka', 'red', 'bull', 'powerade', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'f', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'f', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'uoh', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'ciao', 'darwin', 'venduto', 'zipette', 'zipette', 'clienti', 'saltan', 'scimmie', 'pagavo', 'ticket', 'ticket', 'correvo', 'deliveroo', 'tiro', 'fuori', 'smith', 'wesson', 'fumo', 'bhel', 'garro', 'winston', 'sbagli', 'grosso', 'problema', 'certo', 'houston', 'cerca', 'nome', 'google', 'cerca', 'trovi', 'solo', 'reati', 'niente', 'discografia', 'mamma', 'fatto', 'criminale', 'quel', 'rapper', 'querelato', 'pu', 'pi', 'circolare', 'ubriacarmi', 'giorno', 'quattro', 'litri', 'jack', 'dani', 'piazza', 'prealpi', 'ubriacavo', 'zio', 'carlo', 'alterati', 'puttanaio', 'terra', 'sanguinante', 'strillava', 'gambizzato', 'mare', 'sangue', 'mentre', 'altri', 'scappavano', 'might', 'also', 'like', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'ah', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'ah', 'ah', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'uoh', 'ciao', 'darwin', 'stupido', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'ciao', 'darwin', 'guido', 'deutsch', 'volkswagen', 'rs', 'line', 'bevo', 'j', 'germeister', 'belvedere', 'vedo', 'male', 'ski', 'mask', 'telecamere', 'telecamere', 'ancora', 'piede', 'strada', 'due', 'questura', 'perch', 'bravo', 'cantartela', 'coglione', 'clio', 'rubata', 'p', 'prendi', 'ribaltala', 'uoh', 'imparato', 'guidare', 'auto', 'rubandole', 'tre', 'gambe', 'ora', 'ubriaco', 'perso', 'audi', 'vroom', 'muovendo', 'rallenty', 'zona', 'chernobyl', 'fatti', 'rivo', 'sembran', 'fatti', 'fentanyl', 'clienti', 'sembran', 'zombie', 'ah', 'ah', 'aspettano', 'aspe', 'aspe', 'aspe', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'uoh', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'ah', 'ah', 'solo', 'personaggio', 'andresti', 'bene', 'ciao', 'darwin', 'f', 'f']</t>
+          <t>['mischio', 'vodka', 'red', 'bull', 'powerade', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'f', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'f', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'uoh', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'ciao', 'darwin', 'venduto', 'zipette', 'zipette', 'clienti', 'saltan', 'scimmie', 'pagavo', 'ticket', 'ticket', 'correvo', 'deliveroo', 'tiro', 'fuori', 'smith', 'wesson', 'fumo', 'bhel', 'garro', 'winston', 'sbagli', 'grosso', 'problema', 'certo', 'houston', 'cerca', 'nome', 'google', 'cerca', 'trovi', 'solo', 'reati', 'niente', 'discografia', 'mamma', 'criminale', 'quel', 'rapper', 'querelato', 'pu', 'pi', 'circolare', 'ubriacarmi', 'giorno', 'quattro', 'litri', 'jack', 'dani', 'piazza', 'prealpi', 'ubriacavo', 'zio', 'carlo', 'alterati', 'puttanaio', 'terra', 'sanguinante', 'strillava', 'gambizzato', 'mare', 'sangue', 'mentre', 'altri', 'scappavano', 'might', 'also', 'like', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'uoh', 'ciao', 'darwin', 'stupido', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'ciao', 'darwin', 'guido', 'deutsch', 'volkswagen', 'rs', 'line', 'bevo', 'j', 'germeister', 'belvedere', 'vedo', 'male', 'ski', 'mask', 'telecamere', 'telecamere', 'piede', 'strada', 'due', 'questura', 'perch', 'bravo', 'cantartela', 'coglione', 'clio', 'rubata', 'p', 'prendi', 'ribaltala', 'uoh', 'imparato', 'guidare', 'auto', 'rubandole', 'tre', 'gambe', 'ora', 'ubriaco', 'perso', 'audi', 'vroom', 'muovendo', 'rallenty', 'zona', 'chernobyl', 'fatti', 'rivo', 'sembran', 'fatti', 'fentanyl', 'clienti', 'sembran', 'zombie', 'aspettano', 'aspe', 'aspe', 'aspe', 'mischio', 'vodka', 'red', 'bull', 'powerade', 'uoh', 'devono', 'abbattere', 'twin', 'towers', 'mezzo', 'milli', 'senza', 'lauree', 'sento', 'jeffrey', 'dahmer', 'vittima', 'mani', 'solo', 'personaggio', 'andresti', 'bene', 'ciao', 'darwin', 'f', 'f']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mischio vodka red bull powerade mischio vodka red bull powerade f mischio vodka red bull powerade f mischio vodka red bull powerade uoh mischio vodka red bull powerade devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani solo personaggio andresti bene ciao darwin venduto zipette zipette clienti saltan scimmie pagavo ticket ticket correvo deliveroo tiro fuori smith wesson fumo bhel garro winston sbagli grosso problema certo houston cerca nome google cerca trovi solo reati niente discografia mamma fatto criminale quel rapper querelato pu pi circolare ubriacarmi giorno quattro litri jack dani piazza prealpi ubriacavo zio carlo alterati puttanaio terra sanguinante strillava gambizzato mare sangue mentre altri scappavano might also like mischio vodka red bull powerade ah devono abbattere twin towers mezzo milli senza lauree ah ah sento jeffrey dahmer vittima mani solo personaggio andresti bene uoh ciao darwin stupido mischio vodka red bull powerade devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani solo personaggio andresti bene ciao darwin guido deutsch volkswagen rs line bevo j germeister belvedere vedo male ski mask telecamere telecamere ancora piede strada due questura perch bravo cantartela coglione clio rubata p prendi ribaltala uoh imparato guidare auto rubandole tre gambe ora ubriaco perso audi vroom muovendo rallenty zona chernobyl fatti rivo sembran fatti fentanyl clienti sembran zombie ah ah aspettano aspe aspe aspe mischio vodka red bull powerade uoh devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani ah ah solo personaggio andresti bene ciao darwin f f</t>
+          <t>mischio vodka red bull powerade mischio vodka red bull powerade f mischio vodka red bull powerade f mischio vodka red bull powerade uoh mischio vodka red bull powerade devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani solo personaggio andresti bene ciao darwin venduto zipette zipette clienti saltan scimmie pagavo ticket ticket correvo deliveroo tiro fuori smith wesson fumo bhel garro winston sbagli grosso problema certo houston cerca nome google cerca trovi solo reati niente discografia mamma criminale quel rapper querelato pu pi circolare ubriacarmi giorno quattro litri jack dani piazza prealpi ubriacavo zio carlo alterati puttanaio terra sanguinante strillava gambizzato mare sangue mentre altri scappavano might also like mischio vodka red bull powerade devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani solo personaggio andresti bene uoh ciao darwin stupido mischio vodka red bull powerade devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani solo personaggio andresti bene ciao darwin guido deutsch volkswagen rs line bevo j germeister belvedere vedo male ski mask telecamere telecamere piede strada due questura perch bravo cantartela coglione clio rubata p prendi ribaltala uoh imparato guidare auto rubandole tre gambe ora ubriaco perso audi vroom muovendo rallenty zona chernobyl fatti rivo sembran fatti fentanyl clienti sembran zombie aspettano aspe aspe aspe mischio vodka red bull powerade uoh devono abbattere twin towers mezzo milli senza lauree sento jeffrey dahmer vittima mani solo personaggio andresti bene ciao darwin f f</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'neg': 0.008, 'neu': 0.982, 'pos': 0.01, 'compound': 0.1027}</t>
+          <t>{'neg': 0.009, 'neu': 0.981, 'pos': 0.01, 'compound': 0.1027}</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1027</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.0125, subjectivity=0.0475)</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.0125</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2992,23 +3630,49 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['higashi', 'potenza', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'eh', 'eh', 'ah', 'coff', 'coff', 'eh', 'ah', 'arab', 'baghdad', 'street', 'life', 'bad', 'boy', 'mustang', 'uk', 'london', 'big', 'ass', 'porta', 'booty', 'compton', 'seh', 'seh', 'arab', 'baghdad', 'street', 'life', 'bad', 'boy', 'mustang', 'uk', 'london', 'big', 'ass', 'porta', 'booty', 'compton', 'seh', 'seh', 'dormo', 'sereno', 'sveglio', 'borderline', 'ah', 'macchina', 'sportiva', 'guido', 'dominic', 'toretto', 'cattivo', 'green', 'goblin', 'interessa', 'podio', 'questione', 'soldi', 'pi', 'povero', 'mezzo', 'poveri', 'mezzo', 'siringhe', 'mezzo', 'tossicomani', 'tossici', 'entro', 'tocqueville', 'vogliono', 'dieci', 'pali', 'contanti', 'serve', 'portafoglio', 'metto', 'borsa', 'louis', 'vuitton', 'piace', 'compro', 'pure', 'donna', 'prendo', 'rivotril', 'moonwalk', 'ubriaco', 'scopo', 'solo', 'bocca', 'might', 'also', 'like', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'solamente', 'due', 'codici', 'codici', 'prima', 'parlo', 'n', 'secondo', 'fotto', 'tipe', 'amici', 'sedici', 'giravo', 'rubavo', 'recuperavo', 'debiti', 'ueom', 'raccontato', 'ancora', 'nulla', 'pezzi', 'credimi', 'dormivo', 'treno', 'milano', 'svegliavo', 'termini', 'vogliono', 'guerra', 'sanno', 'berberi', 'pow', 'famosi', 'belli', 'gucci', 'burberry', 'burberry', 'state', 'state', 'esagerando', 'ah', 'ah', 'bandane', 'bandane', 'compton', 'amico', 'qui', 'milano', 'milano', 'dolce', 'vita', 'moda', 'mafia', 'paninari', 'ah', 'fate', 'duri', 'vivo', 'invertebrati', 'ah', 'ah', 'rincorrendo', 'sbirro', 'lupin', 'zenigata', 'zenigata', 'shooter', 'amico', 'senegali', 'senegali', 'bodyguard', 'dovr', 'andare', 'allenarsi', 'allenarsi', 'ah', 'salver', 'mai', 'audemars', 'piguet', 'polso', 'quattro', 'macchine', 'ah', 'accavallati', 'pronti', 'farti', 'agguato', 'ah', 'dynamic', 'rs', 'ergastolo', 'bagagliaio', 'bagagliaio', 'fratello', 'dentro', 'fatto', 'quattro', 'calendari', 'ah', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'fare', 'uff', 'coff', 'coff', 'coff', 'coff', 'fuu', 'fuu', 'uff', 'coff', 'coff', 'coff', 'coff', 'fuu', 'fuu', 'uff', 'coff', 'coff', 'coff', 'coff', 'fuu', 'fuu', 'uff', 'coff', 'coff', 'coff', 'coff']</t>
+          <t>['higashi', 'potenza', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'eh', 'eh', 'coff', 'coff', 'eh', 'arab', 'baghdad', 'street', 'life', 'bad', 'boy', 'mustang', 'uk', 'london', 'big', 'ass', 'porta', 'booty', 'compton', 'seh', 'seh', 'arab', 'baghdad', 'street', 'life', 'bad', 'boy', 'mustang', 'uk', 'london', 'big', 'ass', 'porta', 'booty', 'compton', 'seh', 'seh', 'dormo', 'sereno', 'sveglio', 'borderline', 'macchina', 'sportiva', 'guido', 'dominic', 'toretto', 'cattivo', 'green', 'goblin', 'interessa', 'podio', 'questione', 'soldi', 'pi', 'povero', 'mezzo', 'poveri', 'mezzo', 'siringhe', 'mezzo', 'tossicomani', 'tossici', 'entro', 'tocqueville', 'vogliono', 'dieci', 'pali', 'contanti', 'serve', 'portafoglio', 'metto', 'borsa', 'louis', 'vuitton', 'piace', 'compro', 'pure', 'donna', 'prendo', 'rivotril', 'moonwalk', 'ubriaco', 'scopo', 'solo', 'bocca', 'might', 'also', 'like', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'solamente', 'due', 'codici', 'codici', 'prima', 'parlo', 'n', 'secondo', 'fotto', 'tipe', 'amici', 'sedici', 'giravo', 'rubavo', 'recuperavo', 'debiti', 'ueom', 'raccontato', 'nulla', 'pezzi', 'credimi', 'dormivo', 'treno', 'milano', 'svegliavo', 'termini', 'vogliono', 'guerra', 'sanno', 'berberi', 'pow', 'famosi', 'belli', 'gucci', 'burberry', 'burberry', 'state', 'state', 'esagerando', 'bandane', 'bandane', 'compton', 'amico', 'qui', 'milano', 'milano', 'dolce', 'vita', 'moda', 'mafia', 'paninari', 'fate', 'duri', 'vivo', 'invertebrati', 'rincorrendo', 'sbirro', 'lupin', 'zenigata', 'zenigata', 'shooter', 'amico', 'senegali', 'senegali', 'bodyguard', 'dovr', 'andare', 'allenarsi', 'allenarsi', 'salver', 'audemars', 'piguet', 'polso', 'quattro', 'macchine', 'accavallati', 'pronti', 'farti', 'agguato', 'dynamic', 'rs', 'ergastolo', 'bagagliaio', 'bagagliaio', 'fratello', 'dentro', 'quattro', 'calendari', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'fuu', 'coff', 'coff', 'uff', 'fuu', 'coff', 'coff', 'vedo', 'uff', 'coff', 'coff', 'coff', 'coff', 'fuu', 'fuu', 'uff', 'coff', 'coff', 'coff', 'coff', 'fuu', 'fuu', 'uff', 'coff', 'coff', 'coff', 'coff', 'fuu', 'fuu', 'uff', 'coff', 'coff', 'coff', 'coff']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>higashi potenza uff fuu coff coff uff fuu coff coff eh eh ah coff coff eh ah arab baghdad street life bad boy mustang uk london big ass porta booty compton seh seh arab baghdad street life bad boy mustang uk london big ass porta booty compton seh seh dormo sereno sveglio borderline ah macchina sportiva guido dominic toretto cattivo green goblin interessa podio questione soldi pi povero mezzo poveri mezzo siringhe mezzo tossicomani tossici entro tocqueville vogliono dieci pali contanti serve portafoglio metto borsa louis vuitton piace compro pure donna prendo rivotril moonwalk ubriaco scopo solo bocca might also like vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff fuu coff coff uff fuu coff coff solamente due codici codici prima parlo n secondo fotto tipe amici sedici giravo rubavo recuperavo debiti ueom raccontato ancora nulla pezzi credimi dormivo treno milano svegliavo termini vogliono guerra sanno berberi pow famosi belli gucci burberry burberry state state esagerando ah ah bandane bandane compton amico qui milano milano dolce vita moda mafia paninari ah fate duri vivo invertebrati ah ah rincorrendo sbirro lupin zenigata zenigata shooter amico senegali senegali bodyguard dovr andare allenarsi allenarsi ah salver mai audemars piguet polso quattro macchine ah accavallati pronti farti agguato ah dynamic rs ergastolo bagagliaio bagagliaio fratello dentro fatto quattro calendari ah vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff fuu coff coff uff fuu coff coff vedo fare uff coff coff coff coff fuu fuu uff coff coff coff coff fuu fuu uff coff coff coff coff fuu fuu uff coff coff coff coff</t>
+          <t>higashi potenza uff fuu coff coff uff fuu coff coff eh eh coff coff eh arab baghdad street life bad boy mustang uk london big ass porta booty compton seh seh arab baghdad street life bad boy mustang uk london big ass porta booty compton seh seh dormo sereno sveglio borderline macchina sportiva guido dominic toretto cattivo green goblin interessa podio questione soldi pi povero mezzo poveri mezzo siringhe mezzo tossicomani tossici entro tocqueville vogliono dieci pali contanti serve portafoglio metto borsa louis vuitton piace compro pure donna prendo rivotril moonwalk ubriaco scopo solo bocca might also like vedo uff fuu coff coff uff fuu coff coff vedo uff fuu coff coff uff fuu coff coff vedo uff fuu coff coff uff fuu coff coff vedo uff fuu coff coff uff fuu coff coff solamente due codici codici prima parlo n secondo fotto tipe amici sedici giravo rubavo recuperavo debiti ueom raccontato nulla pezzi credimi dormivo treno milano svegliavo termini vogliono guerra sanno berberi pow famosi belli gucci burberry burberry state state esagerando bandane bandane compton amico qui milano milano dolce vita moda mafia paninari fate duri vivo invertebrati rincorrendo sbirro lupin zenigata zenigata shooter amico senegali senegali bodyguard dovr andare allenarsi allenarsi salver audemars piguet polso quattro macchine accavallati pronti farti agguato dynamic rs ergastolo bagagliaio bagagliaio fratello dentro quattro calendari vedo uff fuu coff coff uff fuu coff coff vedo uff fuu coff coff uff fuu coff coff vedo uff fuu coff coff uff fuu coff coff vedo uff fuu coff coff uff fuu coff coff vedo uff coff coff coff coff fuu fuu uff coff coff coff coff fuu fuu uff coff coff coff coff fuu fuu uff coff coff coff coff</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'neg': 0.044, 'neu': 0.941, 'pos': 0.016, 'compound': -0.872}</t>
+          <t>{'neg': 0.047, 'neu': 0.936, 'pos': 0.017, 'compound': -0.872}</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K25" t="n">
         <v>-0.872</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.18883928571428568, subjectivity=0.35937499999999994)</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.1888392857142857</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3593749999999999</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -3079,27 +3743,53 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['brucio', 'soldi', 'casino', 'spendendo', 'botto', 'botto', 'rifar', 'vestiti', 'shein', 'veramente', 'goth', 'lama', 'hello', 'kitty', 'spargo', 'sangue', 'scena', 'gore', 'bisogno', 'medico', 'sti', 'soldi', 'merito', 'sticker', 'kuromi', 'carta', 'credito', 'voglio', 'uomini', 'sai', 'evito', 'devono', 'milioni', 'adesso', 'saldano', 'debito', 'h', 'hello', 'kitty', 'troppo', 'kinky', 'bb', 'mette', 'skinny', 'trendy', 'soltanto', 'pick', 'lelli', 'kelly', 'bimbi', 'fiocco', 'testa', 'andiamo', 'fare', 'festa', 'soldi', 'interessa', 'fatti', 'molti', 'lancio', 'terra', 'quando', 'parli', 'giriamo', 'testa', 'j', 'ger', 'cola', 'ah', 'schimico', 'mcdonald', 'ah', 'guardano', 'male', 'mentre', 'vedo', 'viola', 'ah', 'baby', 'devi', 'tenere', 'bada', 'troia', 'ah', 'prima', 'tagliamo', 'testa', 'boia', 'ah', 'ogni', 'puta', 'insulta', 'cos', 'brutta', 'sempre', 'casa', 'distrutta', 'luna', 'senza', 'nasa', 'fidanzato', 'menomato', 'dietro', 'sbava', 'meglio', 'brava', 'meglio', 'brava', 'ayesha', 'erotica', 'baby', 'iconica', 'passami', 'succo', 'frutta', 'bevo', 'tonica', 'portare', 'merda', 'tossica', 'troppi', 'tipi', 'riserva', 'pure', 'citt', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'bisogno', 'medico', 'sti', 'soldi', 'merito', 'sticker', 'kuromi', 'carta', 'credito', 'voglio', 'uomini', 'sai', 'evito', 'devono', 'milioni', 'adesso', 'saldano', 'debito', 'go', 'h', 'hello', 'kitty', 'troppo', 'kinky', 'bb', 'mette', 'skinny', 'trendy', 'soltanto', 'pick', 'lelli', 'kelly', 'bimbi', 'fiocco', 'testa', 'andiamo', 'fare', 'festa', 'soldi', 'interessa', 'fatti', 'molti', 'lancio', 'terra', 'quando', 'parli', 'giriamo', 'testa', 'vera', 'baddie', 'sillyelly']</t>
+          <t>['brucio', 'soldi', 'casino', 'spendendo', 'botto', 'botto', 'rifar', 'vestiti', 'shein', 'veramente', 'goth', 'lama', 'hello', 'kitty', 'spargo', 'sangue', 'scena', 'gore', 'bisogno', 'medico', 'sti', 'soldi', 'merito', 'sticker', 'kuromi', 'carta', 'credito', 'voglio', 'uomini', 'sai', 'evito', 'devono', 'milioni', 'adesso', 'saldano', 'debito', 'h', 'hello', 'kitty', 'kinky', 'bb', 'mette', 'skinny', 'trendy', 'soltanto', 'pick', 'lelli', 'kelly', 'bimbi', 'fiocco', 'testa', 'andiamo', 'festa', 'soldi', 'interessa', 'fatti', 'lancio', 'terra', 'parli', 'giriamo', 'testa', 'j', 'ger', 'cola', 'schimico', 'mcdonald', 'guardano', 'male', 'mentre', 'vedo', 'viola', 'baby', 'devi', 'tenere', 'bada', 'troia', 'prima', 'tagliamo', 'testa', 'boia', 'puta', 'insulta', 'cos', 'brutta', 'sempre', 'casa', 'distrutta', 'luna', 'senza', 'nasa', 'fidanzato', 'menomato', 'dietro', 'sbava', 'meglio', 'brava', 'meglio', 'brava', 'ayesha', 'erotica', 'baby', 'iconica', 'passami', 'succo', 'frutta', 'bevo', 'tonica', 'portare', 'merda', 'tossica', 'troppi', 'tipi', 'riserva', 'pure', 'citt', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'bisogno', 'medico', 'sti', 'soldi', 'merito', 'sticker', 'kuromi', 'carta', 'credito', 'voglio', 'uomini', 'sai', 'evito', 'devono', 'milioni', 'adesso', 'saldano', 'debito', 'go', 'h', 'hello', 'kitty', 'kinky', 'bb', 'mette', 'skinny', 'trendy', 'soltanto', 'pick', 'lelli', 'kelly', 'bimbi', 'fiocco', 'testa', 'andiamo', 'festa', 'soldi', 'interessa', 'fatti', 'lancio', 'terra', 'parli', 'giriamo', 'testa', 'vera', 'baddie', 'sillyelly']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>brucio soldi casino spendendo botto botto rifar vestiti shein veramente goth lama hello kitty spargo sangue scena gore bisogno medico sti soldi merito sticker kuromi carta credito voglio uomini sai evito devono milioni adesso saldano debito h hello kitty troppo kinky bb mette skinny trendy soltanto pick lelli kelly bimbi fiocco testa andiamo fare festa soldi interessa fatti molti lancio terra quando parli giriamo testa j ger cola ah schimico mcdonald ah guardano male mentre vedo viola ah baby devi tenere bada troia ah prima tagliamo testa boia ah ogni puta insulta cos brutta sempre casa distrutta luna senza nasa fidanzato menomato dietro sbava meglio brava meglio brava ayesha erotica baby iconica passami succo frutta bevo tonica portare merda tossica troppi tipi riserva pure citt see anna liveget tickets low might also like bisogno medico sti soldi merito sticker kuromi carta credito voglio uomini sai evito devono milioni adesso saldano debito go h hello kitty troppo kinky bb mette skinny trendy soltanto pick lelli kelly bimbi fiocco testa andiamo fare festa soldi interessa fatti molti lancio terra quando parli giriamo testa vera baddie sillyelly</t>
+          <t>brucio soldi casino spendendo botto botto rifar vestiti shein veramente goth lama hello kitty spargo sangue scena gore bisogno medico sti soldi merito sticker kuromi carta credito voglio uomini sai evito devono milioni adesso saldano debito h hello kitty kinky bb mette skinny trendy soltanto pick lelli kelly bimbi fiocco testa andiamo festa soldi interessa fatti lancio terra parli giriamo testa j ger cola schimico mcdonald guardano male mentre vedo viola baby devi tenere bada troia prima tagliamo testa boia puta insulta cos brutta sempre casa distrutta luna senza nasa fidanzato menomato dietro sbava meglio brava meglio brava ayesha erotica baby iconica passami succo frutta bevo tonica portare merda tossica troppi tipi riserva pure citt see anna liveget tickets low might also like bisogno medico sti soldi merito sticker kuromi carta credito voglio uomini sai evito devono milioni adesso saldano debito go h hello kitty kinky bb mette skinny trendy soltanto pick lelli kelly bimbi fiocco testa andiamo festa soldi interessa fatti lancio terra parli giriamo testa vera baddie sillyelly</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'neg': 0.011, 'neu': 0.975, 'pos': 0.014, 'compound': 0.1027}</t>
+          <t>{'neg': 0.012, 'neu': 0.973, 'pos': 0.015, 'compound': 0.1027}</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1027</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.2828571428571428, subjectivity=0.54)</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2828571428571428</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3178,25 +3868,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['everything', 'foreign', 'haha', 'diego', 'miles', 'aspettami', 'ancora', 'fare', 'milione', 'scale', 'sembra', 'film', 'resta', 'qui', 'spiegami', 'cos', 'gridare', 'mandi', 'pi', 'male', 'fentanyl', 'ecstasy', 'sento', 'nominare', 'karma', 'perdo', 'calma', 'piangere', 'soltanto', 'quando', 'nessuno', 'guarda', 'torno', 'casa', 'notte', 'tarda', 'insieme', 'due', 'bad', 'ancora', 'sveglio', 'fuori', 'intanto', 'far', 'alba', 'baby', 'metto', 'sempre', 'scarpa', 'nuova', 'pacca', 'fare', 'slalom', 'sti', 'saiyan', 'coda', 'paglia', 'avere', 'mai', 'euro', 'tasca', 'costava', 'ora', 'corrono', 'dietro', 'guarda', 'speedy', 'gonzzala', 'sogno', 'cassetto', 'stretto', 'spezza', 'silenzio', 'scava', 'petto', 'polvere', 'tempo', 'cd', 'cassette', 'dirmi', 'cuore', 'guardami', 'adesso', 'might', 'also', 'like', 'pugni', 'sonno', 'notte', 'imparato', 'muore', 'solo', 'ogni', 'giorno', 'rincorro', 'sorte', 'due', 'audemars', 'ore', 'aspettami', 'ancora', 'fare', 'milione', 'scale', 'sembra', 'film', 'resta', 'qui', 'spiegami', 'cos', 'gridare', 'mandi', 'pi', 'male', 'fentanyl', 'ecstasy', 'money', 'gang', 'baby', 'prego', 'aspettami', 'giro', 'evitare', 'proiettili', 'bu', 'bu', 'tutte', 'cose', 'dici', 'promettile', 'sangue', 'caldo', 'mica', 'striscio', 'mezzo', 'sti', 'rettili', 'ahahah', 'oh', 'wow', 'rimmel', 'shirt', 'piangi', 'victoria', 'secret', 'uh', 'parli', 'amiche', 'chiss', 'cosa', 'dirai', 'sai', 'vengo', 'centro', 'cresciuto', 'cortile', 'qua', 'amore', 'prezzo', 'vendono', 'crai', 'ahi', 'venduto', 'milione', 'copie', 'uh', 'uh', 'uh', 'potrei', 'averne', 'ogni', 'giorno', 'nuova', 'uh', 'uh', 'uh', 'sbagliato', 'milione', 'volte', 'lasciandomi', 'nodo', 'gola', 'aspettami', 'ancora', 'fare', 'milione', 'scale', 'sembra', 'film', 'resta', 'qui', 'spiegami', 'cos', 'gridare', 'mandi', 'pi', 'male', 'fentanyl', 'ecstasy']</t>
+          <t>['everything', 'foreign', 'haha', 'diego', 'miles', 'aspettami', 'milione', 'scale', 'sembra', 'film', 'resta', 'qui', 'spiegami', 'cos', 'gridare', 'mandi', 'pi', 'male', 'fentanyl', 'ecstasy', 'sento', 'nominare', 'karma', 'perdo', 'calma', 'piangere', 'soltanto', 'guarda', 'torno', 'casa', 'notte', 'tarda', 'due', 'bad', 'sveglio', 'fuori', 'intanto', 'far', 'alba', 'baby', 'metto', 'sempre', 'scarpa', 'nuova', 'pacca', 'slalom', 'sti', 'saiyan', 'coda', 'paglia', 'avere', 'euro', 'tasca', 'costava', 'ora', 'corrono', 'dietro', 'guarda', 'speedy', 'gonzzala', 'sogno', 'cassetto', 'stretto', 'spezza', 'silenzio', 'scava', 'petto', 'polvere', 'tempo', 'cd', 'cassette', 'dirmi', 'cuore', 'guardami', 'adesso', 'might', 'also', 'like', 'pugni', 'sonno', 'notte', 'imparato', 'muore', 'solo', 'giorno', 'rincorro', 'sorte', 'due', 'audemars', 'ore', 'aspettami', 'milione', 'scale', 'sembra', 'film', 'resta', 'qui', 'spiegami', 'cos', 'gridare', 'mandi', 'pi', 'male', 'fentanyl', 'ecstasy', 'money', 'gang', 'baby', 'prego', 'aspettami', 'giro', 'evitare', 'proiettili', 'bu', 'bu', 'tutte', 'cose', 'dici', 'promettile', 'sangue', 'caldo', 'mica', 'striscio', 'mezzo', 'sti', 'rettili', 'ahahah', 'wow', 'rimmel', 'shirt', 'piangi', 'victoria', 'secret', 'parli', 'amiche', 'chiss', 'cosa', 'dirai', 'sai', 'vengo', 'centro', 'cresciuto', 'cortile', 'qua', 'amore', 'prezzo', 'vendono', 'crai', 'ahi', 'venduto', 'milione', 'copie', 'potrei', 'averne', 'giorno', 'nuova', 'sbagliato', 'milione', 'volte', 'lasciandomi', 'nodo', 'gola', 'aspettami', 'milione', 'scale', 'sembra', 'film', 'resta', 'qui', 'spiegami', 'cos', 'gridare', 'mandi', 'pi', 'male', 'fentanyl', 'ecstasy']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>everything foreign haha diego miles aspettami ancora fare milione scale sembra film resta qui spiegami cos gridare mandi pi male fentanyl ecstasy sento nominare karma perdo calma piangere soltanto quando nessuno guarda torno casa notte tarda insieme due bad ancora sveglio fuori intanto far alba baby metto sempre scarpa nuova pacca fare slalom sti saiyan coda paglia avere mai euro tasca costava ora corrono dietro guarda speedy gonzzala sogno cassetto stretto spezza silenzio scava petto polvere tempo cd cassette dirmi cuore guardami adesso might also like pugni sonno notte imparato muore solo ogni giorno rincorro sorte due audemars ore aspettami ancora fare milione scale sembra film resta qui spiegami cos gridare mandi pi male fentanyl ecstasy money gang baby prego aspettami giro evitare proiettili bu bu tutte cose dici promettile sangue caldo mica striscio mezzo sti rettili ahahah oh wow rimmel shirt piangi victoria secret uh parli amiche chiss cosa dirai sai vengo centro cresciuto cortile qua amore prezzo vendono crai ahi venduto milione copie uh uh uh potrei averne ogni giorno nuova uh uh uh sbagliato milione volte lasciandomi nodo gola aspettami ancora fare milione scale sembra film resta qui spiegami cos gridare mandi pi male fentanyl ecstasy</t>
+          <t>everything foreign haha diego miles aspettami milione scale sembra film resta qui spiegami cos gridare mandi pi male fentanyl ecstasy sento nominare karma perdo calma piangere soltanto guarda torno casa notte tarda due bad sveglio fuori intanto far alba baby metto sempre scarpa nuova pacca slalom sti saiyan coda paglia avere euro tasca costava ora corrono dietro guarda speedy gonzzala sogno cassetto stretto spezza silenzio scava petto polvere tempo cd cassette dirmi cuore guardami adesso might also like pugni sonno notte imparato muore solo giorno rincorro sorte due audemars ore aspettami milione scale sembra film resta qui spiegami cos gridare mandi pi male fentanyl ecstasy money gang baby prego aspettami giro evitare proiettili bu bu tutte cose dici promettile sangue caldo mica striscio mezzo sti rettili ahahah wow rimmel shirt piangi victoria secret parli amiche chiss cosa dirai sai vengo centro cresciuto cortile qua amore prezzo vendono crai ahi venduto milione copie potrei averne giorno nuova sbagliato milione volte lasciandomi nodo gola aspettami milione scale sembra film resta qui spiegami cos gridare mandi pi male fentanyl ecstasy</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'neg': 0.016, 'neu': 0.887, 'pos': 0.097, 'compound': 0.9552}</t>
+          <t>{'neg': 0.018, 'neu': 0.874, 'pos': 0.108, 'compound': 0.9552}</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.9552</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.0977272727272727, subjectivity=0.44015151515151507)</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.0977272727272727</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.4401515151515151</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3277,23 +3993,49 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['parlato', 'due', 'volte', 'amavamo', 'gi', 'trent', 'anni', 'vent', 'anni', 'vent', 'anni', 'pianti', 'feste', 'botte', 'paura', 'ragni', 'paura', 'anni', 'solo', 'ingannati', 'pi', 'niente', 'dirti', 'puoi', 'capirmi', 'riesco', 'vita', 'dedico', 'star', 'attento', 'uscire', 'sera', 'incontro', 'stronzo', 'mano', 'coltello', 'stavolta', 'fermerei', 'spaccato', 'naso', 'sai', 'vedo', 'stasera', 'infermiera', 'might', 'also', 'like', 'curami', 'curami', 'curami', 'curami', 'sempre', 'dolore', 'vuol', 'dire', 'necessariamente', 'sangue', 'fa', 'freddo', 'cane', 'stanza', 'volta', 'gelosia', 'altra', 'volta', 'merito', 'studi', 'anatomia', 'perch', 'sai', 'guardarti', 'dentro', 'pianto', 'cento', 'bagni', 'bel', 'gesto', 'incoerente', 'sempre', 'paura', 'ragni', 'mai', 'fatto', 'niente', 'pi', 'niente', 'darti', 'sopportarmi', 'capisco', 'vita', 'dedico', 'star', 'attento', 'uscire', 'sera', 'incontro', 'stronzo', 'mano', 'coltello', 'stavolta', 'fermerei', 'spaccato', 'naso', 'sai', 'vedo', 'stasera', 'infermiera', 'curami', 'curami', 'curami', 'curami', 'sempre', 'dolore', 'vuol', 'dire', 'necessariamente', 'sangue', 'fa', 'freddo', 'cane', 'stanza', 'dimmi', 'manca', 'prima', 'prima', 'divento', 'grande', 'anch', 'star', 'attento', 'uscire', 'sera', 'incontro', 'stronzo', 'mano', 'coltello', 'stavolta', 'fermerei', 'spaccato', 'naso', 'sai', 'vedo', 'stasera', 'infermiera', 'curami', 'curami', 'curami', 'curami', 'sempre', 'dolore', 'vuol', 'dire', 'necessariamente', 'sangue', 'fa', 'freddo', 'cane', 'stanza']</t>
+          <t>['parlato', 'due', 'volte', 'amavamo', 'gi', 'trent', 'anni', 'vent', 'anni', 'vent', 'anni', 'pianti', 'feste', 'botte', 'paura', 'ragni', 'paura', 'anni', 'solo', 'ingannati', 'pi', 'niente', 'dirti', 'puoi', 'capirmi', 'riesco', 'vita', 'dedico', 'star', 'attento', 'uscire', 'sera', 'incontro', 'stronzo', 'mano', 'coltello', 'fermerei', 'spaccato', 'naso', 'sai', 'vedo', 'stasera', 'infermiera', 'might', 'also', 'like', 'curami', 'curami', 'curami', 'curami', 'sempre', 'dolore', 'vuol', 'dire', 'necessariamente', 'sangue', 'fa', 'freddo', 'cane', 'stanza', 'volta', 'gelosia', 'altra', 'volta', 'merito', 'studi', 'anatomia', 'perch', 'sai', 'guardarti', 'dentro', 'pianto', 'cento', 'bagni', 'bel', 'gesto', 'incoerente', 'sempre', 'paura', 'ragni', 'niente', 'pi', 'niente', 'darti', 'sopportarmi', 'capisco', 'vita', 'dedico', 'star', 'attento', 'uscire', 'sera', 'incontro', 'stronzo', 'mano', 'coltello', 'fermerei', 'spaccato', 'naso', 'sai', 'vedo', 'stasera', 'infermiera', 'curami', 'curami', 'curami', 'curami', 'sempre', 'dolore', 'vuol', 'dire', 'necessariamente', 'sangue', 'fa', 'freddo', 'cane', 'stanza', 'dimmi', 'manca', 'prima', 'prima', 'divento', 'anch', 'star', 'attento', 'uscire', 'sera', 'incontro', 'stronzo', 'mano', 'coltello', 'fermerei', 'spaccato', 'naso', 'sai', 'vedo', 'stasera', 'infermiera', 'curami', 'curami', 'curami', 'curami', 'sempre', 'dolore', 'vuol', 'dire', 'necessariamente', 'sangue', 'fa', 'freddo', 'cane', 'stanza']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>parlato due volte amavamo gi trent anni vent anni vent anni pianti feste botte paura ragni paura anni solo ingannati pi niente dirti puoi capirmi riesco vita dedico star attento uscire sera incontro stronzo mano coltello stavolta fermerei spaccato naso sai vedo stasera infermiera might also like curami curami curami curami sempre dolore vuol dire necessariamente sangue fa freddo cane stanza volta gelosia altra volta merito studi anatomia perch sai guardarti dentro pianto cento bagni bel gesto incoerente sempre paura ragni mai fatto niente pi niente darti sopportarmi capisco vita dedico star attento uscire sera incontro stronzo mano coltello stavolta fermerei spaccato naso sai vedo stasera infermiera curami curami curami curami sempre dolore vuol dire necessariamente sangue fa freddo cane stanza dimmi manca prima prima divento grande anch star attento uscire sera incontro stronzo mano coltello stavolta fermerei spaccato naso sai vedo stasera infermiera curami curami curami curami sempre dolore vuol dire necessariamente sangue fa freddo cane stanza</t>
+          <t>parlato due volte amavamo gi trent anni vent anni vent anni pianti feste botte paura ragni paura anni solo ingannati pi niente dirti puoi capirmi riesco vita dedico star attento uscire sera incontro stronzo mano coltello fermerei spaccato naso sai vedo stasera infermiera might also like curami curami curami curami sempre dolore vuol dire necessariamente sangue fa freddo cane stanza volta gelosia altra volta merito studi anatomia perch sai guardarti dentro pianto cento bagni bel gesto incoerente sempre paura ragni niente pi niente darti sopportarmi capisco vita dedico star attento uscire sera incontro stronzo mano coltello fermerei spaccato naso sai vedo stasera infermiera curami curami curami curami sempre dolore vuol dire necessariamente sangue fa freddo cane stanza dimmi manca prima prima divento anch star attento uscire sera incontro stronzo mano coltello fermerei spaccato naso sai vedo stasera infermiera curami curami curami curami sempre dolore vuol dire necessariamente sangue fa freddo cane stanza</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'neg': 0.054, 'neu': 0.931, 'pos': 0.015, 'compound': -0.7579}</t>
+          <t>{'neg': 0.056, 'neu': 0.928, 'pos': 0.016, 'compound': -0.7579}</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K28" t="n">
         <v>-0.7579</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.125, subjectivity=0.375)</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -3373,27 +4115,53 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ooh', 'ooh', 'woke', 'dream', 'say', 'goodbye', 'know', 'means', 'since', 'survived', 'realized', 'wherever', 'go', 'follow', 'nobody', 'promised', 'tomorrow', 'love', 'every', 'night', 'like', 'last', 'night', 'like', 'last', 'night', 'world', 'ending', 'wanna', 'next', 'party', 'time', 'earth', 'wanna', 'hold', 'die', 'smile', 'world', 'ending', 'wanna', 'next', 'ooh', 'ooh', 'might', 'also', 'like', 'ooh', 'lost', 'lost', 'words', 'scream', 'even', 'wanna', 'anymore', 'cause', 'already', 'know', 'mean', 'love', 'war', 'worth', 'fighting', 'wherever', 'go', 'follow', 'nobody', 'promised', 'tomorrow', 'love', 'every', 'night', 'like', 'last', 'night', 'like', 'last', 'night', 'world', 'ending', 'wanna', 'next', 'party', 'time', 'earth', 'wanna', 'hold', 'die', 'smile', 'world', 'ending', 'wanna', 'next', 'right', 'next', 'next', 'right', 'next', 'oh', 'oh', 'world', 'ending', 'wanna', 'next', 'party', 'time', 'earth', 'wanna', 'hold', 'die', 'smile', 'world', 'ending', 'wanna', 'next', 'world', 'ending', 'wanna', 'next', 'ooh', 'ooh', 'wanna', 'next']</t>
+          <t>['woke', 'dream', 'say', 'goodbye', 'know', 'means', 'since', 'survived', 'realized', 'wherever', 'go', 'follow', 'nobody', 'promised', 'tomorrow', 'love', 'every', 'night', 'like', 'last', 'night', 'like', 'last', 'night', 'world', 'ending', 'wanna', 'next', 'party', 'time', 'earth', 'wanna', 'hold', 'die', 'smile', 'world', 'ending', 'wanna', 'next', 'might', 'also', 'like', 'lost', 'lost', 'words', 'scream', 'even', 'wanna', 'anymore', 'cause', 'already', 'know', 'mean', 'love', 'war', 'worth', 'fighting', 'wherever', 'go', 'follow', 'nobody', 'promised', 'tomorrow', 'love', 'every', 'night', 'like', 'last', 'night', 'like', 'last', 'night', 'world', 'ending', 'wanna', 'next', 'party', 'time', 'earth', 'wanna', 'hold', 'die', 'smile', 'world', 'ending', 'wanna', 'next', 'right', 'next', 'next', 'right', 'next', 'world', 'ending', 'wanna', 'next', 'party', 'time', 'earth', 'wanna', 'hold', 'die', 'smile', 'world', 'ending', 'wanna', 'next', 'world', 'ending', 'wanna', 'next', 'wanna', 'next']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ooh ooh woke dream say goodbye know means since survived realized wherever go follow nobody promised tomorrow love every night like last night like last night world ending wanna next party time earth wanna hold die smile world ending wanna next ooh ooh might also like ooh lost lost words scream even wanna anymore cause already know mean love war worth fighting wherever go follow nobody promised tomorrow love every night like last night like last night world ending wanna next party time earth wanna hold die smile world ending wanna next right next next right next oh oh world ending wanna next party time earth wanna hold die smile world ending wanna next world ending wanna next ooh ooh wanna next</t>
+          <t>woke dream say goodbye know means since survived realized wherever go follow nobody promised tomorrow love every night like last night like last night world ending wanna next party time earth wanna hold die smile world ending wanna next might also like lost lost words scream even wanna anymore cause already know mean love war worth fighting wherever go follow nobody promised tomorrow love every night like last night like last night world ending wanna next party time earth wanna hold die smile world ending wanna next right next next right next world ending wanna next party time earth wanna hold die smile world ending wanna next world ending wanna next wanna next</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'neg': 0.147, 'neu': 0.548, 'pos': 0.305, 'compound': 0.9735}</t>
+          <t>{'neg': 0.155, 'neu': 0.523, 'pos': 0.322, 'compound': 0.9735}</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.9735</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.11835714285714284, subjectivity=0.16902380952380952)</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1183571428571428</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1690238095238095</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3462,27 +4230,53 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['bevendo', 'whisky', 'vetro', 'posto', 'ice', 'uah', 'uah', 'problemi', 'sistemo', 'n', 'ora', 'n', 'poi', 'forse', 'soltanto', 'cattivi', 'sbagliano', 'mai', 'vengo', 'cattivi', 'veri', 'eroi', 'sai', 'preso', 'colpe', 'preso', 'colpi', 'yeah', 'proteggerti', 'atteggiamenti', 'troppo', 'orgogliosi', 'cambiato', 'piume', 'cambiano', 'stagioni', 'cuore', 'resta', 'freddo', 'pieno', 'radiazioni', 'vuoi', 'cuore', 'prendi', 'spara', 'uah', 'brividi', 'freddo', 'casa', 'uh', 'yeah', 'sveglio', 'accanto', 'fingo', 'mancava', 'sguardi', 'fermi', 'aria', 'uh', 'h', 'farfalle', 'pancia', 'uoh', 'uccide', 'niente', 'uccide', 'distanza', 'rimasta', 'solo', 'polvere', 'sai', 'quando', 'vuoi', 'smettiamo', 'farci', 'male', 'lasci', 'lasci', 'andare', 'yeah', 'ah', 'ah', 'ah', 'vuoi', 'cuore', 'prendi', 'spara', 'brividi', 'freddo', 'piazza', 'dita', 'dentro', 'pancia', 'sembra', 'tocco', 'ansia', 'persi', 'stanza', 'telepatia', 'aria', 'soli', 'pure', 'giro', 'quando', 'cammino', 'fianco', 'posso', 'distrarre', 'mondo', 'facile', 'posso', 'inventare', 'istruzioni', 'posso', 'parlare', 'metti', 'schermi', 'fatto', 'uscire', 'certe', 'situe', 'senza', 'giro', 'senza', 'casa', 'strada', 'due', 'sigarette', 'vuoti', 'ansia', 'mal', 'pancia', 'cambiata', 'quando', 'andata', 'bloccato', 'ovunque', 'lancio', 'messaggi', 'aria', 'perch', 'might', 'also', 'like', 'rimasta', 'solo', 'polvere', 'sai', 'quando', 'vuoi', 'smettiamo', 'farci', 'male', 'lasci', 'lasci', 'andare', 'ah', 'ah', 'vuoi', 'cuore', 'prendi', 'spara', 'ah', 'brividi', 'freddo', 'casa', 'ah', 'sveglio', 'accanto', 'fingo', 'mancava', 'uah', 'uah', 'uah', 'uah', 'sguardi', 'persi', 'aria', 'ah', 'farfalle', 'pancia', 'ah', 'uccide', 'niente', 'uccide', 'distanza', 'uah', 'uah', 'uah', 'uah', 'rimasta', 'solo', 'polvere', 'sai', 'quando', 'vuoi', 'smettiamo', 'farci', 'male', 'lasci', 'lasci', 'andare']</t>
+          <t>['bevendo', 'whisky', 'vetro', 'posto', 'ice', 'uah', 'uah', 'problemi', 'sistemo', 'n', 'ora', 'n', 'poi', 'forse', 'soltanto', 'cattivi', 'sbagliano', 'vengo', 'cattivi', 'veri', 'eroi', 'sai', 'preso', 'colpe', 'preso', 'colpi', 'proteggerti', 'atteggiamenti', 'orgogliosi', 'cambiato', 'piume', 'cambiano', 'stagioni', 'cuore', 'resta', 'freddo', 'pieno', 'radiazioni', 'vuoi', 'cuore', 'prendi', 'spara', 'uah', 'brividi', 'freddo', 'casa', 'sveglio', 'accanto', 'fingo', 'mancava', 'sguardi', 'fermi', 'aria', 'h', 'farfalle', 'pancia', 'uoh', 'uccide', 'niente', 'uccide', 'distanza', 'rimasta', 'solo', 'polvere', 'sai', 'vuoi', 'smettiamo', 'farci', 'male', 'lasci', 'lasci', 'andare', 'vuoi', 'cuore', 'prendi', 'spara', 'brividi', 'freddo', 'piazza', 'dita', 'dentro', 'pancia', 'sembra', 'tocco', 'ansia', 'persi', 'stanza', 'telepatia', 'aria', 'soli', 'pure', 'giro', 'cammino', 'fianco', 'posso', 'distrarre', 'mondo', 'facile', 'posso', 'inventare', 'istruzioni', 'posso', 'parlare', 'metti', 'schermi', 'uscire', 'certe', 'situe', 'senza', 'giro', 'senza', 'casa', 'strada', 'due', 'sigarette', 'vuoti', 'ansia', 'mal', 'pancia', 'cambiata', 'andata', 'bloccato', 'ovunque', 'lancio', 'messaggi', 'aria', 'perch', 'might', 'also', 'like', 'rimasta', 'solo', 'polvere', 'sai', 'vuoi', 'smettiamo', 'farci', 'male', 'lasci', 'lasci', 'andare', 'vuoi', 'cuore', 'prendi', 'spara', 'brividi', 'freddo', 'casa', 'sveglio', 'accanto', 'fingo', 'mancava', 'uah', 'uah', 'uah', 'uah', 'sguardi', 'persi', 'aria', 'farfalle', 'pancia', 'uccide', 'niente', 'uccide', 'distanza', 'uah', 'uah', 'uah', 'uah', 'rimasta', 'solo', 'polvere', 'sai', 'vuoi', 'smettiamo', 'farci', 'male', 'lasci', 'lasci', 'andare']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>bevendo whisky vetro posto ice uah uah problemi sistemo n ora n poi forse soltanto cattivi sbagliano mai vengo cattivi veri eroi sai preso colpe preso colpi yeah proteggerti atteggiamenti troppo orgogliosi cambiato piume cambiano stagioni cuore resta freddo pieno radiazioni vuoi cuore prendi spara uah brividi freddo casa uh yeah sveglio accanto fingo mancava sguardi fermi aria uh h farfalle pancia uoh uccide niente uccide distanza rimasta solo polvere sai quando vuoi smettiamo farci male lasci lasci andare yeah ah ah ah vuoi cuore prendi spara brividi freddo piazza dita dentro pancia sembra tocco ansia persi stanza telepatia aria soli pure giro quando cammino fianco posso distrarre mondo facile posso inventare istruzioni posso parlare metti schermi fatto uscire certe situe senza giro senza casa strada due sigarette vuoti ansia mal pancia cambiata quando andata bloccato ovunque lancio messaggi aria perch might also like rimasta solo polvere sai quando vuoi smettiamo farci male lasci lasci andare ah ah vuoi cuore prendi spara ah brividi freddo casa ah sveglio accanto fingo mancava uah uah uah uah sguardi persi aria ah farfalle pancia ah uccide niente uccide distanza uah uah uah uah rimasta solo polvere sai quando vuoi smettiamo farci male lasci lasci andare</t>
+          <t>bevendo whisky vetro posto ice uah uah problemi sistemo n ora n poi forse soltanto cattivi sbagliano vengo cattivi veri eroi sai preso colpe preso colpi proteggerti atteggiamenti orgogliosi cambiato piume cambiano stagioni cuore resta freddo pieno radiazioni vuoi cuore prendi spara uah brividi freddo casa sveglio accanto fingo mancava sguardi fermi aria h farfalle pancia uoh uccide niente uccide distanza rimasta solo polvere sai vuoi smettiamo farci male lasci lasci andare vuoi cuore prendi spara brividi freddo piazza dita dentro pancia sembra tocco ansia persi stanza telepatia aria soli pure giro cammino fianco posso distrarre mondo facile posso inventare istruzioni posso parlare metti schermi uscire certe situe senza giro senza casa strada due sigarette vuoti ansia mal pancia cambiata andata bloccato ovunque lancio messaggi aria perch might also like rimasta solo polvere sai vuoi smettiamo farci male lasci lasci andare vuoi cuore prendi spara brividi freddo casa sveglio accanto fingo mancava uah uah uah uah sguardi persi aria farfalle pancia uccide niente uccide distanza uah uah uah uah rimasta solo polvere sai vuoi smettiamo farci male lasci lasci andare</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.955, 'pos': 0.045, 'compound': 0.7964}</t>
+          <t>{'neg': 0.0, 'neu': 0.986, 'pos': 0.014, 'compound': 0.3612}</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7964</v>
-      </c>
-      <c r="I30" t="inlineStr">
+        <v>0.014</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3612</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.017857142857142856, subjectivity=0.23500000000000001)</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3560,27 +4354,53 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['metto', 'benzina', 'metto', 'gasolina', 'uh', 'fa', 'impazzire', 'fa', 'cattiva', 'uh', 'met', 'bastarda', 'met', 'bambolina', 'uh', 'illegale', 'rapina', 'principessa', 'strada', 'mostrami', 'via', 'favela', 'brasiliana', 'seh', 'metti', 'prada', 'porto', 'via', 'villa', 'copacabana', 'ah', 'follia', 'sudamericana', 'sudamericana', 'andare', 'via', 'via', 'via', 'prima', 'farci', 'pezzi', 'troppo', 'diversi', 'ah', 'ah', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'troppo', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sso', 'samba', 'sesso', 'samba', 'notte', 'sbrana', 'might', 'also', 'like', 'quando', 'balli', 'perdere', 'sensi', 'voglio', 'ricoprirti', 'gioielli', 'nessuno', 'pu', 'farti', 'complimenti', 'sentimenti', 'piaci', 'cos', 'difetti', 'cattiva', 'letto', 'sporchi', 'rossetto', 'vengo', 'roma', 'centro', 'pazza', 'accento', 'vuole', 'figlio', 'solo', 'farlo', 'ricco', 'bello', 'contando', 'milioni', 'dispiace', 'tempo', 'ah', 'follia', 'sudamericana', 'sudamericana', 'andare', 'via', 'via', 'via', 'prima', 'farci', 'pezzi', 'troppo', 'diversi', 'ah', 'ah', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'troppo', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'notte', 'sbrana', 'ultima', 'nota', 'canzoni', 'amore', 'chiudono', 'senza', 'parole', 'dicono', 'verit', 'troppo', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'troppo', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'notte', 'sbrana', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'notte', 'sbrana']</t>
+          <t>['metto', 'benzina', 'metto', 'gasolina', 'fa', 'impazzire', 'fa', 'cattiva', 'met', 'bastarda', 'met', 'bambolina', 'illegale', 'rapina', 'principessa', 'strada', 'mostrami', 'via', 'favela', 'brasiliana', 'seh', 'metti', 'prada', 'porto', 'via', 'villa', 'copacabana', 'follia', 'sudamericana', 'sudamericana', 'andare', 'via', 'via', 'via', 'prima', 'farci', 'pezzi', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sso', 'samba', 'sesso', 'samba', 'notte', 'sbrana', 'might', 'also', 'like', 'balli', 'perdere', 'sensi', 'voglio', 'ricoprirti', 'gioielli', 'pu', 'farti', 'complimenti', 'sentimenti', 'piaci', 'cos', 'difetti', 'cattiva', 'letto', 'sporchi', 'rossetto', 'vengo', 'roma', 'centro', 'pazza', 'accento', 'vuole', 'figlio', 'solo', 'farlo', 'ricco', 'bello', 'contando', 'milioni', 'dispiace', 'tempo', 'follia', 'sudamericana', 'sudamericana', 'andare', 'via', 'via', 'via', 'prima', 'farci', 'pezzi', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'notte', 'sbrana', 'ultima', 'nota', 'canzoni', 'amore', 'chiudono', 'senza', 'parole', 'dicono', 'verit', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'diversi', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'notte', 'sbrana', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'sesso', 'samba', 'notte', 'sbrana']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>metto benzina metto gasolina uh fa impazzire fa cattiva uh met bastarda met bambolina uh illegale rapina principessa strada mostrami via favela brasiliana seh metti prada porto via villa copacabana ah follia sudamericana sudamericana andare via via via prima farci pezzi troppo diversi ah ah sesso samba sesso samba sesso samba sesso samba sesso samba sesso samba troppo diversi sesso samba sesso samba sso samba sesso samba notte sbrana might also like quando balli perdere sensi voglio ricoprirti gioielli nessuno pu farti complimenti sentimenti piaci cos difetti cattiva letto sporchi rossetto vengo roma centro pazza accento vuole figlio solo farlo ricco bello contando milioni dispiace tempo ah follia sudamericana sudamericana andare via via via prima farci pezzi troppo diversi ah ah sesso samba sesso samba sesso samba sesso samba sesso samba sesso samba troppo diversi sesso samba sesso samba sesso samba sesso samba notte sbrana ultima nota canzoni amore chiudono senza parole dicono verit troppo diversi sesso samba sesso samba sesso samba sesso samba sesso samba sesso samba troppo diversi sesso samba sesso samba sesso samba sesso samba notte sbrana sesso samba sesso samba sesso samba sesso samba notte sbrana</t>
+          <t>metto benzina metto gasolina fa impazzire fa cattiva met bastarda met bambolina illegale rapina principessa strada mostrami via favela brasiliana seh metti prada porto via villa copacabana follia sudamericana sudamericana andare via via via prima farci pezzi diversi sesso samba sesso samba sesso samba sesso samba sesso samba sesso samba diversi sesso samba sesso samba sso samba sesso samba notte sbrana might also like balli perdere sensi voglio ricoprirti gioielli pu farti complimenti sentimenti piaci cos difetti cattiva letto sporchi rossetto vengo roma centro pazza accento vuole figlio solo farlo ricco bello contando milioni dispiace tempo follia sudamericana sudamericana andare via via via prima farci pezzi diversi sesso samba sesso samba sesso samba sesso samba sesso samba sesso samba diversi sesso samba sesso samba sesso samba sesso samba notte sbrana ultima nota canzoni amore chiudono senza parole dicono verit diversi sesso samba sesso samba sesso samba sesso samba sesso samba sesso samba diversi sesso samba sesso samba sesso samba sesso samba notte sbrana sesso samba sesso samba sesso samba sesso samba notte sbrana</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'neg': 0.011, 'neu': 0.976, 'pos': 0.013, 'compound': 0.1027}</t>
+          <t>{'neg': 0.012, 'neu': 0.974, 'pos': 0.014, 'compound': 0.1027}</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.1027</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.0, subjectivity=0.0)</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3670,27 +4490,53 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['going', 'want', 'shall', 'go', 'know', 'better', 'yes', 'want', 'shall', 'maybe', 'change', 'direction', 'baby', 'give', 'worst', 'change', 'face', 'looking', 'balcony', 'leave', 'throw', 'bag', 'many', 'people', 'already', 'watching', 'sometimes', 'wonder', 'grow', 'thousand', 'times', 'never', 'learn', 'tell', 'becoming', 'crazy', 'would', 'like', 'remove', 'dust', 'tape', 'go', 'back', 'first', 'kiss', 'enlightened', 'brought', 'sun', 'heart', 'became', 'night', 'close', 'eyes', 'close', 'sky', 'see', 'might', 'also', 'like', 'let', 'leave', 'everything', 'still', 'something', 'less', 'feeling', 'stupid', 'long', 'repeat', 'last', 'love', 'way', 'deserve', 'better', 'wish', 'maybe', 'idiot', 'buys', 'bag', 'cheats', 'meets', 'woman', 'maybe', 'catch', 'blame', 'hangover', 'maybe', 'love', 'even', 'feel', 'ashamed', 'hey', 'baby', 'know', 'see', 'like', 'still', 'epicenter', 'bad', 'thoughts', 'ran', 'away', 'fear', 'abandonment', 'always', 'put', 'self', 'love', 'work', 'first', 'oh', 'childish', 'yes', 'understand', 'say', 'well', 'try', 'disappear', 'point', 'playing', 'happy', 'one', 'faking', 'beattrice', 'let', 'leave', 'everything', 'still', 'something', 'less', 'feeling', 'stupid', 'long', 'repeat', 'last', 'love', 'way', 'deserve', 'better', 'wanted', 'know', 'never', 'listened', 'thoughts', 'every', 'night', 'sleep', 'still', 'awake', 'four', 'make', 'lose', 'sleep', 'even', 'heart', 'hibernation', 'maybe', 'story', 'better', 'let', 'leave', 'everything', 'still', 'something', 'less', 'left', 'feeling', 'stupid', 'long', 'long', 'repeat', 'last', 'still', 'believe', 'love', 'way', 'deserve', 'better', 'ahahahah']</t>
+          <t>['going', 'want', 'shall', 'go', 'know', 'better', 'yes', 'want', 'shall', 'maybe', 'change', 'direction', 'baby', 'give', 'worst', 'change', 'face', 'looking', 'balcony', 'leave', 'throw', 'bag', 'many', 'people', 'already', 'watching', 'sometimes', 'wonder', 'grow', 'thousand', 'times', 'never', 'learn', 'tell', 'becoming', 'crazy', 'would', 'like', 'remove', 'dust', 'tape', 'go', 'back', 'first', 'kiss', 'enlightened', 'brought', 'sun', 'heart', 'became', 'night', 'close', 'eyes', 'close', 'sky', 'see', 'might', 'also', 'like', 'let', 'leave', 'everything', 'still', 'something', 'less', 'feeling', 'stupid', 'long', 'repeat', 'last', 'love', 'way', 'deserve', 'better', 'wish', 'maybe', 'idiot', 'buys', 'bag', 'cheats', 'meets', 'woman', 'maybe', 'catch', 'blame', 'hangover', 'maybe', 'love', 'even', 'feel', 'ashamed', 'baby', 'know', 'see', 'like', 'still', 'epicenter', 'bad', 'thoughts', 'ran', 'away', 'fear', 'abandonment', 'always', 'put', 'self', 'love', 'work', 'first', 'childish', 'yes', 'understand', 'say', 'well', 'try', 'disappear', 'point', 'playing', 'happy', 'one', 'faking', 'beattrice', 'let', 'leave', 'everything', 'still', 'something', 'less', 'feeling', 'stupid', 'long', 'repeat', 'last', 'love', 'way', 'deserve', 'better', 'wanted', 'know', 'never', 'listened', 'thoughts', 'every', 'night', 'sleep', 'still', 'awake', 'four', 'make', 'lose', 'sleep', 'even', 'heart', 'hibernation', 'maybe', 'story', 'better', 'let', 'leave', 'everything', 'still', 'something', 'less', 'left', 'feeling', 'stupid', 'long', 'long', 'repeat', 'last', 'still', 'believe', 'love', 'way', 'deserve', 'better', 'ahahahah']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>going want shall go know better yes want shall maybe change direction baby give worst change face looking balcony leave throw bag many people already watching sometimes wonder grow thousand times never learn tell becoming crazy would like remove dust tape go back first kiss enlightened brought sun heart became night close eyes close sky see might also like let leave everything still something less feeling stupid long repeat last love way deserve better wish maybe idiot buys bag cheats meets woman maybe catch blame hangover maybe love even feel ashamed hey baby know see like still epicenter bad thoughts ran away fear abandonment always put self love work first oh childish yes understand say well try disappear point playing happy one faking beattrice let leave everything still something less feeling stupid long repeat last love way deserve better wanted know never listened thoughts every night sleep still awake four make lose sleep even heart hibernation maybe story better let leave everything still something less left feeling stupid long long repeat last still believe love way deserve better ahahahah</t>
+          <t>going want shall go know better yes want shall maybe change direction baby give worst change face looking balcony leave throw bag many people already watching sometimes wonder grow thousand times never learn tell becoming crazy would like remove dust tape go back first kiss enlightened brought sun heart became night close eyes close sky see might also like let leave everything still something less feeling stupid long repeat last love way deserve better wish maybe idiot buys bag cheats meets woman maybe catch blame hangover maybe love even feel ashamed baby know see like still epicenter bad thoughts ran away fear abandonment always put self love work first childish yes understand say well try disappear point playing happy one faking beattrice let leave everything still something less feeling stupid long repeat last love way deserve better wanted know never listened thoughts every night sleep still awake four make lose sleep even heart hibernation maybe story better let leave everything still something less left feeling stupid long long repeat last still believe love way deserve better ahahahah</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'neg': 0.203, 'neu': 0.52, 'pos': 0.277, 'compound': 0.9581}</t>
+          <t>{'neg': 0.205, 'neu': 0.516, 'pos': 0.279, 'compound': 0.9581}</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.9581</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.024285714285714296, subjectivity=0.5052380952380952)</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0242857142857143</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5052380952380952</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3766,27 +4612,53 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['lascio', 'futuro', 'passato', 'niente', 'quartiere', 'assente', 'anima', 'presente', 'serve', 'magia', 'cos', 'polizia', 'sente', 'sempre', 'zia', 'chiamo', 'zia', 'offende', 'nulla', 'nulla', 'meglio', 'niente', 'piove', 'quercia', 'salice', 'piangente', 'tutte', 'ragioni', 'finire', 'delinquente', 'quando', 'certe', 'storie', 'finisc', 'inv', 'nti', 'sempre', 'tv', 'pi', 'grande', 'libreria', 'casa', 'viavai', 'nessuno', 'detto', 'vai', 'via', 'cresciuti', 'senza', 'padre', 'cosa', 'vuoi', 'differenza', 'pensi', 'lontana', 'fuori', 'strada', 'ricordi', 'ancora', 'casa', 'vai', 'dritto', 'occidente', 'prima', 'poi', 'arrivi', 'oriente', 'guardi', 'occhi', 'vedrai', 'sempre', 'panico', 'farti', 'prendere', 'panico', 'pure', 'quando', 'cade', 'gi', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano', 'panico', 'farti', 'prendere', 'panico', 'raccomando', 'quest', 'anno', 'niente', 'panico', 'niente', 'panico', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano', 'see', 'ghali', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'miracoli', 'dio', 'risponde', 'coraggio', 'rimuovendo', 'ostacoli', 'legge', 'amore', 'amore', 'fa', 'muovere', 'atomi', 'vita', 'riserva', 'regali', 'neanche', 'immagini', 'neanche', 'immagini', 'fondo', 'bastano', 'solo', 'polmoni', 'passo', 'volta', 'confusione', 'rovino', 'finale', 'salto', 'conclusioni', 'ape', 'pungimi', 'poi', 'muori', 'prego', 'dio', 'perdoni', 'sar', 'fine', 'mondo', 'pace', 'solo', 'quando', 'armi', 'armi', 'panico', 'farti', 'prendere', 'panico', 'pure', 'quando', 'cade', 'gi', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano', 'attimo', 'pu', 'cambiare', 'attimo', 'spegne', 'stella', 'nasci', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano']</t>
+          <t>['lascio', 'futuro', 'passato', 'niente', 'quartiere', 'assente', 'anima', 'presente', 'serve', 'magia', 'cos', 'polizia', 'sente', 'sempre', 'zia', 'chiamo', 'zia', 'offende', 'nulla', 'nulla', 'meglio', 'niente', 'piove', 'quercia', 'salice', 'piangente', 'tutte', 'ragioni', 'finire', 'delinquente', 'certe', 'storie', 'finisc', 'inv', 'nti', 'sempre', 'tv', 'pi', 'libreria', 'casa', 'viavai', 'detto', 'vai', 'via', 'cresciuti', 'senza', 'padre', 'cosa', 'vuoi', 'differenza', 'pensi', 'lontana', 'fuori', 'strada', 'ricordi', 'casa', 'vai', 'dritto', 'occidente', 'prima', 'poi', 'arrivi', 'oriente', 'guardi', 'occhi', 'vedrai', 'sempre', 'panico', 'farti', 'prendere', 'panico', 'pure', 'cade', 'gi', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano', 'panico', 'farti', 'prendere', 'panico', 'raccomando', 'quest', 'anno', 'niente', 'panico', 'niente', 'panico', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano', 'see', 'ghali', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'miracoli', 'dio', 'risponde', 'coraggio', 'rimuovendo', 'ostacoli', 'legge', 'amore', 'amore', 'fa', 'muovere', 'atomi', 'vita', 'riserva', 'regali', 'neanche', 'immagini', 'neanche', 'immagini', 'fondo', 'bastano', 'solo', 'polmoni', 'passo', 'volta', 'confusione', 'rovino', 'finale', 'salto', 'conclusioni', 'ape', 'pungimi', 'poi', 'muori', 'prego', 'dio', 'perdoni', 'sar', 'fine', 'mondo', 'pace', 'solo', 'armi', 'armi', 'panico', 'farti', 'prendere', 'panico', 'pure', 'cade', 'gi', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano', 'attimo', 'pu', 'cambiare', 'attimo', 'spegne', 'stella', 'nasci', 'chiudi', 'occhi', 'tienimi', 'mano', 'sorridi', 'respira', 'piano']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>lascio futuro passato niente quartiere assente anima presente serve magia cos polizia sente sempre zia chiamo zia offende nulla nulla meglio niente piove quercia salice piangente tutte ragioni finire delinquente quando certe storie finisc inv nti sempre tv pi grande libreria casa viavai nessuno detto vai via cresciuti senza padre cosa vuoi differenza pensi lontana fuori strada ricordi ancora casa vai dritto occidente prima poi arrivi oriente guardi occhi vedrai sempre panico farti prendere panico pure quando cade gi chiudi occhi tienimi mano sorridi respira piano panico farti prendere panico raccomando quest anno niente panico niente panico chiudi occhi tienimi mano sorridi respira piano see ghali liveget tickets low might also like miracoli dio risponde coraggio rimuovendo ostacoli legge amore amore fa muovere atomi vita riserva regali neanche immagini neanche immagini fondo bastano solo polmoni passo volta confusione rovino finale salto conclusioni ape pungimi poi muori prego dio perdoni sar fine mondo pace solo quando armi armi panico farti prendere panico pure quando cade gi chiudi occhi tienimi mano sorridi respira piano attimo pu cambiare attimo spegne stella nasci chiudi occhi tienimi mano sorridi respira piano</t>
+          <t>lascio futuro passato niente quartiere assente anima presente serve magia cos polizia sente sempre zia chiamo zia offende nulla nulla meglio niente piove quercia salice piangente tutte ragioni finire delinquente certe storie finisc inv nti sempre tv pi libreria casa viavai detto vai via cresciuti senza padre cosa vuoi differenza pensi lontana fuori strada ricordi casa vai dritto occidente prima poi arrivi oriente guardi occhi vedrai sempre panico farti prendere panico pure cade gi chiudi occhi tienimi mano sorridi respira piano panico farti prendere panico raccomando quest anno niente panico niente panico chiudi occhi tienimi mano sorridi respira piano see ghali liveget tickets low might also like miracoli dio risponde coraggio rimuovendo ostacoli legge amore amore fa muovere atomi vita riserva regali neanche immagini neanche immagini fondo bastano solo polmoni passo volta confusione rovino finale salto conclusioni ape pungimi poi muori prego dio perdoni sar fine mondo pace solo armi armi panico farti prendere panico pure cade gi chiudi occhi tienimi mano sorridi respira piano attimo pu cambiare attimo spegne stella nasci chiudi occhi tienimi mano sorridi respira piano</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'neg': 0.022, 'neu': 0.955, 'pos': 0.023, 'compound': 0.0258}</t>
+          <t>{'neg': 0.023, 'neu': 0.954, 'pos': 0.023, 'compound': 0.0258}</t>
         </is>
       </c>
       <c r="H33" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.0258</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.2113095238095238, subjectivity=0.45)</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2113095238095238</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3883,27 +4755,53 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['kiid', 'ready', 'f', 'sembri', 'sosia', 'stesso', 'scusa', 'cos', 'detto', 'cos', 'detto', 'po', 'dormendo', 'credevo', 'tipo', 'sveglio', 'morendo', 'invidia', 'oh', 'oh', 'oh', 'dammi', 'cenno', 'mamahuevo', 'luego', 'walou', 'certe', 'cose', 'gi', 'dette', 'dico', 'meglio', 'spiegartelo', 'bello', 'purtroppo', 'infame', 'potevi', 'essere', 'fratello', 'fa', 'fare', 'flous', 'flous', 'rap', 'sa', 'fare', 'cuscus', 'chef', 'die', 'dieci', 'k', 'senza', 'logo', 'indovina', 'marca', 'dieci', 'k', 'senza', 'logo', 'indovina', 'marca', 'simba', 'capra', 'strada', 'uoh', 'perch', 'ak', 'passamontagna', 'cos', 'trent', 'anni', 'prova', 'dissarmi', 'finisci', 'nudo', 'mezzo', 'campi', 'pensi', 'spaventarmi', 'diventi', 'spaventapasseri', 'ahah', 'scolapasta', 'seh', 'nuova', 'macchina', 'spero', 'assicurata', 'perch', 'tutta', 'trivellata', 'spero', 'figa', 'larga', 'penso', 'allargo', 'ancora', 'penso', 'farti', 'daytona', 'penso', 'meriti', 'schiaffoni', 'scemo', 'fatto', 'giorno', 'intero', 'cazzo', 'frega', 'frigo', 'merce', 'perch', 'mantiene', 'bene', 'rap', 'presa', 'male', 'presa', 'male', 'vendo', 'neve', 'periodo', 'estate', 'soldi', 'seri', 'sopra', 'fuoriserie', 'ferrari', 'vienimi', 'prendere', 'pensavi', 'fottermi', 'cosa', 'viene', 'mente', 'scemo', 'delinquenti', 'parliamo', 'delinquenza', 'parlato', 'pur', 'sapendo', 'penitenza', 'poverino', 'might', 'also', 'like', 'oh', 'oh', 'oh', 'oh', 'walou', 'cosa', 'detto', 'walou', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'walou', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'q', 'q', 'walou', 'oh', 'oh', 'oh', 'oh', 'walou', 'walou', 'walou', 'cosa', 'detto', 'walou', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'walou', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'ah', 'fa', 'fa', 'tiro', 'tiritera', 'hater', 'bravo', 'quinta', 'terza', 'media', 'hogan', 'hogan', 'hogan', 'hogan', 'hogan', 'nera', 'prr', 'rimando', 'casa', 'fra', 'casa', 'chiesa', 'hater', 'bravo', 'ama', 'famiglia', 'intera', 'metti', 'mamma', 'mena', 'ocio', 'visto', 'italia', 'presa', 'chiesto', 'manco', 'q', 'qui', 'gioco', 'vale', 'candela', 'pi', 'gheddafi', 'nelson', 'mandela', 'hogan', 'metto', 'nera', 'unico', 'birkin', 'grigio', 'topo', 'ricorda', 'merda', 'entro', 'percepisci', 'aura', 'eh', 'ah', 'fan', 'chiedono', 'tregua', 'calma', 'calma', 'calma', 'calma', 'quando', 'parlo', 'cala', 'silenzio', 'aula', 'shh', 'sai', 'cambio', 'look', 'cambio', 'idea', 'ndale', 'oh', 'oh', 'oh', 'oh', 'walou', 'cosa', 'detto', 'walou', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'q', 'q', 'walou', 'oh', 'oh', 'oh', 'oh', 'walou', 'walou', 'walou', 'cosa', 'detto', 'walou', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'walou', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'ah', 'ah', 'walou']</t>
+          <t>['kiid', 'ready', 'f', 'sembri', 'sosia', 'stesso', 'scusa', 'cos', 'detto', 'cos', 'detto', 'po', 'dormendo', 'credevo', 'tipo', 'sveglio', 'morendo', 'invidia', 'dammi', 'cenno', 'mamahuevo', 'walou', 'certe', 'cose', 'gi', 'dette', 'dico', 'meglio', 'spiegartelo', 'bello', 'purtroppo', 'infame', 'potevi', 'fratello', 'fa', 'flous', 'flous', 'rap', 'sa', 'cuscus', 'chef', 'die', 'dieci', 'k', 'senza', 'logo', 'indovina', 'marca', 'dieci', 'k', 'senza', 'logo', 'indovina', 'marca', 'simba', 'capra', 'strada', 'uoh', 'perch', 'ak', 'passamontagna', 'cos', 'trent', 'anni', 'prova', 'dissarmi', 'finisci', 'nudo', 'mezzo', 'campi', 'pensi', 'spaventarmi', 'diventi', 'spaventapasseri', 'ahah', 'scolapasta', 'seh', 'nuova', 'macchina', 'spero', 'assicurata', 'perch', 'tutta', 'trivellata', 'spero', 'figa', 'larga', 'penso', 'allargo', 'penso', 'farti', 'daytona', 'penso', 'meriti', 'schiaffoni', 'scemo', 'giorno', 'intero', 'cazzo', 'frega', 'frigo', 'merce', 'perch', 'mantiene', 'bene', 'rap', 'presa', 'male', 'presa', 'male', 'vendo', 'neve', 'periodo', 'estate', 'soldi', 'seri', 'sopra', 'fuoriserie', 'ferrari', 'vienimi', 'prendere', 'pensavi', 'fottermi', 'cosa', 'viene', 'mente', 'scemo', 'delinquenti', 'parliamo', 'delinquenza', 'parlato', 'pur', 'sapendo', 'penitenza', 'poverino', 'might', 'also', 'like', 'walou', 'cosa', 'detto', 'walou', 'walou', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'q', 'q', 'walou', 'walou', 'walou', 'walou', 'cosa', 'detto', 'walou', 'walou', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'fa', 'fa', 'tiro', 'tiritera', 'hater', 'bravo', 'quinta', 'terza', 'media', 'hogan', 'hogan', 'hogan', 'hogan', 'hogan', 'nera', 'prr', 'rimando', 'casa', 'fra', 'casa', 'chiesa', 'hater', 'bravo', 'ama', 'famiglia', 'intera', 'metti', 'mamma', 'mena', 'ocio', 'visto', 'italia', 'presa', 'chiesto', 'manco', 'q', 'qui', 'gioco', 'vale', 'candela', 'pi', 'gheddafi', 'nelson', 'mandela', 'hogan', 'metto', 'nera', 'unico', 'birkin', 'grigio', 'topo', 'ricorda', 'merda', 'entro', 'percepisci', 'aura', 'eh', 'fan', 'chiedono', 'tregua', 'calma', 'calma', 'calma', 'calma', 'parlo', 'cala', 'silenzio', 'aula', 'shh', 'sai', 'cambio', 'look', 'cambio', 'idea', 'ndale', 'walou', 'cosa', 'detto', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'q', 'q', 'walou', 'walou', 'walou', 'walou', 'cosa', 'detto', 'walou', 'walou', 'walou', 'walou', 'cazzo', 'detto', 'ripeti', 'cazzo', 'detto', 'scemo', 'serio', 'dimmi', 'serio', 'walou']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>kiid ready f sembri sosia stesso scusa cos detto cos detto po dormendo credevo tipo sveglio morendo invidia oh oh oh dammi cenno mamahuevo luego walou certe cose gi dette dico meglio spiegartelo bello purtroppo infame potevi essere fratello fa fare flous flous rap sa fare cuscus chef die dieci k senza logo indovina marca dieci k senza logo indovina marca simba capra strada uoh perch ak passamontagna cos trent anni prova dissarmi finisci nudo mezzo campi pensi spaventarmi diventi spaventapasseri ahah scolapasta seh nuova macchina spero assicurata perch tutta trivellata spero figa larga penso allargo ancora penso farti daytona penso meriti schiaffoni scemo fatto giorno intero cazzo frega frigo merce perch mantiene bene rap presa male presa male vendo neve periodo estate soldi seri sopra fuoriserie ferrari vienimi prendere pensavi fottermi cosa viene mente scemo delinquenti parliamo delinquenza parlato pur sapendo penitenza poverino might also like oh oh oh oh walou cosa detto walou oh oh oh oh oh oh walou walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio q q walou oh oh oh oh walou walou walou cosa detto walou oh oh oh oh oh oh walou walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio ah fa fa tiro tiritera hater bravo quinta terza media hogan hogan hogan hogan hogan nera prr rimando casa fra casa chiesa hater bravo ama famiglia intera metti mamma mena ocio visto italia presa chiesto manco q qui gioco vale candela pi gheddafi nelson mandela hogan metto nera unico birkin grigio topo ricorda merda entro percepisci aura eh ah fan chiedono tregua calma calma calma calma quando parlo cala silenzio aula shh sai cambio look cambio idea ndale oh oh oh oh walou cosa detto walou oh oh oh oh oh oh walou cazzo detto ripeti cazzo detto scemo serio dimmi serio q q walou oh oh oh oh walou walou walou cosa detto walou oh oh oh oh oh oh walou walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio ah ah walou</t>
+          <t>kiid ready f sembri sosia stesso scusa cos detto cos detto po dormendo credevo tipo sveglio morendo invidia dammi cenno mamahuevo walou certe cose gi dette dico meglio spiegartelo bello purtroppo infame potevi fratello fa flous flous rap sa cuscus chef die dieci k senza logo indovina marca dieci k senza logo indovina marca simba capra strada uoh perch ak passamontagna cos trent anni prova dissarmi finisci nudo mezzo campi pensi spaventarmi diventi spaventapasseri ahah scolapasta seh nuova macchina spero assicurata perch tutta trivellata spero figa larga penso allargo penso farti daytona penso meriti schiaffoni scemo giorno intero cazzo frega frigo merce perch mantiene bene rap presa male presa male vendo neve periodo estate soldi seri sopra fuoriserie ferrari vienimi prendere pensavi fottermi cosa viene mente scemo delinquenti parliamo delinquenza parlato pur sapendo penitenza poverino might also like walou cosa detto walou walou walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio q q walou walou walou walou cosa detto walou walou walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio fa fa tiro tiritera hater bravo quinta terza media hogan hogan hogan hogan hogan nera prr rimando casa fra casa chiesa hater bravo ama famiglia intera metti mamma mena ocio visto italia presa chiesto manco q qui gioco vale candela pi gheddafi nelson mandela hogan metto nera unico birkin grigio topo ricorda merda entro percepisci aura eh fan chiedono tregua calma calma calma calma parlo cala silenzio aula shh sai cambio look cambio idea ndale walou cosa detto walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio q q walou walou walou walou cosa detto walou walou walou walou cazzo detto ripeti cazzo detto scemo serio dimmi serio walou</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'neg': 0.038, 'neu': 0.941, 'pos': 0.021, 'compound': -0.7783}</t>
+          <t>{'neg': 0.045, 'neu': 0.93, 'pos': 0.025, 'compound': -0.7783}</t>
         </is>
       </c>
       <c r="H34" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K34" t="n">
         <v>-0.7783</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.06666666666666667, subjectivity=0.2333333333333333)</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4001,27 +4899,53 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['million', 'dollar', 'baby', 'baby', 'rich', 'baby', 'daddy', 'daddy', 'million', 'dollar', 'baby', 'vuole', 'rich', 'baby', 'daddy', 'daddy', 'love', 'million', 'dollar', 'baby', 'baby', 'rich', 'baby', 'daddy', 'daddy', 'million', 'dollar', 'baby', 'vuole', 'rich', 'baby', 'daddy', 'daddy', 'love', 'sadturs', 'ahahah', 'kiid', 'ready', 'love', 'young', 'miles', 'yeah', 'vera', 'baddie', 'mic', 'give', 'fuck', 'like', 'nah', 'troppo', 'bella', 'baby', 'fighting', 'pow', 'troppo', 'bella', 'baby', 'niente', 'stage', 'diving', 'nah', 'nah', 'gemella', 'baby', 'shining', 'drin', 'completino', 'sexy', 'faccina', 'nasty', 'bling', 'parla', 'male', 'vivo', 'poi', 'fa', 'bestie', 'wow', 'boom', 'boom', 'boom', 'stasera', 'diventa', 'wrestling', 'pow', 'zoom', 'zoom', 'zoom', 'vicino', 'baddie', 'ah', 'baddie', 'flow', 'god', 'mode', 'corna', 'cos', 'figa', 'sembra', 'vedi', 'madonna', 'ah', 'ah', 'casa', 'piena', 'sneakers', 'pi', 'na', 'droga', 'cambio', 'borsa', 'perch', 'dentro', 'pisto', 'ah', 'adesso', 'vuitton', 'cos', 'pelle', 'python', 'mangio', 'pi', 'saikebon', 'meno', 'gente', 'iphone', 'tipo', 'streets', 'credo', 'chiami', 'michael', 'rimando', 'bitch', 'prima', 'fa', 'psycho', 'yeah', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'chanel', 'body', 'torna', 'perch', 'fatto', 'money', 'money', 'yeah', 'tag', 'team', 'twin', 'zack', 'cody', 'cody', 'mette', 'dentro', 'celine', 'cani', 'quando', 'servono', 'buttafuori', 'guardami', 'mentre', 'muovi', 'baby', 'sai', 'quando', 'cos', 'love', 'fissa', 'modi', 'baby', 'sai', 'quando', 'cos', 'love', 'piacciono', 'playboy', 'baby', 'sai', 'quando', 'cos', 'love', 'vieni', 'qui', 'giochiamo', 'po', 'baby', 'sai', 'quando', 'cos', 'love', 'ah', 'million', 'dollar', 'baby', 'vuole', 'rich', 'baby', 'daddy', 'vizia', 'giorni', 'riempie', 'gioielli', 'vieni', 'farti', 'giro', 'baby', 'mica', 'andiamo', 'giro', 'piedi', 'ah', 'droppo', 'duecento', 'sopra', 'capelli', 'nuova', 'casa', 'centro', 'ambiento', 'fumando', 'dentro', 'tre', 'appare', 'scritto', 'telefono', 'miss', 'baby', 'vieni', 'farmi', 'stare', 'meglio', 'wanna', 'fuck', 'baby', 'hennessy', 'fa', 'stare', 'sveglio', 'stan', 'guardando', 'male', 'mentre', 'locale', 'ah', 'love', 'quando', 'fa', 'geloso', 'posso', 'negare', 'love', 'muah', 'quindi', 'quel', 'tipo', 'tratto', 'cane', 'ah', 'novio', 'chiama', 'diventa', 'vero', 'animale', 'ah', 'ah', 'ah', 'lancia', 'soldi', 'suite', 'nah', 'stripper', 'bling', 'bling', 'bling', 'cachet', 'dentro', 'pupazzo', 'hello', 'kitty', 'wow', 'real', 'cute', 'couple', 'pieni', 'oro', 'sinti', 'muah', 'muah', 'make', 'clap', 'quando', 'parte', 'shit', 'bitch', 'chanel', 'body', 'torna', 'perch', 'fatto', 'money', 'money', 'yeah', 'tag', 'team', 'twin', 'zack', 'cody', 'cody', 'mette', 'dentro', 'celine', 'cani', 'quando', 'servono', 'buttafuori', 'guardami', 'mentre', 'muovi', 'baby', 'sai', 'quando', 'cos', 'love', 'fissa', 'modi', 'baby', 'sai', 'quando', 'cos', 'love', 'piacciono', 'playboy', 'baby', 'sai', 'quando', 'cos', 'love', 'vieni', 'qui', 'giochiamo', 'po', 'baby', 'sai', 'quando', 'cos', 'love', 'love', 'love', 'love', 'love', 'love']</t>
+          <t>['million', 'dollar', 'baby', 'baby', 'rich', 'baby', 'daddy', 'daddy', 'million', 'dollar', 'baby', 'vuole', 'rich', 'baby', 'daddy', 'daddy', 'love', 'million', 'dollar', 'baby', 'baby', 'rich', 'baby', 'daddy', 'daddy', 'million', 'dollar', 'baby', 'vuole', 'rich', 'baby', 'daddy', 'daddy', 'love', 'sadturs', 'ahahah', 'kiid', 'ready', 'love', 'young', 'miles', 'vera', 'baddie', 'mic', 'give', 'fuck', 'like', 'bella', 'baby', 'fighting', 'pow', 'bella', 'baby', 'niente', 'stage', 'diving', 'gemella', 'baby', 'shining', 'drin', 'completino', 'sexy', 'faccina', 'nasty', 'bling', 'parla', 'male', 'vivo', 'poi', 'fa', 'bestie', 'wow', 'boom', 'boom', 'boom', 'stasera', 'diventa', 'wrestling', 'pow', 'zoom', 'zoom', 'zoom', 'vicino', 'baddie', 'baddie', 'flow', 'god', 'mode', 'corna', 'cos', 'figa', 'sembra', 'vedi', 'madonna', 'casa', 'piena', 'sneakers', 'pi', 'droga', 'cambio', 'borsa', 'perch', 'dentro', 'pisto', 'adesso', 'vuitton', 'cos', 'pelle', 'python', 'mangio', 'pi', 'saikebon', 'meno', 'gente', 'iphone', 'tipo', 'streets', 'credo', 'chiami', 'michael', 'rimando', 'bitch', 'prima', 'fa', 'psycho', 'see', 'anna', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'chanel', 'body', 'torna', 'perch', 'money', 'money', 'tag', 'team', 'twin', 'zack', 'cody', 'cody', 'mette', 'dentro', 'celine', 'cani', 'servono', 'buttafuori', 'guardami', 'mentre', 'muovi', 'baby', 'sai', 'cos', 'love', 'fissa', 'modi', 'baby', 'sai', 'cos', 'love', 'piacciono', 'playboy', 'baby', 'sai', 'cos', 'love', 'vieni', 'qui', 'giochiamo', 'po', 'baby', 'sai', 'cos', 'love', 'million', 'dollar', 'baby', 'vuole', 'rich', 'baby', 'daddy', 'vizia', 'giorni', 'riempie', 'gioielli', 'vieni', 'farti', 'giro', 'baby', 'mica', 'andiamo', 'giro', 'piedi', 'droppo', 'duecento', 'sopra', 'capelli', 'nuova', 'casa', 'centro', 'ambiento', 'fumando', 'dentro', 'tre', 'appare', 'scritto', 'telefono', 'miss', 'baby', 'vieni', 'farmi', 'stare', 'meglio', 'wanna', 'fuck', 'baby', 'hennessy', 'fa', 'stare', 'sveglio', 'stan', 'guardando', 'male', 'mentre', 'locale', 'love', 'fa', 'geloso', 'posso', 'negare', 'love', 'muah', 'quindi', 'quel', 'tipo', 'tratto', 'cane', 'novio', 'chiama', 'diventa', 'vero', 'animale', 'lancia', 'soldi', 'suite', 'stripper', 'bling', 'bling', 'bling', 'cachet', 'dentro', 'pupazzo', 'hello', 'kitty', 'wow', 'real', 'cute', 'couple', 'pieni', 'oro', 'sinti', 'muah', 'muah', 'make', 'clap', 'parte', 'shit', 'bitch', 'chanel', 'body', 'torna', 'perch', 'money', 'money', 'tag', 'team', 'twin', 'zack', 'cody', 'cody', 'mette', 'dentro', 'celine', 'cani', 'servono', 'buttafuori', 'guardami', 'mentre', 'muovi', 'baby', 'sai', 'cos', 'love', 'fissa', 'modi', 'baby', 'sai', 'cos', 'love', 'piacciono', 'playboy', 'baby', 'sai', 'cos', 'love', 'vieni', 'qui', 'giochiamo', 'po', 'baby', 'sai', 'cos', 'love', 'love', 'love', 'love', 'love', 'love']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>million dollar baby baby rich baby daddy daddy million dollar baby vuole rich baby daddy daddy love million dollar baby baby rich baby daddy daddy million dollar baby vuole rich baby daddy daddy love sadturs ahahah kiid ready love young miles yeah vera baddie mic give fuck like nah troppo bella baby fighting pow troppo bella baby niente stage diving nah nah gemella baby shining drin completino sexy faccina nasty bling parla male vivo poi fa bestie wow boom boom boom stasera diventa wrestling pow zoom zoom zoom vicino baddie ah baddie flow god mode corna cos figa sembra vedi madonna ah ah casa piena sneakers pi na droga cambio borsa perch dentro pisto ah adesso vuitton cos pelle python mangio pi saikebon meno gente iphone tipo streets credo chiami michael rimando bitch prima fa psycho yeah see anna liveget tickets low might also like chanel body torna perch fatto money money yeah tag team twin zack cody cody mette dentro celine cani quando servono buttafuori guardami mentre muovi baby sai quando cos love fissa modi baby sai quando cos love piacciono playboy baby sai quando cos love vieni qui giochiamo po baby sai quando cos love ah million dollar baby vuole rich baby daddy vizia giorni riempie gioielli vieni farti giro baby mica andiamo giro piedi ah droppo duecento sopra capelli nuova casa centro ambiento fumando dentro tre appare scritto telefono miss baby vieni farmi stare meglio wanna fuck baby hennessy fa stare sveglio stan guardando male mentre locale ah love quando fa geloso posso negare love muah quindi quel tipo tratto cane ah novio chiama diventa vero animale ah ah ah lancia soldi suite nah stripper bling bling bling cachet dentro pupazzo hello kitty wow real cute couple pieni oro sinti muah muah make clap quando parte shit bitch chanel body torna perch fatto money money yeah tag team twin zack cody cody mette dentro celine cani quando servono buttafuori guardami mentre muovi baby sai quando cos love fissa modi baby sai quando cos love piacciono playboy baby sai quando cos love vieni qui giochiamo po baby sai quando cos love love love love love love</t>
+          <t>million dollar baby baby rich baby daddy daddy million dollar baby vuole rich baby daddy daddy love million dollar baby baby rich baby daddy daddy million dollar baby vuole rich baby daddy daddy love sadturs ahahah kiid ready love young miles vera baddie mic give fuck like bella baby fighting pow bella baby niente stage diving gemella baby shining drin completino sexy faccina nasty bling parla male vivo poi fa bestie wow boom boom boom stasera diventa wrestling pow zoom zoom zoom vicino baddie baddie flow god mode corna cos figa sembra vedi madonna casa piena sneakers pi droga cambio borsa perch dentro pisto adesso vuitton cos pelle python mangio pi saikebon meno gente iphone tipo streets credo chiami michael rimando bitch prima fa psycho see anna liveget tickets low might also like chanel body torna perch money money tag team twin zack cody cody mette dentro celine cani servono buttafuori guardami mentre muovi baby sai cos love fissa modi baby sai cos love piacciono playboy baby sai cos love vieni qui giochiamo po baby sai cos love million dollar baby vuole rich baby daddy vizia giorni riempie gioielli vieni farti giro baby mica andiamo giro piedi droppo duecento sopra capelli nuova casa centro ambiento fumando dentro tre appare scritto telefono miss baby vieni farmi stare meglio wanna fuck baby hennessy fa stare sveglio stan guardando male mentre locale love fa geloso posso negare love muah quindi quel tipo tratto cane novio chiama diventa vero animale lancia soldi suite stripper bling bling bling cachet dentro pupazzo hello kitty wow real cute couple pieni oro sinti muah muah make clap parte shit bitch chanel body torna perch money money tag team twin zack cody cody mette dentro celine cani servono buttafuori guardami mentre muovi baby sai cos love fissa modi baby sai cos love piacciono playboy baby sai cos love vieni qui giochiamo po baby sai cos love love love love love love</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'neg': 0.085, 'neu': 0.631, 'pos': 0.285, 'compound': 0.9986}</t>
+          <t>{'neg': 0.08, 'neu': 0.628, 'pos': 0.292, 'compound': 0.9984}</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.9986</v>
-      </c>
-      <c r="I35" t="inlineStr">
+        <v>0.292</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9984</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.2951388888888889, subjectivity=0.6375000000000004)</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.6375000000000004</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4100,27 +5024,53 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['eh', 'vai', 'jvli', 'uh', 'uh', 'mille', 'cose', 'voglio', 'rimani', 'solo', 'piaceva', 'stare', 'sotto', 'poi', 'fumare', 'testa', 'gi', 'ricordi', 'divieto', 'sosta', 'detti', 'ultima', 'volta', 'coscienza', 'ancora', 'sporca', 'mentre', 'togli', 'parole', 'bocca', 'sai', 'piaci', 'caff', 'meglio', 'bar', 'moka', 'fischia', 'piaci', 'pi', 'quando', 'dici', 'va', 'riesci', 'prova', 'prendermi', 'dammi', 'motivo', 'oppure', 'resta', 'qui', 'stammi', 'vicino', 'amore', 'credimi', 'quando', 'dico', 'nonostante', 'voglia', 'scappi', 'lontano', 'cosa', 'vuoi', 'sesso', 'parliamo', 'capito', 'sembrer', 'strano', 'nonostante', 'voglia', 'might', 'also', 'like', 'hmmo', 'ico', 'yeah', 'soltanto', 'ah', 'schiena', 'unito', 'uscito', 'varr', 'pena', 'redarguisci', 'lavo', 'tazzine', 'piaci', 'perch', 'perch', 'mandi', 'dire', 'cambi', 'mood', 'butti', 'gi', 'poi', 'capriola', 'sbaglio', 'waterloo', 'poi', 'passi', 'sopra', 'sacco', 'idee', 'poi', 'vuoi', 'puoi', 'restare', 'pu', 'restare', 'sai', 'piaci', 'caff', 'meglio', 'bar', 'senza', 'zucchero', 'amaro', 'eh', 'amaro', 'piaci', 'pi', 'quando', 'dici', 'va', 'riesci', 'prova', 'prendermi', 'dammi', 'motivo', 'oppure', 'resta', 'qui', 'stammi', 'vicino', 'amore', 'credimi', 'quando', 'dico', 'nonostante', 'voglia', 'scappi', 'lontano', 'cosa', 'vuoi', 'sesso', 'parliamo', 'capito', 'sembrer', 'strano', 'nonostante', 'voglia', 'voglia', 'oh', 'oh', 'voglia', 'eh', 'eh', 'voglia', 'riesci', 'prova', 'prendermi', 'dammi', 'motivo', 'oppure', 'resta', 'qui', 'stammi', 'vicino', 'amore', 'credimi', 'quando', 'dico', 'nonostante', 'voglia', 'scappi', 'lontano', 'cosa', 'vuoi', 'sesso', 'parliamo', 'capito', 'sembrer', 'strano', 'nonostante', 'voglia']</t>
+          <t>['eh', 'vai', 'jvli', 'mille', 'cose', 'voglio', 'rimani', 'solo', 'piaceva', 'stare', 'poi', 'fumare', 'testa', 'gi', 'ricordi', 'divieto', 'sosta', 'detti', 'ultima', 'volta', 'coscienza', 'sporca', 'mentre', 'togli', 'parole', 'bocca', 'sai', 'piaci', 'caff', 'meglio', 'bar', 'moka', 'fischia', 'piaci', 'pi', 'dici', 'va', 'riesci', 'prova', 'prendermi', 'dammi', 'motivo', 'oppure', 'resta', 'qui', 'stammi', 'vicino', 'amore', 'credimi', 'dico', 'voglia', 'scappi', 'cosa', 'vuoi', 'sesso', 'parliamo', 'capito', 'sembrer', 'strano', 'voglia', 'might', 'also', 'like', 'hmmo', 'ico', 'soltanto', 'schiena', 'unito', 'uscito', 'varr', 'pena', 'redarguisci', 'lavo', 'tazzine', 'piaci', 'perch', 'perch', 'mandi', 'dire', 'cambi', 'mood', 'butti', 'gi', 'poi', 'capriola', 'sbaglio', 'waterloo', 'poi', 'passi', 'sopra', 'sacco', 'idee', 'poi', 'vuoi', 'puoi', 'restare', 'pu', 'restare', 'sai', 'piaci', 'caff', 'meglio', 'bar', 'senza', 'zucchero', 'amaro', 'eh', 'amaro', 'piaci', 'pi', 'dici', 'va', 'riesci', 'prova', 'prendermi', 'dammi', 'motivo', 'oppure', 'resta', 'qui', 'stammi', 'vicino', 'amore', 'credimi', 'dico', 'voglia', 'scappi', 'cosa', 'vuoi', 'sesso', 'parliamo', 'capito', 'sembrer', 'strano', 'voglia', 'voglia', 'voglia', 'eh', 'eh', 'voglia', 'riesci', 'prova', 'prendermi', 'dammi', 'motivo', 'oppure', 'resta', 'qui', 'stammi', 'vicino', 'amore', 'credimi', 'dico', 'voglia', 'scappi', 'cosa', 'vuoi', 'sesso', 'parliamo', 'capito', 'sembrer', 'strano', 'voglia']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>eh vai jvli uh uh mille cose voglio rimani solo piaceva stare sotto poi fumare testa gi ricordi divieto sosta detti ultima volta coscienza ancora sporca mentre togli parole bocca sai piaci caff meglio bar moka fischia piaci pi quando dici va riesci prova prendermi dammi motivo oppure resta qui stammi vicino amore credimi quando dico nonostante voglia scappi lontano cosa vuoi sesso parliamo capito sembrer strano nonostante voglia might also like hmmo ico yeah soltanto ah schiena unito uscito varr pena redarguisci lavo tazzine piaci perch perch mandi dire cambi mood butti gi poi capriola sbaglio waterloo poi passi sopra sacco idee poi vuoi puoi restare pu restare sai piaci caff meglio bar senza zucchero amaro eh amaro piaci pi quando dici va riesci prova prendermi dammi motivo oppure resta qui stammi vicino amore credimi quando dico nonostante voglia scappi lontano cosa vuoi sesso parliamo capito sembrer strano nonostante voglia voglia oh oh voglia eh eh voglia riesci prova prendermi dammi motivo oppure resta qui stammi vicino amore credimi quando dico nonostante voglia scappi lontano cosa vuoi sesso parliamo capito sembrer strano nonostante voglia</t>
+          <t>eh vai jvli mille cose voglio rimani solo piaceva stare poi fumare testa gi ricordi divieto sosta detti ultima volta coscienza sporca mentre togli parole bocca sai piaci caff meglio bar moka fischia piaci pi dici va riesci prova prendermi dammi motivo oppure resta qui stammi vicino amore credimi dico voglia scappi cosa vuoi sesso parliamo capito sembrer strano voglia might also like hmmo ico soltanto schiena unito uscito varr pena redarguisci lavo tazzine piaci perch perch mandi dire cambi mood butti gi poi capriola sbaglio waterloo poi passi sopra sacco idee poi vuoi puoi restare pu restare sai piaci caff meglio bar senza zucchero amaro eh amaro piaci pi dici va riesci prova prendermi dammi motivo oppure resta qui stammi vicino amore credimi dico voglia scappi cosa vuoi sesso parliamo capito sembrer strano voglia voglia voglia eh eh voglia riesci prova prendermi dammi motivo oppure resta qui stammi vicino amore credimi dico voglia scappi cosa vuoi sesso parliamo capito sembrer strano voglia</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'neg': 0.027, 'neu': 0.949, 'pos': 0.025, 'compound': -0.1027}</t>
+          <t>{'neg': 0.03, 'neu': 0.955, 'pos': 0.015, 'compound': -0.3818}</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-0.1027</v>
-      </c>
-      <c r="I36" t="inlineStr">
+        <v>0.015</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.3818</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.0, subjectivity=0.0)</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4200,27 +5150,53 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['habibi', 'love', 'habibi', 'love', 'habibi', 'love', 'occhi', 'rossi', 'paprika', 'fumi', 'pure', 'anima', 'spari', 'cuore', 'gi', 'sanguina', 'one', 'shot', 'one', 'shot', 'giro', 'capita', 'accendo', 'nascondere', 'lacrima', 'occhi', 'rossi', 'paprika', 'love', 'love', 'baby', 'ora', 'dopo', 'ramadan', 'eh', 'ora', 'ce', 'casa', 'ce', 'vieni', 'seh', 'got', 'want', 'puoi', 'dirmi', 'vuoi', 'far', 'rai', 'mai', 'litigato', 'cosa', 'neanche', 'sai', 'perch', 'nervosa', 'bocca', 'velenosa', 'cosa', 'cosa', 'cosa', 'bimba', 'chiamiamo', 'italia', 'brava', 'dir', 'prima', 'pap', 'pa', 'pa', 'pa', 'see', 'ghali', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'occhi', 'rossi', 'paprika', 'fumi', 'pure', 'anima', 'spari', 'cuore', 'gi', 'sanguina', 'one', 'shot', 'one', 'shot', 'giro', 'capita', 'accendo', 'nascondere', 'lacrima', 'occhi', 'rossi', 'paprika', 'love', 'love', 'sai', 'quando', 'partita', 'domande', 'vita', 'tante', 'cose', 'giuro', 'capite', 'mica', 'sento', 'ladro', 'senza', 'via', 'uscita', 'spero', 'guarita', 'fatto', 'move', 'perch', 'gi', 'mo', 'tipa', 'vuoi', 'stare', 'capito', 'swag', 'guarda', 'amica', 'dice', 'rovinano', 'vita', 'sa', 'niente', 'occhi', 'rossi', 'paprika', 'fumi', 'pure', 'anima', 'spari', 'cuore', 'gi', 'sanguina', 'one', 'shot', 'one', 'shot', 'giro', 'capita', 'accendo', 'nascondere', 'lacrima', 'occhi', 'rossi', 'paprika', 'love', 'love', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'habibi', 'love', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'habibi', 'love', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'oh', 'habibi', 'love']</t>
+          <t>['habibi', 'love', 'habibi', 'love', 'habibi', 'love', 'occhi', 'rossi', 'paprika', 'fumi', 'pure', 'anima', 'spari', 'cuore', 'gi', 'sanguina', 'one', 'shot', 'one', 'shot', 'giro', 'capita', 'accendo', 'nascondere', 'lacrima', 'occhi', 'rossi', 'paprika', 'love', 'love', 'baby', 'ora', 'ramadan', 'eh', 'ora', 'ce', 'casa', 'ce', 'vieni', 'seh', 'got', 'want', 'puoi', 'dirmi', 'vuoi', 'far', 'rai', 'litigato', 'cosa', 'neanche', 'sai', 'perch', 'nervosa', 'bocca', 'velenosa', 'cosa', 'cosa', 'cosa', 'bimba', 'chiamiamo', 'italia', 'brava', 'dir', 'prima', 'pap', 'pa', 'pa', 'pa', 'see', 'ghali', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'occhi', 'rossi', 'paprika', 'fumi', 'pure', 'anima', 'spari', 'cuore', 'gi', 'sanguina', 'one', 'shot', 'one', 'shot', 'giro', 'capita', 'accendo', 'nascondere', 'lacrima', 'occhi', 'rossi', 'paprika', 'love', 'love', 'sai', 'partita', 'domande', 'vita', 'tante', 'cose', 'giuro', 'capite', 'mica', 'sento', 'ladro', 'senza', 'via', 'uscita', 'spero', 'guarita', 'move', 'perch', 'gi', 'mo', 'tipa', 'vuoi', 'stare', 'capito', 'swag', 'guarda', 'amica', 'dice', 'rovinano', 'vita', 'sa', 'niente', 'occhi', 'rossi', 'paprika', 'fumi', 'pure', 'anima', 'spari', 'cuore', 'gi', 'sanguina', 'one', 'shot', 'one', 'shot', 'giro', 'capita', 'accendo', 'nascondere', 'lacrima', 'occhi', 'rossi', 'paprika', 'love', 'love', 'habibi', 'love', 'habibi', 'love', 'habibi', 'love']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>habibi love habibi love habibi love occhi rossi paprika fumi pure anima spari cuore gi sanguina one shot one shot giro capita accendo nascondere lacrima occhi rossi paprika love love baby ora dopo ramadan eh ora ce casa ce vieni seh got want puoi dirmi vuoi far rai mai litigato cosa neanche sai perch nervosa bocca velenosa cosa cosa cosa bimba chiamiamo italia brava dir prima pap pa pa pa see ghali liveget tickets low might also like occhi rossi paprika fumi pure anima spari cuore gi sanguina one shot one shot giro capita accendo nascondere lacrima occhi rossi paprika love love sai quando partita domande vita tante cose giuro capite mica sento ladro senza via uscita spero guarita fatto move perch gi mo tipa vuoi stare capito swag guarda amica dice rovinano vita sa niente occhi rossi paprika fumi pure anima spari cuore gi sanguina one shot one shot giro capita accendo nascondere lacrima occhi rossi paprika love love oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh oh habibi love oh oh oh oh oh oh habibi love oh oh oh oh oh oh oh oh habibi love</t>
+          <t>habibi love habibi love habibi love occhi rossi paprika fumi pure anima spari cuore gi sanguina one shot one shot giro capita accendo nascondere lacrima occhi rossi paprika love love baby ora ramadan eh ora ce casa ce vieni seh got want puoi dirmi vuoi far rai litigato cosa neanche sai perch nervosa bocca velenosa cosa cosa cosa bimba chiamiamo italia brava dir prima pap pa pa pa see ghali liveget tickets low might also like occhi rossi paprika fumi pure anima spari cuore gi sanguina one shot one shot giro capita accendo nascondere lacrima occhi rossi paprika love love sai partita domande vita tante cose giuro capite mica sento ladro senza via uscita spero guarita move perch gi mo tipa vuoi stare capito swag guarda amica dice rovinano vita sa niente occhi rossi paprika fumi pure anima spari cuore gi sanguina one shot one shot giro capita accendo nascondere lacrima occhi rossi paprika love love habibi love habibi love habibi love</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{'neg': 0.008, 'neu': 0.776, 'pos': 0.216, 'compound': 0.9951}</t>
+          <t>{'neg': 0.01, 'neu': 0.723, 'pos': 0.267, 'compound': 0.9951}</t>
         </is>
       </c>
       <c r="H37" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.9951</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.39663865546218485, subjectivity=0.588235294117647)</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.3966386554621849</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4285,25 +5261,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['f', 'studio', 'registrare', 'fuori', 'fan', 'quaranta', 'gradi', 'insulta', 'quarant', 'anni', 'fuori', 'fan', 'quaranta', 'gradi', 'studio', 'registrare', 'fuori', 'fan', 'quaranta', 'gradi', 'commenta', 'youtube', 'insulta', 'quarant', 'anni', 'comprato', 'due', 'tedesche', 'giro', 'due', 'anni', 'parli', 'parli', 'parli', 'parlo', 'solo', 'guadagni', 'nominato', 'vorrei', 'esser', 'panni', 'mai', 'vestito', 'karl', 'kani', 'alta', 'moda', 'ferragamo', 'billie', 'commando', 'volta', 'armato', 'revolver', 'nero', 'opaco', 'fa', 'ballare', 'samba', 'piacere', 'chiamo', 'simba', 'tn', 'metto', 'silver', 'sempre', 'pulite', 'nike', 'giro', 'notte', 'city', 'tempo', 'dormire', 'abituato', 'veder', 'tg', 'might', 'also', 'like', 'studio', 'registrar', 'fuori', 'fan', 'quaranta', 'gradi', 'commenta', 'youtube', 'insulta', 'quarant', 'anni', 'comprato', 'due', 'desche', 'giro', 'due', 'anni', 'parli', 'parli', 'parli', 'parlo', 'solo', 'guadagni', 'dici', 'vendi', 'white', 'torni', 'casa', 'sdrai', 'spiagge', 'tropicali', 'thailandia', 'tigre', 'muay', 'thai', 'vado', 'mcdrive', 'pesce', 'crudo', 'scampi', 'tartare', 'co', 'completo', 'casablanca', 'seta', 'occhialata', 'cazal', 'sento', 'maracan', 'range', 'rover', 'vogue', 'velar', 'ra', 'ta', 'ta', 'ta', 'ta', 'nuovo', 'ak', 'louis', 'vuitton', 'vado', 'matto', 'trenta', 'k', 'marca', 'voglio', 'morire', 'chiatto', 'villa', 'montecarlo', 'piacere', 'chiamo', 'simba', 'tn', 'metto', 'silver', 'sempre', 'pulite', 'nike', 'giro', 'notte', 'city', 'tempo', 'dormire', 'abituato', 'veder', 'tg', 'studio', 'registrare', 'fuori', 'fan', 'quaranta', 'gradi', 'commenta', 'youtube', 'insulta', 'quarant', 'anni', 'comprato', 'due', 'tedesche', 'giro', 'due', 'anni', 'parli', 'parli', 'parli', 'parlo', 'solo', 'guadagni', 'f', 'f', 'f', 'f', 'f']</t>
+          <t>['f', 'studio', 'registrare', 'fuori', 'fan', 'quaranta', 'gradi', 'insulta', 'quarant', 'anni', 'fuori', 'fan', 'quaranta', 'gradi', 'studio', 'registrare', 'fuori', 'fan', 'quaranta', 'gradi', 'commenta', 'youtube', 'insulta', 'quarant', 'anni', 'comprato', 'due', 'tedesche', 'giro', 'due', 'anni', 'parli', 'parli', 'parli', 'parlo', 'solo', 'guadagni', 'nominato', 'vorrei', 'esser', 'panni', 'vestito', 'karl', 'kani', 'alta', 'moda', 'ferragamo', 'billie', 'commando', 'volta', 'armato', 'revolver', 'nero', 'opaco', 'fa', 'ballare', 'samba', 'piacere', 'chiamo', 'simba', 'tn', 'metto', 'silver', 'sempre', 'pulite', 'nike', 'giro', 'notte', 'city', 'tempo', 'dormire', 'abituato', 'veder', 'tg', 'might', 'also', 'like', 'studio', 'registrar', 'fuori', 'fan', 'quaranta', 'gradi', 'commenta', 'youtube', 'insulta', 'quarant', 'anni', 'comprato', 'due', 'desche', 'giro', 'due', 'anni', 'parli', 'parli', 'parli', 'parlo', 'solo', 'guadagni', 'dici', 'vendi', 'white', 'torni', 'casa', 'sdrai', 'spiagge', 'tropicali', 'thailandia', 'tigre', 'muay', 'thai', 'vado', 'mcdrive', 'pesce', 'crudo', 'scampi', 'tartare', 'co', 'completo', 'casablanca', 'seta', 'occhialata', 'cazal', 'sento', 'maracan', 'range', 'rover', 'vogue', 'velar', 'ra', 'ta', 'ta', 'ta', 'ta', 'nuovo', 'ak', 'louis', 'vuitton', 'vado', 'matto', 'trenta', 'k', 'marca', 'voglio', 'morire', 'chiatto', 'villa', 'montecarlo', 'piacere', 'chiamo', 'simba', 'tn', 'metto', 'silver', 'sempre', 'pulite', 'nike', 'giro', 'notte', 'city', 'tempo', 'dormire', 'abituato', 'veder', 'tg', 'studio', 'registrare', 'fuori', 'fan', 'quaranta', 'gradi', 'commenta', 'youtube', 'insulta', 'quarant', 'anni', 'comprato', 'due', 'tedesche', 'giro', 'due', 'anni', 'parli', 'parli', 'parli', 'parlo', 'solo', 'guadagni', 'f', 'f', 'f', 'f', 'f']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>f studio registrare fuori fan quaranta gradi insulta quarant anni fuori fan quaranta gradi studio registrare fuori fan quaranta gradi commenta youtube insulta quarant anni comprato due tedesche giro due anni parli parli parli parlo solo guadagni nominato vorrei esser panni mai vestito karl kani alta moda ferragamo billie commando volta armato revolver nero opaco fa ballare samba piacere chiamo simba tn metto silver sempre pulite nike giro notte city tempo dormire abituato veder tg might also like studio registrar fuori fan quaranta gradi commenta youtube insulta quarant anni comprato due desche giro due anni parli parli parli parlo solo guadagni dici vendi white torni casa sdrai spiagge tropicali thailandia tigre muay thai vado mcdrive pesce crudo scampi tartare co completo casablanca seta occhialata cazal sento maracan range rover vogue velar ra ta ta ta ta nuovo ak louis vuitton vado matto trenta k marca voglio morire chiatto villa montecarlo piacere chiamo simba tn metto silver sempre pulite nike giro notte city tempo dormire abituato veder tg studio registrare fuori fan quaranta gradi commenta youtube insulta quarant anni comprato due tedesche giro due anni parli parli parli parlo solo guadagni f f f f f</t>
+          <t>f studio registrare fuori fan quaranta gradi insulta quarant anni fuori fan quaranta gradi studio registrare fuori fan quaranta gradi commenta youtube insulta quarant anni comprato due tedesche giro due anni parli parli parli parlo solo guadagni nominato vorrei esser panni vestito karl kani alta moda ferragamo billie commando volta armato revolver nero opaco fa ballare samba piacere chiamo simba tn metto silver sempre pulite nike giro notte city tempo dormire abituato veder tg might also like studio registrar fuori fan quaranta gradi commenta youtube insulta quarant anni comprato due desche giro due anni parli parli parli parlo solo guadagni dici vendi white torni casa sdrai spiagge tropicali thailandia tigre muay thai vado mcdrive pesce crudo scampi tartare co completo casablanca seta occhialata cazal sento maracan range rover vogue velar ra ta ta ta ta nuovo ak louis vuitton vado matto trenta k marca voglio morire chiatto villa montecarlo piacere chiamo simba tn metto silver sempre pulite nike giro notte city tempo dormire abituato veder tg studio registrare fuori fan quaranta gradi commenta youtube insulta quarant anni comprato due tedesche giro due anni parli parli parli parlo solo guadagni f f f f f</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.929, 'pos': 0.071, 'compound': 0.9001}</t>
+          <t>{'neg': 0.0, 'neu': 0.928, 'pos': 0.072, 'compound': 0.9001}</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.9001</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.10714285714285714, subjectivity=0.32142857142857145)</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.1071428571428571</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4388,27 +5390,53 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['chiara', 'dice', 'adora', 'seh', 'dice', 'vedeva', 'ora', 'uoh', 'piace', 'uomo', 'oppure', 'donna', 'ah', 'devi', 'sentire', 'colpa', 'seh', 'ah', 'ah', 'ah', 'ah', 'chiara', 'dice', 'adora', 'seh', 'lascia', 'mamma', 'sola', 'proprio', 'brutta', 'persona', 'ah', 'tutta', 'scena', 'odia', 'ah', 'ah', 'ah', 'ah', 'seh', 'devi', 'pagare', 'sentirti', 'pi', 'real', 'solo', 'spia', 'amico', 'polizia', 'rimasta', 'accanto', 'malattia', 'quando', 'bisogno', 'scappato', 'via', 'infame', 'infame', 'ancora', 'parli', 'migliori', 'amici', 'devi', 'pagarli', 'fatto', 'figli', 'solamente', 'postarli', 'chiss', 'penseranno', 'quando', 'grandi', 'schifo', 'davvero', 'vergogna', 'video', 'ch', 'donna', 'troia', 'nuovo', 'lele', 'mora', 'diventato', 'puttana', 'corona', 'capelli', 'bianchi', 'fatti', 'tinta', 'vedo', 'isterica', 'cambia', 'terapista', 'perso', 'moglie', 'famiglia', 'prossima', 'figlia', 'devi', 'chiamarla', 'sconfitta', 'might', 'also', 'like', 'pi', 'dico', 'cosa', 'gennaio', 'cercando', 'modo', 'comprarsi', 'streaming', 'quindi', 'poi', 'veramente', 'riuscito', 'fare', 'cosa', 'chiara', 'dice', 'adora', 'seh', 'dice', 'vedeva', 'ora', 'uoh', 'piace', 'uomo', 'oppure', 'donna', 'ah', 'devi', 'sentire', 'colpa', 'seh', 'ah', 'ah', 'ah', 'ah', 'chiara', 'dice', 'adora', 'seh', 'lascia', 'mamma', 'sola', 'proprio', 'brutta', 'persona', 'ah', 'tutta', 'scena', 'odia', 'ah', 'ah', 'ah', 'ah', 'ragione', 'uomo', 'battere', 'mentre', 'scopo', 'sento', 'piangere', 'tony', 'chiacchiere', 'quando', 'arrivo', 'ora', 'andarsene', 'andarsene', 'insieme', 'sera', 'sera', 'cocaina', 'piaceva', 'piaceva', 'chiara', 'biasi', 'keta', 'mentre', 'abbracciavi', 'ta', 'mega', 'seh', 'funziona', 'cazzo', 'senza', 'viagra', 'cio', 'tipo', 'tipo', 'autotune', 'serata', 'tipo', 'tipo', 'figlio', 'preferito', 'tatiana', 'tipo', 'crackomane', 'pi', 'bello', 'italia', 'lucia', 'consiglio', 'vita', 'corta', 'devi', 'stare', 'tranquillo', 'assomigli', 'figlio', 'chiamato', 'coniglio', 'coniglio', 'chiara', 'dice', 'adora', 'seh', 'dice', 'vedeva', 'ora', 'uoh', 'piace', 'uomo', 'oppure', 'donna', 'ah', 'devi', 'sentire', 'colpa', 'seh', 'ah', 'ah', 'ah', 'ah', 'chiara', 'dice', 'adora', 'seh', 'lascia', 'mamma', 'sola', 'proprio', 'brutta', 'persona', 'ah', 'tutta', 'scena', 'odia', 'ah', 'ah', 'ah', 'ah']</t>
+          <t>['chiara', 'dice', 'adora', 'seh', 'dice', 'vedeva', 'ora', 'uoh', 'piace', 'uomo', 'oppure', 'donna', 'devi', 'sentire', 'colpa', 'seh', 'chiara', 'dice', 'adora', 'seh', 'lascia', 'mamma', 'sola', 'brutta', 'persona', 'tutta', 'scena', 'odia', 'seh', 'devi', 'pagare', 'sentirti', 'pi', 'real', 'solo', 'spia', 'amico', 'polizia', 'rimasta', 'accanto', 'malattia', 'bisogno', 'scappato', 'via', 'infame', 'infame', 'parli', 'migliori', 'amici', 'devi', 'pagarli', 'figli', 'solamente', 'postarli', 'chiss', 'penseranno', 'grandi', 'schifo', 'davvero', 'vergogna', 'video', 'ch', 'donna', 'troia', 'nuovo', 'lele', 'mora', 'diventato', 'puttana', 'corona', 'capelli', 'bianchi', 'fatti', 'tinta', 'vedo', 'isterica', 'cambia', 'terapista', 'perso', 'moglie', 'famiglia', 'prossima', 'figlia', 'devi', 'chiamarla', 'sconfitta', 'might', 'also', 'like', 'pi', 'dico', 'cosa', 'gennaio', 'cercando', 'modo', 'comprarsi', 'streaming', 'quindi', 'poi', 'veramente', 'riuscito', 'cosa', 'chiara', 'dice', 'adora', 'seh', 'dice', 'vedeva', 'ora', 'uoh', 'piace', 'uomo', 'oppure', 'donna', 'devi', 'sentire', 'colpa', 'seh', 'chiara', 'dice', 'adora', 'seh', 'lascia', 'mamma', 'sola', 'brutta', 'persona', 'tutta', 'scena', 'odia', 'ragione', 'uomo', 'battere', 'mentre', 'scopo', 'sento', 'piangere', 'tony', 'chiacchiere', 'arrivo', 'ora', 'andarsene', 'andarsene', 'sera', 'sera', 'cocaina', 'piaceva', 'piaceva', 'chiara', 'biasi', 'keta', 'mentre', 'abbracciavi', 'ta', 'mega', 'seh', 'funziona', 'cazzo', 'senza', 'viagra', 'cio', 'tipo', 'tipo', 'autotune', 'serata', 'tipo', 'tipo', 'figlio', 'preferito', 'tatiana', 'tipo', 'crackomane', 'pi', 'bello', 'italia', 'lucia', 'consiglio', 'vita', 'corta', 'devi', 'stare', 'tranquillo', 'assomigli', 'figlio', 'chiamato', 'coniglio', 'coniglio', 'chiara', 'dice', 'adora', 'seh', 'dice', 'vedeva', 'ora', 'uoh', 'piace', 'uomo', 'oppure', 'donna', 'devi', 'sentire', 'colpa', 'seh', 'chiara', 'dice', 'adora', 'seh', 'lascia', 'mamma', 'sola', 'brutta', 'persona', 'tutta', 'scena', 'odia']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>chiara dice adora seh dice vedeva ora uoh piace uomo oppure donna ah devi sentire colpa seh ah ah ah ah chiara dice adora seh lascia mamma sola proprio brutta persona ah tutta scena odia ah ah ah ah seh devi pagare sentirti pi real solo spia amico polizia rimasta accanto malattia quando bisogno scappato via infame infame ancora parli migliori amici devi pagarli fatto figli solamente postarli chiss penseranno quando grandi schifo davvero vergogna video ch donna troia nuovo lele mora diventato puttana corona capelli bianchi fatti tinta vedo isterica cambia terapista perso moglie famiglia prossima figlia devi chiamarla sconfitta might also like pi dico cosa gennaio cercando modo comprarsi streaming quindi poi veramente riuscito fare cosa chiara dice adora seh dice vedeva ora uoh piace uomo oppure donna ah devi sentire colpa seh ah ah ah ah chiara dice adora seh lascia mamma sola proprio brutta persona ah tutta scena odia ah ah ah ah ragione uomo battere mentre scopo sento piangere tony chiacchiere quando arrivo ora andarsene andarsene insieme sera sera cocaina piaceva piaceva chiara biasi keta mentre abbracciavi ta mega seh funziona cazzo senza viagra cio tipo tipo autotune serata tipo tipo figlio preferito tatiana tipo crackomane pi bello italia lucia consiglio vita corta devi stare tranquillo assomigli figlio chiamato coniglio coniglio chiara dice adora seh dice vedeva ora uoh piace uomo oppure donna ah devi sentire colpa seh ah ah ah ah chiara dice adora seh lascia mamma sola proprio brutta persona ah tutta scena odia ah ah ah ah</t>
+          <t>chiara dice adora seh dice vedeva ora uoh piace uomo oppure donna devi sentire colpa seh chiara dice adora seh lascia mamma sola brutta persona tutta scena odia seh devi pagare sentirti pi real solo spia amico polizia rimasta accanto malattia bisogno scappato via infame infame parli migliori amici devi pagarli figli solamente postarli chiss penseranno grandi schifo davvero vergogna video ch donna troia nuovo lele mora diventato puttana corona capelli bianchi fatti tinta vedo isterica cambia terapista perso moglie famiglia prossima figlia devi chiamarla sconfitta might also like pi dico cosa gennaio cercando modo comprarsi streaming quindi poi veramente riuscito cosa chiara dice adora seh dice vedeva ora uoh piace uomo oppure donna devi sentire colpa seh chiara dice adora seh lascia mamma sola brutta persona tutta scena odia ragione uomo battere mentre scopo sento piangere tony chiacchiere arrivo ora andarsene andarsene sera sera cocaina piaceva piaceva chiara biasi keta mentre abbracciavi ta mega seh funziona cazzo senza viagra cio tipo tipo autotune serata tipo tipo figlio preferito tatiana tipo crackomane pi bello italia lucia consiglio vita corta devi stare tranquillo assomigli figlio chiamato coniglio coniglio chiara dice adora seh dice vedeva ora uoh piace uomo oppure donna devi sentire colpa seh chiara dice adora seh lascia mamma sola brutta persona tutta scena odia</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.99, 'pos': 0.01, 'compound': 0.3612}</t>
+          <t>{'neg': 0.0, 'neu': 0.988, 'pos': 0.012, 'compound': 0.3612}</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.3612</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.2, subjectivity=0.30000000000000004)</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4481,25 +5509,51 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['uh', 'uh', 'uh', 'uh', 'ah', 'ah', 'ah', 'yah', 'yah', 'due', 'lascia', 'tedua', 'centottanta', 'frena', 'banda', 'trema', 'voglio', 'vedere', 'terra', 'voglio', 'mangiare', 'cena', 'club', 'saint', 'laurent', 'angeli', 'cielo', 'rabat', 'porto', 'hash', 'roba', 'suona', 'forse', 'dj', 'invecchia', 'fotto', 'troia', 'scritto', 'tony', 'sfera', 'vinco', 'perch', 'rimasto', 'vero', 'made', 'quando', 'manco', 'euro', 'denim', 'oggi', 'chiami', 'chiedo', 'prelevo', 'contanti', 'conto', 'zeri', 'chied', 'rmi', 'scrivi', 'testi', 'porto', 'g', 'ntro', 'jeans', 'compro', 'yacht', 'ritorno', 'blocco', 'grido', 'might', 'also', 'like', 'tedua', 'centottanta', 'frena', 'banda', 'trema', 'voglio', 'vedere', 'terra', 'voglio', 'mangiare', 'cena', 'zzala', 'ancora', 'piede', 'strada', 'altro', 'accelera', 'pana', 'penna', 'condanna', 'umore', 'black', 'balenciaga', 'gmt', 'glc', 'neri', 'funerale', 'tieniti', 'tnt', 'quando', 'senti', 'parlare', 'mare', 'fuori', 'guardo', 'amo', 'romanzo', 'criminale', 'figa', 'grotta', 'cazzo', 'bin', 'laden', 'rapper', 'twin', 'tower', 'fingono', 'vinto', 'amano', 'odiano', 'sanno', 'filtro', 'neck', 'fra', 'oro', 'finto', 'j', 'ochocinco', 'push', 'limit', 'penso', 'vita', 'jim', 'belushi', 'pi', 'deliri', 'believe', 'brindo', 'sconfitta', 'cipriani', 'due', 'bellini', 'dolce', 'vita', 'fellini', 'chiamami', 'zzala', 'ancora', 'piede', 'strada', 'altro', 'accelera', 'pana', 'penna', 'condanna', 'umore', 'black', 'balenciaga', 'tedua', 'centottanta', 'frena', 'banda', 'trema', 'voglio', 'vedere', 'terra', 'voglio', 'mangiare', 'cena']</t>
+          <t>['yah', 'yah', 'due', 'lascia', 'tedua', 'centottanta', 'frena', 'banda', 'trema', 'voglio', 'vedere', 'terra', 'voglio', 'mangiare', 'cena', 'club', 'saint', 'laurent', 'angeli', 'cielo', 'rabat', 'porto', 'hash', 'roba', 'suona', 'forse', 'dj', 'invecchia', 'fotto', 'troia', 'scritto', 'tony', 'sfera', 'vinco', 'perch', 'rimasto', 'vero', 'made', 'manco', 'euro', 'denim', 'oggi', 'chiami', 'chiedo', 'prelevo', 'contanti', 'conto', 'zeri', 'chied', 'rmi', 'scrivi', 'testi', 'porto', 'g', 'ntro', 'jeans', 'compro', 'yacht', 'ritorno', 'blocco', 'grido', 'might', 'also', 'like', 'tedua', 'centottanta', 'frena', 'banda', 'trema', 'voglio', 'vedere', 'terra', 'voglio', 'mangiare', 'cena', 'zzala', 'piede', 'strada', 'accelera', 'pana', 'penna', 'condanna', 'umore', 'black', 'balenciaga', 'gmt', 'glc', 'neri', 'funerale', 'tieniti', 'tnt', 'senti', 'parlare', 'mare', 'fuori', 'guardo', 'amo', 'romanzo', 'criminale', 'figa', 'grotta', 'cazzo', 'bin', 'laden', 'rapper', 'twin', 'tower', 'fingono', 'vinto', 'amano', 'odiano', 'sanno', 'filtro', 'neck', 'fra', 'oro', 'finto', 'j', 'ochocinco', 'push', 'limit', 'penso', 'vita', 'jim', 'belushi', 'pi', 'deliri', 'believe', 'brindo', 'sconfitta', 'cipriani', 'due', 'bellini', 'dolce', 'vita', 'fellini', 'chiamami', 'zzala', 'piede', 'strada', 'accelera', 'pana', 'penna', 'condanna', 'umore', 'black', 'balenciaga', 'tedua', 'centottanta', 'frena', 'banda', 'trema', 'voglio', 'vedere', 'terra', 'voglio', 'mangiare', 'cena']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>uh uh uh uh ah ah ah yah yah due lascia tedua centottanta frena banda trema voglio vedere terra voglio mangiare cena club saint laurent angeli cielo rabat porto hash roba suona forse dj invecchia fotto troia scritto tony sfera vinco perch rimasto vero made quando manco euro denim oggi chiami chiedo prelevo contanti conto zeri chied rmi scrivi testi porto g ntro jeans compro yacht ritorno blocco grido might also like tedua centottanta frena banda trema voglio vedere terra voglio mangiare cena zzala ancora piede strada altro accelera pana penna condanna umore black balenciaga gmt glc neri funerale tieniti tnt quando senti parlare mare fuori guardo amo romanzo criminale figa grotta cazzo bin laden rapper twin tower fingono vinto amano odiano sanno filtro neck fra oro finto j ochocinco push limit penso vita jim belushi pi deliri believe brindo sconfitta cipriani due bellini dolce vita fellini chiamami zzala ancora piede strada altro accelera pana penna condanna umore black balenciaga tedua centottanta frena banda trema voglio vedere terra voglio mangiare cena</t>
+          <t>yah yah due lascia tedua centottanta frena banda trema voglio vedere terra voglio mangiare cena club saint laurent angeli cielo rabat porto hash roba suona forse dj invecchia fotto troia scritto tony sfera vinco perch rimasto vero made manco euro denim oggi chiami chiedo prelevo contanti conto zeri chied rmi scrivi testi porto g ntro jeans compro yacht ritorno blocco grido might also like tedua centottanta frena banda trema voglio vedere terra voglio mangiare cena zzala piede strada accelera pana penna condanna umore black balenciaga gmt glc neri funerale tieniti tnt senti parlare mare fuori guardo amo romanzo criminale figa grotta cazzo bin laden rapper twin tower fingono vinto amano odiano sanno filtro neck fra oro finto j ochocinco push limit penso vita jim belushi pi deliri believe brindo sconfitta cipriani due bellini dolce vita fellini chiamami zzala piede strada accelera pana penna condanna umore black balenciaga tedua centottanta frena banda trema voglio vedere terra voglio mangiare cena</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.985, 'pos': 0.015, 'compound': 0.3612}</t>
+          <t>{'neg': 0.0, 'neu': 0.984, 'pos': 0.016, 'compound': 0.3612}</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.3612</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.14583333333333331, subjectivity=0.4041666666666667)</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.1458333333333333</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.4041666666666667</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4584,27 +5638,53 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['uh', 'quand', 'sbagli', 'senza', 'pi', 'senza', 'fartene', 'pi', 'colpa', 'oh', 'presi', 'buttati', 'mondo', 'fermi', 'alto', 'giostra', 'dammi', 'dammi', 'dammi', 'pi', 'vita', 'oh', 'ricordi', 'quel', 'pomeriggio', 'pelle', 'tasche', 'oh', 'ricordi', 'quel', 'giorno', 'grigio', 'stesso', 'mare', 'diverse', 'barche', 'dammi', 'dammi', 'dammi', 'pi', 'vita', 'quant', 'esce', 'sole', 'sai', 'voglia', 'altre', 'persone', 'voglia', 'cose', 'nuove', 'parlami', 'portami', 'altrove', 'stelle', 'accese', 'spiagge', 'vuote', 'avanti', 'parlami', 'portami', 'altrove', 'testi', 'voce', 'basta', 'altrove', 'see', 'ultimo', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'oh', 'cosa', 'vuoi', 'capire', 'certe', 'cose', 'fine', 'oh', 'fuori', 'dentro', 'vive', 'voglia', 'poter', 'dire', 'dammi', 'dammi', 'dammi', 'pi', 'vita', 'quant', 'esce', 'sole', 'sai', 'voglia', 'altre', 'persone', 'voglia', 'cose', 'nuove', 'parlami', 'portami', 'altrove', 'stelle', 'accese', 'spiagge', 'vuote', 'avanti', 'parlami', 'portami', 'altrove', 'testi', 'voce', 'basta', 'altrove', 'oh', 'oh', 'oh', 'quant', 'esci', 'pi', 'provi', 'cadi', 'gi', 'bene', 'amore', 'quant', 'esci', 'pi', 'provi', 'cadi', 'gi', 'bene', 'amore', 'quant', 'esce', 'sole', 'sai', 'voglia', 'altre', 'persone', 'voglia', 'cose', 'nuove', 'parlami', 'portami', 'altrove', 'stelle', 'accese', 'spiagge', 'vuote', 'avanti', 'parlami', 'portami', 'altrove', 'testi', 'voce', 'basta', 'altrove']</t>
+          <t>['quand', 'sbagli', 'senza', 'pi', 'senza', 'fartene', 'pi', 'colpa', 'presi', 'buttati', 'mondo', 'fermi', 'alto', 'giostra', 'dammi', 'dammi', 'dammi', 'pi', 'vita', 'ricordi', 'quel', 'pomeriggio', 'pelle', 'tasche', 'ricordi', 'quel', 'giorno', 'grigio', 'stesso', 'mare', 'diverse', 'barche', 'dammi', 'dammi', 'dammi', 'pi', 'vita', 'quant', 'esce', 'sole', 'sai', 'voglia', 'altre', 'persone', 'voglia', 'cose', 'nuove', 'parlami', 'portami', 'altrove', 'stelle', 'accese', 'spiagge', 'vuote', 'avanti', 'parlami', 'portami', 'altrove', 'testi', 'voce', 'basta', 'altrove', 'see', 'ultimo', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'cosa', 'vuoi', 'capire', 'certe', 'cose', 'fine', 'fuori', 'dentro', 'vive', 'voglia', 'poter', 'dire', 'dammi', 'dammi', 'dammi', 'pi', 'vita', 'quant', 'esce', 'sole', 'sai', 'voglia', 'altre', 'persone', 'voglia', 'cose', 'nuove', 'parlami', 'portami', 'altrove', 'stelle', 'accese', 'spiagge', 'vuote', 'avanti', 'parlami', 'portami', 'altrove', 'testi', 'voce', 'basta', 'altrove', 'quant', 'esci', 'pi', 'provi', 'cadi', 'gi', 'bene', 'amore', 'quant', 'esci', 'pi', 'provi', 'cadi', 'gi', 'bene', 'amore', 'quant', 'esce', 'sole', 'sai', 'voglia', 'altre', 'persone', 'voglia', 'cose', 'nuove', 'parlami', 'portami', 'altrove', 'stelle', 'accese', 'spiagge', 'vuote', 'avanti', 'parlami', 'portami', 'altrove', 'testi', 'voce', 'basta', 'altrove']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>uh quand sbagli senza pi senza fartene pi colpa oh presi buttati mondo fermi alto giostra dammi dammi dammi pi vita oh ricordi quel pomeriggio pelle tasche oh ricordi quel giorno grigio stesso mare diverse barche dammi dammi dammi pi vita quant esce sole sai voglia altre persone voglia cose nuove parlami portami altrove stelle accese spiagge vuote avanti parlami portami altrove testi voce basta altrove see ultimo liveget tickets low might also like oh cosa vuoi capire certe cose fine oh fuori dentro vive voglia poter dire dammi dammi dammi pi vita quant esce sole sai voglia altre persone voglia cose nuove parlami portami altrove stelle accese spiagge vuote avanti parlami portami altrove testi voce basta altrove oh oh oh quant esci pi provi cadi gi bene amore quant esci pi provi cadi gi bene amore quant esce sole sai voglia altre persone voglia cose nuove parlami portami altrove stelle accese spiagge vuote avanti parlami portami altrove testi voce basta altrove</t>
+          <t>quand sbagli senza pi senza fartene pi colpa presi buttati mondo fermi alto giostra dammi dammi dammi pi vita ricordi quel pomeriggio pelle tasche ricordi quel giorno grigio stesso mare diverse barche dammi dammi dammi pi vita quant esce sole sai voglia altre persone voglia cose nuove parlami portami altrove stelle accese spiagge vuote avanti parlami portami altrove testi voce basta altrove see ultimo liveget tickets low might also like cosa vuoi capire certe cose fine fuori dentro vive voglia poter dire dammi dammi dammi pi vita quant esce sole sai voglia altre persone voglia cose nuove parlami portami altrove stelle accese spiagge vuote avanti parlami portami altrove testi voce basta altrove quant esci pi provi cadi gi bene amore quant esci pi provi cadi gi bene amore quant esce sole sai voglia altre persone voglia cose nuove parlami portami altrove stelle accese spiagge vuote avanti parlami portami altrove testi voce basta altrove</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'neg': 0.03, 'neu': 0.944, 'pos': 0.026, 'compound': -0.2023}</t>
+          <t>{'neg': 0.032, 'neu': 0.941, 'pos': 0.027, 'compound': -0.2023}</t>
         </is>
       </c>
       <c r="H41" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K41" t="n">
         <v>-0.2023</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.08333333333333334, subjectivity=0.31)</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4687,25 +5767,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['ricordo', 'pi', 'oramai', 'cercasti', 'cercai', 'incontrasti', 'incontrai', 'destino', 'orologio', 'fa', 'alba', 'nuovi', 'guai', 'vai', 'resti', 'qui', 'importa', 'buio', 'pesto', 'accendi', 'spesso', 'voglio', 'averti', 'volte', 'detesto', 'altro', 'locura', 'cura', 'cura', 'locura', 'cura', 'cura', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'okay', 'zzala', 'nice', 'supercar', 'miami', 'vice', 'mentre', 'puntando', 'centomila', 'crazy', 'time', 'base', 'tricks', 'jedi', 'mind', 'destino', 'scritto', 'fronte', 'gemitaiz', 'ahahah', 'locura', 'ferro', 'video', 'tolta', 'maschera', 'cura', 'resti', 'barzelletta', 'fra', 'cattelan', 'pah', 'pow', 'cura', 'auguro', 'trend', 'presto', 'passer', 'mettere', 'darsena', 'arsenal', 'pah', 'pow', 'spegnimi', 'luce', 'blackout', 'blackout', 'sembra', 'fake', 'smackdown', 'smackdown', 'fila', 'hall', 'checkout', 'checkout', 'solo', 'topi', 'consolle', 'deadmau', 'psst', 'psst', 'psst', 'psst', 'psst', 'pesce', 'dentro', 'paella', 'valenciana', 'poi', 'amici', 'prima', 'paola', 'chiara', 'ahah', 'ascolto', 'disco', 'tale', 'piaga', 'scusa', 'bambini', 'balenciaga', 'might', 'also', 'like', 'guardami', 'ora', 'cura', 'prega', 'morir', 'sar', 'icona', 'cura', 'sti', 'zeri', 'pi', 'problemi', 'pi', 'locura', 'cura', 'tempo', 'passa', 'fretta', 'sopra', 'daytona', 'cura', 'cura', 'davi', 'morto', 'uh', 'mai', 'sentito', 'fra', 'bene', 'torto', 'uh', 'mai', 'pentito', 'fatto', 'disco', 'anno', 'uh', 'letto', 'quel', 'sito', 'paura', 'dirti', 'uh', 'mentito', 'ah', 'prima', 'scala', 'show', 'jacopo', 'prendimi', 'scala', 'devo', 'appendere', 'platino', 'crisi', 'panico', 'forum', 'pieni', 'pure', 'prima', 'ariston', 'penso', 'quote', 'ricordo', 'quando', 'ancora', 'poche', 'sti', 'rapper', 'giovani', 'marmotte', 'capo', 'primo', 'fare', 'quell', 'altro', 'poi', 'sembrate', 'disco', 'mezzo', 'milli', 'copie', 'locura', 'perdonami', 'milady', 'sti', 'geni', 'vedi', 'cura', 'odio', 'gente', 'eleva', 'fan', 'farsi', 'foto', 'mano', 'cash', 'cura', 'paio', 'mesi', 'preleva', 'brr', 'guardami', 'ora', 'cura', 'prega', 'morir', 'sar', 'icona', 'cura', 'sti', 'zeri', 'pi', 'problemi', 'pi', 'locura', 'cura', 'tempo', 'passa', 'fretta', 'sopra', 'daytona', 'cura', 'cura', 'locura', 'fa', 'impazzire', 'poi', 'prende', 'giro', 'vuole', 'sa', 'perfino', 'toglierti', 'respiro', 'passar', 'tempo', 'svanir']</t>
+          <t>['ricordo', 'pi', 'oramai', 'cercasti', 'cercai', 'incontrasti', 'incontrai', 'destino', 'orologio', 'fa', 'alba', 'nuovi', 'guai', 'vai', 'resti', 'qui', 'importa', 'buio', 'pesto', 'accendi', 'spesso', 'voglio', 'averti', 'volte', 'detesto', 'locura', 'cura', 'cura', 'locura', 'cura', 'cura', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'uoh', 'okay', 'zzala', 'nice', 'supercar', 'miami', 'vice', 'mentre', 'puntando', 'centomila', 'crazy', 'time', 'base', 'tricks', 'jedi', 'mind', 'destino', 'scritto', 'fronte', 'gemitaiz', 'ahahah', 'locura', 'ferro', 'video', 'tolta', 'maschera', 'cura', 'resti', 'barzelletta', 'fra', 'cattelan', 'pah', 'pow', 'cura', 'auguro', 'trend', 'presto', 'passer', 'mettere', 'darsena', 'arsenal', 'pah', 'pow', 'spegnimi', 'luce', 'blackout', 'blackout', 'sembra', 'fake', 'smackdown', 'smackdown', 'fila', 'hall', 'checkout', 'checkout', 'solo', 'topi', 'consolle', 'deadmau', 'psst', 'psst', 'psst', 'psst', 'psst', 'pesce', 'dentro', 'paella', 'valenciana', 'poi', 'amici', 'prima', 'paola', 'chiara', 'ahah', 'ascolto', 'disco', 'tale', 'piaga', 'scusa', 'bambini', 'balenciaga', 'might', 'also', 'like', 'guardami', 'ora', 'cura', 'prega', 'morir', 'sar', 'icona', 'cura', 'sti', 'zeri', 'pi', 'problemi', 'pi', 'locura', 'cura', 'tempo', 'passa', 'fretta', 'sopra', 'daytona', 'cura', 'cura', 'davi', 'morto', 'sentito', 'fra', 'bene', 'torto', 'pentito', 'disco', 'anno', 'letto', 'quel', 'sito', 'paura', 'dirti', 'mentito', 'prima', 'scala', 'show', 'jacopo', 'prendimi', 'scala', 'devo', 'appendere', 'platino', 'crisi', 'panico', 'forum', 'pieni', 'pure', 'prima', 'ariston', 'penso', 'quote', 'ricordo', 'poche', 'sti', 'rapper', 'giovani', 'marmotte', 'capo', 'primo', 'quell', 'poi', 'sembrate', 'disco', 'mezzo', 'milli', 'copie', 'locura', 'perdonami', 'milady', 'sti', 'geni', 'vedi', 'cura', 'odio', 'gente', 'eleva', 'fan', 'farsi', 'foto', 'mano', 'cash', 'cura', 'paio', 'mesi', 'preleva', 'brr', 'guardami', 'ora', 'cura', 'prega', 'morir', 'sar', 'icona', 'cura', 'sti', 'zeri', 'pi', 'problemi', 'pi', 'locura', 'cura', 'tempo', 'passa', 'fretta', 'sopra', 'daytona', 'cura', 'cura', 'locura', 'fa', 'impazzire', 'poi', 'prende', 'giro', 'vuole', 'sa', 'perfino', 'toglierti', 'respiro', 'passar', 'tempo', 'svanir']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ricordo pi oramai cercasti cercai incontrasti incontrai destino orologio fa alba nuovi guai vai resti qui importa buio pesto accendi spesso voglio averti volte detesto altro locura cura cura locura cura cura uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh okay zzala nice supercar miami vice mentre puntando centomila crazy time base tricks jedi mind destino scritto fronte gemitaiz ahahah locura ferro video tolta maschera cura resti barzelletta fra cattelan pah pow cura auguro trend presto passer mettere darsena arsenal pah pow spegnimi luce blackout blackout sembra fake smackdown smackdown fila hall checkout checkout solo topi consolle deadmau psst psst psst psst psst pesce dentro paella valenciana poi amici prima paola chiara ahah ascolto disco tale piaga scusa bambini balenciaga might also like guardami ora cura prega morir sar icona cura sti zeri pi problemi pi locura cura tempo passa fretta sopra daytona cura cura davi morto uh mai sentito fra bene torto uh mai pentito fatto disco anno uh letto quel sito paura dirti uh mentito ah prima scala show jacopo prendimi scala devo appendere platino crisi panico forum pieni pure prima ariston penso quote ricordo quando ancora poche sti rapper giovani marmotte capo primo fare quell altro poi sembrate disco mezzo milli copie locura perdonami milady sti geni vedi cura odio gente eleva fan farsi foto mano cash cura paio mesi preleva brr guardami ora cura prega morir sar icona cura sti zeri pi problemi pi locura cura tempo passa fretta sopra daytona cura cura locura fa impazzire poi prende giro vuole sa perfino toglierti respiro passar tempo svanir</t>
+          <t>ricordo pi oramai cercasti cercai incontrasti incontrai destino orologio fa alba nuovi guai vai resti qui importa buio pesto accendi spesso voglio averti volte detesto locura cura cura locura cura cura uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh uoh okay zzala nice supercar miami vice mentre puntando centomila crazy time base tricks jedi mind destino scritto fronte gemitaiz ahahah locura ferro video tolta maschera cura resti barzelletta fra cattelan pah pow cura auguro trend presto passer mettere darsena arsenal pah pow spegnimi luce blackout blackout sembra fake smackdown smackdown fila hall checkout checkout solo topi consolle deadmau psst psst psst psst psst pesce dentro paella valenciana poi amici prima paola chiara ahah ascolto disco tale piaga scusa bambini balenciaga might also like guardami ora cura prega morir sar icona cura sti zeri pi problemi pi locura cura tempo passa fretta sopra daytona cura cura davi morto sentito fra bene torto pentito disco anno letto quel sito paura dirti mentito prima scala show jacopo prendimi scala devo appendere platino crisi panico forum pieni pure prima ariston penso quote ricordo poche sti rapper giovani marmotte capo primo quell poi sembrate disco mezzo milli copie locura perdonami milady sti geni vedi cura odio gente eleva fan farsi foto mano cash cura paio mesi preleva brr guardami ora cura prega morir sar icona cura sti zeri pi problemi pi locura cura tempo passa fretta sopra daytona cura cura locura fa impazzire poi prende giro vuole sa perfino toglierti respiro passar tempo svanir</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'neg': 0.025, 'neu': 0.94, 'pos': 0.034, 'compound': 0.3612}</t>
+          <t>{'neg': 0.027, 'neu': 0.937, 'pos': 0.036, 'compound': 0.3612}</t>
         </is>
       </c>
       <c r="H42" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.3612</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.0976190476190476, subjectivity=0.8166666666666668)</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.09761904761904761</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8166666666666668</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4788,23 +5894,49 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['uh', 'oh', 'oh', 'oh', 'oh', 'oh', 'yah', 'eh', 'eh', 'eh', 'baby', 'baby', 'mama', 'andati', 'proprio', 'perch', 'palazzi', 'ristoranti', 'siam', 'presi', 'amati', 'poi', 'amati', 'persi', 'vengo', 'conta', 'fino', 'dieci', 'venire', 'vertigini', 'quando', 'sorridi', 'mentre', 'collego', 'lentiggini', 'puntini', 'leggo', 'occhi', 'mai', 'letto', 'libri', 'sai', 'ascoltare', 'ascoltano', 'dischi', 'troviamo', 'giro', 'tre', 'notte', 'parlare', 'prenderci', 'colpe', 'domande', 'risposte', 'stacchiamo', 'com', 'due', 'cartine', 'corte', 'volevo', 'soffrissi', 'distratto', 'thots', 'vedo', 'spesso', 'giro', 'perch', 'bene', 'block', 'shoota', 'eh', 'fido', 'nessuno', 'might', 'also', 'like', 'uh', 'ah', 'ah', 'ah', 'ah', 'ah', 'baby', 'mama', 'prendevo', 'uscita', 'aspettavo', 'entrata', 'fuori', 'boutique', 'oppure', 'sotto', 'casa', 'tuta', 'abbinata', 'ora', 'baby', 'mama', 'provo', 'baby', 'puoi', 'scommettere', 'brava', 'perdonare', 'sbaglia', 'sempre', 'sbagliato', 'fingi', 'conoscermi', 'ah', 'fiori', 'bossoli', 'amore', 'tossici', 'primi', 'baci', 'sotto', 'portici', 'sbagliato', 'mai', 'quando', 'riprovo', 'solo', 'guai', 'ancora', 'qua', 'prendo', 'ancora', 'crai', 'sentimenti', 'freddi', 'piazza', 'mani', 'quindi', 'scusa', 'chiedere', 'scusa', 'vita', 'ferisco', 'primo', 'perch', 'fondo', 'paura', 'ora', 'fatti', 'male', 'fondo', 'proviamo', 'piacere', 'ora', 'sappiamo', 'entrambi', 'storia', 'conviene', 'mai', 'ora', 'baby', 'mama', 'prendevo', 'uscita', 'aspettavo', 'entrata', 'fuori', 'boutique', 'oppure', 'sotto', 'casa', 'tuta', 'abbinata', 'ora', 'baby', 'mama', 'provo', 'baby', 'puoi', 'scommettere', 'brava', 'perdonare', 'sbaglia', 'sempre', 'sbagliato', 'uh', 'ah', 'ah', 'ah', 'ah', 'ah', 'baby', 'mama', 'prendevo', 'uscita', 'aspettavo', 'entrata', 'fuori', 'boutique', 'oppure', 'sotto', 'casa', 'tuta', 'abbinata', 'ora', 'baby', 'mama']</t>
+          <t>['yah', 'eh', 'eh', 'eh', 'baby', 'baby', 'mama', 'andati', 'perch', 'palazzi', 'ristoranti', 'siam', 'presi', 'amati', 'poi', 'amati', 'persi', 'vengo', 'conta', 'fino', 'dieci', 'venire', 'vertigini', 'sorridi', 'mentre', 'collego', 'lentiggini', 'puntini', 'leggo', 'occhi', 'letto', 'libri', 'sai', 'ascoltare', 'ascoltano', 'dischi', 'troviamo', 'giro', 'tre', 'notte', 'parlare', 'prenderci', 'colpe', 'domande', 'risposte', 'stacchiamo', 'due', 'cartine', 'corte', 'volevo', 'soffrissi', 'distratto', 'thots', 'vedo', 'spesso', 'giro', 'perch', 'bene', 'block', 'shoota', 'eh', 'fido', 'might', 'also', 'like', 'baby', 'mama', 'prendevo', 'uscita', 'aspettavo', 'entrata', 'fuori', 'boutique', 'oppure', 'casa', 'tuta', 'abbinata', 'ora', 'baby', 'mama', 'provo', 'baby', 'puoi', 'scommettere', 'brava', 'perdonare', 'sbaglia', 'sempre', 'sbagliato', 'fingi', 'conoscermi', 'fiori', 'bossoli', 'amore', 'tossici', 'primi', 'baci', 'portici', 'sbagliato', 'riprovo', 'solo', 'guai', 'qua', 'prendo', 'crai', 'sentimenti', 'freddi', 'piazza', 'mani', 'quindi', 'scusa', 'chiedere', 'scusa', 'vita', 'ferisco', 'primo', 'perch', 'fondo', 'paura', 'ora', 'fatti', 'male', 'fondo', 'proviamo', 'piacere', 'ora', 'sappiamo', 'entrambi', 'storia', 'conviene', 'ora', 'baby', 'mama', 'prendevo', 'uscita', 'aspettavo', 'entrata', 'fuori', 'boutique', 'oppure', 'casa', 'tuta', 'abbinata', 'ora', 'baby', 'mama', 'provo', 'baby', 'puoi', 'scommettere', 'brava', 'perdonare', 'sbaglia', 'sempre', 'sbagliato', 'baby', 'mama', 'prendevo', 'uscita', 'aspettavo', 'entrata', 'fuori', 'boutique', 'oppure', 'casa', 'tuta', 'abbinata', 'ora', 'baby', 'mama']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>uh oh oh oh oh oh yah eh eh eh baby baby mama andati proprio perch palazzi ristoranti siam presi amati poi amati persi vengo conta fino dieci venire vertigini quando sorridi mentre collego lentiggini puntini leggo occhi mai letto libri sai ascoltare ascoltano dischi troviamo giro tre notte parlare prenderci colpe domande risposte stacchiamo com due cartine corte volevo soffrissi distratto thots vedo spesso giro perch bene block shoota eh fido nessuno might also like uh ah ah ah ah ah baby mama prendevo uscita aspettavo entrata fuori boutique oppure sotto casa tuta abbinata ora baby mama provo baby puoi scommettere brava perdonare sbaglia sempre sbagliato fingi conoscermi ah fiori bossoli amore tossici primi baci sotto portici sbagliato mai quando riprovo solo guai ancora qua prendo ancora crai sentimenti freddi piazza mani quindi scusa chiedere scusa vita ferisco primo perch fondo paura ora fatti male fondo proviamo piacere ora sappiamo entrambi storia conviene mai ora baby mama prendevo uscita aspettavo entrata fuori boutique oppure sotto casa tuta abbinata ora baby mama provo baby puoi scommettere brava perdonare sbaglia sempre sbagliato uh ah ah ah ah ah baby mama prendevo uscita aspettavo entrata fuori boutique oppure sotto casa tuta abbinata ora baby mama</t>
+          <t>yah eh eh eh baby baby mama andati perch palazzi ristoranti siam presi amati poi amati persi vengo conta fino dieci venire vertigini sorridi mentre collego lentiggini puntini leggo occhi letto libri sai ascoltare ascoltano dischi troviamo giro tre notte parlare prenderci colpe domande risposte stacchiamo due cartine corte volevo soffrissi distratto thots vedo spesso giro perch bene block shoota eh fido might also like baby mama prendevo uscita aspettavo entrata fuori boutique oppure casa tuta abbinata ora baby mama provo baby puoi scommettere brava perdonare sbaglia sempre sbagliato fingi conoscermi fiori bossoli amore tossici primi baci portici sbagliato riprovo solo guai qua prendo crai sentimenti freddi piazza mani quindi scusa chiedere scusa vita ferisco primo perch fondo paura ora fatti male fondo proviamo piacere ora sappiamo entrambi storia conviene ora baby mama prendevo uscita aspettavo entrata fuori boutique oppure casa tuta abbinata ora baby mama provo baby puoi scommettere brava perdonare sbaglia sempre sbagliato baby mama prendevo uscita aspettavo entrata fuori boutique oppure casa tuta abbinata ora baby mama</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'neg': 0.014, 'neu': 0.974, 'pos': 0.012, 'compound': -0.1027}</t>
+          <t>{'neg': 0.017, 'neu': 0.969, 'pos': 0.014, 'compound': -0.1027}</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="K43" t="n">
         <v>-0.1027</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.0625, subjectivity=0.2375)</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.0625</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -4881,25 +6013,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['ah', 'sento', 'richiamo', 'lupo', 'sento', 'richiamo', 'lupo', 'occhi', 'aperti', 'gufo', 'gufo', 'guardato', 'dirupo', 'visto', 'luce', 'buio', 'pah', 'riconosciuti', 'figli', 'nessuno', 'pah', 'cinque', 'vie', 'blocco', 'cinque', 'vie', 'blocco', 'rosso', 'muro', 'pitturo', 'pah', 'numero', 'cinque', 'mai', 'detto', 'essere', 'mai', 'cinque', 'zeri', 'fatture', 'brr', 'brr', 'pow', 'vita', 'dopo', 'morte', 'christopher', 'wallace', 'jr', 'grr', 'grr', 'grr', 'grr', 'universo', 'testimone', 'perch', 'credo', 'azioni', 'bevendo', 'pozione', 'dar', 'superforza', 'pah', 'gridano', 'nome', 'folla', 'folla', 'mentre', 'prego', 'lato', 'oscuro', 'forza', 'dia', 'compassione', 'grr', 'anello', 'dito', 'forma', 'costellazione', 'azione', 'dopo', 'azione', 'diventata', 'missione', 'porto', 'tartarughe', 'ninja', 'fuori', 'fogne', 'quando', 'rappi', 'vanno', 'ora', 'religione', 'numero', 'cinque', 'ah', 'numeri', 'primi', 'ah', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'yeah', 'yeah', 'yeah', 'bevo', 'daiquiri', 'sento', 'numa', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio', 'numero', 'cinque', 'ah', 'numeri', 'primi', 'ah', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'yeah', 'yeah', 'yeah', 'bevo', 'daiquiri', 'sento', 'numa', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio', 'might', 'also', 'like', 'mangio', 'escargot', 'grr', 'grr', 'chiamo', 'cameriere', 'occhi', 'bordeaux', 'pow', 'bevo', 'clicquot', 'mentre', 'spesa', 'louis', 'vuitton', 'ah', 'ah', 'ah', 'louboutin', 'jimmy', 'choo', 'boo', 'royal', 'oak', 'everose', 'rollie', 'bitch', 'rock', 'gang', 'team', 'volo', 'new', 'york', 'sigari', 'cubani', 'conti', 'bancari', 'offshore', 'puttane', 'bevon', 'rum', 'noci', 'cocco', 'ah', 'villa', 'saint', 'john', 'ah', 'serve', 'giubbotto', 'ah', 'tipa', 'cucina', 'uova', 'coque', 'mhm', 'erba', 'coltivata', 'locali', 'posto', 'pah', 'culo', 'barca', 'dirigo', 'nord', 'grr', 'grr', 'artie', 'ive', 'cinque', 'anni', 'sar', 'comodo', 'sole', 'pow', 'numero', 'cinque', 'ah', 'numeri', 'primi', 'ah', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'yeah', 'yeah', 'yeah', 'bevo', 'daiquiri', 'sento', 'numa', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio', 'numero', 'cinque', 'ah', 'numeri', 'primi', 'ah', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'yeah', 'yeah', 'yeah', 'bevo', 'daiquiri', 'sento', 'numa', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio']</t>
+          <t>['sento', 'richiamo', 'lupo', 'sento', 'richiamo', 'lupo', 'occhi', 'aperti', 'gufo', 'gufo', 'guardato', 'dirupo', 'visto', 'luce', 'buio', 'pah', 'riconosciuti', 'figli', 'pah', 'cinque', 'vie', 'blocco', 'cinque', 'vie', 'blocco', 'rosso', 'muro', 'pitturo', 'pah', 'numero', 'cinque', 'detto', 'cinque', 'zeri', 'fatture', 'brr', 'brr', 'pow', 'vita', 'morte', 'christopher', 'wallace', 'jr', 'grr', 'grr', 'grr', 'grr', 'universo', 'testimone', 'perch', 'credo', 'azioni', 'bevendo', 'pozione', 'dar', 'superforza', 'pah', 'gridano', 'nome', 'folla', 'folla', 'mentre', 'prego', 'lato', 'oscuro', 'forza', 'dia', 'compassione', 'grr', 'anello', 'dito', 'forma', 'costellazione', 'azione', 'azione', 'diventata', 'missione', 'porto', 'tartarughe', 'ninja', 'fuori', 'fogne', 'rappi', 'vanno', 'ora', 'religione', 'numero', 'cinque', 'numeri', 'primi', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'bevo', 'daiquiri', 'sento', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio', 'numero', 'cinque', 'numeri', 'primi', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'bevo', 'daiquiri', 'sento', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio', 'might', 'also', 'like', 'mangio', 'escargot', 'grr', 'grr', 'chiamo', 'cameriere', 'occhi', 'bordeaux', 'pow', 'bevo', 'clicquot', 'mentre', 'spesa', 'louis', 'vuitton', 'louboutin', 'jimmy', 'choo', 'boo', 'royal', 'oak', 'everose', 'rollie', 'bitch', 'rock', 'gang', 'team', 'volo', 'new', 'york', 'sigari', 'cubani', 'conti', 'bancari', 'offshore', 'puttane', 'bevon', 'rum', 'noci', 'cocco', 'villa', 'saint', 'john', 'serve', 'giubbotto', 'tipa', 'cucina', 'uova', 'coque', 'mhm', 'erba', 'coltivata', 'locali', 'posto', 'pah', 'culo', 'barca', 'dirigo', 'nord', 'grr', 'grr', 'artie', 'ive', 'cinque', 'anni', 'sar', 'comodo', 'sole', 'pow', 'numero', 'cinque', 'numeri', 'primi', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'bevo', 'daiquiri', 'sento', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio', 'numero', 'cinque', 'numeri', 'primi', 'ristorante', 'giapponese', 'fumo', 'mangio', 'sashimi', 'bevo', 'daiquiri', 'sento', 'pompilio', 'pow', 'due', 'ragazze', 'sopra', 'letto', 'chiamano', 'dio']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ah sento richiamo lupo sento richiamo lupo occhi aperti gufo gufo guardato dirupo visto luce buio pah riconosciuti figli nessuno pah cinque vie blocco cinque vie blocco rosso muro pitturo pah numero cinque mai detto essere mai cinque zeri fatture brr brr pow vita dopo morte christopher wallace jr grr grr grr grr universo testimone perch credo azioni bevendo pozione dar superforza pah gridano nome folla folla mentre prego lato oscuro forza dia compassione grr anello dito forma costellazione azione dopo azione diventata missione porto tartarughe ninja fuori fogne quando rappi vanno ora religione numero cinque ah numeri primi ah ristorante giapponese fumo mangio sashimi yeah yeah yeah bevo daiquiri sento numa pompilio pow due ragazze sopra letto chiamano dio numero cinque ah numeri primi ah ristorante giapponese fumo mangio sashimi yeah yeah yeah bevo daiquiri sento numa pompilio pow due ragazze sopra letto chiamano dio might also like mangio escargot grr grr chiamo cameriere occhi bordeaux pow bevo clicquot mentre spesa louis vuitton ah ah ah louboutin jimmy choo boo royal oak everose rollie bitch rock gang team volo new york sigari cubani conti bancari offshore puttane bevon rum noci cocco ah villa saint john ah serve giubbotto ah tipa cucina uova coque mhm erba coltivata locali posto pah culo barca dirigo nord grr grr artie ive cinque anni sar comodo sole pow numero cinque ah numeri primi ah ristorante giapponese fumo mangio sashimi yeah yeah yeah bevo daiquiri sento numa pompilio pow due ragazze sopra letto chiamano dio numero cinque ah numeri primi ah ristorante giapponese fumo mangio sashimi yeah yeah yeah bevo daiquiri sento numa pompilio pow due ragazze sopra letto chiamano dio</t>
+          <t>sento richiamo lupo sento richiamo lupo occhi aperti gufo gufo guardato dirupo visto luce buio pah riconosciuti figli pah cinque vie blocco cinque vie blocco rosso muro pitturo pah numero cinque detto cinque zeri fatture brr brr pow vita morte christopher wallace jr grr grr grr grr universo testimone perch credo azioni bevendo pozione dar superforza pah gridano nome folla folla mentre prego lato oscuro forza dia compassione grr anello dito forma costellazione azione azione diventata missione porto tartarughe ninja fuori fogne rappi vanno ora religione numero cinque numeri primi ristorante giapponese fumo mangio sashimi bevo daiquiri sento pompilio pow due ragazze sopra letto chiamano dio numero cinque numeri primi ristorante giapponese fumo mangio sashimi bevo daiquiri sento pompilio pow due ragazze sopra letto chiamano dio might also like mangio escargot grr grr chiamo cameriere occhi bordeaux pow bevo clicquot mentre spesa louis vuitton louboutin jimmy choo boo royal oak everose rollie bitch rock gang team volo new york sigari cubani conti bancari offshore puttane bevon rum noci cocco villa saint john serve giubbotto tipa cucina uova coque mhm erba coltivata locali posto pah culo barca dirigo nord grr grr artie ive cinque anni sar comodo sole pow numero cinque numeri primi ristorante giapponese fumo mangio sashimi bevo daiquiri sento pompilio pow due ragazze sopra letto chiamano dio numero cinque numeri primi ristorante giapponese fumo mangio sashimi bevo daiquiri sento pompilio pow due ragazze sopra letto chiamano dio</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{'neg': 0.013, 'neu': 0.889, 'pos': 0.098, 'compound': 0.959}</t>
+          <t>{'neg': 0.016, 'neu': 0.974, 'pos': 0.01, 'compound': -0.3182}</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>positive</t>
+        <v>0.01</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.3182</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.44424242424242427, subjectivity=0.626969696969697)</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.4442424242424243</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.626969696969697</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4978,25 +6136,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['baby', 'guardi', 'notte', 'buia', 'altri', 'dimmi', 'sotto', 'luna', 'piena', 'lingue', 'intrecciate', 'bottega', 'sai', 'tre', 'stelle', 'bottura', 'pelle', 'oca', 'schiena', 'sento', 'einaudi', 'quando', 'muovi', 'sopra', 'dipingi', 'mani', 'rinasco', 'venere', 'occhi', 'rivedo', 'bagliori', 'capri', 'cuore', 'viaggia', 'veloce', 'pi', 'ducati', 'sassicaia', 'sempre', 'ubriachi', 'sorrentino', 'quando', 'parli', 'caldo', 'stasera', 'importa', 'spogliami', 'cuore', 'fallo', 'altra', 'volta', 'vestita', 'bianco', 'f', 'sporca', 'cabriolet', 'mentre', 'sol', 'tramonta', 'tuono', 'arrivato', 'senza', 'preavviso', 'male', 'perdono', 'respiro', 'sott', 'acqua', 'improvviso', 'prima', 'volta', 'mhm', 'mhm', 'might', 'also', 'like', 'baby', 'tolgo', 'tettuccio', 'ah', 'bella', 'bellucci', 'preso', 'fiori', 'fiorucci', 'pi', 'g', 'gucci', 'attaccato', 'booty', 'fa', 'girare', 'ornella', 'stan', 'muti', 'rime', 'velluti', 'amore', 'prima', 'pista', 'via', 'via', 'baby', 'scambieresti', 'penna', 'ah', 'vedere', 'due', 'scriverebbe', 'bugia', 'cuore', 'avaria', 'mala', 'malavita', 'malvasia', 'sogni', 'avverati', 'yeah', 'yeah', 'yeah', 'yeah', 'conti', 'poi', 'azzerati', 'yeah', 'yeah', 'yeah', 'yeah', 'resteremmo', 'qui', 'cos', 'attaccati', 'cavallo', 'maserati', 'poi', 'passer', 'caldo', 'stasera', 'importa', 'spogliami', 'cuore', 'fallo', 'altra', 'volta', 'vestita', 'bianco', 'fedina', 'sporca', 'cabriolet', 'mentre', 'sole', 'tramonta', 'tuono', 'arrivato', 'senza', 'preavviso', 'male', 'perdono', 'respiro', 'sott', 'acqua', 'improvviso', 'prima', 'volta', 'mhm', 'tuono', 'arrivato', 'senza', 'preavviso', 'male', 'perdono', 'respiro', 'sott', 'acqua', 'improvviso', 'prima', 'volta', 'mhm']</t>
+          <t>['baby', 'guardi', 'notte', 'buia', 'altri', 'dimmi', 'luna', 'piena', 'lingue', 'intrecciate', 'bottega', 'sai', 'tre', 'stelle', 'bottura', 'pelle', 'oca', 'schiena', 'sento', 'einaudi', 'muovi', 'sopra', 'dipingi', 'mani', 'rinasco', 'venere', 'occhi', 'rivedo', 'bagliori', 'capri', 'cuore', 'viaggia', 'veloce', 'pi', 'ducati', 'sassicaia', 'sempre', 'ubriachi', 'sorrentino', 'parli', 'caldo', 'stasera', 'importa', 'spogliami', 'cuore', 'fallo', 'altra', 'volta', 'vestita', 'bianco', 'f', 'sporca', 'cabriolet', 'mentre', 'sol', 'tramonta', 'tuono', 'arrivato', 'senza', 'preavviso', 'male', 'perdono', 'respiro', 'sott', 'acqua', 'improvviso', 'prima', 'volta', 'mhm', 'mhm', 'might', 'also', 'like', 'baby', 'tolgo', 'tettuccio', 'bella', 'bellucci', 'preso', 'fiori', 'fiorucci', 'pi', 'g', 'gucci', 'attaccato', 'booty', 'fa', 'girare', 'ornella', 'stan', 'muti', 'rime', 'velluti', 'amore', 'prima', 'pista', 'via', 'via', 'baby', 'scambieresti', 'penna', 'vedere', 'due', 'scriverebbe', 'bugia', 'cuore', 'avaria', 'mala', 'malavita', 'malvasia', 'sogni', 'avverati', 'conti', 'poi', 'azzerati', 'resteremmo', 'qui', 'cos', 'attaccati', 'cavallo', 'maserati', 'poi', 'passer', 'caldo', 'stasera', 'importa', 'spogliami', 'cuore', 'fallo', 'altra', 'volta', 'vestita', 'bianco', 'fedina', 'sporca', 'cabriolet', 'mentre', 'sole', 'tramonta', 'tuono', 'arrivato', 'senza', 'preavviso', 'male', 'perdono', 'respiro', 'sott', 'acqua', 'improvviso', 'prima', 'volta', 'mhm', 'tuono', 'arrivato', 'senza', 'preavviso', 'male', 'perdono', 'respiro', 'sott', 'acqua', 'improvviso', 'prima', 'volta', 'mhm']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>baby guardi notte buia altri dimmi sotto luna piena lingue intrecciate bottega sai tre stelle bottura pelle oca schiena sento einaudi quando muovi sopra dipingi mani rinasco venere occhi rivedo bagliori capri cuore viaggia veloce pi ducati sassicaia sempre ubriachi sorrentino quando parli caldo stasera importa spogliami cuore fallo altra volta vestita bianco f sporca cabriolet mentre sol tramonta tuono arrivato senza preavviso male perdono respiro sott acqua improvviso prima volta mhm mhm might also like baby tolgo tettuccio ah bella bellucci preso fiori fiorucci pi g gucci attaccato booty fa girare ornella stan muti rime velluti amore prima pista via via baby scambieresti penna ah vedere due scriverebbe bugia cuore avaria mala malavita malvasia sogni avverati yeah yeah yeah yeah conti poi azzerati yeah yeah yeah yeah resteremmo qui cos attaccati cavallo maserati poi passer caldo stasera importa spogliami cuore fallo altra volta vestita bianco fedina sporca cabriolet mentre sole tramonta tuono arrivato senza preavviso male perdono respiro sott acqua improvviso prima volta mhm tuono arrivato senza preavviso male perdono respiro sott acqua improvviso prima volta mhm</t>
+          <t>baby guardi notte buia altri dimmi luna piena lingue intrecciate bottega sai tre stelle bottura pelle oca schiena sento einaudi muovi sopra dipingi mani rinasco venere occhi rivedo bagliori capri cuore viaggia veloce pi ducati sassicaia sempre ubriachi sorrentino parli caldo stasera importa spogliami cuore fallo altra volta vestita bianco f sporca cabriolet mentre sol tramonta tuono arrivato senza preavviso male perdono respiro sott acqua improvviso prima volta mhm mhm might also like baby tolgo tettuccio bella bellucci preso fiori fiorucci pi g gucci attaccato booty fa girare ornella stan muti rime velluti amore prima pista via via baby scambieresti penna vedere due scriverebbe bugia cuore avaria mala malavita malvasia sogni avverati conti poi azzerati resteremmo qui cos attaccati cavallo maserati poi passer caldo stasera importa spogliami cuore fallo altra volta vestita bianco fedina sporca cabriolet mentre sole tramonta tuono arrivato senza preavviso male perdono respiro sott acqua improvviso prima volta mhm tuono arrivato senza preavviso male perdono respiro sott acqua improvviso prima volta mhm</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.893, 'pos': 0.107, 'compound': 0.9442}</t>
+          <t>{'neg': 0.0, 'neu': 0.985, 'pos': 0.015, 'compound': 0.3612}</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.9442</v>
-      </c>
-      <c r="I45" t="inlineStr">
+        <v>0.015</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.3612</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.025, subjectivity=0.185)</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5081,27 +6265,53 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['ah', 'ah', 'cash', 'cash', 'co', 'piovesse', 'yeah', 'ah', 'ah', 'okay', 'okay', 'okay', 'natalie', 'tanisha', 'sopra', 'auto', 'stelle', 'strisce', 'manco', 'capisce', 'ama', 'fa', 'finta', 'borsello', 'tarocco', 'fratello', 'fa', 'pacco', 'goleador', 'prima', 'punta', 'attacco', 'ah', 'ah', 'erba', 'tabacco', 'vuole', 'tipa', 'puta', 'passata', 'fra', 'scappa', 'accusa', 'sfreccia', 'senza', 'paraurti', 'piuttosto', 'paracu', 'smetti', 'droga', 'mantieni', 'solo', 'amici', 'babbi', 'solo', 'decoro', 'vedo', 'mentono', 'amico', 'nessuno', 'amico', 'po', 'poi', 'messo', 'culo', 'ah', 'ah', 'gioco', 'ancora', 'coppa', 'scopo', 'forte', 'rocco', 'sai', 'parlo', 'troppo', 'resto', 'zitto', 'dimostro', 'capo', 'muovo', 'zeri', 'basta', 'dito', 'solo', 'provato', 'torni', 'piedi', 'trova', 'nuovo', 'lavoro', 'vatos', 'rapina', 'facciamoci', 'miliardi', 'poi', 'america', 'latina', 'letto', 'maldita', 'preferito', 'mattina', 'finito', 'see', 'capo', 'plaza', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'dammi', 'soldi', 'salgo', 'sopra', 'palco', 'sopra', 'palco', 'cash', 'cash', 'nuova', 'louis', 'vuitton', 'soldi', 'tasca', 'arrotolati', 'senza', 'elastico', 'senza', 'elastico', 'troppi', 'flash', 'flash', 'monica', 'nicole', 'ah', 'ah', 'mami', 'muovilo', 'viene', 'infarto', 'mami', 'muovilo', 'bad', 'ah', 'dico', 'know', 'curve', 'sembra', 'fatte', 'picasso', 'baby', 'cash', 'desk', 'baby', 'let', 'go', 'ah', 'ah', 'fa', 'gangster', 'bambino', 'yeah', 'quando', 'soli', 'vuole', 'starmi', 'vicino', 'oh', 'ama', 'cattiva', 'baddie', 'yeah', 'diva', 'yeah', 'tre', 'mattina', 'yeah', 'yeah', 'piace', 'guarda', 'quando', 'high', 'wow', 'divento', 'pi', 'wet', 'prima', 'fumiamo', 'dry', 'uh', 'soldi', 'arrotolati', 'intimo', 'yamamay', 'drin', 'luca', 'scelto', 'tipa', 'giusta', 'vibes', 'anna', 'bello', 'culo', 'grosso', 'talento', 'scema', 'fatto', 'altro', 'investimento', 'ahah', 'dispiace', 'siento', 'muah', 'deve', 'essere', 'dura', 'vedermi', 'zero', 'cento', 'ah', 'ah', 'ah', 'sente', 'soltanto', 'groupie', 'pi', 'importanza', 'followers', 'booty', 'ah', 'ah', 'baby', 'moody', 'ah', 'cambio', 'due', 'minuti', 'ah', 'gira', 'cazzo', 'caccio', 'amici', 'brutti', 'get', 'way', 'dammi', 'soldi', 'salgo', 'sopra', 'palco', 'sopra', 'palco', 'bitch', 'cash', 'cash', 'nuova', 'louis', 'vuitton', 'soldi', 'tasca', 'arrotolati', 'senza', 'elastico', 'senza', 'elastico', 'troppi', 'flash', 'flash', 'monica', 'nicole', 'ah', 'ah', 'mami', 'muovilo', 'viene', 'infarto', 'mami', 'muovilo', 'bad', 'ah', 'dico', 'know', 'curve', 'sembra', 'fatte', 'picasso', 'baby', 'cash', 'desk', 'baby', 'let', 'go', 'ah', 'ah', 'okay', 'ava', 'ah', 'ah']</t>
+          <t>['cash', 'cash', 'co', 'piovesse', 'okay', 'okay', 'okay', 'natalie', 'tanisha', 'sopra', 'auto', 'stelle', 'strisce', 'manco', 'capisce', 'ama', 'fa', 'finta', 'borsello', 'tarocco', 'fratello', 'fa', 'pacco', 'goleador', 'prima', 'punta', 'attacco', 'erba', 'tabacco', 'vuole', 'tipa', 'puta', 'passata', 'fra', 'scappa', 'accusa', 'sfreccia', 'senza', 'paraurti', 'paracu', 'smetti', 'droga', 'mantieni', 'solo', 'amici', 'babbi', 'solo', 'decoro', 'vedo', 'mentono', 'amico', 'amico', 'po', 'poi', 'messo', 'culo', 'gioco', 'coppa', 'scopo', 'forte', 'rocco', 'sai', 'parlo', 'resto', 'zitto', 'dimostro', 'capo', 'muovo', 'zeri', 'basta', 'dito', 'solo', 'provato', 'torni', 'piedi', 'trova', 'nuovo', 'lavoro', 'vatos', 'rapina', 'facciamoci', 'miliardi', 'poi', 'america', 'latina', 'letto', 'maldita', 'preferito', 'mattina', 'finito', 'see', 'capo', 'plaza', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'dammi', 'soldi', 'salgo', 'sopra', 'palco', 'sopra', 'palco', 'cash', 'cash', 'nuova', 'louis', 'vuitton', 'soldi', 'tasca', 'arrotolati', 'senza', 'elastico', 'senza', 'elastico', 'troppi', 'flash', 'flash', 'monica', 'nicole', 'mami', 'muovilo', 'viene', 'infarto', 'mami', 'muovilo', 'bad', 'dico', 'know', 'curve', 'sembra', 'fatte', 'picasso', 'baby', 'cash', 'desk', 'baby', 'let', 'go', 'fa', 'gangster', 'bambino', 'soli', 'vuole', 'starmi', 'vicino', 'ama', 'cattiva', 'baddie', 'diva', 'tre', 'mattina', 'piace', 'guarda', 'high', 'wow', 'divento', 'pi', 'wet', 'prima', 'fumiamo', 'dry', 'soldi', 'arrotolati', 'intimo', 'yamamay', 'drin', 'luca', 'scelto', 'tipa', 'giusta', 'vibes', 'anna', 'bello', 'culo', 'grosso', 'talento', 'scema', 'investimento', 'ahah', 'dispiace', 'siento', 'muah', 'deve', 'dura', 'vedermi', 'zero', 'cento', 'sente', 'soltanto', 'groupie', 'pi', 'importanza', 'followers', 'booty', 'baby', 'moody', 'cambio', 'due', 'minuti', 'gira', 'cazzo', 'caccio', 'amici', 'brutti', 'get', 'way', 'dammi', 'soldi', 'salgo', 'sopra', 'palco', 'sopra', 'palco', 'bitch', 'cash', 'cash', 'nuova', 'louis', 'vuitton', 'soldi', 'tasca', 'arrotolati', 'senza', 'elastico', 'senza', 'elastico', 'troppi', 'flash', 'flash', 'monica', 'nicole', 'mami', 'muovilo', 'viene', 'infarto', 'mami', 'muovilo', 'bad', 'dico', 'know', 'curve', 'sembra', 'fatte', 'picasso', 'baby', 'cash', 'desk', 'baby', 'let', 'go', 'okay', 'ava']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ah ah cash cash co piovesse yeah ah ah okay okay okay natalie tanisha sopra auto stelle strisce manco capisce ama fa finta borsello tarocco fratello fa pacco goleador prima punta attacco ah ah erba tabacco vuole tipa puta passata fra scappa accusa sfreccia senza paraurti piuttosto paracu smetti droga mantieni solo amici babbi solo decoro vedo mentono amico nessuno amico po poi messo culo ah ah gioco ancora coppa scopo forte rocco sai parlo troppo resto zitto dimostro capo muovo zeri basta dito solo provato torni piedi trova nuovo lavoro vatos rapina facciamoci miliardi poi america latina letto maldita preferito mattina finito see capo plaza liveget tickets low might also like dammi soldi salgo sopra palco sopra palco cash cash nuova louis vuitton soldi tasca arrotolati senza elastico senza elastico troppi flash flash monica nicole ah ah mami muovilo viene infarto mami muovilo bad ah dico know curve sembra fatte picasso baby cash desk baby let go ah ah fa gangster bambino yeah quando soli vuole starmi vicino oh ama cattiva baddie yeah diva yeah tre mattina yeah yeah piace guarda quando high wow divento pi wet prima fumiamo dry uh soldi arrotolati intimo yamamay drin luca scelto tipa giusta vibes anna bello culo grosso talento scema fatto altro investimento ahah dispiace siento muah deve essere dura vedermi zero cento ah ah ah sente soltanto groupie pi importanza followers booty ah ah baby moody ah cambio due minuti ah gira cazzo caccio amici brutti get way dammi soldi salgo sopra palco sopra palco bitch cash cash nuova louis vuitton soldi tasca arrotolati senza elastico senza elastico troppi flash flash monica nicole ah ah mami muovilo viene infarto mami muovilo bad ah dico know curve sembra fatte picasso baby cash desk baby let go ah ah okay ava ah ah</t>
+          <t>cash cash co piovesse okay okay okay natalie tanisha sopra auto stelle strisce manco capisce ama fa finta borsello tarocco fratello fa pacco goleador prima punta attacco erba tabacco vuole tipa puta passata fra scappa accusa sfreccia senza paraurti paracu smetti droga mantieni solo amici babbi solo decoro vedo mentono amico amico po poi messo culo gioco coppa scopo forte rocco sai parlo resto zitto dimostro capo muovo zeri basta dito solo provato torni piedi trova nuovo lavoro vatos rapina facciamoci miliardi poi america latina letto maldita preferito mattina finito see capo plaza liveget tickets low might also like dammi soldi salgo sopra palco sopra palco cash cash nuova louis vuitton soldi tasca arrotolati senza elastico senza elastico troppi flash flash monica nicole mami muovilo viene infarto mami muovilo bad dico know curve sembra fatte picasso baby cash desk baby let go fa gangster bambino soli vuole starmi vicino ama cattiva baddie diva tre mattina piace guarda high wow divento pi wet prima fumiamo dry soldi arrotolati intimo yamamay drin luca scelto tipa giusta vibes anna bello culo grosso talento scema investimento ahah dispiace siento muah deve dura vedermi zero cento sente soltanto groupie pi importanza followers booty baby moody cambio due minuti gira cazzo caccio amici brutti get way dammi soldi salgo sopra palco sopra palco bitch cash cash nuova louis vuitton soldi tasca arrotolati senza elastico senza elastico troppi flash flash monica nicole mami muovilo viene infarto mami muovilo bad dico know curve sembra fatte picasso baby cash desk baby let go okay ava</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{'neg': 0.058, 'neu': 0.85, 'pos': 0.092, 'compound': 0.7506}</t>
+          <t>{'neg': 0.068, 'neu': 0.87, 'pos': 0.062, 'compound': -0.5859}</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.7506</v>
-      </c>
-      <c r="I46" t="inlineStr">
+        <v>0.062</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.5859</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.04736111111111115, subjectivity=0.5456944444444445)</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0.04736111111111115</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.5456944444444445</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5163,27 +6373,53 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'conmigo', 'escap', 'ah', 'ah', 'ah', 'peligrosa', 'glock', 'miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'ah', 'conmigo', 'escap', 'peligrosa', 'glock', 'ah', 'ah', 'ah', 'nena', 'sigue', 'sensaci', 'n', 'bloque', 'quiero', 'micro', 'choque', 'tranquila', 'puerta', 'bajan', 'tope', 'pide', 'quiera', 'quiero', 'pon', 'rtelo', 'chiquitita', 'glock', 'conecta', 'peine', 'glock', 'conmigo', 'escap', 'nena', 'dale', 'mueve', 'toto', 'prr', 'jate', 'llevar', 'discoteca', 'qu', 'rica', 'mu', 'eca', 'jate', 'llevar', 'discoteca', 'puso', 'coqueta', 'might', 'also', 'like', 'miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'conmigo', 'escap', 'peligrosa', 'glock', 'miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'conmigo', 'escap', 'peligrosa', 'glock', 'ah', 'peligrosa', 'glopeta', 'mand', 'pa', 'haga', 'completa', 'mamita', 'culo', 'meta', 'est', 'esperando', 'meta', 'ah', 'ah', 'ah', 'ah', 'est', 'esperando', 'meta', 'ah', 'ah', 'ah', 'ah', 'esperando', 'meta', 'esperando', 'meta', 'esperando', 'meta']</t>
+          <t>['miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'escap', 'peligrosa', 'glock', 'miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'escap', 'peligrosa', 'glock', 'nena', 'sigue', 'sensaci', 'n', 'bloque', 'quiero', 'micro', 'choque', 'tranquila', 'puerta', 'bajan', 'tope', 'pide', 'quiera', 'quiero', 'pon', 'rtelo', 'chiquitita', 'glock', 'conecta', 'peine', 'glock', 'escap', 'nena', 'dale', 'mueve', 'toto', 'prr', 'jate', 'llevar', 'discoteca', 'qu', 'rica', 'mu', 'eca', 'jate', 'llevar', 'discoteca', 'puso', 'coqueta', 'might', 'also', 'like', 'miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'escap', 'peligrosa', 'glock', 'miren', 'nena', 'va', 'pasando', 'gusta', 'cortecito', 'est', 'dando', 'escap', 'peligrosa', 'glock', 'peligrosa', 'glopeta', 'mand', 'pa', 'haga', 'completa', 'mamita', 'culo', 'meta', 'est', 'esperando', 'meta', 'est', 'esperando', 'meta', 'esperando', 'meta', 'esperando', 'meta', 'esperando', 'meta']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>miren nena va pasando gusta cortecito est dando conmigo escap ah ah ah peligrosa glock miren nena va pasando gusta cortecito est dando ah conmigo escap peligrosa glock ah ah ah nena sigue sensaci n bloque quiero micro choque tranquila puerta bajan tope pide quiera quiero pon rtelo chiquitita glock conecta peine glock conmigo escap nena dale mueve toto prr jate llevar discoteca qu rica mu eca jate llevar discoteca puso coqueta might also like miren nena va pasando gusta cortecito est dando conmigo escap peligrosa glock miren nena va pasando gusta cortecito est dando conmigo escap peligrosa glock ah peligrosa glopeta mand pa haga completa mamita culo meta est esperando meta ah ah ah ah est esperando meta ah ah ah ah esperando meta esperando meta esperando meta</t>
+          <t>miren nena va pasando gusta cortecito est dando escap peligrosa glock miren nena va pasando gusta cortecito est dando escap peligrosa glock nena sigue sensaci n bloque quiero micro choque tranquila puerta bajan tope pide quiera quiero pon rtelo chiquitita glock conecta peine glock escap nena dale mueve toto prr jate llevar discoteca qu rica mu eca jate llevar discoteca puso coqueta might also like miren nena va pasando gusta cortecito est dando escap peligrosa glock miren nena va pasando gusta cortecito est dando escap peligrosa glock peligrosa glopeta mand pa haga completa mamita culo meta est esperando meta est esperando meta esperando meta esperando meta esperando meta</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>{'neg': 0.0, 'neu': 0.981, 'pos': 0.019, 'compound': 0.3612}</t>
+          <t>{'neg': 0.0, 'neu': 0.977, 'pos': 0.023, 'compound': 0.3612}</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.3612</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=0.0, subjectivity=0.0)</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5263,23 +6499,49 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['fuori', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'balaclava', 'clava', 'clava', 'ta', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'bastava', 'margherita', 'giocare', 'ama', 'ama', 'pu', 'crescere', 'fretta', 'vivi', 'crescendo', 'strada', 'mai', 'visto', 'tropici', 'solo', 'condomini', 'senza', 'camicia', 'katana', 'vecchi', 'mobili', 'sognano', 'zaffiri', 'collana', 'tre', 'anni', 'gang', 'terrazza', 'mulatta', 'bocca', 'mitraglia', 'ciuk', 'ciuk', 'fuori', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'vedo', 'bimbi', 'balaclava', 'senza', 'mamma', 'vedrai', 'ballare', 'puntando', 'cielo', 'lame', 'dentro', 'citt', 'dio', 'dio', 'oh', 'oh', 'see', 'mahmood', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'vida', 'loca', 'gioco', 'oca', 'madama', 'succo', 'pesca', 'fuori', 'messa', 'nuvole', 'marijuana', 'baby', 'nomini', 'town', 'volassero', 'elicotteri', 'town', 'volte', 'famiglia', 'sembra', 'lontana', 'pont', 'fila', 'indiana', 'tre', 'anni', 'gang', 'terrazza', 'qu', 'lli', 'mulatta', 'bocca', 'mitraglia', 'ciuk', 'ciuk', 'fuori', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'vedo', 'bimbi', 'balaclava', 'senza', 'mamma', 'vedrai', 'ballare', 'puntando', 'cielo', 'lame', 'dentro', 'citt', 'dio', 'dio', 'oh', 'oh', 'mai', 'mai', 'perderei', 'mai', 'mai', 'mai', 'qua', 'studiamo', 'violino', 'fottiamo', 'amico', 'giurami', 'mai', 'mai', 'tradirai', 'mai', 'mai', 'bentley', 'mai', 'mai', 'fuori', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'vedo', 'bimbi', 'balaclava', 'senza', 'mamma', 'vedrai', 'ballare', 'puntando', 'cielo', 'lame', 'dentro', 'citt', 'dio', 'dio', 'oh', 'oh', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'ra', 'ta', 'ta', 'ta', 'ah', 'dentro', 'citt', 'dio', 'dio', 'oh', 'oh']</t>
+          <t>['fuori', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'balaclava', 'clava', 'clava', 'ta', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'bastava', 'margherita', 'giocare', 'ama', 'ama', 'pu', 'crescere', 'fretta', 'vivi', 'crescendo', 'strada', 'visto', 'tropici', 'solo', 'condomini', 'senza', 'camicia', 'katana', 'vecchi', 'mobili', 'sognano', 'zaffiri', 'collana', 'tre', 'anni', 'gang', 'terrazza', 'mulatta', 'bocca', 'mitraglia', 'ciuk', 'ciuk', 'fuori', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'vedo', 'bimbi', 'balaclava', 'senza', 'mamma', 'vedrai', 'ballare', 'puntando', 'cielo', 'lame', 'dentro', 'citt', 'dio', 'dio', 'see', 'mahmood', 'liveget', 'tickets', 'low', 'might', 'also', 'like', 'vida', 'loca', 'gioco', 'oca', 'madama', 'succo', 'pesca', 'fuori', 'messa', 'nuvole', 'marijuana', 'baby', 'nomini', 'town', 'volassero', 'elicotteri', 'town', 'volte', 'famiglia', 'sembra', 'lontana', 'pont', 'fila', 'indiana', 'tre', 'anni', 'gang', 'terrazza', 'qu', 'lli', 'mulatta', 'bocca', 'mitraglia', 'ciuk', 'ciuk', 'fuori', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'vedo', 'bimbi', 'balaclava', 'senza', 'mamma', 'vedrai', 'ballare', 'puntando', 'cielo', 'lame', 'dentro', 'citt', 'dio', 'dio', 'perderei', 'qua', 'studiamo', 'violino', 'fottiamo', 'amico', 'giurami', 'tradirai', 'bentley', 'fuori', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'vedo', 'bimbi', 'balaclava', 'senza', 'mamma', 'vedrai', 'ballare', 'puntando', 'cielo', 'lame', 'dentro', 'citt', 'dio', 'dio', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'fa', 'solo', 'ra', 'ta', 'ta', 'ta', 'ta', 'ta', 'ta', 'ra', 'ta', 'ta', 'ta', 'dentro', 'citt', 'dio', 'dio']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>fuori fa fa fa fa solo ra ta ta ta balaclava clava clava ta ra ta ta ta ta ta bastava margherita giocare ama ama pu crescere fretta vivi crescendo strada mai visto tropici solo condomini senza camicia katana vecchi mobili sognano zaffiri collana tre anni gang terrazza mulatta bocca mitraglia ciuk ciuk fuori fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta vedo bimbi balaclava senza mamma vedrai ballare puntando cielo lame dentro citt dio dio oh oh see mahmood liveget tickets low might also like vida loca gioco oca madama succo pesca fuori messa nuvole marijuana baby nomini town volassero elicotteri town volte famiglia sembra lontana pont fila indiana tre anni gang terrazza qu lli mulatta bocca mitraglia ciuk ciuk fuori fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta vedo bimbi balaclava senza mamma vedrai ballare puntando cielo lame dentro citt dio dio oh oh mai mai perderei mai mai mai qua studiamo violino fottiamo amico giurami mai mai tradirai mai mai bentley mai mai fuori fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta vedo bimbi balaclava senza mamma vedrai ballare puntando cielo lame dentro citt dio dio oh oh fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta ra ta ta ta ah dentro citt dio dio oh oh</t>
+          <t>fuori fa fa fa fa solo ra ta ta ta balaclava clava clava ta ra ta ta ta ta ta bastava margherita giocare ama ama pu crescere fretta vivi crescendo strada visto tropici solo condomini senza camicia katana vecchi mobili sognano zaffiri collana tre anni gang terrazza mulatta bocca mitraglia ciuk ciuk fuori fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta vedo bimbi balaclava senza mamma vedrai ballare puntando cielo lame dentro citt dio dio see mahmood liveget tickets low might also like vida loca gioco oca madama succo pesca fuori messa nuvole marijuana baby nomini town volassero elicotteri town volte famiglia sembra lontana pont fila indiana tre anni gang terrazza qu lli mulatta bocca mitraglia ciuk ciuk fuori fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta vedo bimbi balaclava senza mamma vedrai ballare puntando cielo lame dentro citt dio dio perderei qua studiamo violino fottiamo amico giurami tradirai bentley fuori fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta vedo bimbi balaclava senza mamma vedrai ballare puntando cielo lame dentro citt dio dio fa fa fa fa fa fa fa solo ra ta ta ta ta ta ta ra ta ta ta dentro citt dio dio</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{'neg': 0.051, 'neu': 0.939, 'pos': 0.01, 'compound': -0.8442}</t>
+          <t>{'neg': 0.056, 'neu': 0.933, 'pos': 0.011, 'compound': -0.8442}</t>
         </is>
       </c>
       <c r="H48" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K48" t="n">
         <v>-0.8442</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.375, subjectivity=0.6375)</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.375</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -5381,25 +6643,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar', 'fari', 'spenti', 'supercar', 'spendo', 'torner', 'povero', 'vengono', 'vanno', 'boomerang', 'sai', 'voce', 'capitolo', 'boulevard', 'boulevard', 'tutte', 'ste', 'tipe', 'vanno', 'crazy', 'love', 'love', 'fuori', 'p', 'r', 'ghetto', 'superstar', 'superstar', 'morir', 'qu', 'lle', 'nike', 'air', 'guardami', 'occhi', 'logo', 'euro', 'dollari', 'po', 'sento', 'viaggiare', 'volo', 'economy', 'dentro', 'iphone', 'due', 'tre', 'scandali', 'odio', 'sti', 'wannabe', 'bocca', 'dice', 'parlami', 'realt', 'direbbe', 'mollami', 'priv', 'priv', 'ogni', 'fra', 'senza', 'alibi', 'nessuno', 'qui', 'parla', 'devi', 'pagarmi', 'adv', 'ehi', 'vuole', 'ghetto', 'music', 'bad', 'boujee', 'pi', 'bombe', 'putin', 'passa', 'chiudi', 'oggi', 'giorno', 'perfetto', 'lou', 'reed', 'esclusi', 'stupid', 'ora', 'exclusive', 'might', 'also', 'like', 'fari', 'spenti', 'supercar', 'spendo', 'torner', 'povero', 'vengono', 'vanno', 'boomerang', 'sai', 'voce', 'capitolo', 'boulevard', 'boulevard', 'tutte', 'ste', 'tipe', 'vanno', 'crazy', 'love', 'love', 'fuori', 'ghetto', 'superstar', 'superstar', 'morir', 'nike', 'air', 'regola', 'numero', 'goku', 'ce', 'n', 'solo', 'gang', 'gang', 'brillo', 'plenilunio', 'brancolo', 'buio', 'mhm', 'colazione', 'gattullo', 'fianco', 'figa', 'urlo', 'uh', 'sento', 'brutto', 'parlo', 'dio', 'mhm', 'tornato', 'manager', 'pallido', 'puntato', 'probabilmente', 'strabico', 'ahahah', 'fondoschiena', 'trema', 'sembra', 'parkinson', 'brr', 'quando', 'capodanno', 'sembra', 'onomastico', 'mangiato', 'pi', 'pac', 'ancora', 'sazio', 'fatto', 'milioni', 'giocare', 'calcio', 'nemico', 'sembra', 'stanco', 'supera', 'centrocampo', 'terrorista', 'perch', 'spaventando', 'frega', 'juorno', 'buono', 'buono', 'ogni', 'giorno', 'buona', 'buona', 'rubarti', 'lavoro', 'lascia', 'stare', 'duomo', 'dici', 'manco', 'grazie', 'ridammi', 'madonnina', 'poverina', 'parlasse', 'fari', 'spenti', 'supercar', 'spendo', 'torner', 'povero', 'vengono', 'vanno', 'boomerang', 'sai', 'voce', 'capitolo', 'boulevard', 'boulevard', 'tutte', 'ste', 'tipe', 'vanno', 'crazy', 'love', 'love', 'fuori', 'ghetto', 'superstar', 'superstar', 'morir', 'nike', 'air', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar']</t>
+          <t>['ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar', 'fari', 'spenti', 'supercar', 'spendo', 'torner', 'povero', 'vengono', 'vanno', 'boomerang', 'sai', 'voce', 'capitolo', 'boulevard', 'boulevard', 'tutte', 'ste', 'tipe', 'vanno', 'crazy', 'love', 'love', 'fuori', 'p', 'r', 'ghetto', 'superstar', 'superstar', 'morir', 'qu', 'lle', 'nike', 'air', 'guardami', 'occhi', 'logo', 'euro', 'dollari', 'po', 'sento', 'viaggiare', 'volo', 'economy', 'dentro', 'iphone', 'due', 'tre', 'scandali', 'odio', 'sti', 'wannabe', 'bocca', 'dice', 'parlami', 'realt', 'direbbe', 'mollami', 'priv', 'priv', 'fra', 'senza', 'alibi', 'qui', 'parla', 'devi', 'pagarmi', 'adv', 'ehi', 'vuole', 'ghetto', 'music', 'bad', 'boujee', 'pi', 'bombe', 'putin', 'passa', 'chiudi', 'oggi', 'giorno', 'perfetto', 'lou', 'reed', 'esclusi', 'stupid', 'ora', 'exclusive', 'might', 'also', 'like', 'fari', 'spenti', 'supercar', 'spendo', 'torner', 'povero', 'vengono', 'vanno', 'boomerang', 'sai', 'voce', 'capitolo', 'boulevard', 'boulevard', 'tutte', 'ste', 'tipe', 'vanno', 'crazy', 'love', 'love', 'fuori', 'ghetto', 'superstar', 'superstar', 'morir', 'nike', 'air', 'regola', 'numero', 'goku', 'ce', 'n', 'solo', 'gang', 'gang', 'brillo', 'plenilunio', 'brancolo', 'buio', 'mhm', 'colazione', 'gattullo', 'fianco', 'figa', 'urlo', 'sento', 'brutto', 'parlo', 'dio', 'mhm', 'tornato', 'manager', 'pallido', 'puntato', 'probabilmente', 'strabico', 'ahahah', 'fondoschiena', 'trema', 'sembra', 'parkinson', 'brr', 'capodanno', 'sembra', 'onomastico', 'mangiato', 'pi', 'pac', 'sazio', 'milioni', 'giocare', 'calcio', 'nemico', 'sembra', 'stanco', 'supera', 'centrocampo', 'terrorista', 'perch', 'spaventando', 'frega', 'juorno', 'buono', 'buono', 'giorno', 'buona', 'buona', 'rubarti', 'lavoro', 'lascia', 'stare', 'duomo', 'dici', 'manco', 'grazie', 'ridammi', 'madonnina', 'poverina', 'parlasse', 'fari', 'spenti', 'supercar', 'spendo', 'torner', 'povero', 'vengono', 'vanno', 'boomerang', 'sai', 'voce', 'capitolo', 'boulevard', 'boulevard', 'tutte', 'ste', 'tipe', 'vanno', 'crazy', 'love', 'love', 'fuori', 'ghetto', 'superstar', 'superstar', 'morir', 'nike', 'air', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ghe', 'ghetto', 'chic', 'ora', 'superstar', 'ora', 'superstar', 'ora', 'superstar']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar fari spenti supercar spendo torner povero vengono vanno boomerang sai voce capitolo boulevard boulevard tutte ste tipe vanno crazy love love fuori p r ghetto superstar superstar morir qu lle nike air guardami occhi logo euro dollari po sento viaggiare volo economy dentro iphone due tre scandali odio sti wannabe bocca dice parlami realt direbbe mollami priv priv ogni fra senza alibi nessuno qui parla devi pagarmi adv ehi vuole ghetto music bad boujee pi bombe putin passa chiudi oggi giorno perfetto lou reed esclusi stupid ora exclusive might also like fari spenti supercar spendo torner povero vengono vanno boomerang sai voce capitolo boulevard boulevard tutte ste tipe vanno crazy love love fuori ghetto superstar superstar morir nike air regola numero goku ce n solo gang gang brillo plenilunio brancolo buio mhm colazione gattullo fianco figa urlo uh sento brutto parlo dio mhm tornato manager pallido puntato probabilmente strabico ahahah fondoschiena trema sembra parkinson brr quando capodanno sembra onomastico mangiato pi pac ancora sazio fatto milioni giocare calcio nemico sembra stanco supera centrocampo terrorista perch spaventando frega juorno buono buono ogni giorno buona buona rubarti lavoro lascia stare duomo dici manco grazie ridammi madonnina poverina parlasse fari spenti supercar spendo torner povero vengono vanno boomerang sai voce capitolo boulevard boulevard tutte ste tipe vanno crazy love love fuori ghetto superstar superstar morir nike air ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar</t>
+          <t>ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar fari spenti supercar spendo torner povero vengono vanno boomerang sai voce capitolo boulevard boulevard tutte ste tipe vanno crazy love love fuori p r ghetto superstar superstar morir qu lle nike air guardami occhi logo euro dollari po sento viaggiare volo economy dentro iphone due tre scandali odio sti wannabe bocca dice parlami realt direbbe mollami priv priv fra senza alibi qui parla devi pagarmi adv ehi vuole ghetto music bad boujee pi bombe putin passa chiudi oggi giorno perfetto lou reed esclusi stupid ora exclusive might also like fari spenti supercar spendo torner povero vengono vanno boomerang sai voce capitolo boulevard boulevard tutte ste tipe vanno crazy love love fuori ghetto superstar superstar morir nike air regola numero goku ce n solo gang gang brillo plenilunio brancolo buio mhm colazione gattullo fianco figa urlo sento brutto parlo dio mhm tornato manager pallido puntato probabilmente strabico ahahah fondoschiena trema sembra parkinson brr capodanno sembra onomastico mangiato pi pac sazio milioni giocare calcio nemico sembra stanco supera centrocampo terrorista perch spaventando frega juorno buono buono giorno buona buona rubarti lavoro lascia stare duomo dici manco grazie ridammi madonnina poverina parlasse fari spenti supercar spendo torner povero vengono vanno boomerang sai voce capitolo boulevard boulevard tutte ste tipe vanno crazy love love fuori ghetto superstar superstar morir nike air ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ghe ghetto chic ora superstar ora superstar ora superstar</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{'neg': 0.052, 'neu': 0.789, 'pos': 0.159, 'compound': 0.9858}</t>
+          <t>{'neg': 0.053, 'neu': 0.784, 'pos': 0.163, 'compound': 0.9858}</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.9858</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.03541666666666665, subjectivity=0.6951388888888889)</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.03541666666666665</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.6951388888888889</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5531,23 +6819,49 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['skinny', 'ancora', 'fatto', 'eh', 'fare', 'perdere', 'tempo', 'fra', 'sento', 'vita', 'cazzo', 'blocco', 'fra', 'strade', 'bisogno', 'torna', 'torna', 'skinny', 'porta', 'po', 'merda', 'strada', 'qua', 'vuoto', 'nessuno', 'fa', 'freddo', 'cazzo', 'skinny', 'ancora', 'fatto', 'esci', 'fuori', 'vecchio', 'lupo', 'nuovo', 'pelo', 'porta', 'po', 'merda', 'fra', 'let', 'go', 'furia', 'grosso', 'furia', 'fatso', 'yeah', 'strada', 'certezza', 'fra', 'prezzo', 'pezzo', 'ah', 'gara', 'correre', 'forse', 'perdo', 'ah', 'fare', 'rime', 'primo', 'secondo', 'terzo', 'yeah', 'industria', 'fa', 'soldi', 'senza', 'rap', 'giro', 'pieno', 'rapper', 'senza', 'soldi', 'cap', 'yeah', 'fra', 'cresciuti', 'fumo', 'fubu', 'ah', 'perci', 'credono', 'guru', 'urus', 'schifo', 'giovani', 'ricchi', 'stendono', 'tirano', 'tifo', 'maranza', 'rapinano', 'lotta', 'sociale', 'ah', 'ferro', 'coltello', 'delinquenti', 'fra', 'falce', 'martello', 'tempi', 'ah', 'okay', 'brotha', 'okay', 'famiglia', 'gente', 'strada', 'ah', 'tengono', 'braccio', 'figlia', 'imbracciano', 'kala', 'fare', 'mala', 'ah', 'nah', 'fare', 'mala', 'ah', 'nah', 'rendo', 'milano', 'inferno', 'beppe', 'sala', 'uh', 'ah', 'ferita', 'bocca', 'butterfly', 'dentro', 'astucci', 'uh', 'fra', 'tocca', 'nah', 'pieno', 'g', 'gucci', 'sempre', 'acab', 'fra', 'parlo', 'agenti', 'nah', 'nah', 'vita', 'fatto', 'denuncia', 'solo', 'quando', 'perso', 'documenti', 'ahahah', 'bimbi', 'smilzi', 'sbagliano', 'darmi', 'vecchio', 'huh', 'pi', 'forma', 'marmocchi', 'beat', 'davanti', 'specchio', 'uh', 'attorno', 'neck', 'pi', 'catene', 'mandela', 'uh', 'bitch', 'fila', 'pacco', 'brodie', 'milan', 'oh', 'might', 'also', 'like', 'spalle', 'coperte', 'gallipoli', 'foggia', 'soldi', 'neve', 'porta', 'pioggia', 'amico', 'latitante', 'sa', 'alloggia', 'p', 'gang', 'players', 'club', 'nuova', 'loggia', 'quando', 'arriva', 'pieno', 'paese', 'festeggia', 'tira', 'granate', 'cervello', 'scheggia', 'uh', 'danno', 'erba', 'coca', 'prima', 'passaggio', 'uh', 'arrivano', 'borghese', 'portano', 'passeggio', 'ah', 'competizione', 'almeno', 'qui', 'paraggi', 'ah', 'finiscono', 'ginocchio', 'mai', 'fatto', 'pareggio', 'prima', 'traccia', 'diciott', 'anni', 'dato', 'vantaggio', 'quando', 'prendo', 'troppa', 'finisce', 'vaneggio', 'quando', 'prendo', 'troppa', 'finisce', 'vaneggio', 'chiudo', 'cucina', 'reggia', 'iniziato', 'drogarmi', 'darvi', 'pi', 'vantaggio', 'uh', 'sempre', 'vinto', 'mai', 'lasciato', 'pareggio', 'ah', 'occhi', 'rosso', 'fuoco', 'pure', 'buio', 'pesto', 'sveglio', 'diretto', 'arrivo', 'ufficio', 'presto', 'attorno', 'piatto', 'silenzio', 'messa', 'diventare', 'morte', 'festa', 'ah', 'prima', 'solo', 'contanti', 'adesso', 'pago', 'pos', 'canz', 'canzoni', 'amore', 'due', 'albanesi', 'porsche', 'prima', 'fare', 'comunque', 'vero', 'goat', 'tony', 'boy', 'kid', 'yugi', 'presto', 'apriremo', 'slot', 'tono', 'tono', 'nero', 'nero', 'ah', 'pacchi', 'pacchi', 'euro', 'euro', 'pezzi', 'venti', 'cinquanta', 'cento', 'parlo', 'resto', 'zitto', 'giudicarmi', 'sar', 'dio', 'figlio', 'vende', 'strada', 'ce', 'messo', 'entro', 'rolex', 'tuta', 'mangio', 'nigiri', 'otoro', 'tuna', 'sdraia', 'nuda', 'culo', 'gliela', 'sdraio', 'tutta', 'pezzi', 'etti', 'etti', 'chili', 'soldi', 'droga', 'fimi', 'cazzo', 'ridi', 'ostriche', 'lobster', 'daytona', 'oysterflex', 'paul', 'newman', 'spendo', 'vita', 'testa', 'fuma', 'cash', 'palle', 'pure', 'tutte', 'due', 'cazzo', 'voglio', 'parti', 'cartier', 'corno', 'bue', 'ah', 'ah', 'flow', 'rompe', 'costola', 'colossal', 'dune', 'bravo', 'far', 'diplomatico', 'juelz', 'altrimenti', 'scarico', 'addosso', 'buell', 'grr', 'grr', 'grr', 'scoppier', 'fa', 'kenshiro', 'uh', 'ta', 'rapper', 'superhero', 'mica', 'male', 'collane', 'vai', 'giro', 'dieci', 'forum', 'fila', 'san', 'siro', 'va', 'pussy', 'tight', 'osaka', 'sfiletto', 'orata', 'glock', 'pacco', 'vera', 'nera', 'opaca', 'sgamo', 'falso', 'sensore', 'rivela', 'rapper', 'poi', 'caghi', 'addosso', 'pippi', 'manny', 'ribera', 'glory', 'quattro', 'firmo', 'nuovo', 'contratto', 'ah', 'ah', 'ancora', 'rozzano', 'tremila', 'metro', 'quadro', 'ahah', 'sai', 'funziona', 'compro', 'intesto', 'altro', 'ah', 'posso', 'intestarmi', 'cazzo', 'fra', 'paky', 'vende', 'soltanto', 'ah', 'stronzo', 'nuova', 'posse', 'track', 'track', 'paghi', 'crack', 'ah', 'ah', 'affoghiamo', 'sott', 'acqua', 'gomorra', 'track', 'ahah', 'parli', 'gangsta', 'rap', 'bambino', 'accendi', 'shazam', 'shazam', 'insegno', 'fa', 'vieni', 'disneyland', 'vieni', 'porto', 'nato', 'abita', 'diavolo', 'diavolo', 'sicuro', 'venduto', 'qualcosa', 'passato', 'pi', 'risse', 'fucili', 'assalto', 'spariamo', 'colpi', 'aria', 'quando', 'esce', 'assolto', 'eh', 'occhiaie', 'panda', 'diavolo', 'chiama', 'bloccato', 'dentro', 'ambra', 'appartengo', 'ambra', 'angiolini', 'ambra', 'strada', 'angioletti', 'bamba', 'eh', 'inseguendo', 'ombra', 'qua', 'piove', 'lava', 'mafia', 'slime', 'flow', 'ferrari', 'purosangue', 'due', 'grammi', 'mutande', 'casa', 'madre', 'cameretta', 'due', 'bastarde', 'cotoletta', 'strada', 'letto', 'fatto', 'gesso', 'metto', 'cazzo', 'dentro', 'cesso', 'entro', 'bangla', 'danza', 'ingerito', 'sette', 'ovuli', 'pancia', 'bong', 'va', 'fumo', 'volto', 'azzurro', 'dieci', 'casse', 'gin', 'liscio', 'serve', 'allegro', 'chirurgo', 'nerissima', 'vesto', 'uomo', 'passeggio', 'piazza', 'duomo', 'cinquantamila', 'addosso', 'cazzo', 'sopra', 'polso', 'sento', 'ora', 'posso', 'puttana', 'sputa', 'rospo', 'pippi', 'mannite', 'normale', 'caghi', 'addosso', 'brutti', 'figli', 'puttana', 'carogne', 'cazzo', 'contenitore', 'night', 'skinny', 'merda', 'sotto', 'pressione', 'vecchio', 'lupo', 'nuova', 'skinny', 'back', 'strada', 'calde', 'cotte', 'auh']</t>
+          <t>['skinny', 'eh', 'perdere', 'tempo', 'fra', 'sento', 'vita', 'cazzo', 'blocco', 'fra', 'strade', 'bisogno', 'torna', 'torna', 'skinny', 'porta', 'po', 'merda', 'strada', 'qua', 'vuoto', 'fa', 'freddo', 'cazzo', 'skinny', 'esci', 'fuori', 'vecchio', 'lupo', 'nuovo', 'porta', 'po', 'merda', 'fra', 'let', 'go', 'furia', 'grosso', 'furia', 'fatso', 'strada', 'certezza', 'fra', 'prezzo', 'pezzo', 'gara', 'correre', 'forse', 'perdo', 'rime', 'primo', 'secondo', 'terzo', 'industria', 'fa', 'soldi', 'senza', 'rap', 'giro', 'pieno', 'rapper', 'senza', 'soldi', 'cap', 'fra', 'cresciuti', 'fumo', 'fubu', 'perci', 'credono', 'guru', 'urus', 'schifo', 'giovani', 'ricchi', 'stendono', 'tirano', 'tifo', 'maranza', 'rapinano', 'lotta', 'sociale', 'ferro', 'coltello', 'delinquenti', 'fra', 'falce', 'martello', 'tempi', 'okay', 'brotha', 'okay', 'famiglia', 'gente', 'strada', 'tengono', 'braccio', 'figlia', 'imbracciano', 'kala', 'mala', 'mala', 'rendo', 'milano', 'inferno', 'beppe', 'sala', 'ferita', 'bocca', 'butterfly', 'dentro', 'astucci', 'fra', 'tocca', 'pieno', 'g', 'gucci', 'sempre', 'acab', 'fra', 'parlo', 'agenti', 'vita', 'denuncia', 'solo', 'perso', 'documenti', 'ahahah', 'bimbi', 'smilzi', 'sbagliano', 'darmi', 'vecchio', 'huh', 'pi', 'forma', 'marmocchi', 'beat', 'davanti', 'specchio', 'attorno', 'neck', 'pi', 'catene', 'mandela', 'bitch', 'fila', 'pacco', 'brodie', 'milan', 'might', 'also', 'like', 'spalle', 'coperte', 'gallipoli', 'foggia', 'soldi', 'neve', 'porta', 'pioggia', 'amico', 'latitante', 'sa', 'alloggia', 'p', 'gang', 'players', 'club', 'nuova', 'loggia', 'arriva', 'pieno', 'paese', 'festeggia', 'tira', 'granate', 'cervello', 'scheggia', 'danno', 'erba', 'coca', 'prima', 'passaggio', 'arrivano', 'borghese', 'portano', 'passeggio', 'competizione', 'almeno', 'qui', 'paraggi', 'finiscono', 'ginocchio', 'pareggio', 'prima', 'traccia', 'diciott', 'anni', 'dato', 'vantaggio', 'prendo', 'troppa', 'finisce', 'vaneggio', 'prendo', 'troppa', 'finisce', 'vaneggio', 'chiudo', 'cucina', 'reggia', 'iniziato', 'drogarmi', 'darvi', 'pi', 'vantaggio', 'sempre', 'vinto', 'lasciato', 'pareggio', 'occhi', 'rosso', 'fuoco', 'pure', 'buio', 'pesto', 'sveglio', 'diretto', 'arrivo', 'ufficio', 'presto', 'attorno', 'piatto', 'silenzio', 'messa', 'diventare', 'morte', 'festa', 'prima', 'solo', 'contanti', 'adesso', 'pago', 'pos', 'canz', 'canzoni', 'amore', 'due', 'albanesi', 'porsche', 'prima', 'comunque', 'vero', 'goat', 'tony', 'boy', 'kid', 'yugi', 'presto', 'apriremo', 'slot', 'tono', 'tono', 'nero', 'nero', 'pacchi', 'pacchi', 'euro', 'euro', 'pezzi', 'venti', 'cinquanta', 'cento', 'parlo', 'resto', 'zitto', 'giudicarmi', 'sar', 'dio', 'figlio', 'vende', 'strada', 'ce', 'messo', 'entro', 'rolex', 'tuta', 'mangio', 'nigiri', 'otoro', 'tuna', 'sdraia', 'nuda', 'culo', 'gliela', 'sdraio', 'tutta', 'pezzi', 'etti', 'etti', 'chili', 'soldi', 'droga', 'fimi', 'cazzo', 'ridi', 'ostriche', 'lobster', 'daytona', 'oysterflex', 'paul', 'newman', 'spendo', 'vita', 'testa', 'fuma', 'cash', 'palle', 'pure', 'tutte', 'due', 'cazzo', 'voglio', 'parti', 'cartier', 'corno', 'bue', 'flow', 'rompe', 'costola', 'colossal', 'dune', 'bravo', 'far', 'diplomatico', 'juelz', 'altrimenti', 'scarico', 'addosso', 'buell', 'grr', 'grr', 'grr', 'scoppier', 'fa', 'kenshiro', 'ta', 'rapper', 'superhero', 'mica', 'male', 'collane', 'vai', 'giro', 'dieci', 'forum', 'fila', 'san', 'siro', 'va', 'pussy', 'tight', 'osaka', 'sfiletto', 'orata', 'glock', 'pacco', 'vera', 'nera', 'opaca', 'sgamo', 'falso', 'sensore', 'rivela', 'rapper', 'poi', 'caghi', 'addosso', 'pippi', 'manny', 'ribera', 'glory', 'quattro', 'firmo', 'nuovo', 'contratto', 'rozzano', 'tremila', 'metro', 'quadro', 'ahah', 'sai', 'funziona', 'compro', 'intesto', 'posso', 'intestarmi', 'cazzo', 'fra', 'paky', 'vende', 'soltanto', 'stronzo', 'nuova', 'posse', 'track', 'track', 'paghi', 'crack', 'affoghiamo', 'sott', 'acqua', 'gomorra', 'track', 'ahah', 'parli', 'gangsta', 'rap', 'bambino', 'accendi', 'shazam', 'shazam', 'insegno', 'fa', 'vieni', 'disneyland', 'vieni', 'porto', 'nato', 'abita', 'diavolo', 'diavolo', 'sicuro', 'venduto', 'qualcosa', 'passato', 'pi', 'risse', 'fucili', 'assalto', 'spariamo', 'colpi', 'aria', 'esce', 'assolto', 'eh', 'occhiaie', 'panda', 'diavolo', 'chiama', 'bloccato', 'dentro', 'ambra', 'appartengo', 'ambra', 'angiolini', 'ambra', 'strada', 'angioletti', 'bamba', 'eh', 'inseguendo', 'ombra', 'qua', 'piove', 'lava', 'mafia', 'slime', 'flow', 'ferrari', 'purosangue', 'due', 'grammi', 'mutande', 'casa', 'madre', 'cameretta', 'due', 'bastarde', 'cotoletta', 'strada', 'letto', 'gesso', 'metto', 'cazzo', 'dentro', 'cesso', 'entro', 'bangla', 'danza', 'ingerito', 'sette', 'ovuli', 'pancia', 'bong', 'va', 'fumo', 'volto', 'azzurro', 'dieci', 'casse', 'gin', 'liscio', 'serve', 'allegro', 'chirurgo', 'nerissima', 'vesto', 'uomo', 'passeggio', 'piazza', 'duomo', 'cinquantamila', 'addosso', 'cazzo', 'sopra', 'polso', 'sento', 'ora', 'posso', 'puttana', 'sputa', 'rospo', 'pippi', 'mannite', 'normale', 'caghi', 'addosso', 'brutti', 'figli', 'puttana', 'carogne', 'cazzo', 'contenitore', 'night', 'skinny', 'merda', 'pressione', 'vecchio', 'lupo', 'nuova', 'skinny', 'back', 'strada', 'calde', 'cotte', 'auh']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>skinny ancora fatto eh fare perdere tempo fra sento vita cazzo blocco fra strade bisogno torna torna skinny porta po merda strada qua vuoto nessuno fa freddo cazzo skinny ancora fatto esci fuori vecchio lupo nuovo pelo porta po merda fra let go furia grosso furia fatso yeah strada certezza fra prezzo pezzo ah gara correre forse perdo ah fare rime primo secondo terzo yeah industria fa soldi senza rap giro pieno rapper senza soldi cap yeah fra cresciuti fumo fubu ah perci credono guru urus schifo giovani ricchi stendono tirano tifo maranza rapinano lotta sociale ah ferro coltello delinquenti fra falce martello tempi ah okay brotha okay famiglia gente strada ah tengono braccio figlia imbracciano kala fare mala ah nah fare mala ah nah rendo milano inferno beppe sala uh ah ferita bocca butterfly dentro astucci uh fra tocca nah pieno g gucci sempre acab fra parlo agenti nah nah vita fatto denuncia solo quando perso documenti ahahah bimbi smilzi sbagliano darmi vecchio huh pi forma marmocchi beat davanti specchio uh attorno neck pi catene mandela uh bitch fila pacco brodie milan oh might also like spalle coperte gallipoli foggia soldi neve porta pioggia amico latitante sa alloggia p gang players club nuova loggia quando arriva pieno paese festeggia tira granate cervello scheggia uh danno erba coca prima passaggio uh arrivano borghese portano passeggio ah competizione almeno qui paraggi ah finiscono ginocchio mai fatto pareggio prima traccia diciott anni dato vantaggio quando prendo troppa finisce vaneggio quando prendo troppa finisce vaneggio chiudo cucina reggia iniziato drogarmi darvi pi vantaggio uh sempre vinto mai lasciato pareggio ah occhi rosso fuoco pure buio pesto sveglio diretto arrivo ufficio presto attorno piatto silenzio messa diventare morte festa ah prima solo contanti adesso pago pos canz canzoni amore due albanesi porsche prima fare comunque vero goat tony boy kid yugi presto apriremo slot tono tono nero nero ah pacchi pacchi euro euro pezzi venti cinquanta cento parlo resto zitto giudicarmi sar dio figlio vende strada ce messo entro rolex tuta mangio nigiri otoro tuna sdraia nuda culo gliela sdraio tutta pezzi etti etti chili soldi droga fimi cazzo ridi ostriche lobster daytona oysterflex paul newman spendo vita testa fuma cash palle pure tutte due cazzo voglio parti cartier corno bue ah ah flow rompe costola colossal dune bravo far diplomatico juelz altrimenti scarico addosso buell grr grr grr scoppier fa kenshiro uh ta rapper superhero mica male collane vai giro dieci forum fila san siro va pussy tight osaka sfiletto orata glock pacco vera nera opaca sgamo falso sensore rivela rapper poi caghi addosso pippi manny ribera glory quattro firmo nuovo contratto ah ah ancora rozzano tremila metro quadro ahah sai funziona compro intesto altro ah posso intestarmi cazzo fra paky vende soltanto ah stronzo nuova posse track track paghi crack ah ah affoghiamo sott acqua gomorra track ahah parli gangsta rap bambino accendi shazam shazam insegno fa vieni disneyland vieni porto nato abita diavolo diavolo sicuro venduto qualcosa passato pi risse fucili assalto spariamo colpi aria quando esce assolto eh occhiaie panda diavolo chiama bloccato dentro ambra appartengo ambra angiolini ambra strada angioletti bamba eh inseguendo ombra qua piove lava mafia slime flow ferrari purosangue due grammi mutande casa madre cameretta due bastarde cotoletta strada letto fatto gesso metto cazzo dentro cesso entro bangla danza ingerito sette ovuli pancia bong va fumo volto azzurro dieci casse gin liscio serve allegro chirurgo nerissima vesto uomo passeggio piazza duomo cinquantamila addosso cazzo sopra polso sento ora posso puttana sputa rospo pippi mannite normale caghi addosso brutti figli puttana carogne cazzo contenitore night skinny merda sotto pressione vecchio lupo nuova skinny back strada calde cotte auh</t>
+          <t>skinny eh perdere tempo fra sento vita cazzo blocco fra strade bisogno torna torna skinny porta po merda strada qua vuoto fa freddo cazzo skinny esci fuori vecchio lupo nuovo porta po merda fra let go furia grosso furia fatso strada certezza fra prezzo pezzo gara correre forse perdo rime primo secondo terzo industria fa soldi senza rap giro pieno rapper senza soldi cap fra cresciuti fumo fubu perci credono guru urus schifo giovani ricchi stendono tirano tifo maranza rapinano lotta sociale ferro coltello delinquenti fra falce martello tempi okay brotha okay famiglia gente strada tengono braccio figlia imbracciano kala mala mala rendo milano inferno beppe sala ferita bocca butterfly dentro astucci fra tocca pieno g gucci sempre acab fra parlo agenti vita denuncia solo perso documenti ahahah bimbi smilzi sbagliano darmi vecchio huh pi forma marmocchi beat davanti specchio attorno neck pi catene mandela bitch fila pacco brodie milan might also like spalle coperte gallipoli foggia soldi neve porta pioggia amico latitante sa alloggia p gang players club nuova loggia arriva pieno paese festeggia tira granate cervello scheggia danno erba coca prima passaggio arrivano borghese portano passeggio competizione almeno qui paraggi finiscono ginocchio pareggio prima traccia diciott anni dato vantaggio prendo troppa finisce vaneggio prendo troppa finisce vaneggio chiudo cucina reggia iniziato drogarmi darvi pi vantaggio sempre vinto lasciato pareggio occhi rosso fuoco pure buio pesto sveglio diretto arrivo ufficio presto attorno piatto silenzio messa diventare morte festa prima solo contanti adesso pago pos canz canzoni amore due albanesi porsche prima comunque vero goat tony boy kid yugi presto apriremo slot tono tono nero nero pacchi pacchi euro euro pezzi venti cinquanta cento parlo resto zitto giudicarmi sar dio figlio vende strada ce messo entro rolex tuta mangio nigiri otoro tuna sdraia nuda culo gliela sdraio tutta pezzi etti etti chili soldi droga fimi cazzo ridi ostriche lobster daytona oysterflex paul newman spendo vita testa fuma cash palle pure tutte due cazzo voglio parti cartier corno bue flow rompe costola colossal dune bravo far diplomatico juelz altrimenti scarico addosso buell grr grr grr scoppier fa kenshiro ta rapper superhero mica male collane vai giro dieci forum fila san siro va pussy tight osaka sfiletto orata glock pacco vera nera opaca sgamo falso sensore rivela rapper poi caghi addosso pippi manny ribera glory quattro firmo nuovo contratto rozzano tremila metro quadro ahah sai funziona compro intesto posso intestarmi cazzo fra paky vende soltanto stronzo nuova posse track track paghi crack affoghiamo sott acqua gomorra track ahah parli gangsta rap bambino accendi shazam shazam insegno fa vieni disneyland vieni porto nato abita diavolo diavolo sicuro venduto qualcosa passato pi risse fucili assalto spariamo colpi aria esce assolto eh occhiaie panda diavolo chiama bloccato dentro ambra appartengo ambra angiolini ambra strada angioletti bamba eh inseguendo ombra qua piove lava mafia slime flow ferrari purosangue due grammi mutande casa madre cameretta due bastarde cotoletta strada letto gesso metto cazzo dentro cesso entro bangla danza ingerito sette ovuli pancia bong va fumo volto azzurro dieci casse gin liscio serve allegro chirurgo nerissima vesto uomo passeggio piazza duomo cinquantamila addosso cazzo sopra polso sento ora posso puttana sputa rospo pippi mannite normale caghi addosso brutti figli puttana carogne cazzo contenitore night skinny merda pressione vecchio lupo nuova skinny back strada calde cotte auh</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{'neg': 0.029, 'neu': 0.945, 'pos': 0.026, 'compound': -0.1531}</t>
+          <t>{'neg': 0.02, 'neu': 0.963, 'pos': 0.018, 'compound': -0.4939}</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-0.1531</v>
-      </c>
-      <c r="I50" t="inlineStr">
+        <v>0.018</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.4939</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Sentiment(polarity=-0.059375, subjectivity=0.5053571428571428)</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.059375</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.5053571428571428</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
